--- a/mutationsTable.xlsx
+++ b/mutationsTable.xlsx
@@ -9,22 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="B.1.214.2_Belgium" sheetId="1" r:id="rId1"/>
-    <sheet name="B.1.526_NY" sheetId="9" r:id="rId2"/>
-    <sheet name="B.1.526.1_NY" sheetId="2" r:id="rId3"/>
-    <sheet name="B.1.616_Brittany" sheetId="3" r:id="rId4"/>
-    <sheet name="A.23.1_Uganda" sheetId="4" r:id="rId5"/>
-    <sheet name="B.1.351_SA" sheetId="5" r:id="rId6"/>
-    <sheet name="B.1.427_CA" sheetId="6" r:id="rId7"/>
-    <sheet name="B.1.429_CA" sheetId="7" r:id="rId8"/>
-    <sheet name="B.1.525_Global" sheetId="8" r:id="rId9"/>
-    <sheet name="A.27_Mayotte" sheetId="10" r:id="rId10"/>
-    <sheet name="B.1.620_Global" sheetId="11" r:id="rId11"/>
-    <sheet name="AT.1_Russia" sheetId="12" r:id="rId12"/>
-    <sheet name="B.1.1.7_UK" sheetId="13" r:id="rId13"/>
+    <sheet name="B.1.1.7_UK" sheetId="13" r:id="rId1"/>
+    <sheet name="B.1.214.2_Belgium" sheetId="1" r:id="rId2"/>
+    <sheet name="B.1.526_NY" sheetId="9" r:id="rId3"/>
+    <sheet name="B.1.526.1_NY" sheetId="2" r:id="rId4"/>
+    <sheet name="B.1.616_Brittany" sheetId="3" r:id="rId5"/>
+    <sheet name="A.23.1_Uganda" sheetId="4" r:id="rId6"/>
+    <sheet name="B.1.351_SA" sheetId="5" r:id="rId7"/>
+    <sheet name="B.1.427_CA" sheetId="6" r:id="rId8"/>
+    <sheet name="B.1.429_CA" sheetId="7" r:id="rId9"/>
+    <sheet name="B.1.525_Global" sheetId="8" r:id="rId10"/>
+    <sheet name="A.27_Mayotte" sheetId="10" r:id="rId11"/>
+    <sheet name="B.1.620_Global" sheetId="11" r:id="rId12"/>
+    <sheet name="AT.1_Russia" sheetId="12" r:id="rId13"/>
     <sheet name="B.1.617.1_India" sheetId="14" r:id="rId14"/>
     <sheet name="B.1.617.2_India" sheetId="15" r:id="rId15"/>
     <sheet name="B.1.617.3_India" sheetId="16" r:id="rId16"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5309" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5309" uniqueCount="746">
   <si>
     <t>Position</t>
   </si>
@@ -2283,9 +2283,6 @@
   </si>
   <si>
     <t>c29545a</t>
-  </si>
-  <si>
-    <t>insertions</t>
   </si>
   <si>
     <t>'</t>
@@ -2634,17 +2631,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2678,36 +2674,36 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>22802</v>
+        <v>28273</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>742</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
+        <v>48</v>
+      </c>
+      <c r="E2">
+        <v>28273</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="I2">
-        <v>100</v>
+        <v>99.341563789999995</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>23709</v>
+        <v>913</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -2716,68 +2712,68 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>460</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>461</v>
       </c>
       <c r="I3">
-        <v>98.975109810000006</v>
+        <v>99.423868310000003</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>28846</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
+        <v>28280</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
         <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I4">
-        <v>98.243045390000006</v>
+        <v>99.423868310000003</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>28887</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
+        <v>28281</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -2786,160 +2782,160 @@
         <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I5">
-        <v>97.950219619999999</v>
+        <v>99.423868310000003</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>27576</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
+        <v>28282</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I6">
-        <v>93.118594439999995</v>
+        <v>99.423868310000003</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>22912</v>
+        <v>28977</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>462</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>463</v>
       </c>
       <c r="I7">
-        <v>88.579795020000006</v>
+        <v>99.835390950000004</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>28280</v>
+        <v>27972</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>464</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>327</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>465</v>
       </c>
       <c r="I8">
-        <v>84.626647140000003</v>
+        <v>99.259259259999993</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>28281</v>
+        <v>28048</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>466</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>467</v>
       </c>
       <c r="I9">
-        <v>84.626647140000003</v>
+        <v>98.765432099999998</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>28281</v>
+        <v>28111</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>468</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>469</v>
       </c>
       <c r="I10">
-        <v>84.626647140000003</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>4891</v>
+        <v>3267</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -2951,227 +2947,227 @@
         <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>470</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>471</v>
       </c>
       <c r="I11">
-        <v>83.455344069999995</v>
+        <v>99.753086420000002</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>15187</v>
+        <v>5388</v>
       </c>
       <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>472</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>473</v>
       </c>
       <c r="I12">
-        <v>81.112737920000001</v>
+        <v>99.917695469999998</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>25447</v>
+        <v>5986</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>742</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>474</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>475</v>
       </c>
       <c r="I13">
-        <v>78.623718890000006</v>
+        <v>98.765432099999998</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>25448</v>
+        <v>6954</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>742</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>476</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>477</v>
       </c>
       <c r="I14">
-        <v>78.623718890000006</v>
+        <v>98.930041149999994</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>25449</v>
+        <v>14676</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>742</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>478</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>479</v>
       </c>
       <c r="I15">
-        <v>78.623718890000006</v>
+        <v>99.917695469999998</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>25450</v>
+        <v>15279</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>742</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>480</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>481</v>
       </c>
       <c r="I16">
-        <v>78.623718890000006</v>
+        <v>99.835390950000004</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>25451</v>
+        <v>16176</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>742</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>482</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>483</v>
       </c>
       <c r="I17">
-        <v>78.623718890000006</v>
+        <v>99.341563789999995</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>25452</v>
+        <v>21765</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>742</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>384</v>
       </c>
       <c r="F18" t="s">
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>385</v>
       </c>
       <c r="I18">
-        <v>78.623718890000006</v>
+        <v>99.341563789999995</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>25453</v>
+        <v>21766</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -3180,520 +3176,520 @@
         <v>742</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>384</v>
       </c>
       <c r="F19" t="s">
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>385</v>
       </c>
       <c r="I19">
-        <v>78.623718890000006</v>
+        <v>99.341563789999995</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>25454</v>
+        <v>21767</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
         <v>742</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>384</v>
       </c>
       <c r="F20" t="s">
         <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>385</v>
       </c>
       <c r="I20">
-        <v>78.623718890000006</v>
+        <v>99.341563789999995</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>25455</v>
+        <v>21768</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
         <v>742</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>384</v>
       </c>
       <c r="F21" t="s">
         <v>45</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>385</v>
       </c>
       <c r="I21">
-        <v>78.623718890000006</v>
+        <v>99.341563789999995</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>25456</v>
+        <v>21769</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
         <v>742</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>384</v>
       </c>
       <c r="F22" t="s">
         <v>45</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>385</v>
       </c>
       <c r="I22">
-        <v>78.623718890000006</v>
+        <v>99.341563789999995</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>25457</v>
+        <v>21770</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>742</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>384</v>
       </c>
       <c r="F23" t="s">
         <v>45</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>385</v>
       </c>
       <c r="I23">
-        <v>78.623718890000006</v>
+        <v>99.341563789999995</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>25458</v>
+        <v>21993</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
         <v>742</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="F24" t="s">
         <v>45</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="I24">
-        <v>78.623718890000006</v>
+        <v>99.588477370000007</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>25459</v>
+        <v>21994</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
         <v>742</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="F25" t="s">
         <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="I25">
-        <v>78.623718890000006</v>
+        <v>99.588477370000007</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25460</v>
+        <v>21995</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
         <v>742</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="F26" t="s">
         <v>45</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="I26">
-        <v>78.623718890000006</v>
+        <v>99.588477370000007</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>25461</v>
+        <v>23063</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>742</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>229</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="I27">
-        <v>78.623718890000006</v>
+        <v>99.341563789999995</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>25462</v>
+        <v>23271</v>
       </c>
       <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
         <v>10</v>
       </c>
-      <c r="C28" t="s">
-        <v>742</v>
-      </c>
       <c r="D28" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>484</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>485</v>
       </c>
       <c r="I28">
-        <v>78.623718890000006</v>
+        <v>99.259259259999993</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>25463</v>
+        <v>23604</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>742</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>388</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>389</v>
       </c>
       <c r="I29">
-        <v>78.623718890000006</v>
+        <v>99.753086420000002</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>25464</v>
+        <v>23709</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>742</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I30">
-        <v>78.623718890000006</v>
+        <v>99.835390950000004</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>25465</v>
+        <v>24506</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>742</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>486</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>487</v>
       </c>
       <c r="I31">
-        <v>78.623718890000006</v>
+        <v>94.979423870000005</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>25466</v>
+        <v>24914</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>742</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>382</v>
       </c>
       <c r="F32" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>383</v>
       </c>
       <c r="I32">
-        <v>78.623718890000006</v>
+        <v>96.872427979999998</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>25467</v>
+        <v>11288</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="C33" t="s">
         <v>742</v>
       </c>
       <c r="D33" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s">
         <v>45</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="I33">
-        <v>78.623718890000006</v>
+        <v>99.670781890000001</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>25468</v>
+        <v>11289</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
         <v>742</v>
       </c>
       <c r="D34" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s">
         <v>45</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="I34">
-        <v>78.623718890000006</v>
+        <v>99.670781890000001</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>25469</v>
+        <v>11290</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
         <v>742</v>
       </c>
       <c r="D35" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F35" t="s">
         <v>45</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="I35">
-        <v>78.623718890000006</v>
+        <v>99.670781890000001</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>25470</v>
+        <v>11291</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
         <v>742</v>
       </c>
       <c r="D36" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F36" t="s">
         <v>45</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="I36">
-        <v>78.623718890000006</v>
+        <v>99.670781890000001</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>25471</v>
+        <v>11292</v>
       </c>
       <c r="B37" t="s">
         <v>30</v>
@@ -3702,56 +3698,56 @@
         <v>742</v>
       </c>
       <c r="D37" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F37" t="s">
         <v>45</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="I37">
-        <v>78.623718890000006</v>
+        <v>99.670781890000001</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>25472</v>
+        <v>11293</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
         <v>742</v>
       </c>
       <c r="D38" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F38" t="s">
         <v>45</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="I38">
-        <v>78.623718890000006</v>
+        <v>99.670781890000001</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>25473</v>
+        <v>11294</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
@@ -3760,27 +3756,27 @@
         <v>742</v>
       </c>
       <c r="D39" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F39" t="s">
         <v>45</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="I39">
-        <v>78.623718890000006</v>
+        <v>99.670781890000001</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>25474</v>
+        <v>11295</v>
       </c>
       <c r="B40" t="s">
         <v>16</v>
@@ -3789,27 +3785,27 @@
         <v>742</v>
       </c>
       <c r="D40" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F40" t="s">
         <v>45</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="I40">
-        <v>78.623718890000006</v>
+        <v>99.670781890000001</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>25475</v>
+        <v>11296</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
@@ -3818,147 +3814,1500 @@
         <v>742</v>
       </c>
       <c r="D41" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s">
         <v>45</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="I41">
-        <v>78.623718890000006</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>25476</v>
-      </c>
-      <c r="B42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" t="s">
-        <v>742</v>
-      </c>
-      <c r="D42" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" t="s">
-        <v>44</v>
-      </c>
-      <c r="F42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G42" t="s">
-        <v>46</v>
-      </c>
-      <c r="H42" t="s">
-        <v>47</v>
-      </c>
-      <c r="I42">
-        <v>78.623718890000006</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>28272</v>
-      </c>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" t="s">
-        <v>742</v>
-      </c>
-      <c r="D43" t="s">
-        <v>48</v>
-      </c>
-      <c r="E43" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G43" t="s">
-        <v>50</v>
-      </c>
-      <c r="H43" t="s">
-        <v>51</v>
-      </c>
-      <c r="I43">
-        <v>78.477305999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>28273</v>
-      </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" t="s">
-        <v>742</v>
-      </c>
-      <c r="D44" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44" t="s">
-        <v>52</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G44" t="s">
-        <v>50</v>
-      </c>
-      <c r="H44" t="s">
-        <v>51</v>
-      </c>
-      <c r="I44">
-        <v>78.477305999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>22204</v>
-      </c>
-      <c r="B45" t="s">
-        <v>742</v>
-      </c>
-      <c r="C45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" t="s">
-        <v>54</v>
-      </c>
-      <c r="F45" t="s">
-        <v>55</v>
-      </c>
-      <c r="G45" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" t="s">
-        <v>56</v>
-      </c>
-      <c r="I45">
-        <v>76.427525619999997</v>
+        <v>99.670781890000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1498</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J2" s="2">
+        <v>98.814563928873838</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1807</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>275</v>
+      </c>
+      <c r="H3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" t="s">
+        <v>278</v>
+      </c>
+      <c r="J3" s="2">
+        <v>95.512277730736656</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2659</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>275</v>
+      </c>
+      <c r="H4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" t="s">
+        <v>280</v>
+      </c>
+      <c r="J4" s="2">
+        <v>98.221845893310757</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6285</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>275</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>282</v>
+      </c>
+      <c r="J5" s="2">
+        <v>99.491955969517349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8593</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>275</v>
+      </c>
+      <c r="H6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" t="s">
+        <v>284</v>
+      </c>
+      <c r="J6" s="2">
+        <v>99.237933954276031</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>9565</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" t="s">
+        <v>286</v>
+      </c>
+      <c r="J7" s="2">
+        <v>94.242167654530064</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>11288</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>742</v>
+      </c>
+      <c r="D8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>275</v>
+      </c>
+      <c r="H8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="2">
+        <v>95.935647756138863</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>A8+1</f>
+        <v>11289</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>742</v>
+      </c>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>275</v>
+      </c>
+      <c r="H9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="2">
+        <v>95.935647756138863</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" ref="A10:A16" si="0">A9+1</f>
+        <v>11290</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>742</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s">
+        <v>275</v>
+      </c>
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="2">
+        <v>95.935647756138863</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>11291</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>742</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" t="s">
+        <v>275</v>
+      </c>
+      <c r="H11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="2">
+        <v>95.935647756138863</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11292</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>742</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" t="s">
+        <v>275</v>
+      </c>
+      <c r="H12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="2">
+        <v>95.935647756138863</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>11293</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>742</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" t="s">
+        <v>275</v>
+      </c>
+      <c r="H13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="2">
+        <v>95.935647756138863</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>11294</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>742</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" t="s">
+        <v>275</v>
+      </c>
+      <c r="H14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="2">
+        <v>95.935647756138863</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>11295</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>742</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" t="s">
+        <v>275</v>
+      </c>
+      <c r="H15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="2">
+        <v>95.935647756138863</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>11296</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>742</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" t="s">
+        <v>275</v>
+      </c>
+      <c r="H16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="2">
+        <v>95.935647756138863</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>14407</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="J17" s="7">
+        <v>99.407281964436919</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>14408</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="J18" s="7">
+        <v>99.407281964436919</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18171</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" t="s">
+        <v>289</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>275</v>
+      </c>
+      <c r="H19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I19" t="s">
+        <v>290</v>
+      </c>
+      <c r="J19" s="2">
+        <v>98.56054191363252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20724</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" t="s">
+        <v>291</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>275</v>
+      </c>
+      <c r="H20" t="s">
+        <v>124</v>
+      </c>
+      <c r="I20" t="s">
+        <v>292</v>
+      </c>
+      <c r="J20" s="2">
+        <v>98.729889923793394</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21717</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>293</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>275</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>294</v>
+      </c>
+      <c r="J21" s="2">
+        <v>79.000846740050804</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21764</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>742</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>295</v>
+      </c>
+      <c r="F22" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" t="s">
+        <v>275</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>296</v>
+      </c>
+      <c r="J22" s="2">
+        <v>93.226079593564776</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21767</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>742</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>297</v>
+      </c>
+      <c r="F23" t="s">
+        <v>150</v>
+      </c>
+      <c r="G23" t="s">
+        <v>275</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>298</v>
+      </c>
+      <c r="J23" s="2">
+        <v>93.310753598645206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21768</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>742</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>297</v>
+      </c>
+      <c r="F24" t="s">
+        <v>150</v>
+      </c>
+      <c r="G24" t="s">
+        <v>275</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>298</v>
+      </c>
+      <c r="J24" s="2">
+        <v>93.310753598645206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>21769</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>742</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>297</v>
+      </c>
+      <c r="F25" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25" t="s">
+        <v>275</v>
+      </c>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>298</v>
+      </c>
+      <c r="J25" s="2">
+        <v>93.310753598645206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>21770</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>742</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>297</v>
+      </c>
+      <c r="F26" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" t="s">
+        <v>275</v>
+      </c>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>298</v>
+      </c>
+      <c r="J26" s="2">
+        <v>93.310753598645206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>21993</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>742</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" t="s">
+        <v>275</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>94</v>
+      </c>
+      <c r="J27" s="2">
+        <v>93.903471634208302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>A27+1</f>
+        <v>21994</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>742</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>94</v>
+      </c>
+      <c r="J28" s="2">
+        <v>93.903471634208302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>A28+1</f>
+        <v>21995</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>742</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" t="s">
+        <v>275</v>
+      </c>
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>94</v>
+      </c>
+      <c r="J29" s="2">
+        <v>93.903471634208302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>23012</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>227</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>275</v>
+      </c>
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>228</v>
+      </c>
+      <c r="J30" s="2">
+        <v>98.899237933954282</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>23593</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>299</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s">
+        <v>275</v>
+      </c>
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>300</v>
+      </c>
+      <c r="J31" s="2">
+        <v>99.407281964436919</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>24224</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>301</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>275</v>
+      </c>
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>302</v>
+      </c>
+      <c r="J32" s="2">
+        <v>99.830651989839112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>24748</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>303</v>
+      </c>
+      <c r="F33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" t="s">
+        <v>275</v>
+      </c>
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>304</v>
+      </c>
+      <c r="J33" s="2">
+        <v>99.661303979678237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>26305</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" t="s">
+        <v>305</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>275</v>
+      </c>
+      <c r="H34" t="s">
+        <v>102</v>
+      </c>
+      <c r="I34" t="s">
+        <v>306</v>
+      </c>
+      <c r="J34" s="2">
+        <v>83.149872988992385</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>26767</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" t="s">
+        <v>307</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s">
+        <v>275</v>
+      </c>
+      <c r="H35" t="s">
+        <v>106</v>
+      </c>
+      <c r="I35" t="s">
+        <v>308</v>
+      </c>
+      <c r="J35" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>27205</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>742</v>
+      </c>
+      <c r="D36" t="s">
+        <v>148</v>
+      </c>
+      <c r="E36" t="s">
+        <v>309</v>
+      </c>
+      <c r="F36" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H36" t="s">
+        <v>151</v>
+      </c>
+      <c r="I36" t="s">
+        <v>310</v>
+      </c>
+      <c r="J36" s="2">
+        <v>95.427603725656212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f>A36+1</f>
+        <v>27206</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>742</v>
+      </c>
+      <c r="D37" t="s">
+        <v>148</v>
+      </c>
+      <c r="E37" t="s">
+        <v>309</v>
+      </c>
+      <c r="F37" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" t="s">
+        <v>275</v>
+      </c>
+      <c r="H37" t="s">
+        <v>151</v>
+      </c>
+      <c r="I37" t="s">
+        <v>310</v>
+      </c>
+      <c r="J37" s="2">
+        <v>95.427603725656212</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f>A37+1</f>
+        <v>27207</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>742</v>
+      </c>
+      <c r="D38" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" t="s">
+        <v>309</v>
+      </c>
+      <c r="F38" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" t="s">
+        <v>275</v>
+      </c>
+      <c r="H38" t="s">
+        <v>151</v>
+      </c>
+      <c r="I38" t="s">
+        <v>310</v>
+      </c>
+      <c r="J38" s="2">
+        <v>95.427603725656212</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>28278</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>742</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>311</v>
+      </c>
+      <c r="F39" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" t="s">
+        <v>275</v>
+      </c>
+      <c r="H39" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" t="s">
+        <v>312</v>
+      </c>
+      <c r="J39" s="2">
+        <v>93.141405588484332</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f>A39+1</f>
+        <v>28279</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>742</v>
+      </c>
+      <c r="D40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" t="s">
+        <v>311</v>
+      </c>
+      <c r="F40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" t="s">
+        <v>275</v>
+      </c>
+      <c r="H40" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" t="s">
+        <v>312</v>
+      </c>
+      <c r="J40" s="2">
+        <v>93.141405588484332</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f>A40+1</f>
+        <v>28280</v>
+      </c>
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" t="s">
+        <v>742</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" t="s">
+        <v>311</v>
+      </c>
+      <c r="F41" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" t="s">
+        <v>275</v>
+      </c>
+      <c r="H41" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" t="s">
+        <v>312</v>
+      </c>
+      <c r="J41" s="2">
+        <v>93.141405588484332</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>28308</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" t="s">
+        <v>313</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s">
+        <v>275</v>
+      </c>
+      <c r="H42" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" t="s">
+        <v>314</v>
+      </c>
+      <c r="J42" s="2">
+        <v>98.645215918712964</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>28699</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" t="s">
+        <v>315</v>
+      </c>
+      <c r="F43" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>275</v>
+      </c>
+      <c r="H43" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" t="s">
+        <v>316</v>
+      </c>
+      <c r="J43" s="2">
+        <v>99.407281964436919</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>28887</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s">
+        <v>275</v>
+      </c>
+      <c r="H44" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" t="s">
+        <v>25</v>
+      </c>
+      <c r="J44" s="2">
+        <v>97.713801862828106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>29543</v>
+      </c>
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45">
+        <v>29543</v>
+      </c>
+      <c r="F45" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" t="s">
+        <v>275</v>
+      </c>
+      <c r="H45" t="s">
+        <v>50</v>
+      </c>
+      <c r="I45" t="s">
+        <v>317</v>
+      </c>
+      <c r="J45" s="2">
+        <v>92.294665537679933</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
@@ -5061,7 +6410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
@@ -6464,7 +7813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I56"/>
   <sheetViews>
@@ -8125,1214 +9474,6 @@
       </c>
       <c r="I56" s="2">
         <v>88.235294117647058</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>28273</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>742</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2">
-        <v>28273</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I2">
-        <v>99.341563789999995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>913</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" t="s">
-        <v>461</v>
-      </c>
-      <c r="I3">
-        <v>99.423868310000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>28280</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4">
-        <v>99.423868310000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>28281</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5">
-        <v>99.423868310000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>28282</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6">
-        <v>99.423868310000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>28977</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>462</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s">
-        <v>463</v>
-      </c>
-      <c r="I7">
-        <v>99.835390950000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>27972</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" t="s">
-        <v>464</v>
-      </c>
-      <c r="F8" t="s">
-        <v>327</v>
-      </c>
-      <c r="G8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" t="s">
-        <v>465</v>
-      </c>
-      <c r="I8">
-        <v>99.259259259999993</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>28048</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" t="s">
-        <v>466</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" t="s">
-        <v>467</v>
-      </c>
-      <c r="I9">
-        <v>98.765432099999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>28111</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" t="s">
-        <v>468</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" t="s">
-        <v>469</v>
-      </c>
-      <c r="I10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>3267</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>470</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="s">
-        <v>471</v>
-      </c>
-      <c r="I11">
-        <v>99.753086420000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>5388</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>472</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" t="s">
-        <v>473</v>
-      </c>
-      <c r="I12">
-        <v>99.917695469999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>5986</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" t="s">
-        <v>474</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" t="s">
-        <v>475</v>
-      </c>
-      <c r="I13">
-        <v>98.765432099999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>6954</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" t="s">
-        <v>476</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" t="s">
-        <v>477</v>
-      </c>
-      <c r="I14">
-        <v>98.930041149999994</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14676</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" t="s">
-        <v>478</v>
-      </c>
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" t="s">
-        <v>479</v>
-      </c>
-      <c r="I15">
-        <v>99.917695469999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15279</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" t="s">
-        <v>480</v>
-      </c>
-      <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" t="s">
-        <v>481</v>
-      </c>
-      <c r="I16">
-        <v>99.835390950000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16176</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" t="s">
-        <v>482</v>
-      </c>
-      <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" t="s">
-        <v>483</v>
-      </c>
-      <c r="I17">
-        <v>99.341563789999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>21765</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>742</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
-        <v>384</v>
-      </c>
-      <c r="F18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" t="s">
-        <v>385</v>
-      </c>
-      <c r="I18">
-        <v>99.341563789999995</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>21766</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>742</v>
-      </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" t="s">
-        <v>384</v>
-      </c>
-      <c r="F19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" t="s">
-        <v>385</v>
-      </c>
-      <c r="I19">
-        <v>99.341563789999995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>21767</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>742</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>384</v>
-      </c>
-      <c r="F20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I20">
-        <v>99.341563789999995</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>21768</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>742</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" t="s">
-        <v>384</v>
-      </c>
-      <c r="F21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" t="s">
-        <v>385</v>
-      </c>
-      <c r="I21">
-        <v>99.341563789999995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21769</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" t="s">
-        <v>742</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>384</v>
-      </c>
-      <c r="F22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" t="s">
-        <v>385</v>
-      </c>
-      <c r="I22">
-        <v>99.341563789999995</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>21770</v>
-      </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" t="s">
-        <v>742</v>
-      </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" t="s">
-        <v>384</v>
-      </c>
-      <c r="F23" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" t="s">
-        <v>385</v>
-      </c>
-      <c r="I23">
-        <v>99.341563789999995</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>21993</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>742</v>
-      </c>
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" t="s">
-        <v>94</v>
-      </c>
-      <c r="I24">
-        <v>99.588477370000007</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>21994</v>
-      </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" t="s">
-        <v>742</v>
-      </c>
-      <c r="D25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" t="s">
-        <v>94</v>
-      </c>
-      <c r="I25">
-        <v>99.588477370000007</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>21995</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" t="s">
-        <v>742</v>
-      </c>
-      <c r="D26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" t="s">
-        <v>94</v>
-      </c>
-      <c r="I26">
-        <v>99.588477370000007</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>23063</v>
-      </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" t="s">
-        <v>229</v>
-      </c>
-      <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" t="s">
-        <v>230</v>
-      </c>
-      <c r="I27">
-        <v>99.341563789999995</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>23271</v>
-      </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" t="s">
-        <v>484</v>
-      </c>
-      <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" t="s">
-        <v>485</v>
-      </c>
-      <c r="I28">
-        <v>99.259259259999993</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>23604</v>
-      </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" t="s">
-        <v>388</v>
-      </c>
-      <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" t="s">
-        <v>389</v>
-      </c>
-      <c r="I29">
-        <v>99.753086420000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>23709</v>
-      </c>
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30">
-        <v>99.835390950000004</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>24506</v>
-      </c>
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" t="s">
-        <v>486</v>
-      </c>
-      <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" t="s">
-        <v>487</v>
-      </c>
-      <c r="I31">
-        <v>94.979423870000005</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>24914</v>
-      </c>
-      <c r="B32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" t="s">
-        <v>382</v>
-      </c>
-      <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" t="s">
-        <v>383</v>
-      </c>
-      <c r="I32">
-        <v>96.872427979999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>11288</v>
-      </c>
-      <c r="B33" t="s">
-        <v>220</v>
-      </c>
-      <c r="C33" t="s">
-        <v>742</v>
-      </c>
-      <c r="D33" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" t="s">
-        <v>78</v>
-      </c>
-      <c r="F33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" t="s">
-        <v>69</v>
-      </c>
-      <c r="H33" t="s">
-        <v>80</v>
-      </c>
-      <c r="I33">
-        <v>99.670781890000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>11289</v>
-      </c>
-      <c r="B34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" t="s">
-        <v>742</v>
-      </c>
-      <c r="D34" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" t="s">
-        <v>78</v>
-      </c>
-      <c r="F34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34" t="s">
-        <v>69</v>
-      </c>
-      <c r="H34" t="s">
-        <v>80</v>
-      </c>
-      <c r="I34">
-        <v>99.670781890000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>11290</v>
-      </c>
-      <c r="B35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" t="s">
-        <v>742</v>
-      </c>
-      <c r="D35" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" t="s">
-        <v>78</v>
-      </c>
-      <c r="F35" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" t="s">
-        <v>69</v>
-      </c>
-      <c r="H35" t="s">
-        <v>80</v>
-      </c>
-      <c r="I35">
-        <v>99.670781890000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>11291</v>
-      </c>
-      <c r="B36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" t="s">
-        <v>742</v>
-      </c>
-      <c r="D36" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" t="s">
-        <v>78</v>
-      </c>
-      <c r="F36" t="s">
-        <v>45</v>
-      </c>
-      <c r="G36" t="s">
-        <v>69</v>
-      </c>
-      <c r="H36" t="s">
-        <v>80</v>
-      </c>
-      <c r="I36">
-        <v>99.670781890000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>11292</v>
-      </c>
-      <c r="B37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" t="s">
-        <v>742</v>
-      </c>
-      <c r="D37" t="s">
-        <v>77</v>
-      </c>
-      <c r="E37" t="s">
-        <v>78</v>
-      </c>
-      <c r="F37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G37" t="s">
-        <v>69</v>
-      </c>
-      <c r="H37" t="s">
-        <v>80</v>
-      </c>
-      <c r="I37">
-        <v>99.670781890000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>11293</v>
-      </c>
-      <c r="B38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" t="s">
-        <v>742</v>
-      </c>
-      <c r="D38" t="s">
-        <v>77</v>
-      </c>
-      <c r="E38" t="s">
-        <v>78</v>
-      </c>
-      <c r="F38" t="s">
-        <v>45</v>
-      </c>
-      <c r="G38" t="s">
-        <v>69</v>
-      </c>
-      <c r="H38" t="s">
-        <v>80</v>
-      </c>
-      <c r="I38">
-        <v>99.670781890000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>11294</v>
-      </c>
-      <c r="B39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" t="s">
-        <v>742</v>
-      </c>
-      <c r="D39" t="s">
-        <v>77</v>
-      </c>
-      <c r="E39" t="s">
-        <v>78</v>
-      </c>
-      <c r="F39" t="s">
-        <v>45</v>
-      </c>
-      <c r="G39" t="s">
-        <v>69</v>
-      </c>
-      <c r="H39" t="s">
-        <v>80</v>
-      </c>
-      <c r="I39">
-        <v>99.670781890000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>11295</v>
-      </c>
-      <c r="B40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" t="s">
-        <v>742</v>
-      </c>
-      <c r="D40" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" t="s">
-        <v>78</v>
-      </c>
-      <c r="F40" t="s">
-        <v>45</v>
-      </c>
-      <c r="G40" t="s">
-        <v>69</v>
-      </c>
-      <c r="H40" t="s">
-        <v>80</v>
-      </c>
-      <c r="I40">
-        <v>99.670781890000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>11296</v>
-      </c>
-      <c r="B41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" t="s">
-        <v>742</v>
-      </c>
-      <c r="D41" t="s">
-        <v>77</v>
-      </c>
-      <c r="E41" t="s">
-        <v>78</v>
-      </c>
-      <c r="F41" t="s">
-        <v>45</v>
-      </c>
-      <c r="G41" t="s">
-        <v>69</v>
-      </c>
-      <c r="H41" t="s">
-        <v>80</v>
-      </c>
-      <c r="I41">
-        <v>99.670781890000001</v>
       </c>
     </row>
   </sheetData>
@@ -11749,7 +11890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C25" sqref="C25:C45"/>
     </sheetView>
   </sheetViews>
@@ -14434,15 +14575,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -14476,65 +14619,65 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>28273</v>
+        <v>22802</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>742</v>
-      </c>
       <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2">
-        <v>28273</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>45</v>
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I2" s="2">
-        <v>97.470978441127698</v>
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>28975</v>
+        <v>23709</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="2">
-        <v>97.595356550580433</v>
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <v>98.975109810000006</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>28869</v>
+        <v>28846</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -14546,641 +14689,1213 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>318</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
         <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>319</v>
-      </c>
-      <c r="I4" s="2">
-        <v>96.641791044776113</v>
+        <v>23</v>
+      </c>
+      <c r="I4">
+        <v>98.243045390000006</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>16500</v>
+        <v>28887</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>320</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>179</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>321</v>
-      </c>
-      <c r="I5" s="2">
-        <v>98.092868988391373</v>
+        <v>25</v>
+      </c>
+      <c r="I5">
+        <v>97.950219619999999</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>20262</v>
+        <v>27576</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>322</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>323</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>324</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>325</v>
-      </c>
-      <c r="I6" s="2">
-        <v>98.175787728026535</v>
+        <v>29</v>
+      </c>
+      <c r="I6">
+        <v>93.118594439999995</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1059</v>
+        <v>22912</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="2">
-        <v>99.626865671641795</v>
+        <v>32</v>
+      </c>
+      <c r="I7">
+        <v>88.579795020000006</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>9867</v>
+        <v>28280</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="2">
-        <v>98.631840796019901</v>
+        <v>34</v>
+      </c>
+      <c r="I8">
+        <v>84.626647140000003</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>11288</v>
+        <v>28281</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>742</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
-      </c>
-      <c r="I9" s="2">
-        <v>97.097844112769479</v>
+        <v>34</v>
+      </c>
+      <c r="I9">
+        <v>84.626647140000003</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>A9+1</f>
-        <v>11289</v>
+        <v>28281</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>742</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10" s="2">
-        <v>97.097844112769479</v>
+        <v>34</v>
+      </c>
+      <c r="I10">
+        <v>84.626647140000003</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4891</v>
+      </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>742</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="2">
-        <v>97.097844112769479</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11">
+        <v>83.455344069999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>15187</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="s">
-        <v>742</v>
-      </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="H12" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" s="2">
-        <v>97.097844112769479</v>
+        <v>42</v>
+      </c>
+      <c r="I12">
+        <v>81.112737920000001</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="A13">
+        <v>25447</v>
+      </c>
+      <c r="B13" t="s">
         <v>30</v>
       </c>
       <c r="C13" t="s">
         <v>742</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
         <v>45</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" s="2">
-        <v>97.097844112769479</v>
+        <v>47</v>
+      </c>
+      <c r="I13">
+        <v>78.623718890000006</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>16</v>
+      <c r="A14">
+        <v>25448</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>742</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
         <v>45</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
-      </c>
-      <c r="I14" s="2">
-        <v>97.097844112769479</v>
+        <v>47</v>
+      </c>
+      <c r="I14">
+        <v>78.623718890000006</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>16</v>
+      <c r="A15">
+        <v>25449</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
       </c>
       <c r="C15" t="s">
         <v>742</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
         <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
-      </c>
-      <c r="I15" s="2">
-        <v>97.097844112769479</v>
+        <v>47</v>
+      </c>
+      <c r="I15">
+        <v>78.623718890000006</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>16</v>
+      <c r="A16">
+        <v>25450</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
       </c>
       <c r="C16" t="s">
         <v>742</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
         <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
-      </c>
-      <c r="I16" s="2">
-        <v>97.097844112769479</v>
+        <v>47</v>
+      </c>
+      <c r="I16">
+        <v>78.623718890000006</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+      <c r="A17">
+        <v>25451</v>
+      </c>
+      <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>742</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
         <v>45</v>
       </c>
       <c r="G17" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>80</v>
-      </c>
-      <c r="I17" s="2">
-        <v>97.097844112769479</v>
+        <v>47</v>
+      </c>
+      <c r="I17">
+        <v>78.623718890000006</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>25561</v>
+        <v>25452</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>742</v>
       </c>
       <c r="D18" t="s">
         <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>326</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>327</v>
+        <v>45</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>328</v>
-      </c>
-      <c r="I18" s="2">
-        <v>99.834162520729691</v>
+        <v>47</v>
+      </c>
+      <c r="I18">
+        <v>78.623718890000006</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>25563</v>
+        <v>25453</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>742</v>
       </c>
       <c r="D19" t="s">
         <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>62</v>
-      </c>
-      <c r="I19" s="2">
-        <v>99.626865671641795</v>
+        <v>47</v>
+      </c>
+      <c r="I19">
+        <v>78.623718890000006</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>25517</v>
+        <v>25454</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>742</v>
       </c>
       <c r="D20" t="s">
         <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>64</v>
-      </c>
-      <c r="I20" s="2">
-        <v>97.761194029850756</v>
+        <v>47</v>
+      </c>
+      <c r="I20">
+        <v>78.623718890000006</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>27925</v>
+        <v>25455</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>742</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21" s="2">
-        <v>98.507462686567166</v>
+        <v>47</v>
+      </c>
+      <c r="I21">
+        <v>78.623718890000006</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>22320</v>
+        <v>25456</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>742</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>329</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>330</v>
-      </c>
-      <c r="I22" s="2">
-        <v>98.922056384742945</v>
+        <v>47</v>
+      </c>
+      <c r="I22">
+        <v>78.623718890000006</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>21846</v>
+        <v>25457</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>742</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>331</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>332</v>
-      </c>
-      <c r="I23" s="2">
-        <v>98.79767827529021</v>
+        <v>47</v>
+      </c>
+      <c r="I23">
+        <v>78.623718890000006</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>21575</v>
+        <v>25458</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>742</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>333</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>334</v>
-      </c>
-      <c r="I24" s="2">
-        <v>96.641791044776113</v>
+        <v>47</v>
+      </c>
+      <c r="I24">
+        <v>78.623718890000006</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>23664</v>
+        <v>25459</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>742</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>231</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>232</v>
-      </c>
-      <c r="I25" s="2">
-        <v>95.48092868988391</v>
+        <v>47</v>
+      </c>
+      <c r="I25">
+        <v>78.623718890000006</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>23012</v>
+        <v>25460</v>
       </c>
       <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>742</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26">
+        <v>78.623718890000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25461</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>742</v>
+      </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27">
+        <v>78.623718890000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>25462</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>742</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28">
+        <v>78.623718890000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>25463</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>742</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29">
+        <v>78.623718890000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>25464</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>742</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30">
+        <v>78.623718890000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>25465</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>742</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31">
+        <v>78.623718890000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>25466</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>742</v>
+      </c>
+      <c r="D32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32">
+        <v>78.623718890000006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>25467</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>742</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33">
+        <v>78.623718890000006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>25468</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>742</v>
+      </c>
+      <c r="D34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34">
+        <v>78.623718890000006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>25469</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>742</v>
+      </c>
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35">
+        <v>78.623718890000006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>25470</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>742</v>
+      </c>
+      <c r="D36" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36">
+        <v>78.623718890000006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>25471</v>
+      </c>
+      <c r="B37" t="s">
         <v>30</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C37" t="s">
+        <v>742</v>
+      </c>
+      <c r="D37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37">
+        <v>78.623718890000006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>25472</v>
+      </c>
+      <c r="B38" t="s">
         <v>10</v>
       </c>
-      <c r="D26" t="s">
+      <c r="C38" t="s">
+        <v>742</v>
+      </c>
+      <c r="D38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38">
+        <v>78.623718890000006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>25473</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>742</v>
+      </c>
+      <c r="D39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39">
+        <v>78.623718890000006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>25474</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>742</v>
+      </c>
+      <c r="D40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40">
+        <v>78.623718890000006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>25475</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>742</v>
+      </c>
+      <c r="D41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41">
+        <v>78.623718890000006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>25476</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>742</v>
+      </c>
+      <c r="D42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>45</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42">
+        <v>78.623718890000006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>28272</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>742</v>
+      </c>
+      <c r="D43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" t="s">
+        <v>51</v>
+      </c>
+      <c r="I43">
+        <v>78.477305999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>28273</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>742</v>
+      </c>
+      <c r="D44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G44" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" t="s">
+        <v>51</v>
+      </c>
+      <c r="I44">
+        <v>78.477305999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>22204</v>
+      </c>
+      <c r="B45" t="s">
+        <v>742</v>
+      </c>
+      <c r="C45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" t="s">
         <v>11</v>
       </c>
-      <c r="E26" t="s">
-        <v>227</v>
-      </c>
-      <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="E45" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45" t="s">
+        <v>55</v>
+      </c>
+      <c r="G45" t="s">
         <v>14</v>
       </c>
-      <c r="H26" t="s">
-        <v>228</v>
-      </c>
-      <c r="I26" s="2">
-        <v>75.953565505804306</v>
+      <c r="H45" t="s">
+        <v>56</v>
+      </c>
+      <c r="I45">
+        <v>76.427525619999997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15639,7 +16354,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16571,7 +17286,7 @@
         <v>28268</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>745</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s">
         <v>50</v>
@@ -16643,6 +17358,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17983,7 +18699,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>744</v>
@@ -18010,8 +18726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18109,6 +18825,788 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>28273</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2">
+        <v>28273</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="2">
+        <v>97.470978441127698</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>28975</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="2">
+        <v>97.595356550580433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>28869</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>318</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>319</v>
+      </c>
+      <c r="I4" s="2">
+        <v>96.641791044776113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>16500</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" t="s">
+        <v>321</v>
+      </c>
+      <c r="I5" s="2">
+        <v>98.092868988391373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>20262</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>322</v>
+      </c>
+      <c r="E6" t="s">
+        <v>323</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>324</v>
+      </c>
+      <c r="H6" t="s">
+        <v>325</v>
+      </c>
+      <c r="I6" s="2">
+        <v>98.175787728026535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1059</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="2">
+        <v>99.626865671641795</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9867</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="2">
+        <v>98.631840796019901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>11288</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>742</v>
+      </c>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="2">
+        <v>97.097844112769479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>A9+1</f>
+        <v>11289</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>742</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="2">
+        <v>97.097844112769479</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>A10+1</f>
+        <v>11290</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>742</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="2">
+        <v>97.097844112769479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" ref="A12:A17" si="0">A11+1</f>
+        <v>11291</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>742</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="2">
+        <v>97.097844112769479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>11292</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>742</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="2">
+        <v>97.097844112769479</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>11293</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>742</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="2">
+        <v>97.097844112769479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>11294</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>742</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="2">
+        <v>97.097844112769479</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>11295</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>742</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="2">
+        <v>97.097844112769479</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>11296</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>742</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="2">
+        <v>97.097844112769479</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>25561</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
+        <v>326</v>
+      </c>
+      <c r="F18" t="s">
+        <v>327</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>328</v>
+      </c>
+      <c r="I18" s="2">
+        <v>99.834162520729691</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>25563</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="2">
+        <v>99.626865671641795</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>25517</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="2">
+        <v>97.761194029850756</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>27925</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="2">
+        <v>98.507462686567166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22320</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>329</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>330</v>
+      </c>
+      <c r="I22" s="2">
+        <v>98.922056384742945</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21846</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>331</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s">
+        <v>332</v>
+      </c>
+      <c r="I23" s="2">
+        <v>98.79767827529021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21575</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>333</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>334</v>
+      </c>
+      <c r="I24" s="2">
+        <v>96.641791044776113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23664</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>231</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>232</v>
+      </c>
+      <c r="I25" s="2">
+        <v>95.48092868988391</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23012</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>227</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s">
+        <v>228</v>
+      </c>
+      <c r="I26" s="2">
+        <v>75.953565505804306</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
@@ -19006,7 +20504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I65"/>
   <sheetViews>
@@ -20937,7 +22435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
@@ -21477,7 +22975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
@@ -22526,7 +24024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -22989,7 +24487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
@@ -23578,1474 +25076,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J45"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="56.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1498</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>274</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>275</v>
-      </c>
-      <c r="H2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" t="s">
-        <v>276</v>
-      </c>
-      <c r="J2" s="2">
-        <v>98.814563928873838</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1807</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" t="s">
-        <v>277</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>275</v>
-      </c>
-      <c r="H3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" t="s">
-        <v>278</v>
-      </c>
-      <c r="J3" s="2">
-        <v>95.512277730736656</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2659</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" t="s">
-        <v>279</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>275</v>
-      </c>
-      <c r="H4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" t="s">
-        <v>280</v>
-      </c>
-      <c r="J4" s="2">
-        <v>98.221845893310757</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>6285</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>281</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>275</v>
-      </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" t="s">
-        <v>282</v>
-      </c>
-      <c r="J5" s="2">
-        <v>99.491955969517349</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>8593</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" t="s">
-        <v>283</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>275</v>
-      </c>
-      <c r="H6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" t="s">
-        <v>284</v>
-      </c>
-      <c r="J6" s="2">
-        <v>99.237933954276031</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>9565</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" t="s">
-        <v>285</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H7" t="s">
-        <v>69</v>
-      </c>
-      <c r="I7" t="s">
-        <v>286</v>
-      </c>
-      <c r="J7" s="2">
-        <v>94.242167654530064</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>11288</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>742</v>
-      </c>
-      <c r="D8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" t="s">
-        <v>275</v>
-      </c>
-      <c r="H8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J8" s="2">
-        <v>95.935647756138863</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f>A8+1</f>
-        <v>11289</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>742</v>
-      </c>
-      <c r="D9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" t="s">
-        <v>275</v>
-      </c>
-      <c r="H9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" t="s">
-        <v>80</v>
-      </c>
-      <c r="J9" s="2">
-        <v>95.935647756138863</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" ref="A10:A16" si="0">A9+1</f>
-        <v>11290</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>742</v>
-      </c>
-      <c r="D10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" t="s">
-        <v>275</v>
-      </c>
-      <c r="H10" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" s="2">
-        <v>95.935647756138863</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>11291</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>742</v>
-      </c>
-      <c r="D11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" t="s">
-        <v>275</v>
-      </c>
-      <c r="H11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="2">
-        <v>95.935647756138863</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>11292</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>742</v>
-      </c>
-      <c r="D12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" t="s">
-        <v>275</v>
-      </c>
-      <c r="H12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" s="2">
-        <v>95.935647756138863</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>11293</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>742</v>
-      </c>
-      <c r="D13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" t="s">
-        <v>275</v>
-      </c>
-      <c r="H13" t="s">
-        <v>69</v>
-      </c>
-      <c r="I13" t="s">
-        <v>80</v>
-      </c>
-      <c r="J13" s="2">
-        <v>95.935647756138863</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>11294</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>742</v>
-      </c>
-      <c r="D14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" t="s">
-        <v>275</v>
-      </c>
-      <c r="H14" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" t="s">
-        <v>80</v>
-      </c>
-      <c r="J14" s="2">
-        <v>95.935647756138863</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>11295</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>742</v>
-      </c>
-      <c r="D15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" t="s">
-        <v>275</v>
-      </c>
-      <c r="H15" t="s">
-        <v>69</v>
-      </c>
-      <c r="I15" t="s">
-        <v>80</v>
-      </c>
-      <c r="J15" s="2">
-        <v>95.935647756138863</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>11296</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>742</v>
-      </c>
-      <c r="D16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" t="s">
-        <v>275</v>
-      </c>
-      <c r="H16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J16" s="2">
-        <v>95.935647756138863</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>14407</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="J17" s="7">
-        <v>99.407281964436919</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>14408</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="J18" s="7">
-        <v>99.407281964436919</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18171</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" t="s">
-        <v>118</v>
-      </c>
-      <c r="E19" t="s">
-        <v>289</v>
-      </c>
-      <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>275</v>
-      </c>
-      <c r="H19" t="s">
-        <v>120</v>
-      </c>
-      <c r="I19" t="s">
-        <v>290</v>
-      </c>
-      <c r="J19" s="2">
-        <v>98.56054191363252</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>20724</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" t="s">
-        <v>291</v>
-      </c>
-      <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" t="s">
-        <v>275</v>
-      </c>
-      <c r="H20" t="s">
-        <v>124</v>
-      </c>
-      <c r="I20" t="s">
-        <v>292</v>
-      </c>
-      <c r="J20" s="2">
-        <v>98.729889923793394</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>21717</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" t="s">
-        <v>293</v>
-      </c>
-      <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s">
-        <v>275</v>
-      </c>
-      <c r="H21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" t="s">
-        <v>294</v>
-      </c>
-      <c r="J21" s="2">
-        <v>79.000846740050804</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21764</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>742</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>295</v>
-      </c>
-      <c r="F22" t="s">
-        <v>150</v>
-      </c>
-      <c r="G22" t="s">
-        <v>275</v>
-      </c>
-      <c r="H22" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" t="s">
-        <v>296</v>
-      </c>
-      <c r="J22" s="2">
-        <v>93.226079593564776</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>21767</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>742</v>
-      </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" t="s">
-        <v>297</v>
-      </c>
-      <c r="F23" t="s">
-        <v>150</v>
-      </c>
-      <c r="G23" t="s">
-        <v>275</v>
-      </c>
-      <c r="H23" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" t="s">
-        <v>298</v>
-      </c>
-      <c r="J23" s="2">
-        <v>93.310753598645206</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>21768</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>742</v>
-      </c>
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" t="s">
-        <v>297</v>
-      </c>
-      <c r="F24" t="s">
-        <v>150</v>
-      </c>
-      <c r="G24" t="s">
-        <v>275</v>
-      </c>
-      <c r="H24" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" t="s">
-        <v>298</v>
-      </c>
-      <c r="J24" s="2">
-        <v>93.310753598645206</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>21769</v>
-      </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" t="s">
-        <v>742</v>
-      </c>
-      <c r="D25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" t="s">
-        <v>297</v>
-      </c>
-      <c r="F25" t="s">
-        <v>150</v>
-      </c>
-      <c r="G25" t="s">
-        <v>275</v>
-      </c>
-      <c r="H25" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" t="s">
-        <v>298</v>
-      </c>
-      <c r="J25" s="2">
-        <v>93.310753598645206</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>21770</v>
-      </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" t="s">
-        <v>742</v>
-      </c>
-      <c r="D26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" t="s">
-        <v>297</v>
-      </c>
-      <c r="F26" t="s">
-        <v>150</v>
-      </c>
-      <c r="G26" t="s">
-        <v>275</v>
-      </c>
-      <c r="H26" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" t="s">
-        <v>298</v>
-      </c>
-      <c r="J26" s="2">
-        <v>93.310753598645206</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>21993</v>
-      </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
-        <v>742</v>
-      </c>
-      <c r="D27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" t="s">
-        <v>93</v>
-      </c>
-      <c r="F27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" t="s">
-        <v>275</v>
-      </c>
-      <c r="H27" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" t="s">
-        <v>94</v>
-      </c>
-      <c r="J27" s="2">
-        <v>93.903471634208302</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f>A27+1</f>
-        <v>21994</v>
-      </c>
-      <c r="B28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" t="s">
-        <v>742</v>
-      </c>
-      <c r="D28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" t="s">
-        <v>275</v>
-      </c>
-      <c r="H28" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" t="s">
-        <v>94</v>
-      </c>
-      <c r="J28" s="2">
-        <v>93.903471634208302</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f>A28+1</f>
-        <v>21995</v>
-      </c>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" t="s">
-        <v>742</v>
-      </c>
-      <c r="D29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" t="s">
-        <v>93</v>
-      </c>
-      <c r="F29" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29" t="s">
-        <v>275</v>
-      </c>
-      <c r="H29" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" t="s">
-        <v>94</v>
-      </c>
-      <c r="J29" s="2">
-        <v>93.903471634208302</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>23012</v>
-      </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" t="s">
-        <v>227</v>
-      </c>
-      <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s">
-        <v>275</v>
-      </c>
-      <c r="H30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" t="s">
-        <v>228</v>
-      </c>
-      <c r="J30" s="2">
-        <v>98.899237933954282</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>23593</v>
-      </c>
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" t="s">
-        <v>299</v>
-      </c>
-      <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s">
-        <v>275</v>
-      </c>
-      <c r="H31" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" t="s">
-        <v>300</v>
-      </c>
-      <c r="J31" s="2">
-        <v>99.407281964436919</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>24224</v>
-      </c>
-      <c r="B32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" t="s">
-        <v>301</v>
-      </c>
-      <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s">
-        <v>275</v>
-      </c>
-      <c r="H32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" t="s">
-        <v>302</v>
-      </c>
-      <c r="J32" s="2">
-        <v>99.830651989839112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>24748</v>
-      </c>
-      <c r="B33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" t="s">
-        <v>303</v>
-      </c>
-      <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>275</v>
-      </c>
-      <c r="H33" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" t="s">
-        <v>304</v>
-      </c>
-      <c r="J33" s="2">
-        <v>99.661303979678237</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>26305</v>
-      </c>
-      <c r="B34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34" t="s">
-        <v>305</v>
-      </c>
-      <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s">
-        <v>275</v>
-      </c>
-      <c r="H34" t="s">
-        <v>102</v>
-      </c>
-      <c r="I34" t="s">
-        <v>306</v>
-      </c>
-      <c r="J34" s="2">
-        <v>83.149872988992385</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>26767</v>
-      </c>
-      <c r="B35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" t="s">
-        <v>104</v>
-      </c>
-      <c r="E35" t="s">
-        <v>307</v>
-      </c>
-      <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s">
-        <v>275</v>
-      </c>
-      <c r="H35" t="s">
-        <v>106</v>
-      </c>
-      <c r="I35" t="s">
-        <v>308</v>
-      </c>
-      <c r="J35" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>27205</v>
-      </c>
-      <c r="B36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" t="s">
-        <v>742</v>
-      </c>
-      <c r="D36" t="s">
-        <v>148</v>
-      </c>
-      <c r="E36" t="s">
-        <v>309</v>
-      </c>
-      <c r="F36" t="s">
-        <v>45</v>
-      </c>
-      <c r="G36" t="s">
-        <v>275</v>
-      </c>
-      <c r="H36" t="s">
-        <v>151</v>
-      </c>
-      <c r="I36" t="s">
-        <v>310</v>
-      </c>
-      <c r="J36" s="2">
-        <v>95.427603725656212</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <f>A36+1</f>
-        <v>27206</v>
-      </c>
-      <c r="B37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" t="s">
-        <v>742</v>
-      </c>
-      <c r="D37" t="s">
-        <v>148</v>
-      </c>
-      <c r="E37" t="s">
-        <v>309</v>
-      </c>
-      <c r="F37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G37" t="s">
-        <v>275</v>
-      </c>
-      <c r="H37" t="s">
-        <v>151</v>
-      </c>
-      <c r="I37" t="s">
-        <v>310</v>
-      </c>
-      <c r="J37" s="2">
-        <v>95.427603725656212</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <f>A37+1</f>
-        <v>27207</v>
-      </c>
-      <c r="B38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" t="s">
-        <v>742</v>
-      </c>
-      <c r="D38" t="s">
-        <v>148</v>
-      </c>
-      <c r="E38" t="s">
-        <v>309</v>
-      </c>
-      <c r="F38" t="s">
-        <v>45</v>
-      </c>
-      <c r="G38" t="s">
-        <v>275</v>
-      </c>
-      <c r="H38" t="s">
-        <v>151</v>
-      </c>
-      <c r="I38" t="s">
-        <v>310</v>
-      </c>
-      <c r="J38" s="2">
-        <v>95.427603725656212</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>28278</v>
-      </c>
-      <c r="B39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" t="s">
-        <v>742</v>
-      </c>
-      <c r="D39" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" t="s">
-        <v>311</v>
-      </c>
-      <c r="F39" t="s">
-        <v>45</v>
-      </c>
-      <c r="G39" t="s">
-        <v>275</v>
-      </c>
-      <c r="H39" t="s">
-        <v>22</v>
-      </c>
-      <c r="I39" t="s">
-        <v>312</v>
-      </c>
-      <c r="J39" s="2">
-        <v>93.141405588484332</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <f>A39+1</f>
-        <v>28279</v>
-      </c>
-      <c r="B40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" t="s">
-        <v>742</v>
-      </c>
-      <c r="D40" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" t="s">
-        <v>311</v>
-      </c>
-      <c r="F40" t="s">
-        <v>45</v>
-      </c>
-      <c r="G40" t="s">
-        <v>275</v>
-      </c>
-      <c r="H40" t="s">
-        <v>22</v>
-      </c>
-      <c r="I40" t="s">
-        <v>312</v>
-      </c>
-      <c r="J40" s="2">
-        <v>93.141405588484332</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <f>A40+1</f>
-        <v>28280</v>
-      </c>
-      <c r="B41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" t="s">
-        <v>742</v>
-      </c>
-      <c r="D41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" t="s">
-        <v>311</v>
-      </c>
-      <c r="F41" t="s">
-        <v>45</v>
-      </c>
-      <c r="G41" t="s">
-        <v>275</v>
-      </c>
-      <c r="H41" t="s">
-        <v>22</v>
-      </c>
-      <c r="I41" t="s">
-        <v>312</v>
-      </c>
-      <c r="J41" s="2">
-        <v>93.141405588484332</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>28308</v>
-      </c>
-      <c r="B42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" t="s">
-        <v>313</v>
-      </c>
-      <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s">
-        <v>275</v>
-      </c>
-      <c r="H42" t="s">
-        <v>22</v>
-      </c>
-      <c r="I42" t="s">
-        <v>314</v>
-      </c>
-      <c r="J42" s="2">
-        <v>98.645215918712964</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>28699</v>
-      </c>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" t="s">
-        <v>315</v>
-      </c>
-      <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>275</v>
-      </c>
-      <c r="H43" t="s">
-        <v>22</v>
-      </c>
-      <c r="I43" t="s">
-        <v>316</v>
-      </c>
-      <c r="J43" s="2">
-        <v>99.407281964436919</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>28887</v>
-      </c>
-      <c r="B44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s">
-        <v>275</v>
-      </c>
-      <c r="H44" t="s">
-        <v>22</v>
-      </c>
-      <c r="I44" t="s">
-        <v>25</v>
-      </c>
-      <c r="J44" s="2">
-        <v>97.713801862828106</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>29543</v>
-      </c>
-      <c r="B45" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45">
-        <v>29543</v>
-      </c>
-      <c r="F45" t="s">
-        <v>49</v>
-      </c>
-      <c r="G45" t="s">
-        <v>275</v>
-      </c>
-      <c r="H45" t="s">
-        <v>50</v>
-      </c>
-      <c r="I45" t="s">
-        <v>317</v>
-      </c>
-      <c r="J45" s="2">
-        <v>92.294665537679933</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/mutationsTable.xlsx
+++ b/mutationsTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" firstSheet="14" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" firstSheet="15" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="B.1.1.7" sheetId="13" r:id="rId1"/>
@@ -38,15 +38,16 @@
     <sheet name="VUI_P681H_Israel" sheetId="24" r:id="rId24"/>
     <sheet name="VUI_L452R|L1063F_Israel" sheetId="25" r:id="rId25"/>
     <sheet name="C.36.3" sheetId="26" r:id="rId26"/>
-    <sheet name="PDI85.1" sheetId="30" r:id="rId27"/>
-    <sheet name="PDI85.2" sheetId="31" r:id="rId28"/>
-    <sheet name="PDI86" sheetId="29" r:id="rId29"/>
-    <sheet name="PDI91" sheetId="28" r:id="rId30"/>
-    <sheet name="PDI93" sheetId="27" r:id="rId31"/>
-    <sheet name="B.1.623" sheetId="32" r:id="rId32"/>
-    <sheet name="B.1.621" sheetId="33" r:id="rId33"/>
-    <sheet name="P.4" sheetId="34" r:id="rId34"/>
-    <sheet name="A.29" sheetId="35" r:id="rId35"/>
+    <sheet name="C.36.3.1" sheetId="37" r:id="rId27"/>
+    <sheet name="PDI85.1" sheetId="30" r:id="rId28"/>
+    <sheet name="PDI85.2" sheetId="31" r:id="rId29"/>
+    <sheet name="PDI86" sheetId="29" r:id="rId30"/>
+    <sheet name="PDI91" sheetId="28" r:id="rId31"/>
+    <sheet name="PDI93" sheetId="27" r:id="rId32"/>
+    <sheet name="B.1.623" sheetId="32" r:id="rId33"/>
+    <sheet name="B.1.621" sheetId="33" r:id="rId34"/>
+    <sheet name="P.4" sheetId="34" r:id="rId35"/>
+    <sheet name="A.29" sheetId="35" r:id="rId36"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7399" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7645" uniqueCount="1023">
   <si>
     <t>Position</t>
   </si>
@@ -3082,6 +3083,51 @@
   </si>
   <si>
     <t>3'UTR:29739</t>
+  </si>
+  <si>
+    <t>N1329N</t>
+  </si>
+  <si>
+    <t>NSP3:N1329N</t>
+  </si>
+  <si>
+    <t>P529L</t>
+  </si>
+  <si>
+    <t>NSP13:P529L</t>
+  </si>
+  <si>
+    <t>T50T</t>
+  </si>
+  <si>
+    <t>NSP14:T50T</t>
+  </si>
+  <si>
+    <t>A845S</t>
+  </si>
+  <si>
+    <t>S:A845S</t>
+  </si>
+  <si>
+    <t>Y113H</t>
+  </si>
+  <si>
+    <t>ORF3a:Y113H</t>
+  </si>
+  <si>
+    <t>K256R</t>
+  </si>
+  <si>
+    <t>N:K256R</t>
+  </si>
+  <si>
+    <t>N25N</t>
+  </si>
+  <si>
+    <t>ORF10:N25N</t>
+  </si>
+  <si>
+    <t>deletion_extragenic</t>
   </si>
 </sst>
 </file>
@@ -10887,7 +10933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -20199,10 +20245,1045 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>569</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E2" t="s">
+        <v>741</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H2" t="s">
+        <v>742</v>
+      </c>
+      <c r="I2">
+        <v>98.445595854922274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2841</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>743</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>744</v>
+      </c>
+      <c r="I3">
+        <v>94.818652849740943</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5180</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>746</v>
+      </c>
+      <c r="I4">
+        <v>99.481865284974091</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6706</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I5">
+        <v>99.481865284974091</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>7124</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>568</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>569</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>9203</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
+        <v>717</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" t="s">
+        <v>718</v>
+      </c>
+      <c r="I7">
+        <v>99.481865284974091</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9929</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>747</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" t="s">
+        <v>748</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>11325</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" t="s">
+        <v>749</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" t="s">
+        <v>750</v>
+      </c>
+      <c r="I9">
+        <v>98.963730569948183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>11337</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
+        <v>751</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" t="s">
+        <v>752</v>
+      </c>
+      <c r="I10">
+        <v>99.481865284974091</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>16549</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" t="s">
+        <v>753</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" t="s">
+        <v>754</v>
+      </c>
+      <c r="I11">
+        <v>98.963730569948183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>17766</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" t="s">
+        <v>755</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" t="s">
+        <v>756</v>
+      </c>
+      <c r="I12">
+        <v>99.481865284974091</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>17822</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1011</v>
+      </c>
+      <c r="I13">
+        <v>99.481865284974091</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>18189</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>21597</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>757</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>758</v>
+      </c>
+      <c r="I15">
+        <v>99.481865284974091</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>21765</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>736</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>380</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>381</v>
+      </c>
+      <c r="I16">
+        <v>74.093264248704656</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>21766</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>736</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>380</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>381</v>
+      </c>
+      <c r="I17">
+        <v>74.093264248704656</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>21767</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>736</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>380</v>
+      </c>
+      <c r="F18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>381</v>
+      </c>
+      <c r="I18">
+        <v>74.093264248704656</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>21768</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>736</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>380</v>
+      </c>
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>381</v>
+      </c>
+      <c r="I19">
+        <v>74.093264248704656</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>21769</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>736</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>380</v>
+      </c>
+      <c r="F20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>381</v>
+      </c>
+      <c r="I20">
+        <v>74.093264248704656</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21770</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>736</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>380</v>
+      </c>
+      <c r="F21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>381</v>
+      </c>
+      <c r="I21">
+        <v>74.093264248704656</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22016</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>759</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>760</v>
+      </c>
+      <c r="I22">
+        <v>97.92746113989638</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22600</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>761</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s">
+        <v>762</v>
+      </c>
+      <c r="I23">
+        <v>99.481865284974091</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22917</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24">
+        <v>99.481865284974091</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22992</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>386</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>387</v>
+      </c>
+      <c r="I25">
+        <v>98.963730569948183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23593</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>295</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s">
+        <v>296</v>
+      </c>
+      <c r="I26">
+        <v>99.481865284974091</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>24095</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I27">
+        <v>84.974093264248708</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>24257</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>763</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s">
+        <v>764</v>
+      </c>
+      <c r="I28">
+        <v>92.746113989637308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>24811</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>804</v>
+      </c>
+      <c r="F29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>805</v>
+      </c>
+      <c r="I29">
+        <v>99.481865284974091</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>25729</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I30">
+        <v>98.963730569948183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>26767</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" t="s">
+        <v>303</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s">
+        <v>106</v>
+      </c>
+      <c r="H31" t="s">
+        <v>304</v>
+      </c>
+      <c r="I31">
+        <v>98.445595854922274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>27882</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>399</v>
+      </c>
+      <c r="E32" t="s">
+        <v>765</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>401</v>
+      </c>
+      <c r="H32" t="s">
+        <v>766</v>
+      </c>
+      <c r="I32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>28273</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33">
+        <v>28273</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G33" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" t="s">
+        <v>99</v>
+      </c>
+      <c r="I33">
+        <v>97.409326424870471</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>29040</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I34">
+        <v>98.963730569948183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>29632</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>146</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I35">
+        <v>99.481865284974091</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21201,7 +22282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
@@ -21899,833 +22980,6 @@
         <v>92.452830188679243</v>
       </c>
       <c r="J23" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>5175</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>818</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" t="s">
-        <v>819</v>
-      </c>
-      <c r="I2" s="1">
-        <v>93.333333333333329</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>8950</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" t="s">
-        <v>820</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" t="s">
-        <v>821</v>
-      </c>
-      <c r="I3" s="1">
-        <v>93.333333333333329</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>9891</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="1">
-        <v>93.333333333333329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>10264</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" t="s">
-        <v>822</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>142</v>
-      </c>
-      <c r="H5" t="s">
-        <v>823</v>
-      </c>
-      <c r="I5" s="1">
-        <v>93.333333333333329</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>11152</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" t="s">
-        <v>824</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" t="s">
-        <v>825</v>
-      </c>
-      <c r="I6" s="1">
-        <v>93.333333333333329</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>11450</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" t="s">
-        <v>826</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" t="s">
-        <v>827</v>
-      </c>
-      <c r="I7" s="1">
-        <v>93.333333333333329</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>13275</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>795</v>
-      </c>
-      <c r="E8" t="s">
-        <v>828</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>829</v>
-      </c>
-      <c r="H8" t="s">
-        <v>830</v>
-      </c>
-      <c r="I8" s="1">
-        <v>93.333333333333329</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>14103</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>831</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" t="s">
-        <v>832</v>
-      </c>
-      <c r="I9" s="1">
-        <v>93.333333333333329</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>14571</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" t="s">
-        <v>833</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" t="s">
-        <v>834</v>
-      </c>
-      <c r="I10" s="1">
-        <v>93.333333333333329</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>21568</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>835</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" t="s">
-        <v>836</v>
-      </c>
-      <c r="I11" s="1">
-        <v>93.333333333333329</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>21602</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>837</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s">
-        <v>838</v>
-      </c>
-      <c r="I12" s="1">
-        <v>93.333333333333329</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>21721</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>839</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" t="s">
-        <v>840</v>
-      </c>
-      <c r="I13" s="1">
-        <v>93.333333333333329</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>21846</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>327</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" t="s">
-        <v>328</v>
-      </c>
-      <c r="I14" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>21986</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>736</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s">
-        <v>841</v>
-      </c>
-      <c r="F15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" t="s">
-        <v>842</v>
-      </c>
-      <c r="I15" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>21987</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>736</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s">
-        <v>841</v>
-      </c>
-      <c r="F16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" t="s">
-        <v>842</v>
-      </c>
-      <c r="I16" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>21988</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>736</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>841</v>
-      </c>
-      <c r="F17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" t="s">
-        <v>842</v>
-      </c>
-      <c r="I17" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>21989</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>736</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
-        <v>841</v>
-      </c>
-      <c r="F18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" t="s">
-        <v>842</v>
-      </c>
-      <c r="I18" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>21990</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>736</v>
-      </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" t="s">
-        <v>841</v>
-      </c>
-      <c r="F19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" t="s">
-        <v>842</v>
-      </c>
-      <c r="I19" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>21991</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>736</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>841</v>
-      </c>
-      <c r="F20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" t="s">
-        <v>842</v>
-      </c>
-      <c r="I20" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>21993</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>740</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" t="s">
-        <v>843</v>
-      </c>
-      <c r="F21" t="s">
-        <v>150</v>
-      </c>
-      <c r="G21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" t="s">
-        <v>844</v>
-      </c>
-      <c r="I21" s="1">
-        <v>73.333333333333329</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>23012</v>
-      </c>
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>504</v>
-      </c>
-      <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" t="s">
-        <v>505</v>
-      </c>
-      <c r="I22" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>23064</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" t="s">
-        <v>845</v>
-      </c>
-      <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" t="s">
-        <v>846</v>
-      </c>
-      <c r="I23" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>24904</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" t="s">
-        <v>847</v>
-      </c>
-      <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" t="s">
-        <v>848</v>
-      </c>
-      <c r="I24" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>25906</v>
-      </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" t="s">
-        <v>816</v>
-      </c>
-      <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>817</v>
-      </c>
-      <c r="I25" s="1">
-        <v>73.333333333333329</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>28271</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26">
-        <v>28271</v>
-      </c>
-      <c r="F26" t="s">
-        <v>49</v>
-      </c>
-      <c r="G26" t="s">
-        <v>50</v>
-      </c>
-      <c r="H26" t="s">
-        <v>394</v>
-      </c>
-      <c r="I26" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>28531</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" t="s">
-        <v>849</v>
-      </c>
-      <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" t="s">
-        <v>850</v>
-      </c>
-      <c r="I27" s="1">
-        <v>93.333333333333329</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>28917</v>
-      </c>
-      <c r="B28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" t="s">
-        <v>851</v>
-      </c>
-      <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" t="s">
-        <v>852</v>
-      </c>
-      <c r="I28" s="1">
-        <v>93.333333333333329</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23516,6 +23770,833 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5175</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>818</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>819</v>
+      </c>
+      <c r="I2" s="1">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>8950</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>820</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" t="s">
+        <v>821</v>
+      </c>
+      <c r="I3" s="1">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>9891</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="1">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10264</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" t="s">
+        <v>822</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" t="s">
+        <v>823</v>
+      </c>
+      <c r="I5" s="1">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>11152</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
+        <v>824</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s">
+        <v>825</v>
+      </c>
+      <c r="I6" s="1">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>11450</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" t="s">
+        <v>826</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" t="s">
+        <v>827</v>
+      </c>
+      <c r="I7" s="1">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>13275</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>795</v>
+      </c>
+      <c r="E8" t="s">
+        <v>828</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>829</v>
+      </c>
+      <c r="H8" t="s">
+        <v>830</v>
+      </c>
+      <c r="I8" s="1">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>14103</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>831</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>832</v>
+      </c>
+      <c r="I9" s="1">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>14571</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>833</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
+        <v>834</v>
+      </c>
+      <c r="I10" s="1">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>21568</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>835</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>836</v>
+      </c>
+      <c r="I11" s="1">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>21602</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>837</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>838</v>
+      </c>
+      <c r="I12" s="1">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>21721</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>839</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>840</v>
+      </c>
+      <c r="I13" s="1">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>21846</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>327</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>328</v>
+      </c>
+      <c r="I14" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>21986</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>736</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>841</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>842</v>
+      </c>
+      <c r="I15" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>21987</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>736</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>841</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>842</v>
+      </c>
+      <c r="I16" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>21988</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>736</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>841</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>842</v>
+      </c>
+      <c r="I17" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>21989</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>736</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>841</v>
+      </c>
+      <c r="F18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>842</v>
+      </c>
+      <c r="I18" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>21990</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>736</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>841</v>
+      </c>
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>842</v>
+      </c>
+      <c r="I19" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>21991</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>736</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>841</v>
+      </c>
+      <c r="F20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>842</v>
+      </c>
+      <c r="I20" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21993</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>740</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>843</v>
+      </c>
+      <c r="F21" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>844</v>
+      </c>
+      <c r="I21" s="1">
+        <v>73.333333333333329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>23012</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>504</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>505</v>
+      </c>
+      <c r="I22" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23064</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>845</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s">
+        <v>846</v>
+      </c>
+      <c r="I23" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24904</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>847</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>848</v>
+      </c>
+      <c r="I24" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25906</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" t="s">
+        <v>816</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>817</v>
+      </c>
+      <c r="I25" s="1">
+        <v>73.333333333333329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>28271</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26">
+        <v>28271</v>
+      </c>
+      <c r="F26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" t="s">
+        <v>394</v>
+      </c>
+      <c r="I26" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>28531</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>849</v>
+      </c>
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" t="s">
+        <v>850</v>
+      </c>
+      <c r="I27" s="1">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28917</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>851</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" t="s">
+        <v>852</v>
+      </c>
+      <c r="I28" s="1">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23935,7 +25016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
@@ -25287,7 +26368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
@@ -26843,7 +27924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
@@ -27815,7 +28896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
@@ -28471,7 +29552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>

--- a/mutationsTable.xlsx
+++ b/mutationsTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" firstSheet="15" activeTab="26"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" firstSheet="16" activeTab="35"/>
   </bookViews>
   <sheets>
     <sheet name="B.1.1.7" sheetId="13" r:id="rId1"/>
@@ -3499,7 +3499,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3555,7 +3555,7 @@
         <v>28273</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>45</v>
+        <v>1022</v>
       </c>
       <c r="G2" t="s">
         <v>50</v>
@@ -4707,8 +4707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6046,7 +6046,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7126,8 +7126,8 @@
       <c r="E37">
         <v>27387</v>
       </c>
-      <c r="F37" t="s">
-        <v>45</v>
+      <c r="F37" s="6" t="s">
+        <v>1022</v>
       </c>
       <c r="G37" t="s">
         <v>50</v>
@@ -10854,7 +10854,7 @@
         <v>28273</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>45</v>
+        <v>1022</v>
       </c>
       <c r="G22" t="s">
         <v>50</v>
@@ -10934,7 +10934,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11684,8 +11684,8 @@
       <c r="E26">
         <v>28273</v>
       </c>
-      <c r="F26" t="s">
-        <v>45</v>
+      <c r="F26" s="6" t="s">
+        <v>1022</v>
       </c>
       <c r="G26" t="s">
         <v>50</v>
@@ -12507,7 +12507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
@@ -13918,7 +13918,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:C28"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15194,8 +15194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16440,7 +16440,7 @@
         <v>52</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>45</v>
+        <v>1022</v>
       </c>
       <c r="G43" t="s">
         <v>50</v>
@@ -16469,7 +16469,7 @@
         <v>52</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>45</v>
+        <v>1022</v>
       </c>
       <c r="G44" t="s">
         <v>50</v>
@@ -16971,7 +16971,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19475,7 +19475,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20225,8 +20225,8 @@
       <c r="E26">
         <v>28273</v>
       </c>
-      <c r="F26" t="s">
-        <v>45</v>
+      <c r="F26" s="6" t="s">
+        <v>1022</v>
       </c>
       <c r="G26" t="s">
         <v>50</v>
@@ -20247,7 +20247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
@@ -21283,7 +21283,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22235,8 +22235,8 @@
       <c r="E33">
         <v>28273</v>
       </c>
-      <c r="F33" t="s">
-        <v>45</v>
+      <c r="F33" s="6" t="s">
+        <v>1022</v>
       </c>
       <c r="G33" t="s">
         <v>50</v>
@@ -22991,7 +22991,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23047,7 +23047,7 @@
         <v>28273</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>45</v>
+        <v>1022</v>
       </c>
       <c r="G2" t="s">
         <v>50</v>
@@ -25020,7 +25020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
@@ -27929,7 +27929,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29556,8 +29556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30364,8 +30364,8 @@
       <c r="E28">
         <v>28273</v>
       </c>
-      <c r="F28" t="s">
-        <v>45</v>
+      <c r="F28" s="6" t="s">
+        <v>1022</v>
       </c>
       <c r="G28" t="s">
         <v>50</v>
@@ -30503,7 +30503,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31379,7 +31379,7 @@
         <v>28273</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>45</v>
+        <v>1022</v>
       </c>
       <c r="G30" t="s">
         <v>50</v>
@@ -31400,7 +31400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -33332,7 +33332,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:H13"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33872,7 +33872,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F29" sqref="E29:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34921,7 +34921,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/mutationsTable.xlsx
+++ b/mutationsTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" firstSheet="16" activeTab="35"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" firstSheet="6" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="B.1.1.7" sheetId="13" r:id="rId1"/>
@@ -35,8 +35,8 @@
     <sheet name="P.1" sheetId="21" r:id="rId21"/>
     <sheet name="P.3" sheetId="22" r:id="rId22"/>
     <sheet name="P.2" sheetId="23" r:id="rId23"/>
-    <sheet name="VUI_P681H_Israel" sheetId="24" r:id="rId24"/>
-    <sheet name="VUI_L452R|L1063F_Israel" sheetId="25" r:id="rId25"/>
+    <sheet name="ISR_B.1.1.50+P681H" sheetId="24" r:id="rId24"/>
+    <sheet name="ISR_B.1.362+L452R" sheetId="25" r:id="rId25"/>
     <sheet name="C.36.3" sheetId="26" r:id="rId26"/>
     <sheet name="C.36.3.1" sheetId="37" r:id="rId27"/>
     <sheet name="PDI85.1" sheetId="30" r:id="rId28"/>
@@ -3499,7 +3499,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19372,7 +19372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="V42" sqref="V42"/>
     </sheetView>
   </sheetViews>
@@ -29556,7 +29556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>

--- a/mutationsTable.xlsx
+++ b/mutationsTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" firstSheet="15" activeTab="27"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" firstSheet="4" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="B.1.1.7" sheetId="13" r:id="rId1"/>
@@ -5967,7 +5967,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6586,7 +6586,6 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f>A21+1</f>
         <v>28249</v>
       </c>
       <c r="B22" t="s">
@@ -6616,7 +6615,6 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" ref="A23:A26" si="0">A22+1</f>
         <v>28250</v>
       </c>
       <c r="B23" t="s">
@@ -6646,7 +6644,6 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="0"/>
         <v>28251</v>
       </c>
       <c r="B24" t="s">
@@ -6676,7 +6673,6 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="0"/>
         <v>28252</v>
       </c>
       <c r="B25" t="s">
@@ -6706,7 +6702,6 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="0"/>
         <v>28253</v>
       </c>
       <c r="B26" t="s">
@@ -6823,7 +6818,6 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f>A29+1</f>
         <v>26164</v>
       </c>
       <c r="B30" t="s">
@@ -6852,9 +6846,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="e">
-        <f>#REF!+1</f>
-        <v>#REF!</v>
+      <c r="A31">
+        <v>26164</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
@@ -6882,9 +6875,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="e">
-        <f t="shared" ref="A32:A35" si="1">A31+1</f>
-        <v>#REF!</v>
+      <c r="A32">
+        <v>26165</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
@@ -6912,9 +6904,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="A33">
+        <v>26165</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
@@ -6942,9 +6933,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="A34">
+        <v>26166</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
@@ -6972,9 +6962,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="A35">
+        <v>26166</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
@@ -8414,7 +8403,7 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9062,7 +9051,6 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f>A22+1</f>
         <v>21969</v>
       </c>
       <c r="B23" t="s">
@@ -9092,7 +9080,6 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" ref="A24:A47" si="0">A23+1</f>
         <v>21970</v>
       </c>
       <c r="B24" t="s">
@@ -9122,7 +9109,6 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="0"/>
         <v>21971</v>
       </c>
       <c r="B25" t="s">
@@ -9152,7 +9138,6 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="0"/>
         <v>21972</v>
       </c>
       <c r="B26" t="s">
@@ -9182,7 +9167,6 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="0"/>
         <v>21973</v>
       </c>
       <c r="B27" t="s">
@@ -9212,7 +9196,6 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="0"/>
         <v>21974</v>
       </c>
       <c r="B28" t="s">
@@ -9242,7 +9225,6 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="0"/>
         <v>21975</v>
       </c>
       <c r="B29" t="s">
@@ -9272,7 +9254,6 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="0"/>
         <v>21976</v>
       </c>
       <c r="B30" t="s">
@@ -9301,9 +9282,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="e">
-        <f>#REF!+1</f>
-        <v>#REF!</v>
+      <c r="A31">
+        <v>21977</v>
       </c>
       <c r="B31" t="s">
         <v>9</v>
@@ -9331,9 +9311,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="A32">
+        <v>21978</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
@@ -9361,9 +9340,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="A33">
+        <v>21979</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
@@ -9391,9 +9369,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="A34">
+        <v>21980</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
@@ -9421,9 +9398,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="A35">
+        <v>21981</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
@@ -9451,9 +9427,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="A36">
+        <v>21982</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
@@ -9481,9 +9456,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="A37">
+        <v>21983</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
@@ -9511,9 +9485,8 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="A38">
+        <v>21984</v>
       </c>
       <c r="B38" t="s">
         <v>30</v>
@@ -9541,9 +9514,8 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="A39">
+        <v>21985</v>
       </c>
       <c r="B39" t="s">
         <v>30</v>
@@ -9571,9 +9543,8 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="A40">
+        <v>21986</v>
       </c>
       <c r="B40" t="s">
         <v>30</v>
@@ -9601,9 +9572,8 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="A41">
+        <v>21987</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
@@ -9631,9 +9601,8 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="A42">
+        <v>21988</v>
       </c>
       <c r="B42" t="s">
         <v>30</v>
@@ -9661,9 +9630,8 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="A43">
+        <v>21989</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
@@ -9691,9 +9659,8 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="A44">
+        <v>21990</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
@@ -9721,9 +9688,8 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="A45">
+        <v>21991</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
@@ -9751,9 +9717,8 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="A46">
+        <v>21992</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
@@ -9781,9 +9746,8 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="A47">
+        <v>21993</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
@@ -12336,8 +12300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12435,7 +12399,6 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>A3+1</f>
         <v>11289</v>
       </c>
       <c r="B4" t="s">
@@ -12465,7 +12428,6 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" ref="A5:A11" si="0">A4+1</f>
         <v>11290</v>
       </c>
       <c r="B5" t="s">
@@ -12495,7 +12457,6 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="0"/>
         <v>11291</v>
       </c>
       <c r="B6" t="s">
@@ -12525,7 +12486,6 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="0"/>
         <v>11292</v>
       </c>
       <c r="B7" t="s">
@@ -12555,7 +12515,6 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="0"/>
         <v>11293</v>
       </c>
       <c r="B8" t="s">
@@ -12585,7 +12544,6 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="0"/>
         <v>11294</v>
       </c>
       <c r="B9" t="s">
@@ -12615,7 +12573,6 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="0"/>
         <v>11295</v>
       </c>
       <c r="B10" t="s">
@@ -12645,7 +12602,6 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="0"/>
         <v>11296</v>
       </c>
       <c r="B11" t="s">
@@ -13081,7 +13037,6 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f>A25+1</f>
         <v>22300</v>
       </c>
       <c r="B26" t="s">
@@ -13111,7 +13066,6 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" ref="A27:A44" si="1">A26+1</f>
         <v>22301</v>
       </c>
       <c r="B27" t="s">
@@ -13141,7 +13095,6 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="1"/>
         <v>22302</v>
       </c>
       <c r="B28" t="s">
@@ -13171,7 +13124,6 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="1"/>
         <v>22303</v>
       </c>
       <c r="B29" t="s">
@@ -13201,7 +13153,6 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="1"/>
         <v>22304</v>
       </c>
       <c r="B30" t="s">
@@ -13230,9 +13181,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="e">
-        <f>#REF!+1</f>
-        <v>#REF!</v>
+      <c r="A31">
+        <v>22305</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
@@ -13260,9 +13210,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="A32">
+        <v>22306</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
@@ -13290,9 +13239,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="A33">
+        <v>22307</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
@@ -13320,9 +13268,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="A34">
+        <v>22308</v>
       </c>
       <c r="B34" t="s">
         <v>30</v>
@@ -13350,9 +13297,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="A35">
+        <v>22309</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
@@ -13380,9 +13326,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="A36">
+        <v>22310</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
@@ -13410,9 +13355,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="A37">
+        <v>22311</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
@@ -13440,9 +13384,8 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="A38">
+        <v>22312</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
@@ -13470,9 +13413,8 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="A39">
+        <v>22313</v>
       </c>
       <c r="B39" t="s">
         <v>9</v>
@@ -13500,9 +13442,8 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="A40">
+        <v>22314</v>
       </c>
       <c r="B40" t="s">
         <v>16</v>
@@ -13530,9 +13471,8 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="A41">
+        <v>22315</v>
       </c>
       <c r="B41" t="s">
         <v>30</v>
@@ -13560,9 +13500,8 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="A42">
+        <v>22316</v>
       </c>
       <c r="B42" t="s">
         <v>30</v>
@@ -13590,9 +13529,8 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="A43">
+        <v>22317</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
@@ -13620,9 +13558,8 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="A44">
+        <v>22318</v>
       </c>
       <c r="B44" t="s">
         <v>30</v>
@@ -13651,7 +13588,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>24138</v>
+        <v>22319</v>
       </c>
       <c r="B45" t="s">
         <v>9</v>
@@ -13716,7 +13653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
@@ -20994,7 +20931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
@@ -30968,7 +30905,7 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31616,7 +31553,6 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f>A22+1</f>
         <v>27268</v>
       </c>
       <c r="B23" t="s">
@@ -31646,7 +31582,6 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" ref="A24:A49" si="0">A23+1</f>
         <v>27269</v>
       </c>
       <c r="B24" t="s">
@@ -31676,7 +31611,6 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="0"/>
         <v>27270</v>
       </c>
       <c r="B25" t="s">
@@ -31706,7 +31640,6 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="0"/>
         <v>27271</v>
       </c>
       <c r="B26" t="s">
@@ -31736,7 +31669,6 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="0"/>
         <v>27272</v>
       </c>
       <c r="B27" t="s">
@@ -31766,7 +31698,6 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="0"/>
         <v>27273</v>
       </c>
       <c r="B28" t="s">
@@ -31796,7 +31727,6 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="0"/>
         <v>27274</v>
       </c>
       <c r="B29" t="s">
@@ -31826,7 +31756,6 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="0"/>
         <v>27275</v>
       </c>
       <c r="B30" t="s">
@@ -31855,9 +31784,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="e">
-        <f>#REF!+1</f>
-        <v>#REF!</v>
+      <c r="A31">
+        <v>27276</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
@@ -31885,9 +31813,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="A32">
+        <v>27277</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
@@ -31915,9 +31842,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="A33">
+        <v>27278</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
@@ -31945,9 +31871,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="A34">
+        <v>27279</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
@@ -31975,9 +31900,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="A35">
+        <v>27280</v>
       </c>
       <c r="B35" t="s">
         <v>30</v>
@@ -32005,9 +31929,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="A36">
+        <v>27281</v>
       </c>
       <c r="B36" t="s">
         <v>30</v>
@@ -32035,9 +31958,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="A37">
+        <v>27282</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
@@ -32065,9 +31987,8 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="A38">
+        <v>27283</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
@@ -32095,9 +32016,8 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="A39">
+        <v>27284</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
@@ -32125,9 +32045,8 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="A40">
+        <v>27285</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
@@ -32155,9 +32074,8 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="A41">
+        <v>27286</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
@@ -32185,9 +32103,8 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="A42">
+        <v>27287</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
@@ -32215,9 +32132,8 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="A43">
+        <v>27288</v>
       </c>
       <c r="B43" t="s">
         <v>30</v>
@@ -32245,9 +32161,8 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="A44">
+        <v>27289</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
@@ -32275,9 +32190,8 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="A45">
+        <v>27290</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
@@ -32305,9 +32219,8 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="A46">
+        <v>27291</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
@@ -32335,9 +32248,8 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="A47">
+        <v>27292</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
@@ -32365,9 +32277,8 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="A48">
+        <v>27293</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
@@ -32395,9 +32306,8 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="A49">
+        <v>27294</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>

--- a/mutationsTable.xlsx
+++ b/mutationsTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" firstSheet="4" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="B.1.1.7" sheetId="13" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7534" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7541" uniqueCount="1016">
   <si>
     <t>Position</t>
   </si>
@@ -7026,10 +7026,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7922,12 +7922,11 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="e">
-        <f>#REF!+1</f>
-        <v>#REF!</v>
+      <c r="A31">
+        <v>21993</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
         <v>734</v>
@@ -7952,9 +7951,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="e">
-        <f>A31+1</f>
-        <v>#REF!</v>
+      <c r="A32">
+        <v>21994</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
@@ -7983,57 +7981,57 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>28271</v>
+        <v>21995</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>734</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33">
-        <v>28271</v>
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>93</v>
       </c>
       <c r="F33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G33" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>394</v>
+        <v>94</v>
       </c>
       <c r="I33" s="2">
-        <v>96.428571428571431</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>28297</v>
+        <v>28271</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" t="s">
-        <v>112</v>
+        <v>48</v>
+      </c>
+      <c r="E34">
+        <v>28271</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="H34" t="s">
-        <v>113</v>
+        <v>394</v>
       </c>
       <c r="I34" s="2">
         <v>96.428571428571431</v>
@@ -8041,28 +8039,28 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>22286</v>
+        <v>28297</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>734</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E35" t="s">
-        <v>395</v>
+        <v>112</v>
       </c>
       <c r="F35" t="s">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H35" t="s">
-        <v>396</v>
+        <v>113</v>
       </c>
       <c r="I35" s="2">
         <v>96.428571428571431</v>
@@ -8070,11 +8068,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f>A35+1</f>
-        <v>22287</v>
+        <v>22286</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
         <v>734</v>
@@ -8100,8 +8097,8 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" ref="A37:A41" si="2">A36+1</f>
-        <v>22288</v>
+        <f>A36+1</f>
+        <v>22287</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
@@ -8130,11 +8127,11 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="2"/>
-        <v>22289</v>
+        <f t="shared" ref="A38:A42" si="2">A37+1</f>
+        <v>22288</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
         <v>734</v>
@@ -8161,10 +8158,10 @@
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="2"/>
-        <v>22290</v>
+        <v>22289</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
         <v>734</v>
@@ -8191,10 +8188,10 @@
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="2"/>
-        <v>22291</v>
+        <v>22290</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
         <v>734</v>
@@ -8221,7 +8218,7 @@
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="2"/>
-        <v>22292</v>
+        <v>22291</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
@@ -8250,10 +8247,11 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>22294</v>
+        <f t="shared" si="2"/>
+        <v>22292</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
         <v>734</v>
@@ -8262,7 +8260,7 @@
         <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F42" t="s">
         <v>150</v>
@@ -8271,7 +8269,7 @@
         <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I42" s="2">
         <v>96.428571428571431</v>
@@ -8279,10 +8277,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>22295</v>
+        <v>22294</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
         <v>734</v>
@@ -8308,36 +8306,36 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>27795</v>
+        <v>22295</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
         <v>734</v>
       </c>
       <c r="D44" t="s">
-        <v>399</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="G44" t="s">
-        <v>401</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="I44" s="2">
-        <v>85.714285714285708</v>
+        <v>96.428571428571431</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>27796</v>
+        <v>27795</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
@@ -8366,10 +8364,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>27797</v>
+        <v>27796</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
         <v>734</v>
@@ -8390,6 +8388,35 @@
         <v>402</v>
       </c>
       <c r="I46" s="2">
+        <v>85.714285714285708</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>27797</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>734</v>
+      </c>
+      <c r="D47" t="s">
+        <v>399</v>
+      </c>
+      <c r="E47" t="s">
+        <v>400</v>
+      </c>
+      <c r="F47" t="s">
+        <v>45</v>
+      </c>
+      <c r="G47" t="s">
+        <v>401</v>
+      </c>
+      <c r="H47" t="s">
+        <v>402</v>
+      </c>
+      <c r="I47" s="2">
         <v>85.714285714285708</v>
       </c>
     </row>
@@ -13653,7 +13680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>

--- a/mutationsTable.xlsx
+++ b/mutationsTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" firstSheet="9" activeTab="26"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" firstSheet="16" activeTab="36"/>
   </bookViews>
   <sheets>
     <sheet name="B.1.1.7" sheetId="13" r:id="rId1"/>
@@ -48,6 +48,7 @@
     <sheet name="B.1.621" sheetId="33" r:id="rId34"/>
     <sheet name="P.4" sheetId="34" r:id="rId35"/>
     <sheet name="A.29" sheetId="35" r:id="rId36"/>
+    <sheet name="AW.1" sheetId="38" r:id="rId37"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7487" uniqueCount="1010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7580" uniqueCount="1030">
   <si>
     <t>Position</t>
   </si>
@@ -3089,6 +3090,66 @@
   </si>
   <si>
     <t>extragenic_deletion</t>
+  </si>
+  <si>
+    <t>T634I</t>
+  </si>
+  <si>
+    <t>NSP2:T634I</t>
+  </si>
+  <si>
+    <t>T350N</t>
+  </si>
+  <si>
+    <t>NSP3:T350N</t>
+  </si>
+  <si>
+    <t>H389H</t>
+  </si>
+  <si>
+    <t>NSP4:H389H</t>
+  </si>
+  <si>
+    <t>T141T</t>
+  </si>
+  <si>
+    <t>NSP8:T141T</t>
+  </si>
+  <si>
+    <t>T21T</t>
+  </si>
+  <si>
+    <t>NSP9:T21T</t>
+  </si>
+  <si>
+    <t>T111I</t>
+  </si>
+  <si>
+    <t>NSP10:T111I</t>
+  </si>
+  <si>
+    <t>E365D</t>
+  </si>
+  <si>
+    <t>NSP13:E365D</t>
+  </si>
+  <si>
+    <t>D375D</t>
+  </si>
+  <si>
+    <t>NSP14:D375D</t>
+  </si>
+  <si>
+    <t>T112I</t>
+  </si>
+  <si>
+    <t>NSP15:T112I</t>
+  </si>
+  <si>
+    <t>A188S</t>
+  </si>
+  <si>
+    <t>NSP16:A188S</t>
   </si>
 </sst>
 </file>
@@ -3157,7 +3218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3175,6 +3236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -19027,7 +19089,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19797,10 +19859,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20420,379 +20482,408 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="11">
         <v>22016</v>
       </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="11" t="s">
         <v>750</v>
       </c>
-      <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="F22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="11" t="s">
         <v>751</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="11">
         <v>97.92746113989638</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="11">
         <v>22600</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="F23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="11" t="s">
         <v>753</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="11">
         <v>99.481865284974091</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="11">
         <v>22917</v>
       </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="F24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="11">
         <v>99.481865284974091</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="11">
         <v>22992</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="F25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="11">
         <v>98.963730569948183</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="11">
         <v>23593</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="F26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="11">
         <v>99.481865284974091</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="11">
         <v>24095</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C27" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="11" t="s">
         <v>1000</v>
       </c>
-      <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="F27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="11" t="s">
         <v>1001</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="11">
         <v>84.974093264248708</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="11">
         <v>24257</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C28" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="11" t="s">
         <v>754</v>
       </c>
-      <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="F28" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="11" t="s">
         <v>755</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="11">
         <v>92.746113989637308</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="11">
         <v>24811</v>
       </c>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="B29" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="11" t="s">
         <v>795</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="11" t="s">
         <v>796</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="11">
         <v>99.481865284974091</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="11">
         <v>25729</v>
       </c>
-      <c r="B30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="B30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="11" t="s">
         <v>1002</v>
       </c>
-      <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="F30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="11" t="s">
         <v>1003</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="11">
         <v>98.963730569948183</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="11">
+        <v>26767</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I31" s="11">
+        <v>98.445595854922274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
         <v>27882</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C32" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" s="11" t="s">
         <v>756</v>
       </c>
-      <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="F32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H32" s="11" t="s">
         <v>757</v>
       </c>
-      <c r="I31">
+      <c r="I32" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
         <v>28273</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C32" t="s">
-        <v>727</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C33" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E32">
+      <c r="E33" s="11">
         <v>28273</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F33" s="11" t="s">
         <v>1008</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G33" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H33" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="I32">
+      <c r="I33" s="11">
         <v>97.409326424870471</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
         <v>29040</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E34" s="11" t="s">
         <v>1004</v>
       </c>
-      <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="F34" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H34" s="11" t="s">
         <v>1005</v>
       </c>
-      <c r="I33">
+      <c r="I34" s="11">
         <v>98.963730569948183</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
         <v>29632</v>
       </c>
-      <c r="B34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="B35" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E35" s="11" t="s">
         <v>1006</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F35" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G35" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H35" s="11" t="s">
         <v>1007</v>
       </c>
-      <c r="I34">
+      <c r="I35" s="11">
         <v>99.481865284974091</v>
       </c>
     </row>
@@ -29876,6 +29967,369 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>2706</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>1011</v>
+      </c>
+      <c r="I2" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>3768</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I3" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>9721</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I4" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>12514</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I5" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>12748</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I6" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>13356</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>786</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I7" s="11">
+        <v>78.899082568807344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>17331</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>1023</v>
+      </c>
+      <c r="I8" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>19164</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>1025</v>
+      </c>
+      <c r="I9" s="11">
+        <v>99.082568807339456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>19955</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>1027</v>
+      </c>
+      <c r="I10" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>21220</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I11" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>25906</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>807</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>808</v>
+      </c>
+      <c r="I12" s="11">
+        <v>98.165137614678898</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>

--- a/mutationsTable.xlsx
+++ b/mutationsTable.xlsx
@@ -3521,7 +3521,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+      <selection activeCell="A2" sqref="A2:A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4701,7 +4701,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+      <selection activeCell="A2" sqref="A2:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4944,7 +4944,6 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>A8+1</f>
         <v>11289</v>
       </c>
       <c r="B9" t="s">
@@ -4974,7 +4973,6 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" ref="A10:A16" si="0">A9+1</f>
         <v>11290</v>
       </c>
       <c r="B10" t="s">
@@ -5004,7 +5002,6 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="0"/>
         <v>11291</v>
       </c>
       <c r="B11" t="s">
@@ -5034,7 +5031,6 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="0"/>
         <v>11292</v>
       </c>
       <c r="B12" t="s">
@@ -5064,7 +5060,6 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="0"/>
         <v>11293</v>
       </c>
       <c r="B13" t="s">
@@ -5094,7 +5089,6 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="0"/>
         <v>11294</v>
       </c>
       <c r="B14" t="s">
@@ -5124,7 +5118,6 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="0"/>
         <v>11295</v>
       </c>
       <c r="B15" t="s">
@@ -5154,7 +5147,6 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="0"/>
         <v>11296</v>
       </c>
       <c r="B16" t="s">
@@ -5503,7 +5495,6 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f>A27+1</f>
         <v>21994</v>
       </c>
       <c r="B28" t="s">
@@ -5533,7 +5524,6 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f>A28+1</f>
         <v>21995</v>
       </c>
       <c r="B29" t="s">
@@ -5737,7 +5727,6 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f>A35+1</f>
         <v>27206</v>
       </c>
       <c r="B36" t="s">
@@ -5767,7 +5756,6 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f>A36+1</f>
         <v>27207</v>
       </c>
       <c r="B37" t="s">
@@ -5826,7 +5814,6 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f>A38+1</f>
         <v>28279</v>
       </c>
       <c r="B39" t="s">
@@ -5856,7 +5843,6 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f>A39+1</f>
         <v>28280</v>
       </c>
       <c r="B40" t="s">
@@ -6010,7 +5996,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A2" sqref="A2:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7072,7 +7058,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:I31"/>
+      <selection activeCell="A2" sqref="A2:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7315,7 +7301,6 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>A8+1</f>
         <v>11289</v>
       </c>
       <c r="B9" t="s">
@@ -7345,7 +7330,6 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" ref="A10:A16" si="0">A9+1</f>
         <v>11290</v>
       </c>
       <c r="B10" t="s">
@@ -7375,7 +7359,6 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="0"/>
         <v>11291</v>
       </c>
       <c r="B11" t="s">
@@ -7405,7 +7388,6 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="0"/>
         <v>11292</v>
       </c>
       <c r="B12" t="s">
@@ -7435,7 +7417,6 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="0"/>
         <v>11293</v>
       </c>
       <c r="B13" t="s">
@@ -7465,7 +7446,6 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="0"/>
         <v>11294</v>
       </c>
       <c r="B14" t="s">
@@ -7495,7 +7475,6 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="0"/>
         <v>11295</v>
       </c>
       <c r="B15" t="s">
@@ -7525,7 +7504,6 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="0"/>
         <v>11296</v>
       </c>
       <c r="B16" t="s">
@@ -7642,7 +7620,6 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f>A19+1</f>
         <v>21766</v>
       </c>
       <c r="B20" t="s">
@@ -7672,7 +7649,6 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" ref="A21:A24" si="1">A20+1</f>
         <v>21767</v>
       </c>
       <c r="B21" t="s">
@@ -7702,7 +7678,6 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="1"/>
         <v>21768</v>
       </c>
       <c r="B22" t="s">
@@ -7732,7 +7707,6 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="1"/>
         <v>21769</v>
       </c>
       <c r="B23" t="s">
@@ -7762,7 +7736,6 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="1"/>
         <v>21770</v>
       </c>
       <c r="B24" t="s">
@@ -8140,7 +8113,6 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f>A36+1</f>
         <v>22287</v>
       </c>
       <c r="B37" t="s">
@@ -8170,7 +8142,6 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" ref="A38:A42" si="2">A37+1</f>
         <v>22288</v>
       </c>
       <c r="B38" t="s">
@@ -8200,7 +8171,6 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="2"/>
         <v>22289</v>
       </c>
       <c r="B39" t="s">
@@ -8230,7 +8200,6 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="2"/>
         <v>22290</v>
       </c>
       <c r="B40" t="s">
@@ -8260,7 +8229,6 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="2"/>
         <v>22291</v>
       </c>
       <c r="B41" t="s">
@@ -8290,7 +8258,6 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="2"/>
         <v>22292</v>
       </c>
       <c r="B42" t="s">
@@ -8473,7 +8440,7 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2:A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10086,7 +10053,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10698,7 +10665,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="A2" sqref="A2:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11659,7 +11626,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12236,8 +12203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A46" sqref="A1:A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13590,7 +13557,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14446,7 +14413,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+      <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14867,7 +14834,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+      <selection activeCell="A2" sqref="A2:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16164,7 +16131,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16614,7 +16581,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16856,7 +16823,6 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>A8+1</f>
         <v>11289</v>
       </c>
       <c r="B9" t="s">
@@ -16886,7 +16852,6 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" ref="A10:A16" si="0">A9+1</f>
         <v>11290</v>
       </c>
       <c r="B10" t="s">
@@ -16916,7 +16881,6 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="0"/>
         <v>11291</v>
       </c>
       <c r="B11" t="s">
@@ -16946,7 +16910,6 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="0"/>
         <v>11292</v>
       </c>
       <c r="B12" t="s">
@@ -16976,7 +16939,6 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="0"/>
         <v>11293</v>
       </c>
       <c r="B13" t="s">
@@ -17006,7 +16968,6 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="0"/>
         <v>11294</v>
       </c>
       <c r="B14" t="s">
@@ -17036,7 +16997,6 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="0"/>
         <v>11295</v>
       </c>
       <c r="B15" t="s">
@@ -17066,7 +17026,6 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="0"/>
         <v>11296</v>
       </c>
       <c r="B16" t="s">
@@ -17627,7 +17586,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+      <selection activeCell="A2" sqref="A2:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18516,7 +18475,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18853,7 +18812,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19089,7 +19048,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="A2" sqref="A2:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19862,7 +19821,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="A2" sqref="A2:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20897,7 +20856,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+      <selection activeCell="A2" sqref="A2:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21872,7 +21831,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+      <selection activeCell="A2" sqref="A2:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22576,7 +22535,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22849,7 +22808,6 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>A9+1</f>
         <v>11289</v>
       </c>
       <c r="B10" t="s">
@@ -22879,7 +22837,6 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>A10+1</f>
         <v>11290</v>
       </c>
       <c r="B11" t="s">
@@ -22909,7 +22866,6 @@
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" ref="A12:A17" si="0">A11+1</f>
         <v>11291</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -22939,7 +22895,6 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="0"/>
         <v>11292</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -22969,7 +22924,6 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="0"/>
         <v>11293</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -22999,7 +22953,6 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="0"/>
         <v>11294</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -23029,7 +22982,6 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="0"/>
         <v>11295</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -23059,7 +23011,6 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="0"/>
         <v>11296</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -23358,7 +23309,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+      <selection activeCell="A2" sqref="A2:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24185,7 +24136,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+      <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24605,8 +24556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25928,8 +25879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27456,7 +27407,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+      <selection activeCell="A2" sqref="A2:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28399,7 +28350,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+      <selection activeCell="A2" sqref="A2:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29055,7 +29006,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+      <selection activeCell="A2" sqref="A2:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29972,7 +29923,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30335,7 +30286,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30637,7 +30588,6 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>A10+1</f>
         <v>11290</v>
       </c>
       <c r="B11" t="s">
@@ -30667,7 +30617,6 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" ref="A12:A18" si="0">A11+1</f>
         <v>11291</v>
       </c>
       <c r="B12" t="s">
@@ -30697,7 +30646,6 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="0"/>
         <v>11292</v>
       </c>
       <c r="B13" t="s">
@@ -30727,7 +30675,6 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="0"/>
         <v>11293</v>
       </c>
       <c r="B14" t="s">
@@ -30757,7 +30704,6 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="0"/>
         <v>11294</v>
       </c>
       <c r="B15" t="s">
@@ -30787,7 +30733,6 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="0"/>
         <v>11295</v>
       </c>
       <c r="B16" t="s">
@@ -30817,7 +30762,6 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="0"/>
         <v>11296</v>
       </c>
       <c r="B17" t="s">
@@ -30847,7 +30791,6 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="0"/>
         <v>11297</v>
       </c>
       <c r="B18" t="s">
@@ -31233,7 +31176,7 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+      <selection activeCell="A2" sqref="A2:A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33107,7 +33050,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33647,7 +33590,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+      <selection activeCell="A2" sqref="A2:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33860,7 +33803,6 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>A7+1</f>
         <v>11289</v>
       </c>
       <c r="B8" t="s">
@@ -33890,7 +33832,6 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" ref="A9:A15" si="0">A8+1</f>
         <v>11290</v>
       </c>
       <c r="B9" t="s">
@@ -33920,7 +33861,6 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="0"/>
         <v>11291</v>
       </c>
       <c r="B10" t="s">
@@ -33950,7 +33890,6 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="0"/>
         <v>11292</v>
       </c>
       <c r="B11" t="s">
@@ -33980,7 +33919,6 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="0"/>
         <v>11293</v>
       </c>
       <c r="B12" t="s">
@@ -34010,7 +33948,6 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="0"/>
         <v>11294</v>
       </c>
       <c r="B13" t="s">
@@ -34040,7 +33977,6 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="0"/>
         <v>11295</v>
       </c>
       <c r="B14" t="s">
@@ -34070,7 +34006,6 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="0"/>
         <v>11296</v>
       </c>
       <c r="B15" t="s">
@@ -34187,7 +34122,6 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f>A18+1</f>
         <v>22287</v>
       </c>
       <c r="B19" t="s">
@@ -34217,7 +34151,6 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" ref="A20:A26" si="1">A19+1</f>
         <v>22288</v>
       </c>
       <c r="B20" t="s">
@@ -34247,7 +34180,6 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="1"/>
         <v>22289</v>
       </c>
       <c r="B21" t="s">
@@ -34277,7 +34209,6 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="1"/>
         <v>22290</v>
       </c>
       <c r="B22" t="s">
@@ -34307,7 +34238,6 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="1"/>
         <v>22291</v>
       </c>
       <c r="B23" t="s">
@@ -34337,7 +34267,6 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="1"/>
         <v>22292</v>
       </c>
       <c r="B24" t="s">
@@ -34367,7 +34296,6 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="1"/>
         <v>22293</v>
       </c>
       <c r="B25" t="s">
@@ -34397,7 +34325,6 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="1"/>
         <v>22294</v>
       </c>
       <c r="B26" t="s">
@@ -34667,7 +34594,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+      <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35091,7 +35018,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/mutationsTable.xlsx
+++ b/mutationsTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" firstSheet="16" activeTab="36"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" firstSheet="16" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="B.1.1.7" sheetId="13" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7580" uniqueCount="1030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7580" uniqueCount="1029">
   <si>
     <t>Position</t>
   </si>
@@ -2253,9 +2253,6 @@
   </si>
   <si>
     <t>'</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
   <si>
     <t>E102K</t>
@@ -3521,7 +3518,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A40"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3577,7 +3574,7 @@
         <v>28273</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G2" t="s">
         <v>50</v>
@@ -7036,7 +7033,7 @@
         <v>27387</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G36" t="s">
         <v>50</v>
@@ -10050,10 +10047,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A20"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10543,7 +10540,7 @@
         <v>28273</v>
       </c>
       <c r="F17" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G17" t="s">
         <v>50</v>
@@ -10641,19 +10638,6 @@
       <c r="I20" s="1">
         <v>89.036544850498331</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F22" s="6"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11417,7 +11401,7 @@
         <v>28273</v>
       </c>
       <c r="F26" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G26" t="s">
         <v>50</v>
@@ -16050,7 +16034,7 @@
         <v>52</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G42" t="s">
         <v>50</v>
@@ -16079,7 +16063,7 @@
         <v>52</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G43" t="s">
         <v>50</v>
@@ -19100,7 +19084,7 @@
         <v>343</v>
       </c>
       <c r="E2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -19109,7 +19093,7 @@
         <v>345</v>
       </c>
       <c r="H2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I2" s="1">
         <v>100</v>
@@ -19129,7 +19113,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -19138,7 +19122,7 @@
         <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I3" s="1">
         <v>99.090909090909093</v>
@@ -19158,7 +19142,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -19167,7 +19151,7 @@
         <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I4" s="1">
         <v>97.27272727272728</v>
@@ -19245,7 +19229,7 @@
         <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -19254,7 +19238,7 @@
         <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I7" s="1">
         <v>100</v>
@@ -19274,7 +19258,7 @@
         <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -19283,7 +19267,7 @@
         <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I8" s="1">
         <v>100</v>
@@ -19303,7 +19287,7 @@
         <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
@@ -19312,7 +19296,7 @@
         <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I9" s="1">
         <v>100</v>
@@ -19332,7 +19316,7 @@
         <v>177</v>
       </c>
       <c r="E10" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -19341,7 +19325,7 @@
         <v>179</v>
       </c>
       <c r="H10" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="I10" s="1">
         <v>100</v>
@@ -19361,7 +19345,7 @@
         <v>177</v>
       </c>
       <c r="E11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
@@ -19370,7 +19354,7 @@
         <v>179</v>
       </c>
       <c r="H11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="I11" s="1">
         <v>100</v>
@@ -19390,7 +19374,7 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -19399,7 +19383,7 @@
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="I12" s="1">
         <v>100</v>
@@ -19593,7 +19577,7 @@
         <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
@@ -19602,7 +19586,7 @@
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I19" s="1">
         <v>100</v>
@@ -19622,7 +19606,7 @@
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
@@ -19631,7 +19615,7 @@
         <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I20" s="1">
         <v>100</v>
@@ -19709,7 +19693,7 @@
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
@@ -19718,7 +19702,7 @@
         <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I23" s="1">
         <v>100</v>
@@ -19767,7 +19751,7 @@
         <v>399</v>
       </c>
       <c r="E25" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
@@ -19776,7 +19760,7 @@
         <v>401</v>
       </c>
       <c r="H25" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I25" s="1">
         <v>98.636363636363626</v>
@@ -19799,7 +19783,7 @@
         <v>28273</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G26" t="s">
         <v>50</v>
@@ -19874,7 +19858,7 @@
         <v>343</v>
       </c>
       <c r="E2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -19883,7 +19867,7 @@
         <v>345</v>
       </c>
       <c r="H2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I2">
         <v>98.445595854922274</v>
@@ -19903,7 +19887,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -19912,7 +19896,7 @@
         <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I3">
         <v>94.818652849740943</v>
@@ -19932,7 +19916,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -19941,7 +19925,7 @@
         <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I4">
         <v>99.481865284974091</v>
@@ -19961,7 +19945,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -19970,7 +19954,7 @@
         <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I5">
         <v>99.481865284974091</v>
@@ -20048,7 +20032,7 @@
         <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -20057,7 +20041,7 @@
         <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I8">
         <v>100</v>
@@ -20077,7 +20061,7 @@
         <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
@@ -20086,7 +20070,7 @@
         <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I9">
         <v>98.963730569948183</v>
@@ -20106,7 +20090,7 @@
         <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -20115,7 +20099,7 @@
         <v>69</v>
       </c>
       <c r="H10" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I10">
         <v>99.481865284974091</v>
@@ -20135,7 +20119,7 @@
         <v>177</v>
       </c>
       <c r="E11" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -20144,7 +20128,7 @@
         <v>179</v>
       </c>
       <c r="H11" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="I11">
         <v>98.963730569948183</v>
@@ -20164,7 +20148,7 @@
         <v>177</v>
       </c>
       <c r="E12" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
@@ -20173,7 +20157,7 @@
         <v>179</v>
       </c>
       <c r="H12" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="I12">
         <v>99.481865284974091</v>
@@ -20193,7 +20177,7 @@
         <v>177</v>
       </c>
       <c r="E13" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -20202,7 +20186,7 @@
         <v>179</v>
       </c>
       <c r="H13" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="I13">
         <v>99.481865284974091</v>
@@ -20222,7 +20206,7 @@
         <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F14" t="s">
         <v>21</v>
@@ -20231,7 +20215,7 @@
         <v>120</v>
       </c>
       <c r="H14" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="I14">
         <v>100</v>
@@ -20251,7 +20235,7 @@
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
@@ -20260,7 +20244,7 @@
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="I15">
         <v>99.481865284974091</v>
@@ -20454,7 +20438,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>13</v>
@@ -20463,7 +20447,7 @@
         <v>14</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I22" s="11">
         <v>97.92746113989638</v>
@@ -20483,7 +20467,7 @@
         <v>11</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>13</v>
@@ -20492,7 +20476,7 @@
         <v>14</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I23" s="11">
         <v>99.481865284974091</v>
@@ -20599,7 +20583,7 @@
         <v>11</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>13</v>
@@ -20608,7 +20592,7 @@
         <v>14</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="I27" s="11">
         <v>84.974093264248708</v>
@@ -20628,7 +20612,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>13</v>
@@ -20637,7 +20621,7 @@
         <v>14</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I28" s="11">
         <v>92.746113989637308</v>
@@ -20657,7 +20641,7 @@
         <v>11</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>21</v>
@@ -20666,7 +20650,7 @@
         <v>14</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I29" s="11">
         <v>99.481865284974091</v>
@@ -20686,7 +20670,7 @@
         <v>43</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>13</v>
@@ -20695,7 +20679,7 @@
         <v>46</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="I30" s="11">
         <v>98.963730569948183</v>
@@ -20744,7 +20728,7 @@
         <v>399</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>13</v>
@@ -20753,7 +20737,7 @@
         <v>401</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I32" s="11">
         <v>100</v>
@@ -20776,7 +20760,7 @@
         <v>28273</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>50</v>
@@ -20802,7 +20786,7 @@
         <v>19</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>13</v>
@@ -20811,7 +20795,7 @@
         <v>22</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="I34" s="11">
         <v>98.963730569948183</v>
@@ -20831,7 +20815,7 @@
         <v>144</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>21</v>
@@ -20840,7 +20824,7 @@
         <v>146</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="I35" s="11">
         <v>99.481865284974091</v>
@@ -20907,7 +20891,7 @@
         <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -20916,7 +20900,7 @@
         <v>59</v>
       </c>
       <c r="H2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="I2" s="1">
         <v>100</v>
@@ -20936,7 +20920,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -20945,7 +20929,7 @@
         <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="I3" s="1">
         <v>100</v>
@@ -20965,7 +20949,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -20974,7 +20958,7 @@
         <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I4" s="1">
         <v>100</v>
@@ -20994,7 +20978,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -21003,7 +20987,7 @@
         <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I5" s="1">
         <v>95.454545454545453</v>
@@ -21023,7 +21007,7 @@
         <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -21032,7 +21016,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="I6" s="1">
         <v>100</v>
@@ -21052,7 +21036,7 @@
         <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
@@ -21061,7 +21045,7 @@
         <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I7" s="1">
         <v>100</v>
@@ -21081,7 +21065,7 @@
         <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F8" t="s">
         <v>45</v>
@@ -21090,7 +21074,7 @@
         <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I8" s="1">
         <v>100</v>
@@ -21110,7 +21094,7 @@
         <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F9" t="s">
         <v>45</v>
@@ -21119,7 +21103,7 @@
         <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I9" s="1">
         <v>100</v>
@@ -21139,7 +21123,7 @@
         <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F10" t="s">
         <v>45</v>
@@ -21148,7 +21132,7 @@
         <v>69</v>
       </c>
       <c r="H10" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I10" s="1">
         <v>100</v>
@@ -21168,7 +21152,7 @@
         <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F11" t="s">
         <v>45</v>
@@ -21177,7 +21161,7 @@
         <v>69</v>
       </c>
       <c r="H11" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I11" s="1">
         <v>100</v>
@@ -21197,7 +21181,7 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F12" t="s">
         <v>45</v>
@@ -21206,7 +21190,7 @@
         <v>69</v>
       </c>
       <c r="H12" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I12" s="1">
         <v>100</v>
@@ -21226,7 +21210,7 @@
         <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F13" t="s">
         <v>45</v>
@@ -21235,7 +21219,7 @@
         <v>69</v>
       </c>
       <c r="H13" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I13" s="1">
         <v>100</v>
@@ -21255,7 +21239,7 @@
         <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F14" t="s">
         <v>45</v>
@@ -21264,7 +21248,7 @@
         <v>69</v>
       </c>
       <c r="H14" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I14" s="1">
         <v>100</v>
@@ -21284,7 +21268,7 @@
         <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F15" t="s">
         <v>45</v>
@@ -21293,7 +21277,7 @@
         <v>69</v>
       </c>
       <c r="H15" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I15" s="1">
         <v>100</v>
@@ -21313,7 +21297,7 @@
         <v>122</v>
       </c>
       <c r="E16" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
@@ -21322,7 +21306,7 @@
         <v>124</v>
       </c>
       <c r="H16" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="I16" s="1">
         <v>95.454545454545453</v>
@@ -21632,7 +21616,7 @@
         <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F27" t="s">
         <v>21</v>
@@ -21641,7 +21625,7 @@
         <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="I27" s="1">
         <v>86.36363636363636</v>
@@ -21661,7 +21645,7 @@
         <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
@@ -21670,7 +21654,7 @@
         <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="I28" s="1">
         <v>86.36363636363636</v>
@@ -21690,7 +21674,7 @@
         <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F29" t="s">
         <v>21</v>
@@ -21699,7 +21683,7 @@
         <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="I29" s="1">
         <v>100</v>
@@ -21748,7 +21732,7 @@
         <v>71</v>
       </c>
       <c r="E31" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F31" t="s">
         <v>21</v>
@@ -21757,7 +21741,7 @@
         <v>73</v>
       </c>
       <c r="H31" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I31" s="1">
         <v>100</v>
@@ -21780,7 +21764,7 @@
         <v>28273</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G32" t="s">
         <v>50</v>
@@ -21806,7 +21790,7 @@
         <v>19</v>
       </c>
       <c r="E33" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F33" t="s">
         <v>13</v>
@@ -21815,7 +21799,7 @@
         <v>22</v>
       </c>
       <c r="H33" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I33" s="1">
         <v>100</v>
@@ -21909,7 +21893,7 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -21918,7 +21902,7 @@
         <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I3" s="1">
         <v>100</v>
@@ -21939,7 +21923,7 @@
         <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -21948,7 +21932,7 @@
         <v>120</v>
       </c>
       <c r="H4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="I4" s="1">
         <v>100</v>
@@ -21969,7 +21953,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -21978,7 +21962,7 @@
         <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I5" s="1">
         <v>100</v>
@@ -22149,7 +22133,7 @@
         <v>177</v>
       </c>
       <c r="E11" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
@@ -22158,7 +22142,7 @@
         <v>179</v>
       </c>
       <c r="H11" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I11" s="1">
         <v>98.113207547169807</v>
@@ -22449,7 +22433,7 @@
         <v>264</v>
       </c>
       <c r="E21" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F21" t="s">
         <v>21</v>
@@ -22458,7 +22442,7 @@
         <v>266</v>
       </c>
       <c r="H21" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="I21" s="1">
         <v>98.113207547169807</v>
@@ -22479,7 +22463,7 @@
         <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F22" t="s">
         <v>21</v>
@@ -22488,7 +22472,7 @@
         <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I22" s="1">
         <v>96.226415094339629</v>
@@ -22509,7 +22493,7 @@
         <v>177</v>
       </c>
       <c r="E23" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
@@ -22518,7 +22502,7 @@
         <v>179</v>
       </c>
       <c r="H23" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I23" s="1">
         <v>92.452830188679243</v>
@@ -22591,7 +22575,7 @@
         <v>28273</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G2" t="s">
         <v>50</v>
@@ -23308,8 +23292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23357,7 +23341,7 @@
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -23366,7 +23350,7 @@
         <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I2" s="1">
         <v>93.333333333333329</v>
@@ -23386,7 +23370,7 @@
         <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -23395,7 +23379,7 @@
         <v>69</v>
       </c>
       <c r="H3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I3" s="1">
         <v>93.333333333333329</v>
@@ -23444,7 +23428,7 @@
         <v>140</v>
       </c>
       <c r="E5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -23453,7 +23437,7 @@
         <v>142</v>
       </c>
       <c r="H5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I5" s="1">
         <v>93.333333333333329</v>
@@ -23473,7 +23457,7 @@
         <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -23482,7 +23466,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I6" s="1">
         <v>93.333333333333329</v>
@@ -23502,7 +23486,7 @@
         <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -23511,7 +23495,7 @@
         <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I7" s="1">
         <v>93.333333333333329</v>
@@ -23528,19 +23512,19 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E8" t="s">
+        <v>818</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
         <v>819</v>
       </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>820</v>
-      </c>
-      <c r="H8" t="s">
-        <v>821</v>
       </c>
       <c r="I8" s="1">
         <v>93.333333333333329</v>
@@ -23560,7 +23544,7 @@
         <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
@@ -23569,7 +23553,7 @@
         <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I9" s="1">
         <v>93.333333333333329</v>
@@ -23589,7 +23573,7 @@
         <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
@@ -23598,7 +23582,7 @@
         <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="I10" s="1">
         <v>93.333333333333329</v>
@@ -23618,7 +23602,7 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -23627,7 +23611,7 @@
         <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="I11" s="1">
         <v>93.333333333333329</v>
@@ -23647,7 +23631,7 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -23656,7 +23640,7 @@
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="I12" s="1">
         <v>93.333333333333329</v>
@@ -23676,7 +23660,7 @@
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F13" t="s">
         <v>21</v>
@@ -23685,7 +23669,7 @@
         <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I13" s="1">
         <v>93.333333333333329</v>
@@ -23734,7 +23718,7 @@
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F15" t="s">
         <v>45</v>
@@ -23743,7 +23727,7 @@
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="I15" s="1">
         <v>80</v>
@@ -23763,7 +23747,7 @@
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F16" t="s">
         <v>45</v>
@@ -23772,7 +23756,7 @@
         <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="I16" s="1">
         <v>80</v>
@@ -23792,7 +23776,7 @@
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F17" t="s">
         <v>45</v>
@@ -23801,7 +23785,7 @@
         <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="I17" s="1">
         <v>80</v>
@@ -23821,7 +23805,7 @@
         <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F18" t="s">
         <v>45</v>
@@ -23830,7 +23814,7 @@
         <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="I18" s="1">
         <v>80</v>
@@ -23850,7 +23834,7 @@
         <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F19" t="s">
         <v>45</v>
@@ -23859,7 +23843,7 @@
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="I19" s="1">
         <v>80</v>
@@ -23879,7 +23863,7 @@
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F20" t="s">
         <v>45</v>
@@ -23888,7 +23872,7 @@
         <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="I20" s="1">
         <v>80</v>
@@ -23902,13 +23886,13 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F21" t="s">
         <v>150</v>
@@ -23917,7 +23901,7 @@
         <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I21" s="1">
         <v>73.333333333333329</v>
@@ -23966,7 +23950,7 @@
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
@@ -23975,7 +23959,7 @@
         <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="I23" s="1">
         <v>100</v>
@@ -23995,7 +23979,7 @@
         <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F24" t="s">
         <v>21</v>
@@ -24004,7 +23988,7 @@
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="I24" s="1">
         <v>100</v>
@@ -24024,7 +24008,7 @@
         <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
@@ -24033,7 +24017,7 @@
         <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I25" s="1">
         <v>73.333333333333329</v>
@@ -24082,7 +24066,7 @@
         <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F27" t="s">
         <v>21</v>
@@ -24091,7 +24075,7 @@
         <v>22</v>
       </c>
       <c r="H27" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="I27" s="1">
         <v>93.333333333333329</v>
@@ -24111,7 +24095,7 @@
         <v>19</v>
       </c>
       <c r="E28" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
@@ -24120,7 +24104,7 @@
         <v>22</v>
       </c>
       <c r="H28" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I28" s="1">
         <v>93.333333333333329</v>
@@ -24184,7 +24168,7 @@
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -24193,7 +24177,7 @@
         <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="I2" s="1">
         <v>100</v>
@@ -24213,7 +24197,7 @@
         <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -24222,7 +24206,7 @@
         <v>69</v>
       </c>
       <c r="H3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="I3" s="1">
         <v>100</v>
@@ -24242,7 +24226,7 @@
         <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -24251,7 +24235,7 @@
         <v>69</v>
       </c>
       <c r="H4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="I4" s="1">
         <v>100</v>
@@ -24271,7 +24255,7 @@
         <v>260</v>
       </c>
       <c r="E5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -24280,7 +24264,7 @@
         <v>262</v>
       </c>
       <c r="H5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="I5" s="1">
         <v>100</v>
@@ -24300,7 +24284,7 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -24309,7 +24293,7 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I6" s="1">
         <v>99.166666666666671</v>
@@ -24329,7 +24313,7 @@
         <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -24338,7 +24322,7 @@
         <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I7" s="1">
         <v>98.333333333333329</v>
@@ -24358,7 +24342,7 @@
         <v>144</v>
       </c>
       <c r="E8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
@@ -24367,7 +24351,7 @@
         <v>146</v>
       </c>
       <c r="H8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="I8" s="1">
         <v>98.333333333333329</v>
@@ -24387,7 +24371,7 @@
         <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
@@ -24396,7 +24380,7 @@
         <v>73</v>
       </c>
       <c r="H9" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="I9" s="1">
         <v>98.333333333333329</v>
@@ -24445,7 +24429,7 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -24454,7 +24438,7 @@
         <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I11" s="1">
         <v>98.333333333333329</v>
@@ -24474,7 +24458,7 @@
         <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
@@ -24483,7 +24467,7 @@
         <v>69</v>
       </c>
       <c r="H12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I12" s="1">
         <v>96.666666666666671</v>
@@ -24503,7 +24487,7 @@
         <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -24512,7 +24496,7 @@
         <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I13" s="1">
         <v>96.666666666666671</v>
@@ -24556,7 +24540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A45"/>
     </sheetView>
   </sheetViews>
@@ -24608,7 +24592,7 @@
         <v>343</v>
       </c>
       <c r="E2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -24617,7 +24601,7 @@
         <v>345</v>
       </c>
       <c r="H2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I2" s="1">
         <v>100</v>
@@ -24637,7 +24621,7 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -24646,7 +24630,7 @@
         <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I3" s="1">
         <v>99.122807017543863</v>
@@ -24666,7 +24650,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -24675,7 +24659,7 @@
         <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="I4" s="1">
         <v>99.122807017543863</v>
@@ -24695,7 +24679,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -24704,7 +24688,7 @@
         <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I5" s="1">
         <v>100</v>
@@ -24724,7 +24708,7 @@
         <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -24733,7 +24717,7 @@
         <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="I6" s="1">
         <v>100</v>
@@ -24782,7 +24766,7 @@
         <v>140</v>
       </c>
       <c r="E8" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -24791,7 +24775,7 @@
         <v>142</v>
       </c>
       <c r="H8" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I8" s="1">
         <v>98.245614035087712</v>
@@ -25072,7 +25056,7 @@
         <v>264</v>
       </c>
       <c r="E18" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F18" t="s">
         <v>21</v>
@@ -25081,7 +25065,7 @@
         <v>266</v>
       </c>
       <c r="H18" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I18" s="1">
         <v>100</v>
@@ -25101,7 +25085,7 @@
         <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
@@ -25110,7 +25094,7 @@
         <v>41</v>
       </c>
       <c r="H19" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I19" s="1">
         <v>96.491228070175438</v>
@@ -25130,7 +25114,7 @@
         <v>177</v>
       </c>
       <c r="E20" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
@@ -25139,7 +25123,7 @@
         <v>179</v>
       </c>
       <c r="H20" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I20" s="1">
         <v>97.368421052631575</v>
@@ -25159,7 +25143,7 @@
         <v>118</v>
       </c>
       <c r="E21" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F21" t="s">
         <v>21</v>
@@ -25168,7 +25152,7 @@
         <v>120</v>
       </c>
       <c r="H21" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I21" s="1">
         <v>100</v>
@@ -25478,7 +25462,7 @@
         <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
@@ -25487,7 +25471,7 @@
         <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I32" s="1">
         <v>100</v>
@@ -25565,7 +25549,7 @@
         <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
@@ -25574,7 +25558,7 @@
         <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I35" s="1">
         <v>99.122807017543863</v>
@@ -25652,7 +25636,7 @@
         <v>26</v>
       </c>
       <c r="E38" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
@@ -25661,7 +25645,7 @@
         <v>28</v>
       </c>
       <c r="H38" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I38" s="1">
         <v>83.333333333333343</v>
@@ -25681,7 +25665,7 @@
         <v>71</v>
       </c>
       <c r="E39" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F39" t="s">
         <v>150</v>
@@ -25690,7 +25674,7 @@
         <v>73</v>
       </c>
       <c r="H39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="I39" s="1">
         <v>88.596491228070178</v>
@@ -25710,7 +25694,7 @@
         <v>71</v>
       </c>
       <c r="E40" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F40" t="s">
         <v>150</v>
@@ -25719,7 +25703,7 @@
         <v>73</v>
       </c>
       <c r="H40" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="I40" s="1">
         <v>88.596491228070178</v>
@@ -25739,7 +25723,7 @@
         <v>71</v>
       </c>
       <c r="E41" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F41" t="s">
         <v>150</v>
@@ -25748,7 +25732,7 @@
         <v>73</v>
       </c>
       <c r="H41" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="I41" s="1">
         <v>88.596491228070178</v>
@@ -25768,7 +25752,7 @@
         <v>71</v>
       </c>
       <c r="E42" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F42" t="s">
         <v>150</v>
@@ -25777,7 +25761,7 @@
         <v>73</v>
       </c>
       <c r="H42" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="I42" s="1">
         <v>88.596491228070178</v>
@@ -25797,7 +25781,7 @@
         <v>71</v>
       </c>
       <c r="E43" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F43" t="s">
         <v>150</v>
@@ -25806,7 +25790,7 @@
         <v>73</v>
       </c>
       <c r="H43" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="I43" s="1">
         <v>88.596491228070178</v>
@@ -25879,7 +25863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A52"/>
     </sheetView>
   </sheetViews>
@@ -25960,7 +25944,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -25969,7 +25953,7 @@
         <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I3" s="1">
         <v>98.888888888888886</v>
@@ -25989,7 +25973,7 @@
         <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -25998,7 +25982,7 @@
         <v>69</v>
       </c>
       <c r="H4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I4" s="1">
         <v>97.407407407407405</v>
@@ -26018,7 +26002,7 @@
         <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -26027,7 +26011,7 @@
         <v>69</v>
       </c>
       <c r="H5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I5" s="1">
         <v>100</v>
@@ -26047,7 +26031,7 @@
         <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -26056,7 +26040,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="I6" s="1">
         <v>100</v>
@@ -26076,7 +26060,7 @@
         <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -26085,7 +26069,7 @@
         <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I7" s="1">
         <v>93.703703703703695</v>
@@ -26105,7 +26089,7 @@
         <v>264</v>
       </c>
       <c r="E8" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -26114,7 +26098,7 @@
         <v>266</v>
       </c>
       <c r="H8" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I8" s="1">
         <v>96.296296296296291</v>
@@ -26131,19 +26115,19 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
+        <v>893</v>
+      </c>
+      <c r="E9" t="s">
         <v>894</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
         <v>895</v>
       </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>896</v>
-      </c>
-      <c r="H9" t="s">
-        <v>897</v>
       </c>
       <c r="I9" s="1">
         <v>98.518518518518519</v>
@@ -26163,7 +26147,7 @@
         <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
@@ -26172,7 +26156,7 @@
         <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="I10" s="1">
         <v>83.703703703703695</v>
@@ -26192,7 +26176,7 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
@@ -26201,7 +26185,7 @@
         <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="I11" s="1">
         <v>97.037037037037038</v>
@@ -26221,7 +26205,7 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -26230,7 +26214,7 @@
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I12" s="1">
         <v>100</v>
@@ -26308,7 +26292,7 @@
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
@@ -26317,7 +26301,7 @@
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="I15" s="1">
         <v>100</v>
@@ -26366,7 +26350,7 @@
         <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F17" t="s">
         <v>150</v>
@@ -26375,7 +26359,7 @@
         <v>73</v>
       </c>
       <c r="H17" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I17" s="1">
         <v>94.814814814814824</v>
@@ -26395,7 +26379,7 @@
         <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F18" t="s">
         <v>150</v>
@@ -26404,7 +26388,7 @@
         <v>73</v>
       </c>
       <c r="H18" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I18" s="1">
         <v>94.814814814814824</v>
@@ -26424,7 +26408,7 @@
         <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F19" t="s">
         <v>150</v>
@@ -26433,7 +26417,7 @@
         <v>73</v>
       </c>
       <c r="H19" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I19" s="1">
         <v>94.814814814814824</v>
@@ -26453,7 +26437,7 @@
         <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F20" t="s">
         <v>150</v>
@@ -26462,7 +26446,7 @@
         <v>73</v>
       </c>
       <c r="H20" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I20" s="1">
         <v>94.814814814814824</v>
@@ -26482,7 +26466,7 @@
         <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F21" t="s">
         <v>150</v>
@@ -26491,7 +26475,7 @@
         <v>73</v>
       </c>
       <c r="H21" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I21" s="1">
         <v>94.814814814814824</v>
@@ -26511,7 +26495,7 @@
         <v>71</v>
       </c>
       <c r="E22" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F22" t="s">
         <v>150</v>
@@ -26520,7 +26504,7 @@
         <v>73</v>
       </c>
       <c r="H22" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I22" s="1">
         <v>94.814814814814824</v>
@@ -26540,7 +26524,7 @@
         <v>71</v>
       </c>
       <c r="E23" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F23" t="s">
         <v>150</v>
@@ -26549,7 +26533,7 @@
         <v>73</v>
       </c>
       <c r="H23" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I23" s="1">
         <v>94.814814814814824</v>
@@ -26569,7 +26553,7 @@
         <v>71</v>
       </c>
       <c r="E24" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F24" t="s">
         <v>150</v>
@@ -26578,7 +26562,7 @@
         <v>73</v>
       </c>
       <c r="H24" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I24" s="1">
         <v>94.814814814814824</v>
@@ -26598,7 +26582,7 @@
         <v>71</v>
       </c>
       <c r="E25" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F25" t="s">
         <v>150</v>
@@ -26607,7 +26591,7 @@
         <v>73</v>
       </c>
       <c r="H25" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I25" s="1">
         <v>94.814814814814824</v>
@@ -26627,7 +26611,7 @@
         <v>71</v>
       </c>
       <c r="E26" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F26" t="s">
         <v>150</v>
@@ -26636,7 +26620,7 @@
         <v>73</v>
       </c>
       <c r="H26" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I26" s="1">
         <v>94.814814814814824</v>
@@ -26656,7 +26640,7 @@
         <v>71</v>
       </c>
       <c r="E27" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F27" t="s">
         <v>150</v>
@@ -26665,7 +26649,7 @@
         <v>73</v>
       </c>
       <c r="H27" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I27" s="1">
         <v>94.814814814814824</v>
@@ -26685,7 +26669,7 @@
         <v>71</v>
       </c>
       <c r="E28" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F28" t="s">
         <v>150</v>
@@ -26694,7 +26678,7 @@
         <v>73</v>
       </c>
       <c r="H28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I28" s="1">
         <v>94.814814814814824</v>
@@ -26714,7 +26698,7 @@
         <v>71</v>
       </c>
       <c r="E29" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F29" t="s">
         <v>150</v>
@@ -26723,7 +26707,7 @@
         <v>73</v>
       </c>
       <c r="H29" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I29" s="1">
         <v>94.814814814814824</v>
@@ -26743,7 +26727,7 @@
         <v>71</v>
       </c>
       <c r="E30" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F30" t="s">
         <v>150</v>
@@ -26752,7 +26736,7 @@
         <v>73</v>
       </c>
       <c r="H30" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I30" s="1">
         <v>94.814814814814824</v>
@@ -26772,7 +26756,7 @@
         <v>71</v>
       </c>
       <c r="E31" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F31" t="s">
         <v>150</v>
@@ -26781,7 +26765,7 @@
         <v>73</v>
       </c>
       <c r="H31" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I31" s="1">
         <v>94.814814814814824</v>
@@ -26801,7 +26785,7 @@
         <v>71</v>
       </c>
       <c r="E32" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F32" t="s">
         <v>150</v>
@@ -26810,7 +26794,7 @@
         <v>73</v>
       </c>
       <c r="H32" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I32" s="1">
         <v>94.814814814814824</v>
@@ -26830,7 +26814,7 @@
         <v>71</v>
       </c>
       <c r="E33" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F33" t="s">
         <v>150</v>
@@ -26839,7 +26823,7 @@
         <v>73</v>
       </c>
       <c r="H33" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I33" s="1">
         <v>94.814814814814824</v>
@@ -26859,7 +26843,7 @@
         <v>71</v>
       </c>
       <c r="E34" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F34" t="s">
         <v>150</v>
@@ -26868,7 +26852,7 @@
         <v>73</v>
       </c>
       <c r="H34" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I34" s="1">
         <v>94.814814814814824</v>
@@ -26888,7 +26872,7 @@
         <v>71</v>
       </c>
       <c r="E35" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F35" t="s">
         <v>150</v>
@@ -26897,7 +26881,7 @@
         <v>73</v>
       </c>
       <c r="H35" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I35" s="1">
         <v>94.814814814814824</v>
@@ -26917,7 +26901,7 @@
         <v>71</v>
       </c>
       <c r="E36" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F36" t="s">
         <v>150</v>
@@ -26926,7 +26910,7 @@
         <v>73</v>
       </c>
       <c r="H36" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I36" s="1">
         <v>94.814814814814824</v>
@@ -26946,7 +26930,7 @@
         <v>71</v>
       </c>
       <c r="E37" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F37" t="s">
         <v>150</v>
@@ -26955,7 +26939,7 @@
         <v>73</v>
       </c>
       <c r="H37" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I37" s="1">
         <v>94.814814814814824</v>
@@ -26975,7 +26959,7 @@
         <v>71</v>
       </c>
       <c r="E38" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F38" t="s">
         <v>150</v>
@@ -26984,7 +26968,7 @@
         <v>73</v>
       </c>
       <c r="H38" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I38" s="1">
         <v>94.814814814814824</v>
@@ -27004,7 +26988,7 @@
         <v>71</v>
       </c>
       <c r="E39" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F39" t="s">
         <v>150</v>
@@ -27013,7 +26997,7 @@
         <v>73</v>
       </c>
       <c r="H39" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I39" s="1">
         <v>94.814814814814824</v>
@@ -27033,7 +27017,7 @@
         <v>71</v>
       </c>
       <c r="E40" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F40" t="s">
         <v>150</v>
@@ -27042,7 +27026,7 @@
         <v>73</v>
       </c>
       <c r="H40" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I40" s="1">
         <v>94.814814814814824</v>
@@ -27062,7 +27046,7 @@
         <v>71</v>
       </c>
       <c r="E41" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F41" t="s">
         <v>150</v>
@@ -27071,7 +27055,7 @@
         <v>73</v>
       </c>
       <c r="H41" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I41" s="1">
         <v>94.814814814814824</v>
@@ -27091,7 +27075,7 @@
         <v>71</v>
       </c>
       <c r="E42" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F42" t="s">
         <v>150</v>
@@ -27100,7 +27084,7 @@
         <v>73</v>
       </c>
       <c r="H42" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I42" s="1">
         <v>94.814814814814824</v>
@@ -27120,7 +27104,7 @@
         <v>71</v>
       </c>
       <c r="E43" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F43" t="s">
         <v>150</v>
@@ -27129,7 +27113,7 @@
         <v>73</v>
       </c>
       <c r="H43" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I43" s="1">
         <v>94.814814814814824</v>
@@ -27149,7 +27133,7 @@
         <v>71</v>
       </c>
       <c r="E44" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F44" t="s">
         <v>150</v>
@@ -27158,7 +27142,7 @@
         <v>73</v>
       </c>
       <c r="H44" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I44" s="1">
         <v>94.814814814814824</v>
@@ -27178,7 +27162,7 @@
         <v>71</v>
       </c>
       <c r="E45" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F45" t="s">
         <v>150</v>
@@ -27187,7 +27171,7 @@
         <v>73</v>
       </c>
       <c r="H45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I45" s="1">
         <v>94.814814814814824</v>
@@ -27207,7 +27191,7 @@
         <v>71</v>
       </c>
       <c r="E46" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F46" t="s">
         <v>150</v>
@@ -27216,7 +27200,7 @@
         <v>73</v>
       </c>
       <c r="H46" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I46" s="1">
         <v>94.814814814814824</v>
@@ -27236,7 +27220,7 @@
         <v>71</v>
       </c>
       <c r="E47" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F47" t="s">
         <v>150</v>
@@ -27245,7 +27229,7 @@
         <v>73</v>
       </c>
       <c r="H47" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I47" s="1">
         <v>94.814814814814824</v>
@@ -27265,7 +27249,7 @@
         <v>71</v>
       </c>
       <c r="E48" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F48" t="s">
         <v>150</v>
@@ -27274,7 +27258,7 @@
         <v>73</v>
       </c>
       <c r="H48" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I48" s="1">
         <v>94.814814814814824</v>
@@ -27294,7 +27278,7 @@
         <v>71</v>
       </c>
       <c r="E49" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F49" t="s">
         <v>150</v>
@@ -27303,7 +27287,7 @@
         <v>73</v>
       </c>
       <c r="H49" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I49" s="1">
         <v>94.814814814814824</v>
@@ -27323,7 +27307,7 @@
         <v>71</v>
       </c>
       <c r="E50" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F50" t="s">
         <v>150</v>
@@ -27332,7 +27316,7 @@
         <v>73</v>
       </c>
       <c r="H50" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I50" s="1">
         <v>94.814814814814824</v>
@@ -27455,7 +27439,7 @@
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -27464,7 +27448,7 @@
         <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="I2" s="1">
         <v>95.890410958904098</v>
@@ -27484,7 +27468,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -27493,7 +27477,7 @@
         <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="I3" s="1">
         <v>94.520547945205479</v>
@@ -27513,7 +27497,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -27522,7 +27506,7 @@
         <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="I4" s="1">
         <v>97.260273972602747</v>
@@ -27597,19 +27581,19 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E7" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H7" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="I7" s="1">
         <v>98.630136986301366</v>
@@ -27629,7 +27613,7 @@
         <v>177</v>
       </c>
       <c r="E8" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -27638,7 +27622,7 @@
         <v>179</v>
       </c>
       <c r="H8" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="I8" s="1">
         <v>97.260273972602747</v>
@@ -27658,7 +27642,7 @@
         <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
@@ -27667,7 +27651,7 @@
         <v>120</v>
       </c>
       <c r="H9" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I9" s="1">
         <v>100</v>
@@ -27687,7 +27671,7 @@
         <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
@@ -27696,7 +27680,7 @@
         <v>120</v>
       </c>
       <c r="H10" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="I10" s="1">
         <v>94.520547945205479</v>
@@ -27716,7 +27700,7 @@
         <v>318</v>
       </c>
       <c r="E11" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
@@ -27725,7 +27709,7 @@
         <v>320</v>
       </c>
       <c r="H11" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="I11" s="1">
         <v>97.260273972602747</v>
@@ -27774,7 +27758,7 @@
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F13" t="s">
         <v>55</v>
@@ -27783,7 +27767,7 @@
         <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="I13" s="1">
         <v>82.191780821917803</v>
@@ -27803,7 +27787,7 @@
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F14" t="s">
         <v>55</v>
@@ -27812,7 +27796,7 @@
         <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="I14" s="1">
         <v>82.191780821917803</v>
@@ -27832,7 +27816,7 @@
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F15" t="s">
         <v>55</v>
@@ -27841,7 +27825,7 @@
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="I15" s="1">
         <v>82.191780821917803</v>
@@ -27861,7 +27845,7 @@
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
@@ -27870,7 +27854,7 @@
         <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="I16" s="1">
         <v>86.301369863013704</v>
@@ -27890,7 +27874,7 @@
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
@@ -27899,7 +27883,7 @@
         <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="I17" s="1">
         <v>86.301369863013704</v>
@@ -27919,7 +27903,7 @@
         <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
@@ -27928,7 +27912,7 @@
         <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="I18" s="1">
         <v>95.890410958904098</v>
@@ -28093,7 +28077,7 @@
         <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F24" t="s">
         <v>150</v>
@@ -28102,7 +28086,7 @@
         <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I24" s="1">
         <v>87.671232876712324</v>
@@ -28122,7 +28106,7 @@
         <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F25" t="s">
         <v>150</v>
@@ -28131,7 +28115,7 @@
         <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I25" s="1">
         <v>87.671232876712324</v>
@@ -28151,7 +28135,7 @@
         <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F26" t="s">
         <v>150</v>
@@ -28160,7 +28144,7 @@
         <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I26" s="1">
         <v>87.671232876712324</v>
@@ -28180,7 +28164,7 @@
         <v>43</v>
       </c>
       <c r="E27" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F27" t="s">
         <v>150</v>
@@ -28189,7 +28173,7 @@
         <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I27" s="1">
         <v>87.671232876712324</v>
@@ -28218,7 +28202,7 @@
         <v>50</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="I28" s="1">
         <v>91.780821917808225</v>
@@ -28238,7 +28222,7 @@
         <v>71</v>
       </c>
       <c r="E29" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
@@ -28247,7 +28231,7 @@
         <v>73</v>
       </c>
       <c r="H29" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="I29" s="1">
         <v>100</v>
@@ -28267,7 +28251,7 @@
         <v>71</v>
       </c>
       <c r="E30" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
@@ -28276,7 +28260,7 @@
         <v>73</v>
       </c>
       <c r="H30" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="I30" s="1">
         <v>100</v>
@@ -28350,7 +28334,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A22"/>
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28410,7 +28394,7 @@
         <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="I2" s="1">
         <v>88.333333333333329</v>
@@ -28430,7 +28414,7 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -28439,7 +28423,7 @@
         <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="I3" s="1">
         <v>88.333333333333329</v>
@@ -28459,7 +28443,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -28468,7 +28452,7 @@
         <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="I4" s="1">
         <v>88.333333333333329</v>
@@ -28488,7 +28472,7 @@
         <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -28497,7 +28481,7 @@
         <v>69</v>
       </c>
       <c r="H5" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="I5" s="1">
         <v>88.333333333333329</v>
@@ -28546,7 +28530,7 @@
         <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -28555,7 +28539,7 @@
         <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I7" s="1">
         <v>88.333333333333329</v>
@@ -28575,7 +28559,7 @@
         <v>690</v>
       </c>
       <c r="E8" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -28584,7 +28568,7 @@
         <v>692</v>
       </c>
       <c r="H8" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="I8" s="1">
         <v>88.333333333333329</v>
@@ -28604,7 +28588,7 @@
         <v>264</v>
       </c>
       <c r="E9" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
@@ -28613,7 +28597,7 @@
         <v>266</v>
       </c>
       <c r="H9" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="I9" s="1">
         <v>88.333333333333329</v>
@@ -28633,7 +28617,7 @@
         <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -28642,7 +28626,7 @@
         <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="I10" s="1">
         <v>88.333333333333329</v>
@@ -28662,7 +28646,7 @@
         <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
@@ -28671,7 +28655,7 @@
         <v>120</v>
       </c>
       <c r="H11" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="I11" s="1">
         <v>88.333333333333329</v>
@@ -28691,7 +28675,7 @@
         <v>318</v>
       </c>
       <c r="E12" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
@@ -28700,7 +28684,7 @@
         <v>320</v>
       </c>
       <c r="H12" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="I12" s="1">
         <v>83.333333333333343</v>
@@ -28749,7 +28733,7 @@
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
@@ -28758,7 +28742,7 @@
         <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="I14" s="1">
         <v>83.333333333333343</v>
@@ -28778,7 +28762,7 @@
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
@@ -28787,7 +28771,7 @@
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="I15" s="1">
         <v>88.333333333333329</v>
@@ -28836,7 +28820,7 @@
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
@@ -28845,7 +28829,7 @@
         <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I17" s="1">
         <v>81.666666666666671</v>
@@ -28865,7 +28849,7 @@
         <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
@@ -28874,7 +28858,7 @@
         <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="I18" s="1">
         <v>86.666666666666671</v>
@@ -28894,7 +28878,7 @@
         <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
@@ -28903,7 +28887,7 @@
         <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="I19" s="1">
         <v>88.333333333333329</v>
@@ -29006,7 +28990,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A31"/>
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29057,7 +29041,7 @@
         <v>343</v>
       </c>
       <c r="E2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -29066,7 +29050,7 @@
         <v>345</v>
       </c>
       <c r="H2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I2" s="1">
         <v>98.648648648648646</v>
@@ -29086,7 +29070,7 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -29095,7 +29079,7 @@
         <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="I3" s="1">
         <v>100</v>
@@ -29115,7 +29099,7 @@
         <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -29124,7 +29108,7 @@
         <v>69</v>
       </c>
       <c r="H4" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="I4" s="1">
         <v>100</v>
@@ -29202,7 +29186,7 @@
         <v>264</v>
       </c>
       <c r="E7" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -29211,7 +29195,7 @@
         <v>266</v>
       </c>
       <c r="H7" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="I7" s="1">
         <v>100</v>
@@ -29231,7 +29215,7 @@
         <v>177</v>
       </c>
       <c r="E8" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -29240,7 +29224,7 @@
         <v>179</v>
       </c>
       <c r="H8" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="I8" s="1">
         <v>97.297297297297305</v>
@@ -29260,7 +29244,7 @@
         <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
@@ -29269,7 +29253,7 @@
         <v>120</v>
       </c>
       <c r="H9" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="I9" s="1">
         <v>95.945945945945937</v>
@@ -29289,7 +29273,7 @@
         <v>122</v>
       </c>
       <c r="E10" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
@@ -29298,7 +29282,7 @@
         <v>124</v>
       </c>
       <c r="H10" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="I10" s="1">
         <v>100</v>
@@ -29318,7 +29302,7 @@
         <v>122</v>
       </c>
       <c r="E11" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
@@ -29327,7 +29311,7 @@
         <v>124</v>
       </c>
       <c r="H11" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I11" s="1">
         <v>100</v>
@@ -29347,7 +29331,7 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F12" t="s">
         <v>150</v>
@@ -29356,7 +29340,7 @@
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I12" s="1">
         <v>100</v>
@@ -29376,7 +29360,7 @@
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F13" t="s">
         <v>150</v>
@@ -29385,7 +29369,7 @@
         <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I13" s="1">
         <v>100</v>
@@ -29405,7 +29389,7 @@
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F14" t="s">
         <v>150</v>
@@ -29414,7 +29398,7 @@
         <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I14" s="1">
         <v>100</v>
@@ -29434,7 +29418,7 @@
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F15" t="s">
         <v>150</v>
@@ -29443,7 +29427,7 @@
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I15" s="1">
         <v>100</v>
@@ -29463,7 +29447,7 @@
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F16" t="s">
         <v>150</v>
@@ -29472,7 +29456,7 @@
         <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I16" s="1">
         <v>100</v>
@@ -29492,7 +29476,7 @@
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F17" t="s">
         <v>150</v>
@@ -29501,7 +29485,7 @@
         <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I17" s="1">
         <v>100</v>
@@ -29521,7 +29505,7 @@
         <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F18" t="s">
         <v>45</v>
@@ -29530,7 +29514,7 @@
         <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I18" s="1">
         <v>98.648648648648646</v>
@@ -29550,7 +29534,7 @@
         <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F19" t="s">
         <v>45</v>
@@ -29559,7 +29543,7 @@
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I19" s="1">
         <v>98.648648648648646</v>
@@ -29579,7 +29563,7 @@
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F20" t="s">
         <v>45</v>
@@ -29588,7 +29572,7 @@
         <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I20" s="1">
         <v>98.648648648648646</v>
@@ -29608,7 +29592,7 @@
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
@@ -29617,7 +29601,7 @@
         <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="I21" s="1">
         <v>100</v>
@@ -29666,7 +29650,7 @@
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
@@ -29675,7 +29659,7 @@
         <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="I23" s="1">
         <v>100</v>
@@ -29724,7 +29708,7 @@
         <v>104</v>
       </c>
       <c r="E25" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
@@ -29733,7 +29717,7 @@
         <v>106</v>
       </c>
       <c r="H25" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="I25" s="1">
         <v>100</v>
@@ -29753,7 +29737,7 @@
         <v>26</v>
       </c>
       <c r="E26" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
@@ -29762,7 +29746,7 @@
         <v>28</v>
       </c>
       <c r="H26" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I26" s="1">
         <v>93.243243243243242</v>
@@ -29814,7 +29798,7 @@
         <v>28273</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G28" t="s">
         <v>50</v>
@@ -29840,7 +29824,7 @@
         <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
@@ -29849,7 +29833,7 @@
         <v>22</v>
       </c>
       <c r="H29" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="I29" s="1">
         <v>100</v>
@@ -29922,7 +29906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -29971,7 +29955,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>13</v>
@@ -29980,7 +29964,7 @@
         <v>59</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="I2" s="11">
         <v>100</v>
@@ -30000,7 +29984,7 @@
         <v>35</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>13</v>
@@ -30009,7 +29993,7 @@
         <v>37</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="I3" s="11">
         <v>100</v>
@@ -30029,7 +30013,7 @@
         <v>67</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>21</v>
@@ -30038,7 +30022,7 @@
         <v>69</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="I4" s="11">
         <v>100</v>
@@ -30058,7 +30042,7 @@
         <v>260</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>21</v>
@@ -30067,7 +30051,7 @@
         <v>262</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="I5" s="11">
         <v>100</v>
@@ -30087,7 +30071,7 @@
         <v>264</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>21</v>
@@ -30096,7 +30080,7 @@
         <v>266</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I6" s="11">
         <v>100</v>
@@ -30113,19 +30097,19 @@
         <v>16</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>819</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>1020</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>820</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>1021</v>
       </c>
       <c r="I7" s="11">
         <v>78.899082568807344</v>
@@ -30145,7 +30129,7 @@
         <v>177</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>13</v>
@@ -30154,7 +30138,7 @@
         <v>179</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="I8" s="11">
         <v>100</v>
@@ -30174,7 +30158,7 @@
         <v>118</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>21</v>
@@ -30183,7 +30167,7 @@
         <v>120</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I9" s="11">
         <v>99.082568807339456</v>
@@ -30203,7 +30187,7 @@
         <v>318</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>13</v>
@@ -30212,7 +30196,7 @@
         <v>320</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="I10" s="11">
         <v>100</v>
@@ -30232,7 +30216,7 @@
         <v>122</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>13</v>
@@ -30241,7 +30225,7 @@
         <v>124</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="I11" s="11">
         <v>100</v>
@@ -30261,7 +30245,7 @@
         <v>43</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>13</v>
@@ -30270,7 +30254,7 @@
         <v>46</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I12" s="11">
         <v>98.165137614678898</v>
@@ -31154,7 +31138,7 @@
         <v>28273</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G30" t="s">
         <v>50</v>

--- a/mutationsTable.xlsx
+++ b/mutationsTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" firstSheet="16" activeTab="29"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="B.1.1.7" sheetId="13" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7580" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7573" uniqueCount="1029">
   <si>
     <t>Position</t>
   </si>
@@ -4695,16 +4695,17 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="56.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5200,67 +5201,67 @@
         <v>99.407281964436919</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>14408</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="I18" s="7">
-        <v>99.407281964436919</v>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18171</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" t="s">
+        <v>285</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>120</v>
+      </c>
+      <c r="H18" t="s">
+        <v>286</v>
+      </c>
+      <c r="I18" s="2">
+        <v>98.56054191363252</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18171</v>
+        <v>20724</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E19" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F19" t="s">
         <v>21</v>
       </c>
       <c r="G19" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H19" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I19" s="2">
-        <v>98.56054191363252</v>
+        <v>98.729889923793394</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>20724</v>
+        <v>21717</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -5269,59 +5270,59 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="I20" s="2">
-        <v>98.729889923793394</v>
+        <v>79.000846740050804</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>21717</v>
+        <v>21764</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>727</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="G21" t="s">
         <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I21" s="2">
-        <v>79.000846740050804</v>
+        <v>93.226079593564776</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21764</v>
+        <v>21767</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
         <v>727</v>
@@ -5330,7 +5331,7 @@
         <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F22" t="s">
         <v>150</v>
@@ -5339,18 +5340,18 @@
         <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I22" s="2">
-        <v>93.226079593564776</v>
+        <v>93.310753598645206</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>21767</v>
+        <v>21768</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
         <v>727</v>
@@ -5376,10 +5377,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>21768</v>
+        <v>21769</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
         <v>727</v>
@@ -5405,10 +5406,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>21769</v>
+        <v>21770</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
         <v>727</v>
@@ -5434,10 +5435,10 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>21770</v>
+        <v>21993</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
         <v>727</v>
@@ -5446,27 +5447,27 @@
         <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>293</v>
+        <v>93</v>
       </c>
       <c r="F26" t="s">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="G26" t="s">
         <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>294</v>
+        <v>94</v>
       </c>
       <c r="I26" s="2">
-        <v>93.310753598645206</v>
+        <v>93.903471634208302</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>21993</v>
+        <v>21994</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
         <v>727</v>
@@ -5492,7 +5493,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>21994</v>
+        <v>21995</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
@@ -5521,48 +5522,48 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>21995</v>
+        <v>23012</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>727</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
         <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
+        <v>226</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
         <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>94</v>
+        <v>227</v>
       </c>
       <c r="I29" s="2">
-        <v>93.903471634208302</v>
+        <v>98.899237933954282</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>23012</v>
+        <v>24224</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
         <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>226</v>
+        <v>297</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
@@ -5571,44 +5572,44 @@
         <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>227</v>
+        <v>298</v>
       </c>
       <c r="I30" s="2">
-        <v>98.899237933954282</v>
+        <v>99.830651989839112</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>24224</v>
+        <v>24748</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G31" t="s">
         <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I31" s="2">
-        <v>99.830651989839112</v>
+        <v>99.661303979678237</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>24748</v>
+        <v>26305</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
@@ -5617,85 +5618,85 @@
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="E32" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="H32" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I32" s="2">
-        <v>99.661303979678237</v>
+        <v>83.149872988992385</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>26305</v>
+        <v>26767</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" t="s">
+        <v>303</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>106</v>
+      </c>
+      <c r="H33" t="s">
+        <v>304</v>
+      </c>
+      <c r="I33" s="2">
         <v>100</v>
-      </c>
-      <c r="E33" t="s">
-        <v>301</v>
-      </c>
-      <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s">
-        <v>102</v>
-      </c>
-      <c r="H33" t="s">
-        <v>302</v>
-      </c>
-      <c r="I33" s="2">
-        <v>83.149872988992385</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>26767</v>
+        <v>27205</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>727</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="E34" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="G34" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="H34" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="I34" s="2">
-        <v>100</v>
+        <v>95.427603725656212</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>27205</v>
+        <v>27206</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
@@ -5724,7 +5725,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>27206</v>
+        <v>27207</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
@@ -5753,39 +5754,39 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>27207</v>
+        <v>28278</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
         <v>727</v>
       </c>
       <c r="D37" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="E37" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F37" t="s">
         <v>45</v>
       </c>
       <c r="G37" t="s">
-        <v>151</v>
+        <v>22</v>
       </c>
       <c r="H37" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I37" s="2">
-        <v>95.427603725656212</v>
+        <v>93.141405588484332</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>28278</v>
+        <v>28279</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
         <v>727</v>
@@ -5811,10 +5812,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>28279</v>
+        <v>28280</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
         <v>727</v>
@@ -5840,39 +5841,39 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>28280</v>
+        <v>28308</v>
       </c>
       <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
         <v>30</v>
-      </c>
-      <c r="C40" t="s">
-        <v>727</v>
       </c>
       <c r="D40" t="s">
         <v>19</v>
       </c>
       <c r="E40" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
         <v>22</v>
       </c>
       <c r="H40" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I40" s="2">
-        <v>93.141405588484332</v>
+        <v>98.645215918712964</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>28308</v>
+        <v>28699</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
         <v>30</v>
@@ -5881,105 +5882,76 @@
         <v>19</v>
       </c>
       <c r="E41" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G41" t="s">
         <v>22</v>
       </c>
       <c r="H41" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I41" s="2">
-        <v>98.645215918712964</v>
+        <v>99.407281964436919</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>28699</v>
+        <v>28887</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
         <v>19</v>
       </c>
       <c r="E42" t="s">
-        <v>311</v>
+        <v>24</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
         <v>22</v>
       </c>
       <c r="H42" t="s">
-        <v>312</v>
+        <v>25</v>
       </c>
       <c r="I42" s="2">
-        <v>99.407281964436919</v>
+        <v>97.713801862828106</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>28887</v>
+        <v>29543</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" t="s">
-        <v>24</v>
+        <v>48</v>
+      </c>
+      <c r="E43">
+        <v>29543</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G43" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="H43" t="s">
-        <v>25</v>
+        <v>313</v>
       </c>
       <c r="I43" s="2">
-        <v>97.713801862828106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>29543</v>
-      </c>
-      <c r="B44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44">
-        <v>29543</v>
-      </c>
-      <c r="F44" t="s">
-        <v>49</v>
-      </c>
-      <c r="G44" t="s">
-        <v>50</v>
-      </c>
-      <c r="H44" t="s">
-        <v>313</v>
-      </c>
-      <c r="I44" s="2">
         <v>92.294665537679933</v>
       </c>
     </row>
@@ -23292,7 +23264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>

--- a/mutationsTable.xlsx
+++ b/mutationsTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" firstSheet="17" activeTab="37"/>
   </bookViews>
   <sheets>
     <sheet name="B.1.1.7" sheetId="13" r:id="rId1"/>
@@ -49,6 +49,7 @@
     <sheet name="P.4" sheetId="34" r:id="rId35"/>
     <sheet name="A.29" sheetId="35" r:id="rId36"/>
     <sheet name="AW.1" sheetId="38" r:id="rId37"/>
+    <sheet name="B.1.1.523" sheetId="39" r:id="rId38"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7573" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7818" uniqueCount="1064">
   <si>
     <t>Position</t>
   </si>
@@ -3147,6 +3148,111 @@
   </si>
   <si>
     <t>NSP16:A188S</t>
+  </si>
+  <si>
+    <t>V94V</t>
+  </si>
+  <si>
+    <t>NSP2:V94V</t>
+  </si>
+  <si>
+    <t>N269D</t>
+  </si>
+  <si>
+    <t>NSP2:N269D</t>
+  </si>
+  <si>
+    <t>V502V</t>
+  </si>
+  <si>
+    <t>NSP2:V502V</t>
+  </si>
+  <si>
+    <t>M84V</t>
+  </si>
+  <si>
+    <t>NSP3:M84V</t>
+  </si>
+  <si>
+    <t>R1297I</t>
+  </si>
+  <si>
+    <t>NSP3:R1297I</t>
+  </si>
+  <si>
+    <t>I292I</t>
+  </si>
+  <si>
+    <t>NSP4:I292I</t>
+  </si>
+  <si>
+    <t>V303I</t>
+  </si>
+  <si>
+    <t>NSP5:V303I</t>
+  </si>
+  <si>
+    <t>V84F</t>
+  </si>
+  <si>
+    <t>NSP6:V84F</t>
+  </si>
+  <si>
+    <t>S220N</t>
+  </si>
+  <si>
+    <t>NSP12b:S220N</t>
+  </si>
+  <si>
+    <t>L227L</t>
+  </si>
+  <si>
+    <t>NSP13:L227L</t>
+  </si>
+  <si>
+    <t>L455M</t>
+  </si>
+  <si>
+    <t>NSP13:L455M</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>F306L</t>
+  </si>
+  <si>
+    <t>S:F306L</t>
+  </si>
+  <si>
+    <t>E780A</t>
+  </si>
+  <si>
+    <t>S:E780A</t>
+  </si>
+  <si>
+    <t>D839V</t>
+  </si>
+  <si>
+    <t>S:D839V</t>
+  </si>
+  <si>
+    <t>V201F</t>
+  </si>
+  <si>
+    <t>ORF3a:V201F</t>
+  </si>
+  <si>
+    <t>TTC</t>
+  </si>
+  <si>
+    <t>3'UTR:26498</t>
+  </si>
+  <si>
+    <t>G212C</t>
+  </si>
+  <si>
+    <t>N:G212C</t>
   </si>
 </sst>
 </file>
@@ -4697,7 +4803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -30237,6 +30343,1039 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1087</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I2" s="1">
+        <v>95.604395604395606</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>1610</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I3" s="1">
+        <v>96.703296703296701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>2311</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I4" s="1">
+        <v>96.703296703296701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>2969</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>1036</v>
+      </c>
+      <c r="I5" s="1">
+        <v>91.208791208791212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>6609</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I6" s="1">
+        <v>95.604395604395606</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>9430</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>1040</v>
+      </c>
+      <c r="I7" s="1">
+        <v>98.901098901098905</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>10961</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>1042</v>
+      </c>
+      <c r="I8" s="1">
+        <v>96.703296703296701</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>11222</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I9" s="1">
+        <v>97.802197802197796</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>13356</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>785</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>819</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I10" s="1">
+        <v>95.604395604395606</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>14126</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>1046</v>
+      </c>
+      <c r="I11" s="1">
+        <v>98.901098901098905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>16466</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="I12" s="1">
+        <v>98.901098901098905</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>16917</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I13" s="1">
+        <v>95.604395604395606</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>17599</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I14" s="1">
+        <v>73.626373626373635</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>22028</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="I15" s="1">
+        <v>90.109890109890117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>22029</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="I16" s="1">
+        <v>90.109890109890117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>22030</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="I17" s="1">
+        <v>90.109890109890117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>22031</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="I18" s="1">
+        <v>90.109890109890117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>22032</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="I19" s="1">
+        <v>90.109890109890117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>22033</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="I20" s="1">
+        <v>90.109890109890117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>22034</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="I21" s="1">
+        <v>90.109890109890117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>22035</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="I22" s="1">
+        <v>90.109890109890117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>22036</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="I23" s="1">
+        <v>90.109890109890117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>22478</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I24" s="1">
+        <v>94.505494505494497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>23012</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="I25" s="1">
+        <v>96.703296703296701</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>23042</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>902</v>
+      </c>
+      <c r="I26" s="1">
+        <v>97.802197802197796</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>23901</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I27" s="1">
+        <v>94.505494505494497</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>24078</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I28" s="1">
+        <v>98.901098901098905</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>24642</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="I29" s="1">
+        <v>96.703296703296701</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>25904</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="I30" s="1">
+        <v>98.901098901098905</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>25993</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>1059</v>
+      </c>
+      <c r="I31" s="1">
+        <v>92.307692307692307</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>26498</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="11">
+        <v>26498</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I32" s="1">
+        <v>80.219780219780219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>26767</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I33" s="1">
+        <v>96.703296703296701</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>28273</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="11">
+        <v>28273</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I34" s="1">
+        <v>98.901098901098905</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>28907</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I35" s="1">
+        <v>96.703296703296701</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>

--- a/mutationsTable.xlsx
+++ b/mutationsTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" firstSheet="17" activeTab="37"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" firstSheet="19" activeTab="38"/>
   </bookViews>
   <sheets>
     <sheet name="B.1.1.7" sheetId="13" r:id="rId1"/>
@@ -39,17 +39,18 @@
     <sheet name="ISR_B.1.362+L452R" sheetId="25" r:id="rId25"/>
     <sheet name="C.36.3" sheetId="26" r:id="rId26"/>
     <sheet name="C.36.3.1" sheetId="37" r:id="rId27"/>
-    <sheet name="PDI85.1" sheetId="30" r:id="rId28"/>
-    <sheet name="PDI85.2" sheetId="31" r:id="rId29"/>
-    <sheet name="PDI86" sheetId="29" r:id="rId30"/>
-    <sheet name="PDI91" sheetId="28" r:id="rId31"/>
-    <sheet name="PDI93" sheetId="27" r:id="rId32"/>
+    <sheet name="B.1.1.524" sheetId="30" r:id="rId28"/>
+    <sheet name="B.1.1.525" sheetId="31" r:id="rId29"/>
+    <sheet name="P.5" sheetId="29" r:id="rId30"/>
+    <sheet name="B.1.624" sheetId="28" r:id="rId31"/>
+    <sheet name="B.1.625" sheetId="27" r:id="rId32"/>
     <sheet name="B.1.623" sheetId="32" r:id="rId33"/>
     <sheet name="B.1.621" sheetId="33" r:id="rId34"/>
     <sheet name="P.4" sheetId="34" r:id="rId35"/>
     <sheet name="A.29" sheetId="35" r:id="rId36"/>
     <sheet name="AW.1" sheetId="38" r:id="rId37"/>
     <sheet name="B.1.1.523" sheetId="39" r:id="rId38"/>
+    <sheet name="AY.2" sheetId="40" r:id="rId39"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7818" uniqueCount="1064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8133" uniqueCount="1085">
   <si>
     <t>Position</t>
   </si>
@@ -3253,6 +3254,69 @@
   </si>
   <si>
     <t>N:G212C</t>
+  </si>
+  <si>
+    <t>D112D</t>
+  </si>
+  <si>
+    <t>NSP3:D112D</t>
+  </si>
+  <si>
+    <t>A328T</t>
+  </si>
+  <si>
+    <t>NSP3:A328T</t>
+  </si>
+  <si>
+    <t>T955T</t>
+  </si>
+  <si>
+    <t>NSP3:T955T</t>
+  </si>
+  <si>
+    <t>V149A</t>
+  </si>
+  <si>
+    <t>NSP6:V149A</t>
+  </si>
+  <si>
+    <t>T181I</t>
+  </si>
+  <si>
+    <t>NSP6:T181I</t>
+  </si>
+  <si>
+    <t>R111R</t>
+  </si>
+  <si>
+    <t>NSP9:R111R</t>
+  </si>
+  <si>
+    <t>T367I</t>
+  </si>
+  <si>
+    <t>NSP13:T367I</t>
+  </si>
+  <si>
+    <t>L177L</t>
+  </si>
+  <si>
+    <t>NSP14:L177L</t>
+  </si>
+  <si>
+    <t>V70F</t>
+  </si>
+  <si>
+    <t>S:V70F</t>
+  </si>
+  <si>
+    <t>A222V</t>
+  </si>
+  <si>
+    <t>S:A222V</t>
+  </si>
+  <si>
+    <t>file:/C:/Users/User/Documents/GitHub/covid19/README.md</t>
   </si>
 </sst>
 </file>
@@ -21893,7 +21957,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A23"/>
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24616,10 +24680,10 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A45"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25932,6 +25996,11 @@
         <v>100</v>
       </c>
     </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>1084</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25942,7 +26011,7 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A52"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27469,7 +27538,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A32"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30347,8 +30416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31369,6 +31438,1326 @@
       </c>
       <c r="I35" s="1">
         <v>96.703296703296701</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>210</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="11">
+        <v>210</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="I2" s="1">
+        <v>96.428571428571431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>2509</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="I3" s="1">
+        <v>95.238095238095227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>3055</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>1065</v>
+      </c>
+      <c r="I4" s="1">
+        <v>95.238095238095227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>3701</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>1067</v>
+      </c>
+      <c r="I5" s="1">
+        <v>95.238095238095227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>5184</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>847</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>848</v>
+      </c>
+      <c r="I6" s="1">
+        <v>97.61904761904762</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>5584</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I7" s="1">
+        <v>94.047619047619051</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>9891</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="1">
+        <v>97.61904761904762</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>11418</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>1071</v>
+      </c>
+      <c r="I9" s="1">
+        <v>97.61904761904762</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>11514</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I10" s="1">
+        <v>96.428571428571431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>13019</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>1075</v>
+      </c>
+      <c r="I11" s="1">
+        <v>96.428571428571431</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>15451</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="I12" s="1">
+        <v>96.428571428571431</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>16466</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="I13" s="1">
+        <v>97.61904761904762</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>17336</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I14" s="1">
+        <v>95.238095238095227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>18570</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I15" s="1">
+        <v>95.238095238095227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>21618</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="I16" s="1">
+        <v>96.428571428571431</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>21770</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I17" s="1">
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>21987</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="I18" s="1">
+        <v>73.80952380952381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>22029</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="I19" s="1">
+        <v>94.047619047619051</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>22030</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="I20" s="1">
+        <v>94.047619047619051</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>22031</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="I21" s="1">
+        <v>94.047619047619051</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>22032</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="I22" s="1">
+        <v>94.047619047619051</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>22033</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="I23" s="1">
+        <v>94.047619047619051</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>22034</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="I24" s="1">
+        <v>94.047619047619051</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>22227</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>1083</v>
+      </c>
+      <c r="I25" s="1">
+        <v>96.428571428571431</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>22813</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="I26" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>22917</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" s="1">
+        <v>97.61904761904762</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>22995</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="I28" s="1">
+        <v>97.61904761904762</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>23604</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="I29" s="1">
+        <v>97.61904761904762</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>24410</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="I30" s="1">
+        <v>96.428571428571431</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>25469</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="I31" s="1">
+        <v>97.61904761904762</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>26767</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I32" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>27638</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="I33" s="1">
+        <v>97.61904761904762</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>27752</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="I34" s="1">
+        <v>97.61904761904762</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>28248</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="I35" s="1">
+        <v>94.047619047619051</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>28249</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="I36" s="1">
+        <v>94.047619047619051</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>28250</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="I37" s="1">
+        <v>94.047619047619051</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>28251</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="I38" s="1">
+        <v>94.047619047619051</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>28252</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="I39" s="1">
+        <v>94.047619047619051</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>28253</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="I40" s="1">
+        <v>94.047619047619051</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>28273</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="11">
+        <v>28273</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I41" s="1">
+        <v>92.857142857142861</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>28461</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="I42" s="1">
+        <v>97.61904761904762</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>28881</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="I43" s="1">
+        <v>97.61904761904762</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>29402</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="I44" s="1">
+        <v>96.428571428571431</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>29742</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="11">
+        <v>29742</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="I45" s="1">
+        <v>97.61904761904762</v>
       </c>
     </row>
   </sheetData>

--- a/mutationsTable.xlsx
+++ b/mutationsTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" firstSheet="19" activeTab="38"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" firstSheet="19" activeTab="39"/>
   </bookViews>
   <sheets>
     <sheet name="B.1.1.7" sheetId="13" r:id="rId1"/>
@@ -51,6 +51,7 @@
     <sheet name="AW.1" sheetId="38" r:id="rId37"/>
     <sheet name="B.1.1.523" sheetId="39" r:id="rId38"/>
     <sheet name="AY.2" sheetId="40" r:id="rId39"/>
+    <sheet name="B.1.626" sheetId="41" r:id="rId40"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8133" uniqueCount="1085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8413" uniqueCount="1120">
   <si>
     <t>Position</t>
   </si>
@@ -3317,6 +3318,111 @@
   </si>
   <si>
     <t>file:/C:/Users/User/Documents/GitHub/covid19/README.md</t>
+  </si>
+  <si>
+    <t>5'UTR:241</t>
+  </si>
+  <si>
+    <t>D3Y</t>
+  </si>
+  <si>
+    <t>N:D3Y</t>
+  </si>
+  <si>
+    <t>P314L</t>
+  </si>
+  <si>
+    <t>NSP12b:P314L</t>
+  </si>
+  <si>
+    <t>P242L</t>
+  </si>
+  <si>
+    <t>NSP13:P242L</t>
+  </si>
+  <si>
+    <t>D464D</t>
+  </si>
+  <si>
+    <t>NSP2:D464D</t>
+  </si>
+  <si>
+    <t>R370H</t>
+  </si>
+  <si>
+    <t>NSP2:R370H</t>
+  </si>
+  <si>
+    <t>F106F</t>
+  </si>
+  <si>
+    <t>NSP3:F106F</t>
+  </si>
+  <si>
+    <t>S121L</t>
+  </si>
+  <si>
+    <t>NSP5:S121L</t>
+  </si>
+  <si>
+    <t>T109I</t>
+  </si>
+  <si>
+    <t>NSP9:T109I</t>
+  </si>
+  <si>
+    <t>R24C</t>
+  </si>
+  <si>
+    <t>ORF10:R24C</t>
+  </si>
+  <si>
+    <t>D614G</t>
+  </si>
+  <si>
+    <t>S:D614G</t>
+  </si>
+  <si>
+    <t>G257S</t>
+  </si>
+  <si>
+    <t>S:G257S</t>
+  </si>
+  <si>
+    <t>I934I</t>
+  </si>
+  <si>
+    <t>S:I934I</t>
+  </si>
+  <si>
+    <t>S40L</t>
+  </si>
+  <si>
+    <t>ORF3a:S40L</t>
+  </si>
+  <si>
+    <t>T64I</t>
+  </si>
+  <si>
+    <t>ORF3a:T64I</t>
+  </si>
+  <si>
+    <t>A416A</t>
+  </si>
+  <si>
+    <t>NSP4:A416A</t>
+  </si>
+  <si>
+    <t>G196G</t>
+  </si>
+  <si>
+    <t>NSP4:G196G</t>
+  </si>
+  <si>
+    <t>A285V</t>
+  </si>
+  <si>
+    <t>NSP5:A285V</t>
   </si>
 </sst>
 </file>
@@ -31449,7 +31555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -33655,6 +33761,1184 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>241</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="11">
+        <v>241</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="I2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>26767</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>987</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>988</v>
+      </c>
+      <c r="I3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>28280</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>1087</v>
+      </c>
+      <c r="I4" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>28887</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>14408</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>1089</v>
+      </c>
+      <c r="I6" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>16961</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I7" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>2197</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>1093</v>
+      </c>
+      <c r="I8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>1914</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>1059</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>3037</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>1097</v>
+      </c>
+      <c r="I11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>10416</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>1099</v>
+      </c>
+      <c r="I12" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>13011</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="I13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>29627</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>1103</v>
+      </c>
+      <c r="I14" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>27434</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="I15" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>21761</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="I16" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>21762</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="I17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>21963</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="I18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>22164</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="I19" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>22365</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="I20" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>22566</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="I21" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>22767</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="I22" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>22968</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="I23" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>23169</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="I24" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>23403</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>1105</v>
+      </c>
+      <c r="I25" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>23012</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="I26" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>23031</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="I27" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>22331</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>1107</v>
+      </c>
+      <c r="I28" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>24364</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>1109</v>
+      </c>
+      <c r="I29" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>21614</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="I30" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>23064</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>835</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>836</v>
+      </c>
+      <c r="I31" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>24138</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I32" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>28273</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="11">
+        <v>28273</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I33" s="1">
+        <v>97.297297297297305</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>25563</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I34" s="1">
+        <v>97.297297297297305</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>25511</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>1111</v>
+      </c>
+      <c r="I35" s="1">
+        <v>97.297297297297305</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>25583</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I36" s="1">
+        <v>97.297297297297305</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>9803</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>1115</v>
+      </c>
+      <c r="I37" s="1">
+        <v>94.594594594594597</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>9142</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I38" s="1">
+        <v>89.189189189189193</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>10908</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I39" s="1">
+        <v>89.189189189189193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>11222</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I40" s="1">
+        <v>89.189189189189193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I64"/>

--- a/mutationsTable.xlsx
+++ b/mutationsTable.xlsx
@@ -33765,8 +33765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/mutationsTable.xlsx
+++ b/mutationsTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" firstSheet="8" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" firstSheet="8" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="B.1.1.7" sheetId="13" r:id="rId1"/>
@@ -26,12 +26,12 @@
     <sheet name="B.1.620" sheetId="11" r:id="rId12"/>
     <sheet name="AT.1" sheetId="12" r:id="rId13"/>
     <sheet name="B.1.617.1" sheetId="14" r:id="rId14"/>
-    <sheet name="B.1.617.2" sheetId="15" r:id="rId15"/>
-    <sheet name="B.1.617.2-a" sheetId="43" r:id="rId16"/>
-    <sheet name="B.1.617.2-b" sheetId="44" r:id="rId17"/>
-    <sheet name="B.1.617.2-c" sheetId="45" r:id="rId18"/>
-    <sheet name="B.1.617.2-d" sheetId="46" r:id="rId19"/>
-    <sheet name="B.1.617.2-e" sheetId="48" r:id="rId20"/>
+    <sheet name="B.1.617.2-a" sheetId="43" r:id="rId15"/>
+    <sheet name="B.1.617.2-b" sheetId="44" r:id="rId16"/>
+    <sheet name="B.1.617.2-c" sheetId="45" r:id="rId17"/>
+    <sheet name="B.1.617.2-d" sheetId="46" r:id="rId18"/>
+    <sheet name="B.1.617.2-e" sheetId="48" r:id="rId19"/>
+    <sheet name="B.1.617.2" sheetId="15" r:id="rId20"/>
     <sheet name="B.1.617.3" sheetId="16" r:id="rId21"/>
     <sheet name="C.37" sheetId="17" r:id="rId22"/>
     <sheet name="B.1.618" sheetId="18" r:id="rId23"/>
@@ -11289,967 +11289,6 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>210</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E2">
-        <v>210</v>
-      </c>
-      <c r="F2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" t="s">
-        <v>488</v>
-      </c>
-      <c r="I2" s="1">
-        <v>99.775784753363226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>15451</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>521</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" t="s">
-        <v>522</v>
-      </c>
-      <c r="I3" s="1">
-        <v>89.91031390134529</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>16466</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E4" t="s">
-        <v>347</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H4" t="s">
-        <v>348</v>
-      </c>
-      <c r="I4" s="1">
-        <v>89.013452914798208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>21618</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>515</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>516</v>
-      </c>
-      <c r="I5" s="1">
-        <v>99.775784753363226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>22029</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>727</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>523</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>524</v>
-      </c>
-      <c r="I6" s="1">
-        <v>84.97757847533633</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>22030</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>727</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>523</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>524</v>
-      </c>
-      <c r="I7" s="1">
-        <v>84.97757847533633</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>22031</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>727</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>523</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>524</v>
-      </c>
-      <c r="I8" s="1">
-        <v>84.97757847533633</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>22032</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>727</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>523</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>524</v>
-      </c>
-      <c r="I9" s="1">
-        <v>84.97757847533633</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>22033</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>727</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>523</v>
-      </c>
-      <c r="F10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>524</v>
-      </c>
-      <c r="I10" s="1">
-        <v>84.97757847533633</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>22034</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>727</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>523</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" t="s">
-        <v>524</v>
-      </c>
-      <c r="I11" s="1">
-        <v>84.97757847533633</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>22917</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" s="1">
-        <v>99.775784753363226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>22995</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" t="s">
-        <v>518</v>
-      </c>
-      <c r="I13" s="1">
-        <v>99.551569506726452</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>23604</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>185</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" t="s">
-        <v>186</v>
-      </c>
-      <c r="I14" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>24410</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s">
-        <v>519</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" t="s">
-        <v>520</v>
-      </c>
-      <c r="I15" s="1">
-        <v>88.340807174887885</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>25469</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" t="s">
-        <v>484</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>485</v>
-      </c>
-      <c r="I16" s="1">
-        <v>99.775784753363226</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>26767</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" t="s">
-        <v>303</v>
-      </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s">
-        <v>106</v>
-      </c>
-      <c r="H17" t="s">
-        <v>304</v>
-      </c>
-      <c r="I17" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>27638</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" t="s">
-        <v>486</v>
-      </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" t="s">
-        <v>487</v>
-      </c>
-      <c r="I18" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>27752</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" t="s">
-        <v>513</v>
-      </c>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" t="s">
-        <v>514</v>
-      </c>
-      <c r="I19" s="1">
-        <v>99.551569506726452</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>28248</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" t="s">
-        <v>727</v>
-      </c>
-      <c r="D20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" t="s">
-        <v>359</v>
-      </c>
-      <c r="F20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" t="s">
-        <v>360</v>
-      </c>
-      <c r="I20" s="1">
-        <v>78.25112107623319</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>28249</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>727</v>
-      </c>
-      <c r="D21" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" t="s">
-        <v>359</v>
-      </c>
-      <c r="F21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21" t="s">
-        <v>360</v>
-      </c>
-      <c r="I21" s="1">
-        <v>78.25112107623319</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>28250</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" t="s">
-        <v>727</v>
-      </c>
-      <c r="D22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" t="s">
-        <v>359</v>
-      </c>
-      <c r="F22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H22" t="s">
-        <v>360</v>
-      </c>
-      <c r="I22" s="1">
-        <v>78.25112107623319</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>28251</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" t="s">
-        <v>727</v>
-      </c>
-      <c r="D23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" t="s">
-        <v>359</v>
-      </c>
-      <c r="F23" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" t="s">
-        <v>73</v>
-      </c>
-      <c r="H23" t="s">
-        <v>360</v>
-      </c>
-      <c r="I23" s="1">
-        <v>78.25112107623319</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>28252</v>
-      </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" t="s">
-        <v>727</v>
-      </c>
-      <c r="D24" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" t="s">
-        <v>359</v>
-      </c>
-      <c r="F24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24" t="s">
-        <v>360</v>
-      </c>
-      <c r="I24" s="1">
-        <v>78.25112107623319</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>28253</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>727</v>
-      </c>
-      <c r="D25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" t="s">
-        <v>359</v>
-      </c>
-      <c r="F25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" t="s">
-        <v>73</v>
-      </c>
-      <c r="H25" t="s">
-        <v>360</v>
-      </c>
-      <c r="I25" s="1">
-        <v>78.25112107623319</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>28273</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s">
-        <v>727</v>
-      </c>
-      <c r="D26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26">
-        <v>28273</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1008</v>
-      </c>
-      <c r="G26" t="s">
-        <v>50</v>
-      </c>
-      <c r="H26" t="s">
-        <v>99</v>
-      </c>
-      <c r="I26" s="1">
-        <v>79.596412556053806</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>28461</v>
-      </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" t="s">
-        <v>511</v>
-      </c>
-      <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" t="s">
-        <v>512</v>
-      </c>
-      <c r="I27" s="1">
-        <v>95.964125560538122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>28881</v>
-      </c>
-      <c r="B28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" t="s">
-        <v>482</v>
-      </c>
-      <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" t="s">
-        <v>483</v>
-      </c>
-      <c r="I28" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>29402</v>
-      </c>
-      <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" t="s">
-        <v>489</v>
-      </c>
-      <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" t="s">
-        <v>490</v>
-      </c>
-      <c r="I29" s="1">
-        <v>99.327354260089677</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29742</v>
-      </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30">
-        <v>29742</v>
-      </c>
-      <c r="F30" t="s">
-        <v>49</v>
-      </c>
-      <c r="G30" t="s">
-        <v>50</v>
-      </c>
-      <c r="H30" t="s">
-        <v>205</v>
-      </c>
-      <c r="I30" s="1">
-        <v>99.103139013452918</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-    </row>
-    <row r="32" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-    </row>
-    <row r="33" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-    </row>
-    <row r="34" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-    </row>
-    <row r="35" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F36" s="6"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I40" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13365,7 +12404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
@@ -14482,7 +13521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
@@ -15715,7 +14754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
@@ -16941,6 +15980,949 @@
       </c>
       <c r="I42" s="11">
         <v>98.950131233595798</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>210</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="6">
+        <v>210</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="I2" s="6">
+        <v>98.760330578512395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1191</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>1121</v>
+      </c>
+      <c r="I3" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>1267</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>1123</v>
+      </c>
+      <c r="I4" s="6">
+        <v>99.586776859504127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>5184</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="I5" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>9203</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="I6" s="6">
+        <v>99.586776859504127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>9678</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>1155</v>
+      </c>
+      <c r="I7" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>11005</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="I8" s="6">
+        <v>88.429752066115711</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>17496</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>1156</v>
+      </c>
+      <c r="I9" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>20396</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="I10" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>21618</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="I11" s="6">
+        <v>99.586776859504127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>21792</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="I12" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>22029</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="I13" s="6">
+        <v>84.297520661157023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>22030</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="I14" s="6">
+        <v>84.297520661157023</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>22031</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="I15" s="6">
+        <v>84.297520661157023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>22032</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="I16" s="6">
+        <v>84.297520661157023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>22033</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="I17" s="6">
+        <v>84.297520661157023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>22034</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="I18" s="6">
+        <v>84.297520661157023</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>22917</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>22995</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="I20" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>23604</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I21" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>24410</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="I22" s="6">
+        <v>84.710743801652882</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>25469</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="I23" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>26767</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="I24" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>27638</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="I25" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>27752</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="I26" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>28253</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I27" s="6">
+        <v>95.041322314049594</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>28273</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="6">
+        <v>28273</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I28" s="6">
+        <v>78.925619834710744</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>28461</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="I29" s="6">
+        <v>93.801652892561975</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>28881</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="I30" s="6">
+        <v>98.347107438016536</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>29402</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="I31" s="6">
+        <v>99.586776859504127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>29742</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="6">
+        <v>29742</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="I32" s="6">
+        <v>87.603305785123965</v>
       </c>
     </row>
   </sheetData>
@@ -18247,941 +18229,959 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2">
         <v>210</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>212</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2">
         <v>210</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" t="s">
         <v>488</v>
       </c>
-      <c r="I2" s="6">
-        <v>98.760330578512395</v>
+      <c r="I2" s="1">
+        <v>99.775784753363226</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>1191</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>1120</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>1121</v>
-      </c>
-      <c r="I3" s="6">
+      <c r="A3">
+        <v>15451</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>521</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>522</v>
+      </c>
+      <c r="I3" s="1">
+        <v>89.91031390134529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>16466</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" t="s">
+        <v>347</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" t="s">
+        <v>348</v>
+      </c>
+      <c r="I4" s="1">
+        <v>89.013452914798208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>21618</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>515</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>516</v>
+      </c>
+      <c r="I5" s="1">
+        <v>99.775784753363226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>22029</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>523</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>524</v>
+      </c>
+      <c r="I6" s="1">
+        <v>84.97757847533633</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>22030</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>727</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>523</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>524</v>
+      </c>
+      <c r="I7" s="1">
+        <v>84.97757847533633</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>22031</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>727</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>523</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>524</v>
+      </c>
+      <c r="I8" s="1">
+        <v>84.97757847533633</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>22032</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>727</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>523</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>524</v>
+      </c>
+      <c r="I9" s="1">
+        <v>84.97757847533633</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>22033</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>727</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>523</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>524</v>
+      </c>
+      <c r="I10" s="1">
+        <v>84.97757847533633</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>22034</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>524</v>
+      </c>
+      <c r="I11" s="1">
+        <v>84.97757847533633</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>22917</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="1">
+        <v>99.775784753363226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>22995</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>518</v>
+      </c>
+      <c r="I13" s="1">
+        <v>99.551569506726452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>23604</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>185</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>186</v>
+      </c>
+      <c r="I14" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>1267</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>1123</v>
-      </c>
-      <c r="I4" s="6">
-        <v>99.586776859504127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>5184</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>847</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>848</v>
-      </c>
-      <c r="I5" s="6">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>24410</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>519</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>520</v>
+      </c>
+      <c r="I15" s="1">
+        <v>88.340807174887885</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>25469</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
+        <v>484</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>485</v>
+      </c>
+      <c r="I16" s="1">
+        <v>99.775784753363226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>26767</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" t="s">
+        <v>303</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" t="s">
+        <v>304</v>
+      </c>
+      <c r="I17" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>9203</v>
-      </c>
-      <c r="B6" s="6" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>27638</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>486</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" t="s">
+        <v>487</v>
+      </c>
+      <c r="I18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>27752</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" t="s">
+        <v>513</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" t="s">
+        <v>514</v>
+      </c>
+      <c r="I19" s="1">
+        <v>99.551569506726452</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>28248</v>
+      </c>
+      <c r="B20" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C20" t="s">
+        <v>727</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" t="s">
+        <v>359</v>
+      </c>
+      <c r="F20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" t="s">
+        <v>360</v>
+      </c>
+      <c r="I20" s="1">
+        <v>78.25112107623319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>28249</v>
+      </c>
+      <c r="B21" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>708</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="I6" s="6">
-        <v>99.586776859504127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>9678</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>1152</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>1155</v>
-      </c>
-      <c r="I7" s="6">
+      <c r="C21" t="s">
+        <v>727</v>
+      </c>
+      <c r="D21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" t="s">
+        <v>359</v>
+      </c>
+      <c r="F21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" t="s">
+        <v>360</v>
+      </c>
+      <c r="I21" s="1">
+        <v>78.25112107623319</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>28250</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>727</v>
+      </c>
+      <c r="D22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" t="s">
+        <v>359</v>
+      </c>
+      <c r="F22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" t="s">
+        <v>360</v>
+      </c>
+      <c r="I22" s="1">
+        <v>78.25112107623319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>28251</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>727</v>
+      </c>
+      <c r="D23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" t="s">
+        <v>359</v>
+      </c>
+      <c r="F23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" t="s">
+        <v>360</v>
+      </c>
+      <c r="I23" s="1">
+        <v>78.25112107623319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>28252</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>727</v>
+      </c>
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" t="s">
+        <v>359</v>
+      </c>
+      <c r="F24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" t="s">
+        <v>360</v>
+      </c>
+      <c r="I24" s="1">
+        <v>78.25112107623319</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>28253</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>727</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" t="s">
+        <v>359</v>
+      </c>
+      <c r="F25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" t="s">
+        <v>360</v>
+      </c>
+      <c r="I25" s="1">
+        <v>78.25112107623319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>28273</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>727</v>
+      </c>
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26">
+        <v>28273</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G26" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" t="s">
+        <v>99</v>
+      </c>
+      <c r="I26" s="1">
+        <v>79.596412556053806</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>28461</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>511</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" t="s">
+        <v>512</v>
+      </c>
+      <c r="I27" s="1">
+        <v>95.964125560538122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28881</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>482</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" t="s">
+        <v>483</v>
+      </c>
+      <c r="I28" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>11005</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>889</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>890</v>
-      </c>
-      <c r="I8" s="6">
-        <v>88.429752066115711</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>17496</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="6" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29402</v>
+      </c>
+      <c r="B29" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>1153</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>1156</v>
-      </c>
-      <c r="I9" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>20396</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>489</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" t="s">
+        <v>490</v>
+      </c>
+      <c r="I29" s="1">
+        <v>99.327354260089677</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29742</v>
+      </c>
+      <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="I10" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>21618</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="I11" s="6">
-        <v>99.586776859504127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>21792</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>1154</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>1157</v>
-      </c>
-      <c r="I12" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>22029</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="I13" s="6">
-        <v>84.297520661157023</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>22030</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="I14" s="6">
-        <v>84.297520661157023</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>22031</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="I15" s="6">
-        <v>84.297520661157023</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>22032</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="I16" s="6">
-        <v>84.297520661157023</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>22033</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="I17" s="6">
-        <v>84.297520661157023</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>22034</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="I18" s="6">
-        <v>84.297520661157023</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>22917</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="I19" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>22995</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="I20" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>23604</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="I21" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>24410</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="I22" s="6">
-        <v>84.710743801652882</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>25469</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="I23" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>26767</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="I24" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>27638</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="I25" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>27752</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="I26" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>28253</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="I27" s="6">
-        <v>95.041322314049594</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>28273</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="6">
-        <v>28273</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>1007</v>
-      </c>
-      <c r="G28" s="6" t="s">
+      <c r="E30">
+        <v>29742</v>
+      </c>
+      <c r="F30" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="I28" s="6">
-        <v>78.925619834710744</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>28461</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="I29" s="6">
-        <v>93.801652892561975</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>28881</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="I30" s="6">
-        <v>98.347107438016536</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <v>29402</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="I31" s="6">
-        <v>99.586776859504127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>29742</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="6">
-        <v>29742</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H32" s="6" t="s">
+      <c r="H30" t="s">
         <v>205</v>
       </c>
-      <c r="I32" s="6">
-        <v>87.603305785123965</v>
-      </c>
+      <c r="I30" s="1">
+        <v>99.103139013452918</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+    </row>
+    <row r="32" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+    </row>
+    <row r="34" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+    </row>
+    <row r="35" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F36" s="6"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I40" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19770,7 +19770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>

--- a/mutationsTable.xlsx
+++ b/mutationsTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" firstSheet="8" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" firstSheet="26" activeTab="45"/>
   </bookViews>
   <sheets>
     <sheet name="B.1.1.7" sheetId="13" r:id="rId1"/>
@@ -55,11 +55,13 @@
     <sheet name="A.29" sheetId="35" r:id="rId41"/>
     <sheet name="AW.1" sheetId="38" r:id="rId42"/>
     <sheet name="B.1.1.523" sheetId="39" r:id="rId43"/>
-    <sheet name="AY.2" sheetId="40" r:id="rId44"/>
-    <sheet name="B.1.626" sheetId="41" r:id="rId45"/>
-    <sheet name="B.1.627" sheetId="49" r:id="rId46"/>
-    <sheet name="B.1.628" sheetId="50" r:id="rId47"/>
-    <sheet name="B.1.629" sheetId="51" r:id="rId48"/>
+    <sheet name="AY.1" sheetId="52" r:id="rId44"/>
+    <sheet name="AY.2" sheetId="40" r:id="rId45"/>
+    <sheet name="AY.3" sheetId="53" r:id="rId46"/>
+    <sheet name="B.1.626" sheetId="41" r:id="rId47"/>
+    <sheet name="B.1.627" sheetId="49" r:id="rId48"/>
+    <sheet name="B.1.628" sheetId="50" r:id="rId49"/>
+    <sheet name="B.1.629" sheetId="51" r:id="rId50"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -71,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10453" uniqueCount="1249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11061" uniqueCount="1257">
   <si>
     <t>Position</t>
   </si>
@@ -3818,6 +3820,30 @@
   </si>
   <si>
     <t>S:K182R</t>
+  </si>
+  <si>
+    <t>W258L</t>
+  </si>
+  <si>
+    <t>S:W258L</t>
+  </si>
+  <si>
+    <t>I162V</t>
+  </si>
+  <si>
+    <t>NSP6:I162V</t>
+  </si>
+  <si>
+    <t>R259R</t>
+  </si>
+  <si>
+    <t>N:R259R</t>
+  </si>
+  <si>
+    <t>S412S</t>
+  </si>
+  <si>
+    <t>N:S412S</t>
   </si>
 </sst>
 </file>
@@ -18231,7 +18257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
@@ -38481,10 +38507,1301 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>210</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="11">
+        <v>210</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="I2" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>4181</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>1139</v>
+      </c>
+      <c r="I3" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>6402</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>1141</v>
+      </c>
+      <c r="I4" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>7124</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="I5" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>8986</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>1143</v>
+      </c>
+      <c r="I6" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>9053</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>1145</v>
+      </c>
+      <c r="I7" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>10029</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="I8" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>11201</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="I9" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>11332</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>1147</v>
+      </c>
+      <c r="I10" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>15451</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="I11" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>16466</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="I12" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>19220</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>1149</v>
+      </c>
+      <c r="I13" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>21618</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="I14" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>21846</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="I15" s="11">
+        <v>92.361111111111114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>22029</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="I16" s="11">
+        <v>90.277777777777786</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>22030</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="I17" s="11">
+        <v>90.277777777777786</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>22031</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="I18" s="11">
+        <v>90.277777777777786</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>22032</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="I19" s="11">
+        <v>90.277777777777786</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>22033</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="I20" s="11">
+        <v>90.277777777777786</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>22034</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="I21" s="11">
+        <v>90.277777777777786</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>22335</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I22" s="11">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>22813</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="I23" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>22917</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>22995</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="I25" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>23604</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="I26" s="11">
+        <v>99.305555555555557</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>24410</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="I27" s="11">
+        <v>94.444444444444443</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>25469</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="I28" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>26767</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I29" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>27638</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="I30" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>27752</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="I31" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>27874</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>1151</v>
+      </c>
+      <c r="I32" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>28248</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="I33" s="11">
+        <v>94.444444444444443</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>28249</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="I34" s="11">
+        <v>94.444444444444443</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>28250</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="I35" s="11">
+        <v>94.444444444444443</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>28251</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="I36" s="11">
+        <v>94.444444444444443</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>28252</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="I37" s="11">
+        <v>94.444444444444443</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>28253</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="I38" s="11">
+        <v>94.444444444444443</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>28273</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="11">
+        <v>28273</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I39" s="11">
+        <v>92.361111111111114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>28461</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="I40" s="11">
+        <v>98.611111111111114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>28881</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="I41" s="11">
+        <v>99.305555555555557</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>28916</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>867</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>868</v>
+      </c>
+      <c r="I42" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>29402</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="I43" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>29742</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="11">
+        <v>29742</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="I44" s="11">
+        <v>99.305555555555557</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39799,12 +41116,1274 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>210</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="11">
+        <v>210</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="I2" s="11">
+        <v>99.280575539568346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>4181</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>1139</v>
+      </c>
+      <c r="I3" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>6402</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>1141</v>
+      </c>
+      <c r="I4" s="11">
+        <v>99.280575539568346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>7124</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="I5" s="11">
+        <v>99.280575539568346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>8986</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>1143</v>
+      </c>
+      <c r="I6" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>9053</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>1145</v>
+      </c>
+      <c r="I7" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>10029</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="I8" s="11">
+        <v>99.280575539568346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>11201</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="I9" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>11332</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>1147</v>
+      </c>
+      <c r="I10" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>11456</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>1252</v>
+      </c>
+      <c r="I11" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>15451</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="I12" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>16466</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="I13" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>19220</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>1149</v>
+      </c>
+      <c r="I14" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>21618</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="I15" s="11">
+        <v>99.280575539568346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>22029</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="I16" s="11">
+        <v>94.964028776978409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>22030</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="I17" s="11">
+        <v>94.964028776978409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>22031</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="I18" s="11">
+        <v>94.964028776978409</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>22032</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="I19" s="11">
+        <v>94.964028776978409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>22033</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="I20" s="11">
+        <v>94.964028776978409</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>22034</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="I21" s="11">
+        <v>94.964028776978409</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>22917</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="11">
+        <v>98.561151079136692</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>22995</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="I23" s="11">
+        <v>98.561151079136692</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>23604</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="I24" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>24410</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="I25" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>25469</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="I26" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>26767</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I27" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>27638</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="I28" s="11">
+        <v>98.561151079136692</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>27752</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="I29" s="11">
+        <v>98.561151079136692</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>27874</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>1151</v>
+      </c>
+      <c r="I30" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>28248</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="I31" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>28249</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="I32" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>28250</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="I33" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>28251</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="I34" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>28252</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="I35" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>28253</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="I36" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>28273</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="11">
+        <v>28273</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I37" s="11">
+        <v>95.683453237410077</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>28461</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="I38" s="11">
+        <v>99.280575539568346</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>28881</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="I39" s="11">
+        <v>92.086330935251809</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>28916</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>867</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>868</v>
+      </c>
+      <c r="I40" s="11">
+        <v>92.086330935251809</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>29050</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I41" s="11">
+        <v>98.561151079136692</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>29402</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="I42" s="11">
+        <v>99.280575539568346</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>29509</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>1256</v>
+      </c>
+      <c r="I43" s="11">
+        <v>99.280575539568346</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40977,12 +43556,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41949,7 +44528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
@@ -43146,780 +45725,6 @@
       </c>
       <c r="I41" s="1">
         <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
-        <v>815</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>1220</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>1221</v>
-      </c>
-      <c r="I2" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>1191</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>1120</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>1121</v>
-      </c>
-      <c r="I3" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>2416</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>1222</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>1223</v>
-      </c>
-      <c r="I4" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>3040</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>1225</v>
-      </c>
-      <c r="I5" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>4229</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>1226</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>1227</v>
-      </c>
-      <c r="I6" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <v>5095</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>1228</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>1229</v>
-      </c>
-      <c r="I7" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>5178</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="I8" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>11128</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>1231</v>
-      </c>
-      <c r="I9" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>12459</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>1232</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>1233</v>
-      </c>
-      <c r="I10" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>14322</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>1235</v>
-      </c>
-      <c r="I11" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>21987</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="I12" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>22917</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I13" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>22995</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="I14" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
-        <v>23948</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="I15" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>25563</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I16" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
-        <v>26038</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>1236</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>1237</v>
-      </c>
-      <c r="I17" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>26498</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="11">
-        <v>26498</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
-        <v>26767</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>987</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>988</v>
-      </c>
-      <c r="I19" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
-        <v>28482</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>1238</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>1239</v>
-      </c>
-      <c r="I20" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
-        <v>23604</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="I21" s="1">
-        <v>97.435897435897431</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
-        <v>25433</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>637</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>1240</v>
-      </c>
-      <c r="I22" s="1">
-        <v>97.435897435897431</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
-        <v>25266</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>1241</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>1242</v>
-      </c>
-      <c r="I23" s="1">
-        <v>89.743589743589752</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
-        <v>28833</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>1243</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>1244</v>
-      </c>
-      <c r="I24" s="1">
-        <v>89.743589743589752</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
-        <v>28926</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>1245</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>1246</v>
-      </c>
-      <c r="I25" s="1">
-        <v>89.743589743589752</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
-        <v>22107</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>1247</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>1248</v>
-      </c>
-      <c r="I26" s="1">
-        <v>87.179487179487182</v>
       </c>
     </row>
   </sheetData>
@@ -45801,6 +47606,780 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>815</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="I2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>1191</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>1121</v>
+      </c>
+      <c r="I3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>2416</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>1223</v>
+      </c>
+      <c r="I4" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>3040</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>1225</v>
+      </c>
+      <c r="I5" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>4229</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I6" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>5095</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>1229</v>
+      </c>
+      <c r="I7" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>5178</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>11128</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>1231</v>
+      </c>
+      <c r="I9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>12459</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>1233</v>
+      </c>
+      <c r="I10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>14322</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>1235</v>
+      </c>
+      <c r="I11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>21987</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="I12" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>22917</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>22995</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="I14" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>23948</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="I15" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>25563</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>26038</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>1237</v>
+      </c>
+      <c r="I17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>26498</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="11">
+        <v>26498</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>26767</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>987</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>988</v>
+      </c>
+      <c r="I19" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>28482</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>1239</v>
+      </c>
+      <c r="I20" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>23604</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="I21" s="1">
+        <v>97.435897435897431</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>25433</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I22" s="1">
+        <v>97.435897435897431</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>25266</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>1242</v>
+      </c>
+      <c r="I23" s="1">
+        <v>89.743589743589752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>28833</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>1244</v>
+      </c>
+      <c r="I24" s="1">
+        <v>89.743589743589752</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>28926</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I25" s="1">
+        <v>89.743589743589752</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>22107</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I26" s="1">
+        <v>87.179487179487182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>

--- a/mutationsTable.xlsx
+++ b/mutationsTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" firstSheet="26" activeTab="45"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" firstSheet="30" activeTab="50"/>
   </bookViews>
   <sheets>
     <sheet name="B.1.1.7" sheetId="13" r:id="rId1"/>
@@ -62,6 +62,7 @@
     <sheet name="B.1.627" sheetId="49" r:id="rId48"/>
     <sheet name="B.1.628" sheetId="50" r:id="rId49"/>
     <sheet name="B.1.629" sheetId="51" r:id="rId50"/>
+    <sheet name="B.1.1.318" sheetId="54" r:id="rId51"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11061" uniqueCount="1257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11382" uniqueCount="1281">
   <si>
     <t>Position</t>
   </si>
@@ -3844,6 +3845,78 @@
   </si>
   <si>
     <t>N:S412S</t>
+  </si>
+  <si>
+    <t>I414I</t>
+  </si>
+  <si>
+    <t>NSP3:I414I</t>
+  </si>
+  <si>
+    <t>K1693N</t>
+  </si>
+  <si>
+    <t>NSP3:K1693N</t>
+  </si>
+  <si>
+    <t>T173I</t>
+  </si>
+  <si>
+    <t>NSP4:T173I</t>
+  </si>
+  <si>
+    <t>T21I</t>
+  </si>
+  <si>
+    <t>NSP5:T21I</t>
+  </si>
+  <si>
+    <t>V320M</t>
+  </si>
+  <si>
+    <t>NSP15:V320M</t>
+  </si>
+  <si>
+    <t>A575A</t>
+  </si>
+  <si>
+    <t>S:A575A</t>
+  </si>
+  <si>
+    <t>D796H</t>
+  </si>
+  <si>
+    <t>S:D796H</t>
+  </si>
+  <si>
+    <t>S940S</t>
+  </si>
+  <si>
+    <t>S:S940S</t>
+  </si>
+  <si>
+    <t>T1238T</t>
+  </si>
+  <si>
+    <t>S:T1238T</t>
+  </si>
+  <si>
+    <t>3'UTR:27887</t>
+  </si>
+  <si>
+    <t>E106*</t>
+  </si>
+  <si>
+    <t>ORF8:E106*</t>
+  </si>
+  <si>
+    <t>A208</t>
+  </si>
+  <si>
+    <t>N:A208</t>
+  </si>
+  <si>
+    <t>3'UTR:29769</t>
   </si>
 </sst>
 </file>
@@ -41120,7 +41193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -48380,6 +48453,1416 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>3961</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>1258</v>
+      </c>
+      <c r="I2" s="11">
+        <v>99.261083740000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>7798</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>1260</v>
+      </c>
+      <c r="I3" s="11">
+        <v>99.014778329999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>9072</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>1262</v>
+      </c>
+      <c r="I4" s="11">
+        <v>98.76847291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>9891</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="11">
+        <v>99.261083740000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>10116</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>1264</v>
+      </c>
+      <c r="I6" s="11">
+        <v>90.640394090000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>11288</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="11">
+        <v>99.261083740000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>11289</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="11">
+        <v>99.261083740000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>11290</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="11">
+        <v>99.261083740000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>11291</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="11">
+        <v>99.261083740000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>11292</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="11">
+        <v>99.261083740000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>11293</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="11">
+        <v>99.261083740000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>11294</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="11">
+        <v>99.261083740000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>11295</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="11">
+        <v>99.261083740000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>11296</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="11">
+        <v>99.261083740000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>20578</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>1266</v>
+      </c>
+      <c r="I16" s="11">
+        <v>93.34975369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>21846</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="I17" s="11">
+        <v>98.76847291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>21993</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="11">
+        <v>98.029556650000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>21994</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="11">
+        <v>98.029556650000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>21995</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="11">
+        <v>98.029556650000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>23012</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="I21" s="11">
+        <v>99.507389160000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>23287</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>1268</v>
+      </c>
+      <c r="I22" s="11">
+        <v>99.507389160000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>23604</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="I23" s="11">
+        <v>99.507389160000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>23948</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>1270</v>
+      </c>
+      <c r="I24" s="11">
+        <v>97.290640389999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>24382</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>1272</v>
+      </c>
+      <c r="I25" s="11">
+        <v>90.147783250000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>25276</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>1274</v>
+      </c>
+      <c r="I26" s="11">
+        <v>99.261083740000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>26767</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I27" s="11">
+        <v>99.753694580000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>27887</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="11">
+        <v>27887</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>1275</v>
+      </c>
+      <c r="I28" s="11">
+        <v>97.044334980000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>27888</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="11">
+        <v>27887</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>1275</v>
+      </c>
+      <c r="I29" s="11">
+        <v>97.044334980000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>27889</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="11">
+        <v>27887</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>1275</v>
+      </c>
+      <c r="I30" s="11">
+        <v>97.044334980000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>27890</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="11">
+        <v>27887</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>1275</v>
+      </c>
+      <c r="I31" s="11">
+        <v>97.044334980000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>27891</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="11">
+        <v>27887</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>1275</v>
+      </c>
+      <c r="I32" s="11">
+        <v>97.044334980000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>27892</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="11">
+        <v>27887</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>1275</v>
+      </c>
+      <c r="I33" s="11">
+        <v>97.044334980000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>27893</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="11">
+        <v>27887</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>1275</v>
+      </c>
+      <c r="I34" s="11">
+        <v>97.044334980000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>27894</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="11">
+        <v>27887</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>1275</v>
+      </c>
+      <c r="I35" s="11">
+        <v>97.044334980000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>27895</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="11">
+        <v>27887</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>1275</v>
+      </c>
+      <c r="I36" s="11">
+        <v>97.044334980000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>27896</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="11">
+        <v>27887</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>1275</v>
+      </c>
+      <c r="I37" s="11">
+        <v>97.044334980000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>27897</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="11">
+        <v>27887</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>1275</v>
+      </c>
+      <c r="I38" s="11">
+        <v>97.044334980000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>27898</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="11">
+        <v>27887</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>1275</v>
+      </c>
+      <c r="I39" s="11">
+        <v>97.044334980000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>27899</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="11">
+        <v>27887</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>1275</v>
+      </c>
+      <c r="I40" s="11">
+        <v>97.044334980000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>27900</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="11">
+        <v>27887</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>1275</v>
+      </c>
+      <c r="I41" s="11">
+        <v>97.044334980000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>27901</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="11">
+        <v>27887</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>1275</v>
+      </c>
+      <c r="I42" s="11">
+        <v>97.044334980000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>28209</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I43" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>28271</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="11">
+        <v>28271</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="I44" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>28896</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>1279</v>
+      </c>
+      <c r="I45" s="11">
+        <v>99.261083740000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>28897</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>1279</v>
+      </c>
+      <c r="I46" s="11">
+        <v>99.261083740000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>28898</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>1279</v>
+      </c>
+      <c r="I47" s="11">
+        <v>99.261083740000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>29769</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="11">
+        <v>29769</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>1280</v>
+      </c>
+      <c r="I48" s="11">
+        <v>84.729064039999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>

--- a/mutationsTable.xlsx
+++ b/mutationsTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" firstSheet="30" activeTab="50"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" firstSheet="36" activeTab="57"/>
   </bookViews>
   <sheets>
     <sheet name="B.1.1.7" sheetId="13" r:id="rId1"/>
@@ -63,6 +63,13 @@
     <sheet name="B.1.628" sheetId="50" r:id="rId49"/>
     <sheet name="B.1.629" sheetId="51" r:id="rId50"/>
     <sheet name="B.1.1.318" sheetId="54" r:id="rId51"/>
+    <sheet name="B.1.619" sheetId="55" r:id="rId52"/>
+    <sheet name="A.30" sheetId="56" r:id="rId53"/>
+    <sheet name="B.1.575" sheetId="57" r:id="rId54"/>
+    <sheet name="B.1.575.1" sheetId="59" r:id="rId55"/>
+    <sheet name="B.1.575.2" sheetId="58" r:id="rId56"/>
+    <sheet name="PDI142" sheetId="60" r:id="rId57"/>
+    <sheet name="B.1.630" sheetId="61" r:id="rId58"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -74,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11382" uniqueCount="1281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13051" uniqueCount="1426">
   <si>
     <t>Position</t>
   </si>
@@ -3917,6 +3924,441 @@
   </si>
   <si>
     <t>3'UTR:29769</t>
+  </si>
+  <si>
+    <t>F28F</t>
+  </si>
+  <si>
+    <t>M:F28F</t>
+  </si>
+  <si>
+    <t>S201I</t>
+  </si>
+  <si>
+    <t>N:S201I</t>
+  </si>
+  <si>
+    <t>F312F</t>
+  </si>
+  <si>
+    <t>NSP12b:F312F</t>
+  </si>
+  <si>
+    <t>T114T</t>
+  </si>
+  <si>
+    <t>NSP15:T114T</t>
+  </si>
+  <si>
+    <t>K534K</t>
+  </si>
+  <si>
+    <t>NSP2:K534K</t>
+  </si>
+  <si>
+    <t>N1864N</t>
+  </si>
+  <si>
+    <t>NSP3:N1864N</t>
+  </si>
+  <si>
+    <t>F255F</t>
+  </si>
+  <si>
+    <t>NSP4:F255F</t>
+  </si>
+  <si>
+    <t>I210T</t>
+  </si>
+  <si>
+    <t>S:I210T</t>
+  </si>
+  <si>
+    <t>T763T</t>
+  </si>
+  <si>
+    <t>NSP3:T763T</t>
+  </si>
+  <si>
+    <t>D936N</t>
+  </si>
+  <si>
+    <t>S:D936N</t>
+  </si>
+  <si>
+    <t>S939F</t>
+  </si>
+  <si>
+    <t>S:S939F</t>
+  </si>
+  <si>
+    <t>E1789K</t>
+  </si>
+  <si>
+    <t>NSP3:E1789K</t>
+  </si>
+  <si>
+    <t>P25P</t>
+  </si>
+  <si>
+    <t>S:P25P</t>
+  </si>
+  <si>
+    <t>L877L</t>
+  </si>
+  <si>
+    <t>S:L877L</t>
+  </si>
+  <si>
+    <t>K127K</t>
+  </si>
+  <si>
+    <t>NSP8:K127K</t>
+  </si>
+  <si>
+    <t>E22D</t>
+  </si>
+  <si>
+    <t>ORF7a:E22D</t>
+  </si>
+  <si>
+    <t>L56L</t>
+  </si>
+  <si>
+    <t>N:L56L</t>
+  </si>
+  <si>
+    <t>N128N</t>
+  </si>
+  <si>
+    <t>E272G</t>
+  </si>
+  <si>
+    <t>P395L</t>
+  </si>
+  <si>
+    <t>D821E</t>
+  </si>
+  <si>
+    <t>T1465I</t>
+  </si>
+  <si>
+    <t>N1552K</t>
+  </si>
+  <si>
+    <t>A268V</t>
+  </si>
+  <si>
+    <t>T730I</t>
+  </si>
+  <si>
+    <t>F499L</t>
+  </si>
+  <si>
+    <t>V290F</t>
+  </si>
+  <si>
+    <t>H234H</t>
+  </si>
+  <si>
+    <t>D80Y</t>
+  </si>
+  <si>
+    <t>ATT</t>
+  </si>
+  <si>
+    <t>I210</t>
+  </si>
+  <si>
+    <t>A263A</t>
+  </si>
+  <si>
+    <t>T478R</t>
+  </si>
+  <si>
+    <t>L585L</t>
+  </si>
+  <si>
+    <t>Y707Y</t>
+  </si>
+  <si>
+    <t>Q957H</t>
+  </si>
+  <si>
+    <t>N1173N</t>
+  </si>
+  <si>
+    <t>R203R</t>
+  </si>
+  <si>
+    <t>5'UTR:190</t>
+  </si>
+  <si>
+    <t>NSP1:N128N</t>
+  </si>
+  <si>
+    <t>NSP2:E272G</t>
+  </si>
+  <si>
+    <t>NSP3:P395L</t>
+  </si>
+  <si>
+    <t>NSP3:D821E</t>
+  </si>
+  <si>
+    <t>NSP3:T1465I</t>
+  </si>
+  <si>
+    <t>NSP3:N1552K</t>
+  </si>
+  <si>
+    <t>NSP6:A268V</t>
+  </si>
+  <si>
+    <t>NSP12b:T730I</t>
+  </si>
+  <si>
+    <t>NSP13:F499L</t>
+  </si>
+  <si>
+    <t>NSP14:V290F</t>
+  </si>
+  <si>
+    <t>NSP15:H234H</t>
+  </si>
+  <si>
+    <t>S:D80Y</t>
+  </si>
+  <si>
+    <t>S:I210</t>
+  </si>
+  <si>
+    <t>S:A263A</t>
+  </si>
+  <si>
+    <t>S:T478R</t>
+  </si>
+  <si>
+    <t>S:L585L</t>
+  </si>
+  <si>
+    <t>S:Y707Y</t>
+  </si>
+  <si>
+    <t>S:Q957H</t>
+  </si>
+  <si>
+    <t>S:N1173N</t>
+  </si>
+  <si>
+    <t>3'UTR:27198</t>
+  </si>
+  <si>
+    <t>N:R203R</t>
+  </si>
+  <si>
+    <t>P125P</t>
+  </si>
+  <si>
+    <t>NSP2:P125P</t>
+  </si>
+  <si>
+    <t>S1406F</t>
+  </si>
+  <si>
+    <t>NSP3:S1406F</t>
+  </si>
+  <si>
+    <t>P47S</t>
+  </si>
+  <si>
+    <t>NSP13:P47S</t>
+  </si>
+  <si>
+    <t>Y30Y</t>
+  </si>
+  <si>
+    <t>NSP16:Y30Y</t>
+  </si>
+  <si>
+    <t>3'UTR:29711</t>
+  </si>
+  <si>
+    <t>3'UTR:29719</t>
+  </si>
+  <si>
+    <t>V364I</t>
+  </si>
+  <si>
+    <t>NSP2:V364I</t>
+  </si>
+  <si>
+    <t>L1706L</t>
+  </si>
+  <si>
+    <t>NSP3:L1706L</t>
+  </si>
+  <si>
+    <t>I370V</t>
+  </si>
+  <si>
+    <t>NSP13:I370V</t>
+  </si>
+  <si>
+    <t>P297S</t>
+  </si>
+  <si>
+    <t>NSP14:P297S</t>
+  </si>
+  <si>
+    <t>P236S</t>
+  </si>
+  <si>
+    <t>NSP16:P236S</t>
+  </si>
+  <si>
+    <t>R102G</t>
+  </si>
+  <si>
+    <t>S:R102G</t>
+  </si>
+  <si>
+    <t>V392V</t>
+  </si>
+  <si>
+    <t>N:V392V</t>
+  </si>
+  <si>
+    <t>A414S</t>
+  </si>
+  <si>
+    <t>N:A414S</t>
+  </si>
+  <si>
+    <t>ORF10:C19C</t>
+  </si>
+  <si>
+    <t>A205V</t>
+  </si>
+  <si>
+    <t>NSP2:A205V</t>
+  </si>
+  <si>
+    <t>R222R</t>
+  </si>
+  <si>
+    <t>NSP2:R222R</t>
+  </si>
+  <si>
+    <t>S1333I</t>
+  </si>
+  <si>
+    <t>NSP3:S1333I</t>
+  </si>
+  <si>
+    <t>P1921S</t>
+  </si>
+  <si>
+    <t>NSP3:P1921S</t>
+  </si>
+  <si>
+    <t>T110I</t>
+  </si>
+  <si>
+    <t>NSP16:T110I</t>
+  </si>
+  <si>
+    <t>V25V</t>
+  </si>
+  <si>
+    <t>E:V25V</t>
+  </si>
+  <si>
+    <t>F110F</t>
+  </si>
+  <si>
+    <t>N:F110F</t>
+  </si>
+  <si>
+    <t>L221F</t>
+  </si>
+  <si>
+    <t>N:L221F</t>
+  </si>
+  <si>
+    <t>L122F</t>
+  </si>
+  <si>
+    <t>NSP1:L122F</t>
+  </si>
+  <si>
+    <t>T153A</t>
+  </si>
+  <si>
+    <t>NSP2:T153A</t>
+  </si>
+  <si>
+    <t>L274L</t>
+  </si>
+  <si>
+    <t>NSP2:L274L</t>
+  </si>
+  <si>
+    <t>R748S</t>
+  </si>
+  <si>
+    <t>NSP3:R748S</t>
+  </si>
+  <si>
+    <t>L1358L</t>
+  </si>
+  <si>
+    <t>NSP3:L1358L</t>
+  </si>
+  <si>
+    <t>I1683I</t>
+  </si>
+  <si>
+    <t>NSP3:I1683I</t>
+  </si>
+  <si>
+    <t>N423N</t>
+  </si>
+  <si>
+    <t>NSP13:N423N</t>
+  </si>
+  <si>
+    <t>N521N</t>
+  </si>
+  <si>
+    <t>NSP14:N521N</t>
+  </si>
+  <si>
+    <t>C136F</t>
+  </si>
+  <si>
+    <t>S:C136F</t>
+  </si>
+  <si>
+    <t>A243</t>
+  </si>
+  <si>
+    <t>S:A243</t>
+  </si>
+  <si>
+    <t>L14S</t>
+  </si>
+  <si>
+    <t>ORF7b:L14S</t>
+  </si>
+  <si>
+    <t>3'UTR:27889</t>
+  </si>
+  <si>
+    <t>S412N</t>
+  </si>
+  <si>
+    <t>N:S412N</t>
   </si>
 </sst>
 </file>
@@ -10792,7 +11234,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11267,7 +11709,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>28273</v>
+        <v>28271</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -11391,7 +11833,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12123,7 +12565,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
-        <v>28273</v>
+        <v>28271</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>10</v>
@@ -12508,7 +12950,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13240,7 +13682,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
-        <v>28273</v>
+        <v>28271</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>10</v>
@@ -13625,7 +14067,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14357,7 +14799,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
-        <v>28273</v>
+        <v>28271</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>10</v>
@@ -14858,7 +15300,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14923,367 +15365,367 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
-        <v>15451</v>
+        <v>1048</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>521</v>
+        <v>1136</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="I3" s="1">
-        <v>89.91031390134529</v>
+        <v>1137</v>
+      </c>
+      <c r="I3" s="11">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
-        <v>16466</v>
+        <v>4181</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>347</v>
+        <v>1138</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="I4" s="1">
-        <v>89.013452914798208</v>
+        <v>1139</v>
+      </c>
+      <c r="I4" s="11">
+        <v>99.737532808398953</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
-        <v>21618</v>
+        <v>6402</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>515</v>
+        <v>1140</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="I5" s="1">
-        <v>99.775784753363226</v>
+        <v>1141</v>
+      </c>
+      <c r="I5" s="11">
+        <v>99.737532808398953</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
-        <v>22029</v>
+        <v>7124</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>727</v>
+        <v>16</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>523</v>
+        <v>559</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="I6" s="1">
-        <v>84.97757847533633</v>
+        <v>560</v>
+      </c>
+      <c r="I6" s="11">
+        <v>99.737532808398953</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
-        <v>22030</v>
+        <v>8986</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>727</v>
+        <v>16</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>523</v>
+        <v>1142</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="I7" s="1">
-        <v>84.97757847533633</v>
+        <v>1143</v>
+      </c>
+      <c r="I7" s="11">
+        <v>99.737532808398953</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
-        <v>22031</v>
+        <v>9053</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>727</v>
+        <v>16</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>523</v>
+        <v>1144</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="I8" s="1">
-        <v>84.97757847533633</v>
+        <v>1145</v>
+      </c>
+      <c r="I8" s="11">
+        <v>99.475065616797892</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
-        <v>22032</v>
+        <v>10029</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>727</v>
+        <v>16</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>523</v>
+        <v>427</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="I9" s="1">
-        <v>84.97757847533633</v>
+        <v>428</v>
+      </c>
+      <c r="I9" s="11">
+        <v>99.737532808398953</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
-        <v>22033</v>
+        <v>11201</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>727</v>
+        <v>30</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>523</v>
+        <v>491</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="I10" s="1">
-        <v>84.97757847533633</v>
+        <v>492</v>
+      </c>
+      <c r="I10" s="11">
+        <v>99.737532808398953</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
-        <v>22034</v>
+        <v>11332</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>727</v>
+        <v>30</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>523</v>
+        <v>1146</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="I11" s="1">
-        <v>84.97757847533633</v>
+        <v>1147</v>
+      </c>
+      <c r="I11" s="11">
+        <v>99.737532808398953</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
-        <v>22917</v>
+        <v>15451</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>89</v>
+        <v>521</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>90</v>
+        <v>522</v>
       </c>
       <c r="I12" s="1">
-        <v>99.775784753363226</v>
+        <v>89.91031390134529</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
-        <v>22995</v>
+        <v>16466</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>517</v>
+        <v>347</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>518</v>
+        <v>348</v>
       </c>
       <c r="I13" s="1">
-        <v>99.551569506726452</v>
+        <v>89.013452914798208</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
-        <v>23604</v>
+        <v>19220</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>185</v>
+        <v>1148</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="I14" s="1">
-        <v>100</v>
+        <v>1149</v>
+      </c>
+      <c r="I14" s="11">
+        <v>99.475065616797892</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
-        <v>24410</v>
+        <v>21618</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>10</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>13</v>
@@ -15292,160 +15734,160 @@
         <v>14</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="I15" s="1">
-        <v>88.340807174887885</v>
+        <v>99.775784753363226</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
-        <v>25469</v>
+        <v>22029</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>16</v>
+        <v>727</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>484</v>
+        <v>523</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>485</v>
+        <v>524</v>
       </c>
       <c r="I16" s="1">
-        <v>99.775784753363226</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>84.97757847533633</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
-        <v>26767</v>
+        <v>22030</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>9</v>
+        <v>727</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>303</v>
+        <v>523</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>304</v>
+        <v>524</v>
       </c>
       <c r="I17" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>84.97757847533633</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
-        <v>27638</v>
+        <v>22031</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>9</v>
+        <v>727</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>486</v>
+        <v>523</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
       <c r="I18" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>84.97757847533633</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
-        <v>27752</v>
+        <v>22032</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>16</v>
+        <v>727</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="I19" s="1">
-        <v>99.551569506726452</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>84.97757847533633</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
-        <v>28248</v>
+        <v>22033</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>727</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>359</v>
+        <v>523</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>45</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>360</v>
+        <v>524</v>
       </c>
       <c r="I20" s="1">
-        <v>78.25112107623319</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>84.97757847533633</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
-        <v>28249</v>
+        <v>22034</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>10</v>
@@ -15454,222 +15896,222 @@
         <v>727</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>359</v>
+        <v>523</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>45</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>360</v>
+        <v>524</v>
       </c>
       <c r="I21" s="1">
-        <v>78.25112107623319</v>
+        <v>84.97757847533633</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
-        <v>28250</v>
+        <v>22917</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>727</v>
+        <v>30</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>359</v>
+        <v>89</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>360</v>
+        <v>90</v>
       </c>
       <c r="I22" s="1">
-        <v>78.25112107623319</v>
+        <v>99.775784753363226</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
-        <v>28251</v>
+        <v>22995</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>727</v>
+        <v>10</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>359</v>
+        <v>517</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>360</v>
+        <v>518</v>
       </c>
       <c r="I23" s="1">
-        <v>78.25112107623319</v>
+        <v>99.551569506726452</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
-        <v>28252</v>
+        <v>23604</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>727</v>
+        <v>30</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>359</v>
+        <v>185</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>360</v>
+        <v>186</v>
       </c>
       <c r="I24" s="1">
-        <v>78.25112107623319</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
-        <v>28253</v>
+        <v>24410</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>727</v>
+        <v>10</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>359</v>
+        <v>519</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>360</v>
+        <v>520</v>
       </c>
       <c r="I25" s="1">
-        <v>78.25112107623319</v>
+        <v>88.340807174887885</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
-        <v>28273</v>
+        <v>25469</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>727</v>
+        <v>16</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="11">
-        <v>28273</v>
+        <v>43</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>484</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>1008</v>
+        <v>13</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>99</v>
+        <v>485</v>
       </c>
       <c r="I26" s="1">
-        <v>79.596412556053806</v>
+        <v>99.775784753363226</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
-        <v>28461</v>
+        <v>26767</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>511</v>
+        <v>303</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>512</v>
+        <v>304</v>
       </c>
       <c r="I27" s="1">
-        <v>95.964125560538122</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
-        <v>28881</v>
+        <v>27638</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="I28" s="1">
         <v>100</v>
@@ -15677,268 +16119,268 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
-        <v>29402</v>
+        <v>27752</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="I29" s="1">
-        <v>99.327354260089677</v>
+        <v>99.551569506726452</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
-        <v>29742</v>
+        <v>27874</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="11">
-        <v>29742</v>
+        <v>399</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>1150</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>50</v>
+        <v>401</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I30" s="1">
-        <v>99.103139013452918</v>
+        <v>1151</v>
+      </c>
+      <c r="I30" s="11">
+        <v>99.737532808398953</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
-        <v>1048</v>
+        <v>28248</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>16</v>
+        <v>727</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>1136</v>
+        <v>359</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>1137</v>
-      </c>
-      <c r="I31" s="11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="I31" s="1">
+        <v>78.25112107623319</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
-        <v>4181</v>
+        <v>28249</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>16</v>
+        <v>727</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>1138</v>
+        <v>359</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>1139</v>
-      </c>
-      <c r="I32" s="11">
-        <v>99.737532808398953</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="I32" s="1">
+        <v>78.25112107623319</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
-        <v>6402</v>
+        <v>28250</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>16</v>
+        <v>727</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>1140</v>
+        <v>359</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>1141</v>
-      </c>
-      <c r="I33" s="11">
-        <v>99.737532808398953</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="I33" s="1">
+        <v>78.25112107623319</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
-        <v>7124</v>
+        <v>28251</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>16</v>
+        <v>727</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="I34" s="11">
-        <v>99.737532808398953</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="I34" s="1">
+        <v>78.25112107623319</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
-        <v>8986</v>
+        <v>28252</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>16</v>
+        <v>727</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>1142</v>
+        <v>359</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>1143</v>
-      </c>
-      <c r="I35" s="11">
-        <v>99.737532808398953</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="I35" s="1">
+        <v>78.25112107623319</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
-        <v>9053</v>
+        <v>28253</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>16</v>
+        <v>727</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>1144</v>
+        <v>359</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>1145</v>
-      </c>
-      <c r="I36" s="11">
-        <v>99.475065616797892</v>
+        <v>360</v>
+      </c>
+      <c r="I36" s="1">
+        <v>78.25112107623319</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
-        <v>10029</v>
+        <v>28271</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>16</v>
+        <v>727</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>427</v>
+        <v>48</v>
+      </c>
+      <c r="E37" s="11">
+        <v>28273</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>13</v>
+        <v>1008</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="I37" s="11">
-        <v>99.737532808398953</v>
+        <v>99</v>
+      </c>
+      <c r="I37" s="1">
+        <v>79.596412556053806</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
-        <v>11201</v>
+        <v>28461</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>10</v>
@@ -15947,114 +16389,114 @@
         <v>30</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="I38" s="11">
-        <v>99.737532808398953</v>
+        <v>512</v>
+      </c>
+      <c r="I38" s="1">
+        <v>95.964125560538122</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
-        <v>11332</v>
+        <v>28881</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>1146</v>
+        <v>482</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>1147</v>
-      </c>
-      <c r="I39" s="11">
-        <v>99.737532808398953</v>
+        <v>483</v>
+      </c>
+      <c r="I39" s="1">
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
-        <v>19220</v>
+        <v>28916</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>1148</v>
+        <v>867</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>1149</v>
+        <v>868</v>
       </c>
       <c r="I40" s="11">
-        <v>99.475065616797892</v>
+        <v>98.950131233595798</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
-        <v>27874</v>
+        <v>29402</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>399</v>
+        <v>19</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>1150</v>
+        <v>489</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>401</v>
+        <v>22</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>1151</v>
-      </c>
-      <c r="I41" s="11">
-        <v>99.737532808398953</v>
+        <v>490</v>
+      </c>
+      <c r="I41" s="1">
+        <v>99.327354260089677</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
-        <v>28916</v>
+        <v>29742</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>30</v>
@@ -16063,22 +16505,22 @@
         <v>16</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>867</v>
+        <v>48</v>
+      </c>
+      <c r="E42" s="11">
+        <v>29742</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>868</v>
-      </c>
-      <c r="I42" s="11">
-        <v>98.950131233595798</v>
+        <v>205</v>
+      </c>
+      <c r="I42" s="1">
+        <v>99.103139013452918</v>
       </c>
     </row>
   </sheetData>
@@ -16091,7 +16533,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16881,7 +17323,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>28273</v>
+        <v>28271</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>10</v>
@@ -18331,7 +18773,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19068,7 +19510,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>28273</v>
+        <v>28271</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
@@ -19292,7 +19734,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A19"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42456,7 +42898,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+      <selection activeCell="G27" sqref="G26:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48457,7 +48899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
@@ -49856,6 +50298,7042 @@
       </c>
       <c r="I48" s="11">
         <v>84.729064039999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>26606</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>1282</v>
+      </c>
+      <c r="I2" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>26767</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I3" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>28875</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>1284</v>
+      </c>
+      <c r="I4" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>28887</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>14403</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>1286</v>
+      </c>
+      <c r="I6" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>14408</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>1089</v>
+      </c>
+      <c r="I7" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>19962</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>1288</v>
+      </c>
+      <c r="I8" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>2407</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I9" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>6633</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>1196</v>
+      </c>
+      <c r="I10" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>3037</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>1097</v>
+      </c>
+      <c r="I11" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>8311</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I12" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>9319</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>1293</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I13" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>11288</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>11289</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>11290</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>11291</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>11292</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>11293</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>11294</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>11295</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>11296</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>23403</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>1105</v>
+      </c>
+      <c r="I23" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>23012</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="I24" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>22191</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>1296</v>
+      </c>
+      <c r="I25" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>22882</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>778</v>
+      </c>
+      <c r="I26" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>24642</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="I27" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>241</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E28" s="11">
+        <v>241</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="I28" s="2">
+        <v>99.865410497981159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>28311</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="I29" s="2">
+        <v>99.865410497981159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>5008</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>1298</v>
+      </c>
+      <c r="I30" s="2">
+        <v>99.865410497981159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>11521</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I31" s="2">
+        <v>99.865410497981159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>24368</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I32" s="2">
+        <v>99.865410497981159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>24378</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>1302</v>
+      </c>
+      <c r="I33" s="2">
+        <v>99.865410497981159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>15324</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="I34" s="2">
+        <v>99.730820995962304</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>8084</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I35" s="2">
+        <v>99.730820995962304</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>21637</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>1306</v>
+      </c>
+      <c r="I36" s="2">
+        <v>99.596231493943478</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>24194</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I37" s="2">
+        <v>99.461641991924637</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>12473</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>1310</v>
+      </c>
+      <c r="I38" s="2">
+        <v>98.923283983849259</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>27459</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>1312</v>
+      </c>
+      <c r="I39" s="2">
+        <v>98.788694481830419</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>28273</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="11">
+        <v>28273</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I40" s="2">
+        <v>95.154777927321661</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>26211</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="I41" s="2">
+        <v>92.732166890982498</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>28441</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>1314</v>
+      </c>
+      <c r="I42" s="2">
+        <v>88.694481830417232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>190</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="11">
+        <v>190</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>1336</v>
+      </c>
+      <c r="I2" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>569</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>731</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="I3" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>649</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I4" s="11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>1620</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>1338</v>
+      </c>
+      <c r="I5" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>3903</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>1339</v>
+      </c>
+      <c r="I6" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>5182</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>1340</v>
+      </c>
+      <c r="I7" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>7113</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>1341</v>
+      </c>
+      <c r="I8" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>7375</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>1342</v>
+      </c>
+      <c r="I9" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>11230</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="I10" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>11775</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>1343</v>
+      </c>
+      <c r="I11" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>15279</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="I12" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>15656</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I13" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>17731</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I14" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>18907</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>1346</v>
+      </c>
+      <c r="I15" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>20322</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I16" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>21800</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>1348</v>
+      </c>
+      <c r="I17" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>21993</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>21994</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>21995</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>22190</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>1349</v>
+      </c>
+      <c r="I21" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>22191</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>1349</v>
+      </c>
+      <c r="I22" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>22192</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>1349</v>
+      </c>
+      <c r="I23" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>22206</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="I24" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>22299</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="I25" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>22300</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="I26" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>22301</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="I27" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>22302</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="I28" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>22303</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="I29" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>22304</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="I30" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>22305</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="I31" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>22306</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="I32" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>22307</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="I33" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>22351</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>1350</v>
+      </c>
+      <c r="I34" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>22599</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>927</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>928</v>
+      </c>
+      <c r="I35" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>22995</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>1351</v>
+      </c>
+      <c r="I36" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>23012</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="I37" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>23317</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>1352</v>
+      </c>
+      <c r="I38" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>23525</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="I39" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>23604</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="I40" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>23683</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>1353</v>
+      </c>
+      <c r="I41" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>24433</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>1354</v>
+      </c>
+      <c r="I42" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>25081</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I43" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>26767</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I44" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>27198</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="11">
+        <v>27198</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I45" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>28167</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="I46" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>28878</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="I47" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>28882</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>1357</v>
+      </c>
+      <c r="I48" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>28975</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I49" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>29742</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" s="11">
+        <v>29742</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="I50" s="11">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1059</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="11">
+        <v>99.606299212598429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>1180</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>1359</v>
+      </c>
+      <c r="I3" s="11">
+        <v>96.062992125984252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>6730</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>881</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>882</v>
+      </c>
+      <c r="I4" s="11">
+        <v>98.031496062992133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>6936</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>1361</v>
+      </c>
+      <c r="I5" s="11">
+        <v>92.125984251968504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>10029</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="I6" s="11">
+        <v>99.212598425196859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>11514</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I7" s="11">
+        <v>99.606299212598429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>16375</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>1363</v>
+      </c>
+      <c r="I8" s="11">
+        <v>99.212598425196859</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>20748</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>1365</v>
+      </c>
+      <c r="I9" s="11">
+        <v>98.425196850393704</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>23042</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>902</v>
+      </c>
+      <c r="I10" s="11">
+        <v>98.818897637795274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>23604</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="I11" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>23709</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="11">
+        <v>99.606299212598429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>25563</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="11">
+        <v>99.606299212598429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>26767</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I14" s="11">
+        <v>99.606299212598429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>28273</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="11">
+        <v>28273</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="11">
+        <v>93.30708661417323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>28887</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="11">
+        <v>99.606299212598429</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>29711</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="11">
+        <v>29711</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>1366</v>
+      </c>
+      <c r="I17" s="11">
+        <v>94.488188976377955</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>29719</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="11">
+        <v>29719</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>1367</v>
+      </c>
+      <c r="I18" s="11">
+        <v>99.212598425196859</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1059</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>1180</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>1359</v>
+      </c>
+      <c r="I3" s="11">
+        <v>98.039215686274503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>6730</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>881</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>882</v>
+      </c>
+      <c r="I4" s="11">
+        <v>92.156862745098039</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>6936</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>1361</v>
+      </c>
+      <c r="I5" s="11">
+        <v>76.470588235294116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>10029</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="I6" s="11">
+        <v>98.039215686274503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>11514</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I7" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>16375</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>1363</v>
+      </c>
+      <c r="I8" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>20748</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>1365</v>
+      </c>
+      <c r="I9" s="11">
+        <v>98.039215686274503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>23042</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>902</v>
+      </c>
+      <c r="I10" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>23604</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="I11" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>23709</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>25563</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="11">
+        <v>98.039215686274503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>26767</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I14" s="11">
+        <v>98.039215686274503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>28887</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>29513</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="I16" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>29614</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>1384</v>
+      </c>
+      <c r="I17" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>29711</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="11">
+        <v>29711</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>1366</v>
+      </c>
+      <c r="I18" s="11">
+        <v>92.156862745098039</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>29719</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="11">
+        <v>29719</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>1367</v>
+      </c>
+      <c r="I19" s="11">
+        <v>94.117647058823522</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>28273</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="11">
+        <v>28273</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" s="11">
+        <v>70.588235294117652</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1059</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>1180</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>1359</v>
+      </c>
+      <c r="I3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>1895</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>1369</v>
+      </c>
+      <c r="I4" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>5986</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="I5" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>6730</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>881</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>882</v>
+      </c>
+      <c r="I6" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>6936</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>1361</v>
+      </c>
+      <c r="I7" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>7837</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>1371</v>
+      </c>
+      <c r="I8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>10029</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="I9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>11514</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>16375</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>1363</v>
+      </c>
+      <c r="I11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>17344</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I12" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>18928</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>1375</v>
+      </c>
+      <c r="I13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>20748</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>1365</v>
+      </c>
+      <c r="I14" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>21364</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>1377</v>
+      </c>
+      <c r="I15" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>21866</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>1379</v>
+      </c>
+      <c r="I16" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>23012</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="I17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>23042</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>902</v>
+      </c>
+      <c r="I18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>23604</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="I19" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>23709</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>25563</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>26767</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I22" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>28273</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="11">
+        <v>28273</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I23" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>28531</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>839</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>840</v>
+      </c>
+      <c r="I24" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>28887</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>29449</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>1381</v>
+      </c>
+      <c r="I26" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>29711</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="11">
+        <v>29711</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>1366</v>
+      </c>
+      <c r="I27" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>29719</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="11">
+        <v>29719</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>1367</v>
+      </c>
+      <c r="I28" s="1">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1419</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>1386</v>
+      </c>
+      <c r="I2" s="11">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>1471</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>1388</v>
+      </c>
+      <c r="I3" s="11">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>3688</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>1192</v>
+      </c>
+      <c r="I4" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>3884</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>1194</v>
+      </c>
+      <c r="I5" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>6633</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>1196</v>
+      </c>
+      <c r="I6" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>6717</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>1390</v>
+      </c>
+      <c r="I7" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>8480</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>1392</v>
+      </c>
+      <c r="I8" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>9614</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>1200</v>
+      </c>
+      <c r="I9" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>9693</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>941</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>942</v>
+      </c>
+      <c r="I10" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>9754</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>1202</v>
+      </c>
+      <c r="I11" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>15451</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="I12" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>16466</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="I13" s="11">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>20987</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>1394</v>
+      </c>
+      <c r="I14" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>21057</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>1204</v>
+      </c>
+      <c r="I15" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>21846</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="I16" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>22036</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I17" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>22882</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>778</v>
+      </c>
+      <c r="I18" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>23012</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="I19" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>23604</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="I20" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>23625</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>1179</v>
+      </c>
+      <c r="I21" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>23765</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>1181</v>
+      </c>
+      <c r="I22" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>24442</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>1183</v>
+      </c>
+      <c r="I23" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>24642</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="I24" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>26222</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="11">
+        <v>26222</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>1187</v>
+      </c>
+      <c r="I25" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>26319</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I26" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>27389</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="11">
+        <v>27389</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>1209</v>
+      </c>
+      <c r="I27" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>28048</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>1213</v>
+      </c>
+      <c r="I28" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>28330</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>1215</v>
+      </c>
+      <c r="I29" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>28603</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>1398</v>
+      </c>
+      <c r="I30" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>28854</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>1217</v>
+      </c>
+      <c r="I31" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>28910</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>1219</v>
+      </c>
+      <c r="I32" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>28936</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>1400</v>
+      </c>
+      <c r="I33" s="11">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>629</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>1402</v>
+      </c>
+      <c r="I2" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>1059</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>1262</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I4" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>1627</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>1406</v>
+      </c>
+      <c r="I5" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>4963</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>1408</v>
+      </c>
+      <c r="I6" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>5648</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="I7" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>6730</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>881</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>882</v>
+      </c>
+      <c r="I8" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>6794</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>1410</v>
+      </c>
+      <c r="I9" s="11">
+        <v>95.238095238095227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>7768</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>1412</v>
+      </c>
+      <c r="I10" s="11">
+        <v>95.238095238095227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>9891</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>11288</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>11289</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>11290</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>11291</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>11292</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>11293</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>11294</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>11295</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>11296</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>17505</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>1414</v>
+      </c>
+      <c r="I21" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>19602</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>1416</v>
+      </c>
+      <c r="I22" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>21255</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>975</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>976</v>
+      </c>
+      <c r="I23" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>21588</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="I24" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>21637</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>1306</v>
+      </c>
+      <c r="I25" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>21969</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>1418</v>
+      </c>
+      <c r="I26" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>21993</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>21994</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>21995</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I29" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>22227</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>1083</v>
+      </c>
+      <c r="I30" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>22289</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>1420</v>
+      </c>
+      <c r="I31" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>22290</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>1420</v>
+      </c>
+      <c r="I32" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>22291</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>1420</v>
+      </c>
+      <c r="I33" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>22292</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>1420</v>
+      </c>
+      <c r="I34" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>22293</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>1420</v>
+      </c>
+      <c r="I35" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>22294</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>1420</v>
+      </c>
+      <c r="I36" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>22917</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I37" s="11">
+        <v>95.238095238095227</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>22995</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>1351</v>
+      </c>
+      <c r="I38" s="11">
+        <v>95.238095238095227</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>23012</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="I39" s="11">
+        <v>95.238095238095227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>23525</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="I40" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>24410</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="I41" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>25563</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I42" s="11">
+        <v>80.952380952380949</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>27796</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>1421</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>1422</v>
+      </c>
+      <c r="I43" s="11">
+        <v>90.476190476190482</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>27889</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="11">
+        <v>27889</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I44" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>28272</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="11">
+        <v>28272</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I45" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>28512</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="I46" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>28887</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>29508</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I48" s="11">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/mutationsTable.xlsx
+++ b/mutationsTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" firstSheet="36" activeTab="57"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" firstSheet="13" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="B.1.1.7" sheetId="13" r:id="rId1"/>
@@ -11233,8 +11233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11720,8 +11720,8 @@
       <c r="D17" t="s">
         <v>48</v>
       </c>
-      <c r="E17">
-        <v>28273</v>
+      <c r="E17" s="11">
+        <v>28271</v>
       </c>
       <c r="F17" t="s">
         <v>1008</v>
@@ -11833,7 +11833,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12577,7 +12577,7 @@
         <v>48</v>
       </c>
       <c r="E26" s="11">
-        <v>28273</v>
+        <v>28271</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>1008</v>
@@ -12950,7 +12950,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13694,7 +13694,7 @@
         <v>48</v>
       </c>
       <c r="E26" s="11">
-        <v>28273</v>
+        <v>28271</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>1008</v>
@@ -14067,7 +14067,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14811,7 +14811,7 @@
         <v>48</v>
       </c>
       <c r="E26" s="11">
-        <v>28273</v>
+        <v>28271</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>1008</v>
@@ -15300,7 +15300,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16363,7 +16363,7 @@
         <v>48</v>
       </c>
       <c r="E37" s="11">
-        <v>28273</v>
+        <v>28271</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>1008</v>
@@ -16533,7 +16533,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17335,7 +17335,7 @@
         <v>48</v>
       </c>
       <c r="E28" s="6">
-        <v>28273</v>
+        <v>28271</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>1007</v>
@@ -18773,7 +18773,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19522,7 +19522,7 @@
         <v>48</v>
       </c>
       <c r="E26">
-        <v>28273</v>
+        <v>28271</v>
       </c>
       <c r="F26" t="s">
         <v>1008</v>
@@ -55938,7 +55938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>

--- a/mutationsTable.xlsx
+++ b/mutationsTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" firstSheet="13" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" firstSheet="28" activeTab="43"/>
   </bookViews>
   <sheets>
     <sheet name="B.1.1.7" sheetId="13" r:id="rId1"/>
@@ -11233,7 +11233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -39024,8 +39024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40134,7 +40134,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
-        <v>28273</v>
+        <v>28271</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>10</v>
@@ -40146,7 +40146,7 @@
         <v>48</v>
       </c>
       <c r="E39" s="11">
-        <v>28273</v>
+        <v>28271</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>1008</v>
@@ -40178,7 +40178,7 @@
         <v>511</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>13</v>
+        <v>1008</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>22</v>
@@ -41483,7 +41483,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
-        <v>28273</v>
+        <v>28271</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>10</v>
@@ -41495,7 +41495,7 @@
         <v>48</v>
       </c>
       <c r="E41" s="11">
-        <v>28273</v>
+        <v>28271</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>1008</v>
@@ -41636,7 +41636,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42687,7 +42687,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
-        <v>28273</v>
+        <v>28271</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>10</v>
@@ -42699,7 +42699,7 @@
         <v>48</v>
       </c>
       <c r="E37" s="11">
-        <v>28273</v>
+        <v>28271</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>1008</v>

--- a/mutationsTable.xlsx
+++ b/mutationsTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" firstSheet="28" activeTab="43"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" firstSheet="37" activeTab="58"/>
   </bookViews>
   <sheets>
     <sheet name="B.1.1.7" sheetId="13" r:id="rId1"/>
@@ -70,6 +70,7 @@
     <sheet name="B.1.575.2" sheetId="58" r:id="rId56"/>
     <sheet name="PDI142" sheetId="60" r:id="rId57"/>
     <sheet name="B.1.630" sheetId="61" r:id="rId58"/>
+    <sheet name="PDI139" sheetId="62" r:id="rId59"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -81,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13051" uniqueCount="1426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13388" uniqueCount="1446">
   <si>
     <t>Position</t>
   </si>
@@ -4359,6 +4360,66 @@
   </si>
   <si>
     <t>N:S412N</t>
+  </si>
+  <si>
+    <t>I560I</t>
+  </si>
+  <si>
+    <t>NSP2:I560I</t>
+  </si>
+  <si>
+    <t>K1660K</t>
+  </si>
+  <si>
+    <t>NSP3:K1660K</t>
+  </si>
+  <si>
+    <t>F326F</t>
+  </si>
+  <si>
+    <t>NSP14:F326F</t>
+  </si>
+  <si>
+    <t>L216L</t>
+  </si>
+  <si>
+    <t>S:L216L</t>
+  </si>
+  <si>
+    <t>N679K</t>
+  </si>
+  <si>
+    <t>S:N679K</t>
+  </si>
+  <si>
+    <t>V256</t>
+  </si>
+  <si>
+    <t>ORF3a:V256</t>
+  </si>
+  <si>
+    <t>L275F</t>
+  </si>
+  <si>
+    <t>ORF3a:L275F</t>
+  </si>
+  <si>
+    <t>L21I</t>
+  </si>
+  <si>
+    <t>E:L21I</t>
+  </si>
+  <si>
+    <t>S68F</t>
+  </si>
+  <si>
+    <t>E:S68F</t>
+  </si>
+  <si>
+    <t>D81D</t>
+  </si>
+  <si>
+    <t>N:D81D</t>
   </si>
 </sst>
 </file>
@@ -4427,7 +4488,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4446,6 +4507,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -39024,7 +39087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
@@ -57341,6 +57404,1413 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>569</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>731</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="I2" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>2485</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I3" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>5175</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>808</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>809</v>
+      </c>
+      <c r="I4" s="13">
+        <v>88.888888888888886</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>7699</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>1428</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>1429</v>
+      </c>
+      <c r="I5" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>9867</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="13">
+        <v>55.555555555555557</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>11288</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>11289</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>11290</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>11291</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>11292</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>11293</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>11294</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>11295</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>11296</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>13019</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>1075</v>
+      </c>
+      <c r="I16" s="13">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>19017</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>1431</v>
+      </c>
+      <c r="I17" s="13">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>21588</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="I18" s="13">
+        <v>88.888888888888886</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>21969</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>1418</v>
+      </c>
+      <c r="I19" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>21993</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="13">
+        <v>77.777777777777786</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>21994</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="13">
+        <v>77.777777777777786</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>21995</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="13">
+        <v>77.777777777777786</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>22132</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>671</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>672</v>
+      </c>
+      <c r="I23" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>22206</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I24" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>22210</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>1433</v>
+      </c>
+      <c r="I25" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>22289</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>1420</v>
+      </c>
+      <c r="I26" s="13">
+        <v>77.777777777777786</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>22290</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>1420</v>
+      </c>
+      <c r="I27" s="13">
+        <v>77.777777777777786</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>22291</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>1420</v>
+      </c>
+      <c r="I28" s="13">
+        <v>77.777777777777786</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>22292</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>1420</v>
+      </c>
+      <c r="I29" s="13">
+        <v>77.777777777777786</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>22293</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>1420</v>
+      </c>
+      <c r="I30" s="13">
+        <v>77.777777777777786</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>22294</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>1420</v>
+      </c>
+      <c r="I31" s="13">
+        <v>77.777777777777786</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>22907</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>983</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>984</v>
+      </c>
+      <c r="I32" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>23012</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="I33" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>23063</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="I34" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <v>23525</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="I35" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>23599</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>1435</v>
+      </c>
+      <c r="I36" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <v>23709</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <v>24138</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I38" s="13">
+        <v>77.777777777777786</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
+        <v>26157</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>1437</v>
+      </c>
+      <c r="I39" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
+        <v>26158</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>1437</v>
+      </c>
+      <c r="I40" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12">
+        <v>26159</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>1437</v>
+      </c>
+      <c r="I41" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="12">
+        <v>26217</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>1439</v>
+      </c>
+      <c r="I42" s="13">
+        <v>55.555555555555557</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="12">
+        <v>26305</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>1441</v>
+      </c>
+      <c r="I43" s="13">
+        <v>77.777777777777786</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="12">
+        <v>26447</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>1442</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>1443</v>
+      </c>
+      <c r="I44" s="13">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="12">
+        <v>26767</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="I45" s="13">
+        <v>77.777777777777786</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="12">
+        <v>28272</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="12">
+        <v>28272</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I46" s="13">
+        <v>55.555555555555557</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="12">
+        <v>28311</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="I47" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="12">
+        <v>28516</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>1445</v>
+      </c>
+      <c r="I48" s="13">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>

--- a/mutationsTable.xlsx
+++ b/mutationsTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" firstSheet="37" activeTab="58"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" firstSheet="33" activeTab="46"/>
   </bookViews>
   <sheets>
     <sheet name="B.1.1.7" sheetId="13" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13388" uniqueCount="1446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13381" uniqueCount="1446">
   <si>
     <t>Position</t>
   </si>
@@ -42958,10 +42958,10 @@
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G26:G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43667,19 +43667,19 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
-        <v>23403</v>
+        <v>23012</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>1104</v>
+        <v>226</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>13</v>
@@ -43688,7 +43688,7 @@
         <v>14</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>1105</v>
+        <v>227</v>
       </c>
       <c r="I25" s="1">
         <v>100</v>
@@ -43696,19 +43696,19 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
-        <v>23012</v>
+        <v>23031</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>226</v>
+        <v>543</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>13</v>
@@ -43717,7 +43717,7 @@
         <v>14</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>227</v>
+        <v>544</v>
       </c>
       <c r="I26" s="1">
         <v>100</v>
@@ -43725,19 +43725,19 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
-        <v>23031</v>
+        <v>22331</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>543</v>
+        <v>1106</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>13</v>
@@ -43746,7 +43746,7 @@
         <v>14</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>544</v>
+        <v>1107</v>
       </c>
       <c r="I27" s="1">
         <v>100</v>
@@ -43754,28 +43754,28 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
-        <v>22331</v>
+        <v>24364</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="I28" s="1">
         <v>100</v>
@@ -43783,28 +43783,28 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
-        <v>24364</v>
+        <v>21614</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>1108</v>
+        <v>355</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>1109</v>
+        <v>356</v>
       </c>
       <c r="I29" s="1">
         <v>100</v>
@@ -43812,19 +43812,19 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
-        <v>21614</v>
+        <v>23064</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>355</v>
+        <v>835</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>13</v>
@@ -43833,7 +43833,7 @@
         <v>14</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>356</v>
+        <v>836</v>
       </c>
       <c r="I30" s="1">
         <v>100</v>
@@ -43841,19 +43841,19 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
-        <v>23064</v>
+        <v>24138</v>
       </c>
       <c r="B31" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>9</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>835</v>
+        <v>91</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>13</v>
@@ -43862,7 +43862,7 @@
         <v>14</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>836</v>
+        <v>92</v>
       </c>
       <c r="I31" s="1">
         <v>100</v>
@@ -43870,57 +43870,57 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
-        <v>24138</v>
+        <v>28273</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>10</v>
+        <v>727</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>91</v>
+        <v>48</v>
+      </c>
+      <c r="E32" s="11">
+        <v>28273</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>13</v>
+        <v>1008</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="I32" s="1">
-        <v>100</v>
+        <v>97.297297297297305</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
-        <v>28273</v>
+        <v>25563</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>727</v>
+        <v>16</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="11">
-        <v>28273</v>
+        <v>43</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>1008</v>
+        <v>13</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="I33" s="1">
         <v>97.297297297297305</v>
@@ -43928,10 +43928,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
-        <v>25563</v>
+        <v>25511</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>16</v>
@@ -43940,7 +43940,7 @@
         <v>43</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>61</v>
+        <v>1110</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>13</v>
@@ -43949,7 +43949,7 @@
         <v>46</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>62</v>
+        <v>1111</v>
       </c>
       <c r="I34" s="1">
         <v>97.297297297297305</v>
@@ -43957,7 +43957,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
-        <v>25511</v>
+        <v>25583</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>9</v>
@@ -43969,7 +43969,7 @@
         <v>43</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>13</v>
@@ -43978,7 +43978,7 @@
         <v>46</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="I35" s="1">
         <v>97.297297297297305</v>
@@ -43986,7 +43986,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
-        <v>25583</v>
+        <v>9803</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>9</v>
@@ -43995,27 +43995,27 @@
         <v>16</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="I36" s="1">
-        <v>97.297297297297305</v>
+        <v>94.594594594594597</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
-        <v>9803</v>
+        <v>9142</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>9</v>
@@ -44027,7 +44027,7 @@
         <v>67</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>21</v>
@@ -44036,15 +44036,15 @@
         <v>69</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="I37" s="1">
-        <v>94.594594594594597</v>
+        <v>89.189189189189193</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
-        <v>9142</v>
+        <v>10908</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>9</v>
@@ -44053,19 +44053,19 @@
         <v>16</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="I38" s="1">
         <v>89.189189189189193</v>
@@ -44073,59 +44073,30 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
-        <v>10908</v>
+        <v>11222</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>1118</v>
+        <v>1043</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>1119</v>
+        <v>1044</v>
       </c>
       <c r="I39" s="1">
-        <v>89.189189189189193</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
-        <v>11222</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>1043</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="I40" s="1">
         <v>89.189189189189193</v>
       </c>
     </row>
@@ -57408,7 +57379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>

--- a/mutationsTable.xlsx
+++ b/mutationsTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" firstSheet="33" activeTab="46"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="846" firstSheet="45" activeTab="65"/>
   </bookViews>
   <sheets>
     <sheet name="B.1.1.7" sheetId="13" r:id="rId1"/>
@@ -71,6 +71,13 @@
     <sheet name="PDI142" sheetId="60" r:id="rId57"/>
     <sheet name="B.1.630" sheetId="61" r:id="rId58"/>
     <sheet name="PDI139" sheetId="62" r:id="rId59"/>
+    <sheet name="PDI157" sheetId="67" r:id="rId60"/>
+    <sheet name="PDI159 - 1" sheetId="65" r:id="rId61"/>
+    <sheet name="PDI159 - 2" sheetId="66" r:id="rId62"/>
+    <sheet name="PDI161" sheetId="68" r:id="rId63"/>
+    <sheet name="P.6" sheetId="69" r:id="rId64"/>
+    <sheet name="C.1.2" sheetId="70" r:id="rId65"/>
+    <sheet name="B.1.631" sheetId="71" r:id="rId66"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -82,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13381" uniqueCount="1446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14998" uniqueCount="1569">
   <si>
     <t>Position</t>
   </si>
@@ -4420,6 +4427,375 @@
   </si>
   <si>
     <t>N:D81D</t>
+  </si>
+  <si>
+    <t>V116V</t>
+  </si>
+  <si>
+    <t>NSP1:V116V</t>
+  </si>
+  <si>
+    <t>G12G</t>
+  </si>
+  <si>
+    <t>NSP2:G12G</t>
+  </si>
+  <si>
+    <t>I27T</t>
+  </si>
+  <si>
+    <t>NSP4:I27T</t>
+  </si>
+  <si>
+    <t>N55N</t>
+  </si>
+  <si>
+    <t>NSP16:N55N</t>
+  </si>
+  <si>
+    <t>N764K</t>
+  </si>
+  <si>
+    <t>S:N764K</t>
+  </si>
+  <si>
+    <t>P84P</t>
+  </si>
+  <si>
+    <t>ORF7a:P84P</t>
+  </si>
+  <si>
+    <t>F114F</t>
+  </si>
+  <si>
+    <t>ORF7a:F114F</t>
+  </si>
+  <si>
+    <t>Y111Y</t>
+  </si>
+  <si>
+    <t>N:Y111Y</t>
+  </si>
+  <si>
+    <t>T439I</t>
+  </si>
+  <si>
+    <t>NSP2:T439I</t>
+  </si>
+  <si>
+    <t>I494I</t>
+  </si>
+  <si>
+    <t>NSP4:I494I</t>
+  </si>
+  <si>
+    <t>R276R</t>
+  </si>
+  <si>
+    <t>NSP12b:R276R</t>
+  </si>
+  <si>
+    <t>P47T</t>
+  </si>
+  <si>
+    <t>NSP13:P47T</t>
+  </si>
+  <si>
+    <t>TCAAGCCTC</t>
+  </si>
+  <si>
+    <t>QAS215</t>
+  </si>
+  <si>
+    <t>S:QAS215</t>
+  </si>
+  <si>
+    <t>D936Y</t>
+  </si>
+  <si>
+    <t>S:D936Y</t>
+  </si>
+  <si>
+    <t>Q213K</t>
+  </si>
+  <si>
+    <t>ORF3a:Q213K</t>
+  </si>
+  <si>
+    <t>P240S</t>
+  </si>
+  <si>
+    <t>ORF3a:P240S</t>
+  </si>
+  <si>
+    <t>I9T</t>
+  </si>
+  <si>
+    <t>ORF8:I9T</t>
+  </si>
+  <si>
+    <t>I157V</t>
+  </si>
+  <si>
+    <t>N:I157V</t>
+  </si>
+  <si>
+    <t>G115G</t>
+  </si>
+  <si>
+    <t>NSP2:G115G</t>
+  </si>
+  <si>
+    <t>I1489T</t>
+  </si>
+  <si>
+    <t>NSP3:I1489T</t>
+  </si>
+  <si>
+    <t>D1844D</t>
+  </si>
+  <si>
+    <t>NSP3:D1844D</t>
+  </si>
+  <si>
+    <t>T17T</t>
+  </si>
+  <si>
+    <t>NSP6:T17T</t>
+  </si>
+  <si>
+    <t>V755V</t>
+  </si>
+  <si>
+    <t>NSP12b:V755V</t>
+  </si>
+  <si>
+    <t>S38P</t>
+  </si>
+  <si>
+    <t>NSP13:S38P</t>
+  </si>
+  <si>
+    <t>E128G</t>
+  </si>
+  <si>
+    <t>NSP13:E128G</t>
+  </si>
+  <si>
+    <t>Y124C</t>
+  </si>
+  <si>
+    <t>NSP14:Y124C</t>
+  </si>
+  <si>
+    <t>Y368Y</t>
+  </si>
+  <si>
+    <t>NSP14:Y368Y</t>
+  </si>
+  <si>
+    <t>NSP15:L216L</t>
+  </si>
+  <si>
+    <t>R246T</t>
+  </si>
+  <si>
+    <t>S:R246T</t>
+  </si>
+  <si>
+    <t>S982L</t>
+  </si>
+  <si>
+    <t>S:S982L</t>
+  </si>
+  <si>
+    <t>T106T</t>
+  </si>
+  <si>
+    <t>M:T106T</t>
+  </si>
+  <si>
+    <t>L95L</t>
+  </si>
+  <si>
+    <t>ORF8:L95L</t>
+  </si>
+  <si>
+    <t>R10Q</t>
+  </si>
+  <si>
+    <t>N:R10Q</t>
+  </si>
+  <si>
+    <t>P395P</t>
+  </si>
+  <si>
+    <t>NSP3:P395P</t>
+  </si>
+  <si>
+    <t>Y153C</t>
+  </si>
+  <si>
+    <t>NSP6:Y153C</t>
+  </si>
+  <si>
+    <t>S100G</t>
+  </si>
+  <si>
+    <t>NSP13:S100G</t>
+  </si>
+  <si>
+    <t>V479V</t>
+  </si>
+  <si>
+    <t>NSP13:V479V</t>
+  </si>
+  <si>
+    <t>S147I</t>
+  </si>
+  <si>
+    <t>NSP15:S147I</t>
+  </si>
+  <si>
+    <t>T19I</t>
+  </si>
+  <si>
+    <t>S:T19I</t>
+  </si>
+  <si>
+    <t>H49Y</t>
+  </si>
+  <si>
+    <t>S:H49Y</t>
+  </si>
+  <si>
+    <t>T259R</t>
+  </si>
+  <si>
+    <t>S:T259R</t>
+  </si>
+  <si>
+    <t>A63T</t>
+  </si>
+  <si>
+    <t>M:A63T</t>
+  </si>
+  <si>
+    <t>P34L</t>
+  </si>
+  <si>
+    <t>ORF7a:P34L</t>
+  </si>
+  <si>
+    <t>D81Y</t>
+  </si>
+  <si>
+    <t>N:D81Y</t>
+  </si>
+  <si>
+    <t>P91L</t>
+  </si>
+  <si>
+    <t>NSP2:P91L</t>
+  </si>
+  <si>
+    <t>V577F</t>
+  </si>
+  <si>
+    <t>NSP2:V577F</t>
+  </si>
+  <si>
+    <t>D339D</t>
+  </si>
+  <si>
+    <t>NSP3:D339D</t>
+  </si>
+  <si>
+    <t>P1442S</t>
+  </si>
+  <si>
+    <t>NSP3:P1442S</t>
+  </si>
+  <si>
+    <t>Y142Y</t>
+  </si>
+  <si>
+    <t>NSP4:Y142Y</t>
+  </si>
+  <si>
+    <t>T216A</t>
+  </si>
+  <si>
+    <t>NSP12b:T216A</t>
+  </si>
+  <si>
+    <t>R216H</t>
+  </si>
+  <si>
+    <t>NSP16:R216H</t>
+  </si>
+  <si>
+    <t>Q675H</t>
+  </si>
+  <si>
+    <t>S:Q675H</t>
+  </si>
+  <si>
+    <t>Y91Y</t>
+  </si>
+  <si>
+    <t>ORF3a:Y91Y</t>
+  </si>
+  <si>
+    <t>M260I</t>
+  </si>
+  <si>
+    <t>ORF3a:M260I</t>
+  </si>
+  <si>
+    <t>S1134L</t>
+  </si>
+  <si>
+    <t>NSP3:S1134L</t>
+  </si>
+  <si>
+    <t>A1690T</t>
+  </si>
+  <si>
+    <t>NSP3:A1690T</t>
+  </si>
+  <si>
+    <t>L452M</t>
+  </si>
+  <si>
+    <t>S:L452M</t>
+  </si>
+  <si>
+    <t>P25S</t>
+  </si>
+  <si>
+    <t>ORF3a:P25S</t>
+  </si>
+  <si>
+    <t>S186F</t>
+  </si>
+  <si>
+    <t>N:S186F</t>
+  </si>
+  <si>
+    <t>NSP2:N8N</t>
+  </si>
+  <si>
+    <t>Y605Y</t>
+  </si>
+  <si>
+    <t>NSP3:Y605Y</t>
+  </si>
+  <si>
+    <t>N228N</t>
+  </si>
+  <si>
+    <t>N:N228N</t>
   </si>
 </sst>
 </file>
@@ -4488,7 +4864,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4509,6 +4885,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -31010,7 +31389,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A14"/>
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32759,7 +33138,7 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34286,7 +34665,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38055,7 +38434,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41699,7 +42078,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42960,8 +43339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44110,7 +44489,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45082,7 +45461,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57379,8 +57758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59322,6 +59701,6781 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1150</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>1484</v>
+      </c>
+      <c r="I2" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>7185</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>1486</v>
+      </c>
+      <c r="I3" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>8251</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>1488</v>
+      </c>
+      <c r="I4" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>11023</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>1490</v>
+      </c>
+      <c r="I5" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>11217</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="I6" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>13458</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>893</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>894</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>895</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>896</v>
+      </c>
+      <c r="I7" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>15732</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>1492</v>
+      </c>
+      <c r="I8" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>16348</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>1494</v>
+      </c>
+      <c r="I9" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>16619</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>1495</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>1496</v>
+      </c>
+      <c r="I10" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>18410</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>1498</v>
+      </c>
+      <c r="I11" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>19143</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>1500</v>
+      </c>
+      <c r="I12" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>20268</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>1501</v>
+      </c>
+      <c r="I13" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>21765</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="I14" s="13">
+        <v>96.078431372549019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>21766</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="I15" s="13">
+        <v>96.078431372549019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>21767</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="I16" s="13">
+        <v>96.078431372549019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>21768</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="I17" s="13">
+        <v>96.078431372549019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>21769</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="I18" s="13">
+        <v>96.078431372549019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>21770</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="I19" s="13">
+        <v>96.078431372549019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>22286</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="I20" s="13">
+        <v>96.078431372549019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>22287</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="I21" s="13">
+        <v>96.078431372549019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>22288</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="I22" s="13">
+        <v>96.078431372549019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>22299</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>1503</v>
+      </c>
+      <c r="I23" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>22599</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>927</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>928</v>
+      </c>
+      <c r="I24" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>23012</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="I25" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>23064</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>835</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>836</v>
+      </c>
+      <c r="I26" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>23604</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="I27" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>24138</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I28" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>24507</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>1505</v>
+      </c>
+      <c r="I29" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>26767</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="I30" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>26840</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>1506</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>1507</v>
+      </c>
+      <c r="I31" s="13">
+        <v>98.039215686274503</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>28178</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>1509</v>
+      </c>
+      <c r="I32" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>28273</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="12">
+        <v>28273</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I33" s="13">
+        <v>96.078431372549019</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>28302</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>1511</v>
+      </c>
+      <c r="I34" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <v>28887</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>28932</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="I36" s="13">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>613</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>1447</v>
+      </c>
+      <c r="I2" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>841</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>1449</v>
+      </c>
+      <c r="I3" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>7142</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I4" s="12">
+        <v>98.412698412698404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>8634</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>1451</v>
+      </c>
+      <c r="I5" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>9614</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>1200</v>
+      </c>
+      <c r="I6" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>9693</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>941</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>942</v>
+      </c>
+      <c r="I7" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>9754</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>1202</v>
+      </c>
+      <c r="I8" s="12">
+        <v>95.238095238095227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>11288</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="12">
+        <v>96.825396825396822</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>11289</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="12">
+        <v>96.825396825396822</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>11290</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="12">
+        <v>96.825396825396822</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>11291</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="12">
+        <v>96.825396825396822</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>11292</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="12">
+        <v>96.825396825396822</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>11293</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="12">
+        <v>96.825396825396822</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>11294</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="12">
+        <v>96.825396825396822</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>11295</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="12">
+        <v>96.825396825396822</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>11296</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="12">
+        <v>96.825396825396822</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>15451</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="I18" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>16466</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="I19" s="12">
+        <v>98.412698412698404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>20823</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>1453</v>
+      </c>
+      <c r="I20" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>21615</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>1206</v>
+      </c>
+      <c r="I21" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>21765</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="I22" s="12">
+        <v>95.238095238095227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>21766</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="I23" s="12">
+        <v>95.238095238095227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>21767</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="I24" s="12">
+        <v>95.238095238095227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>21768</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="I25" s="12">
+        <v>95.238095238095227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>21769</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="I26" s="12">
+        <v>95.238095238095227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>21770</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="I27" s="12">
+        <v>95.238095238095227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>21846</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="I28" s="12">
+        <v>98.412698412698404</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>22036</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I29" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>23012</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="I30" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>23625</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>1179</v>
+      </c>
+      <c r="I31" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>23854</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>1455</v>
+      </c>
+      <c r="I32" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>26161</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>1437</v>
+      </c>
+      <c r="I33" s="12">
+        <v>90.476190476190482</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>26681</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="I34" s="12">
+        <v>98.412698412698404</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <v>27645</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>1457</v>
+      </c>
+      <c r="I35" s="12">
+        <v>95.238095238095227</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>27735</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>1458</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>1459</v>
+      </c>
+      <c r="I36" s="12">
+        <v>95.238095238095227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <v>28271</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="12">
+        <v>28271</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="I37" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <v>28531</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>839</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="I38" s="12">
+        <v>98.412698412698404</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
+        <v>28606</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I39" s="12">
+        <v>87.301587301587304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
+        <v>28910</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>1219</v>
+      </c>
+      <c r="I40" s="12">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>3904</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>1513</v>
+      </c>
+      <c r="I2" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>11430</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I3" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>16534</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>1517</v>
+      </c>
+      <c r="I4" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>17673</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>1519</v>
+      </c>
+      <c r="I5" s="12">
+        <v>84.444444444444443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>20060</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>1521</v>
+      </c>
+      <c r="I6" s="12">
+        <v>82.222222222222214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>20268</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>1501</v>
+      </c>
+      <c r="I7" s="12">
+        <v>95.555555555555557</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>21618</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>1523</v>
+      </c>
+      <c r="I8" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>21707</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>1525</v>
+      </c>
+      <c r="I9" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>21982</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>712</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="I10" s="12">
+        <v>91.111111111111114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>21983</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>712</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="I11" s="12">
+        <v>91.111111111111114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>21984</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>712</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="I12" s="12">
+        <v>91.111111111111114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>21985</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>712</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="I13" s="12">
+        <v>91.111111111111114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>21986</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>712</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="I14" s="12">
+        <v>91.111111111111114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>21987</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>712</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="I15" s="12">
+        <v>91.111111111111114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>22338</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>1527</v>
+      </c>
+      <c r="I16" s="12">
+        <v>91.111111111111114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>22912</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="12">
+        <v>97.777777777777771</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>22992</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="I18" s="12">
+        <v>97.777777777777771</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>26681</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="I19" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>26709</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>1529</v>
+      </c>
+      <c r="I20" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>27494</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>1531</v>
+      </c>
+      <c r="I21" s="12">
+        <v>84.444444444444443</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>28273</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="12">
+        <v>28273</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I22" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>28514</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>1533</v>
+      </c>
+      <c r="I23" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>28917</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="I24" s="12">
+        <v>97.777777777777771</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>2121</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>1463</v>
+      </c>
+      <c r="I2" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>10036</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>1465</v>
+      </c>
+      <c r="I3" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>11288</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>11289</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>11290</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>11291</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>11292</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>11293</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>11294</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>11295</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>11296</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>12008</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>690</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>943</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>692</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>944</v>
+      </c>
+      <c r="I13" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>14295</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>1467</v>
+      </c>
+      <c r="I14" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>16375</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>1469</v>
+      </c>
+      <c r="I15" s="12">
+        <v>94.444444444444443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>21765</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="I16" s="12">
+        <v>94.444444444444443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>21766</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="I17" s="12">
+        <v>94.444444444444443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>21767</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="I18" s="12">
+        <v>94.444444444444443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>21768</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="I19" s="12">
+        <v>94.444444444444443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>21769</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="I20" s="12">
+        <v>94.444444444444443</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>21770</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="I21" s="12">
+        <v>94.444444444444443</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>22020</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>1177</v>
+      </c>
+      <c r="I22" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>22203</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>1472</v>
+      </c>
+      <c r="I23" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>22995</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="I24" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>23012</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="I25" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>24138</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I26" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>24368</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I27" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>26029</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>1475</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>1476</v>
+      </c>
+      <c r="I28" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>26110</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>1478</v>
+      </c>
+      <c r="I29" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>26161</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>1437</v>
+      </c>
+      <c r="I30" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>27919</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>1480</v>
+      </c>
+      <c r="I31" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>28271</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="12">
+        <v>28271</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="I32" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>28742</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>1482</v>
+      </c>
+      <c r="I33" s="12">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1077</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I2" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>2534</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>1537</v>
+      </c>
+      <c r="I3" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>3736</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>1539</v>
+      </c>
+      <c r="I4" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>7043</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>1541</v>
+      </c>
+      <c r="I5" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>8980</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>1542</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>1543</v>
+      </c>
+      <c r="I6" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>10029</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="I7" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>12053</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>690</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>691</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>692</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>693</v>
+      </c>
+      <c r="I8" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>14113</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>1545</v>
+      </c>
+      <c r="I9" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>21305</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>1546</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>1547</v>
+      </c>
+      <c r="I10" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>23587</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>1549</v>
+      </c>
+      <c r="I11" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>23593</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="I12" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>24382</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>1272</v>
+      </c>
+      <c r="I13" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>25665</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>1551</v>
+      </c>
+      <c r="I14" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>26172</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>1553</v>
+      </c>
+      <c r="I15" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>28253</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="I16" s="12">
+        <v>91.111111111111114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>569</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>731</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="I2" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>2485</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I3" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>5175</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>808</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>809</v>
+      </c>
+      <c r="I4" s="13">
+        <v>88.888888888888886</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>7699</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>1428</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>1429</v>
+      </c>
+      <c r="I5" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>9867</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="13">
+        <v>55.555555555555557</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>11288</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>11289</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>11290</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>11291</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>11292</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>11293</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>11294</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>11295</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>11296</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>13019</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>1075</v>
+      </c>
+      <c r="I16" s="13">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>19017</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>1431</v>
+      </c>
+      <c r="I17" s="13">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>21588</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="I18" s="13">
+        <v>88.888888888888886</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>21969</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>1418</v>
+      </c>
+      <c r="I19" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>21993</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="13">
+        <v>77.777777777777786</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>21994</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="13">
+        <v>77.777777777777786</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>21995</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="13">
+        <v>77.777777777777786</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>22132</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>671</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>672</v>
+      </c>
+      <c r="I23" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>22206</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I24" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>22210</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>1433</v>
+      </c>
+      <c r="I25" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>22289</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>1420</v>
+      </c>
+      <c r="I26" s="13">
+        <v>77.777777777777786</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>22290</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>1420</v>
+      </c>
+      <c r="I27" s="13">
+        <v>77.777777777777786</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>22291</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>1420</v>
+      </c>
+      <c r="I28" s="13">
+        <v>77.777777777777786</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>22292</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>1420</v>
+      </c>
+      <c r="I29" s="13">
+        <v>77.777777777777786</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>22293</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>1420</v>
+      </c>
+      <c r="I30" s="13">
+        <v>77.777777777777786</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>22294</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>1420</v>
+      </c>
+      <c r="I31" s="13">
+        <v>77.777777777777786</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>22907</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>983</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>984</v>
+      </c>
+      <c r="I32" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>23012</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="I33" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>23063</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="I34" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <v>23525</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="I35" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>23599</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>1435</v>
+      </c>
+      <c r="I36" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <v>23709</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <v>24138</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I38" s="13">
+        <v>77.777777777777786</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
+        <v>26157</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>1437</v>
+      </c>
+      <c r="I39" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
+        <v>26158</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>1437</v>
+      </c>
+      <c r="I40" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12">
+        <v>26159</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>1437</v>
+      </c>
+      <c r="I41" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="12">
+        <v>26217</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>1439</v>
+      </c>
+      <c r="I42" s="13">
+        <v>55.555555555555557</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="12">
+        <v>26305</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>1441</v>
+      </c>
+      <c r="I43" s="13">
+        <v>77.777777777777786</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="12">
+        <v>26447</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>1442</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>1443</v>
+      </c>
+      <c r="I44" s="13">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="12">
+        <v>26767</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="I45" s="13">
+        <v>77.777777777777786</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="12">
+        <v>28272</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="12">
+        <v>28272</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I46" s="13">
+        <v>55.555555555555557</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="12">
+        <v>28311</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="I47" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="12">
+        <v>28516</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>1445</v>
+      </c>
+      <c r="I48" s="13">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>11283</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>1171</v>
+      </c>
+      <c r="I2" s="12">
+        <v>94.117647058823522</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>11284</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>1171</v>
+      </c>
+      <c r="I3" s="12">
+        <v>94.117647058823522</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>11285</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>1171</v>
+      </c>
+      <c r="I4" s="12">
+        <v>94.117647058823522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>26158</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>929</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>930</v>
+      </c>
+      <c r="I5" s="12">
+        <v>85.294117647058826</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>26158</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>929</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>930</v>
+      </c>
+      <c r="I6" s="12">
+        <v>85.294117647058826</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>26158</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>929</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>930</v>
+      </c>
+      <c r="I7" s="12">
+        <v>85.294117647058826</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>26158</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>929</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>930</v>
+      </c>
+      <c r="I8" s="12">
+        <v>85.294117647058826</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>26222</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="12">
+        <v>26222</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>1187</v>
+      </c>
+      <c r="I9" s="12">
+        <v>97.058823529411768</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>28273</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="12">
+        <v>28273</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="12">
+        <v>91.17647058823529</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>6120</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>1555</v>
+      </c>
+      <c r="I11" s="12">
+        <v>94.117647058823522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>7787</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>1557</v>
+      </c>
+      <c r="I12" s="12">
+        <v>91.17647058823529</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>9756</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>1165</v>
+      </c>
+      <c r="I13" s="12">
+        <v>97.058823529411768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>9924</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>1167</v>
+      </c>
+      <c r="I14" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>10982</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>1169</v>
+      </c>
+      <c r="I15" s="12">
+        <v>97.058823529411768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>21615</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>1206</v>
+      </c>
+      <c r="I16" s="12">
+        <v>97.058823529411768</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>21846</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="I17" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>22036</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I18" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>22916</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>1559</v>
+      </c>
+      <c r="I19" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>23604</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="I20" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>23625</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>1179</v>
+      </c>
+      <c r="I21" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>23765</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>1181</v>
+      </c>
+      <c r="I22" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>24642</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="I23" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>25465</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>1561</v>
+      </c>
+      <c r="I24" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>27769</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>1211</v>
+      </c>
+      <c r="I25" s="12">
+        <v>97.058823529411768</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>28830</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>1563</v>
+      </c>
+      <c r="I26" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>28907</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I27" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>829</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>1564</v>
+      </c>
+      <c r="I28" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>994</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I29" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>4534</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>1566</v>
+      </c>
+      <c r="I30" s="12">
+        <v>97.058823529411768</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>24442</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>1183</v>
+      </c>
+      <c r="I31" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>28330</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>1215</v>
+      </c>
+      <c r="I32" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>28957</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>1568</v>
+      </c>
+      <c r="I33" s="12">
+        <v>97.058823529411768</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>

--- a/mutationsTable.xlsx
+++ b/mutationsTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="17280" windowHeight="8970" tabRatio="846" firstSheet="17" activeTab="17"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="17280" windowHeight="8970" tabRatio="846" firstSheet="48" activeTab="68"/>
   </bookViews>
   <sheets>
     <sheet name="B.1.1.7" sheetId="13" r:id="rId1"/>
@@ -71,14 +71,16 @@
     <sheet name="PDI142" sheetId="60" r:id="rId57"/>
     <sheet name="B.1.630" sheetId="61" r:id="rId58"/>
     <sheet name="PDI139" sheetId="62" r:id="rId59"/>
-    <sheet name="PDI157" sheetId="67" r:id="rId60"/>
-    <sheet name="PDI159 - 1" sheetId="65" r:id="rId61"/>
-    <sheet name="PDI159 - 2" sheetId="66" r:id="rId62"/>
+    <sheet name="B.1.415.1" sheetId="67" r:id="rId60"/>
+    <sheet name="B.1.634" sheetId="65" r:id="rId61"/>
+    <sheet name="B.1.635" sheetId="66" r:id="rId62"/>
     <sheet name="PDI161" sheetId="68" r:id="rId63"/>
     <sheet name="P.6" sheetId="69" r:id="rId64"/>
     <sheet name="C.1.2" sheetId="70" r:id="rId65"/>
     <sheet name="B.1.631" sheetId="71" r:id="rId66"/>
     <sheet name="PDI 156" sheetId="72" r:id="rId67"/>
+    <sheet name="C.37.1" sheetId="73" r:id="rId68"/>
+    <sheet name="B.1.633" sheetId="74" r:id="rId69"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -90,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15231" uniqueCount="1611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15869" uniqueCount="1650">
   <si>
     <t>Position</t>
   </si>
@@ -4559,12 +4561,6 @@
     <t>NSP6:T17T</t>
   </si>
   <si>
-    <t>V755V</t>
-  </si>
-  <si>
-    <t>NSP12b:V755V</t>
-  </si>
-  <si>
     <t>S38P</t>
   </si>
   <si>
@@ -4583,12 +4579,6 @@
     <t>NSP14:Y124C</t>
   </si>
   <si>
-    <t>Y368Y</t>
-  </si>
-  <si>
-    <t>NSP14:Y368Y</t>
-  </si>
-  <si>
     <t>NSP15:L216L</t>
   </si>
   <si>
@@ -4923,6 +4913,135 @@
   </si>
   <si>
     <t>ORF7a:N52N</t>
+  </si>
+  <si>
+    <t>K88R</t>
+  </si>
+  <si>
+    <t>NSP5:K88R</t>
+  </si>
+  <si>
+    <t>D870D</t>
+  </si>
+  <si>
+    <t>NSP12b:D870D</t>
+  </si>
+  <si>
+    <t>Y64Y</t>
+  </si>
+  <si>
+    <t>NSP13:Y64Y</t>
+  </si>
+  <si>
+    <t>M72I</t>
+  </si>
+  <si>
+    <t>NSP14:M72I</t>
+  </si>
+  <si>
+    <t>Q49Q</t>
+  </si>
+  <si>
+    <t>NSP16:Q49Q</t>
+  </si>
+  <si>
+    <t>R21I</t>
+  </si>
+  <si>
+    <t>S:R21I</t>
+  </si>
+  <si>
+    <t>T572I</t>
+  </si>
+  <si>
+    <t>S:T572I</t>
+  </si>
+  <si>
+    <t>I123T</t>
+  </si>
+  <si>
+    <t>ORF3a:I123T</t>
+  </si>
+  <si>
+    <t>H145Y</t>
+  </si>
+  <si>
+    <t>N:H145Y</t>
+  </si>
+  <si>
+    <t>S248G</t>
+  </si>
+  <si>
+    <t>NSP2:S248G</t>
+  </si>
+  <si>
+    <t>S1578I</t>
+  </si>
+  <si>
+    <t>NSP3:S1578I</t>
+  </si>
+  <si>
+    <t>N28N</t>
+  </si>
+  <si>
+    <t>NSP5:N28N</t>
+  </si>
+  <si>
+    <t>R105R</t>
+  </si>
+  <si>
+    <t>NSP5:R105R</t>
+  </si>
+  <si>
+    <t>S638I</t>
+  </si>
+  <si>
+    <t>NSP12b:S638I</t>
+  </si>
+  <si>
+    <t>D253N</t>
+  </si>
+  <si>
+    <t>S:D253N</t>
+  </si>
+  <si>
+    <t>E484A</t>
+  </si>
+  <si>
+    <t>S:E484A</t>
+  </si>
+  <si>
+    <t>T572N</t>
+  </si>
+  <si>
+    <t>S:T572N</t>
+  </si>
+  <si>
+    <t>D222D</t>
+  </si>
+  <si>
+    <t>ORF3a:D222D</t>
+  </si>
+  <si>
+    <t>M:K50K</t>
+  </si>
+  <si>
+    <t>Y71Y</t>
+  </si>
+  <si>
+    <t>M:Y71Y</t>
+  </si>
+  <si>
+    <t>R10P</t>
+  </si>
+  <si>
+    <t>N:R10P</t>
+  </si>
+  <si>
+    <t>Q28R</t>
+  </si>
+  <si>
+    <t>N:Q28R</t>
   </si>
 </sst>
 </file>
@@ -15868,7 +15987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -59601,10 +59720,10 @@
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59814,25 +59933,25 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>15732</v>
+        <v>16348</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>1489</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>1490</v>
@@ -59843,13 +59962,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
-        <v>16348</v>
+        <v>16619</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>177</v>
@@ -59872,7 +59991,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>16619</v>
+        <v>18410</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>10</v>
@@ -59881,7 +60000,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>1493</v>
@@ -59890,7 +60009,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>1494</v>
@@ -59901,97 +60020,97 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
-        <v>18410</v>
+        <v>21765</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="I11" s="13">
+        <v>96.078431372549019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>21766</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>1495</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>1496</v>
-      </c>
-      <c r="I11" s="13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>19143</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>16</v>
-      </c>
       <c r="C12" s="12" t="s">
-        <v>9</v>
+        <v>727</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>1497</v>
+        <v>380</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>1498</v>
+        <v>381</v>
       </c>
       <c r="I12" s="13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96.078431372549019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
-        <v>20268</v>
+        <v>21767</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="I13" s="13">
+        <v>96.078431372549019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>21768</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>10</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>1430</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>1499</v>
-      </c>
-      <c r="I13" s="13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>21765</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>16</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>727</v>
@@ -60017,10 +60136,10 @@
     </row>
     <row r="15" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
-        <v>21766</v>
+        <v>21769</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>727</v>
@@ -60046,10 +60165,10 @@
     </row>
     <row r="16" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
-        <v>21767</v>
+        <v>21770</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>727</v>
@@ -60073,12 +60192,12 @@
         <v>96.078431372549019</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
-        <v>21768</v>
+        <v>22286</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>727</v>
@@ -60087,7 +60206,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>380</v>
+        <v>222</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>45</v>
@@ -60096,7 +60215,7 @@
         <v>14</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>381</v>
+        <v>223</v>
       </c>
       <c r="I17" s="13">
         <v>96.078431372549019</v>
@@ -60104,7 +60223,7 @@
     </row>
     <row r="18" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
-        <v>21769</v>
+        <v>22287</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>16</v>
@@ -60116,7 +60235,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>380</v>
+        <v>222</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>45</v>
@@ -60125,7 +60244,7 @@
         <v>14</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>381</v>
+        <v>223</v>
       </c>
       <c r="I18" s="13">
         <v>96.078431372549019</v>
@@ -60133,10 +60252,10 @@
     </row>
     <row r="19" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
-        <v>21770</v>
+        <v>22288</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>727</v>
@@ -60145,7 +60264,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>380</v>
+        <v>222</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>45</v>
@@ -60154,7 +60273,7 @@
         <v>14</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>381</v>
+        <v>223</v>
       </c>
       <c r="I19" s="13">
         <v>96.078431372549019</v>
@@ -60162,97 +60281,97 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
-        <v>22286</v>
+        <v>22299</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>727</v>
+        <v>9</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>222</v>
+        <v>1496</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>223</v>
+        <v>1497</v>
       </c>
       <c r="I20" s="13">
-        <v>96.078431372549019</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
-        <v>22287</v>
+        <v>22599</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>727</v>
+        <v>10</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>222</v>
+        <v>927</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>223</v>
+        <v>928</v>
       </c>
       <c r="I21" s="13">
-        <v>96.078431372549019</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
-        <v>22288</v>
+        <v>23012</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>727</v>
+        <v>10</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="I22" s="13">
-        <v>96.078431372549019</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
-        <v>22299</v>
+        <v>23064</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>9</v>
@@ -60261,7 +60380,7 @@
         <v>11</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>1500</v>
+        <v>835</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>13</v>
@@ -60270,7 +60389,7 @@
         <v>14</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>1501</v>
+        <v>836</v>
       </c>
       <c r="I23" s="13">
         <v>100</v>
@@ -60278,10 +60397,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
-        <v>22599</v>
+        <v>23604</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>10</v>
@@ -60290,7 +60409,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>927</v>
+        <v>384</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>13</v>
@@ -60299,7 +60418,7 @@
         <v>14</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>928</v>
+        <v>385</v>
       </c>
       <c r="I24" s="13">
         <v>100</v>
@@ -60307,10 +60426,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
-        <v>23012</v>
+        <v>24138</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>10</v>
@@ -60319,7 +60438,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>226</v>
+        <v>91</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>13</v>
@@ -60328,7 +60447,7 @@
         <v>14</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>227</v>
+        <v>92</v>
       </c>
       <c r="I25" s="13">
         <v>100</v>
@@ -60336,19 +60455,19 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
-        <v>23064</v>
+        <v>24507</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>835</v>
+        <v>1498</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>13</v>
@@ -60357,7 +60476,7 @@
         <v>14</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>836</v>
+        <v>1499</v>
       </c>
       <c r="I26" s="13">
         <v>100</v>
@@ -60365,28 +60484,28 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
-        <v>23604</v>
+        <v>26767</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>384</v>
+        <v>303</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>385</v>
+        <v>304</v>
       </c>
       <c r="I27" s="13">
         <v>100</v>
@@ -60394,54 +60513,54 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
-        <v>24138</v>
+        <v>26840</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>91</v>
+        <v>1500</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>92</v>
+        <v>1501</v>
       </c>
       <c r="I28" s="13">
-        <v>100</v>
+        <v>98.039215686274503</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
-        <v>24507</v>
+        <v>28178</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>1502</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>1503</v>
@@ -60452,86 +60571,86 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
-        <v>26767</v>
+        <v>28273</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>9</v>
+        <v>727</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>303</v>
+        <v>48</v>
+      </c>
+      <c r="E30" s="12">
+        <v>28273</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>13</v>
+        <v>1007</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>304</v>
+        <v>99</v>
       </c>
       <c r="I30" s="13">
-        <v>100</v>
+        <v>96.078431372549019</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
-        <v>26840</v>
+        <v>28302</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>1504</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>1505</v>
       </c>
       <c r="I31" s="13">
-        <v>98.039215686274503</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
-        <v>28178</v>
+        <v>28887</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>1506</v>
+        <v>24</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>1507</v>
+        <v>25</v>
       </c>
       <c r="I32" s="13">
         <v>100</v>
@@ -60539,117 +60658,30 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
-        <v>28273</v>
+        <v>28932</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>727</v>
+        <v>16</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="12">
-        <v>28273</v>
+        <v>19</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>366</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>1007</v>
+        <v>13</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>99</v>
+        <v>367</v>
       </c>
       <c r="I33" s="13">
-        <v>96.078431372549019</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
-        <v>28302</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>1508</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>1509</v>
-      </c>
-      <c r="I34" s="13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
-        <v>28887</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I35" s="13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
-        <v>28932</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="I36" s="13">
         <v>100</v>
       </c>
     </row>
@@ -60663,7 +60695,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD27"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61886,7 +61918,7 @@
         <v>35</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>21</v>
@@ -61895,7 +61927,7 @@
         <v>37</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="I2" s="12">
         <v>100</v>
@@ -61915,7 +61947,7 @@
         <v>77</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>13</v>
@@ -61924,7 +61956,7 @@
         <v>69</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="I3" s="12">
         <v>100</v>
@@ -61944,7 +61976,7 @@
         <v>177</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>13</v>
@@ -61953,7 +61985,7 @@
         <v>179</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="I4" s="12">
         <v>100</v>
@@ -61973,7 +62005,7 @@
         <v>177</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>21</v>
@@ -61982,7 +62014,7 @@
         <v>179</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="I5" s="12">
         <v>84.444444444444443</v>
@@ -62002,7 +62034,7 @@
         <v>318</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>13</v>
@@ -62011,7 +62043,7 @@
         <v>320</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="I6" s="12">
         <v>82.222222222222214</v>
@@ -62040,7 +62072,7 @@
         <v>320</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="I7" s="12">
         <v>95.555555555555557</v>
@@ -62060,7 +62092,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>13</v>
@@ -62069,7 +62101,7 @@
         <v>14</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="I8" s="12">
         <v>100</v>
@@ -62089,7 +62121,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>13</v>
@@ -62098,7 +62130,7 @@
         <v>14</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="I9" s="12">
         <v>100</v>
@@ -62292,7 +62324,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>13</v>
@@ -62301,7 +62333,7 @@
         <v>14</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="I16" s="12">
         <v>91.111111111111114</v>
@@ -62408,7 +62440,7 @@
         <v>104</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>13</v>
@@ -62417,7 +62449,7 @@
         <v>106</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="I20" s="12">
         <v>100</v>
@@ -62437,7 +62469,7 @@
         <v>26</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>13</v>
@@ -62446,7 +62478,7 @@
         <v>28</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="I21" s="12">
         <v>84.444444444444443</v>
@@ -62495,7 +62527,7 @@
         <v>19</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>13</v>
@@ -62504,7 +62536,7 @@
         <v>22</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="I23" s="12">
         <v>100</v>
@@ -63569,7 +63601,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>13</v>
@@ -63578,7 +63610,7 @@
         <v>59</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="I2" s="12">
         <v>100</v>
@@ -63598,7 +63630,7 @@
         <v>57</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>13</v>
@@ -63607,7 +63639,7 @@
         <v>59</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="I3" s="12">
         <v>100</v>
@@ -63627,7 +63659,7 @@
         <v>35</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>21</v>
@@ -63636,7 +63668,7 @@
         <v>37</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="I4" s="12">
         <v>100</v>
@@ -63656,7 +63688,7 @@
         <v>35</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>13</v>
@@ -63665,7 +63697,7 @@
         <v>37</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="I5" s="12">
         <v>100</v>
@@ -63685,7 +63717,7 @@
         <v>67</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>21</v>
@@ -63694,7 +63726,7 @@
         <v>69</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="I6" s="12">
         <v>100</v>
@@ -63772,7 +63804,7 @@
         <v>39</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>13</v>
@@ -63781,7 +63813,7 @@
         <v>41</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="I9" s="12">
         <v>100</v>
@@ -63801,7 +63833,7 @@
         <v>122</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>13</v>
@@ -63810,7 +63842,7 @@
         <v>124</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="I10" s="12">
         <v>100</v>
@@ -63830,7 +63862,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>13</v>
@@ -63839,7 +63871,7 @@
         <v>14</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="I11" s="12">
         <v>100</v>
@@ -63917,7 +63949,7 @@
         <v>43</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>21</v>
@@ -63926,7 +63958,7 @@
         <v>46</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="I14" s="12">
         <v>100</v>
@@ -63946,7 +63978,7 @@
         <v>43</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>13</v>
@@ -63955,7 +63987,7 @@
         <v>46</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="I15" s="12">
         <v>100</v>
@@ -65716,7 +65748,7 @@
         <v>35</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>13</v>
@@ -65725,7 +65757,7 @@
         <v>37</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="I11" s="12">
         <v>94.117647058823522</v>
@@ -65745,7 +65777,7 @@
         <v>35</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>13</v>
@@ -65754,7 +65786,7 @@
         <v>37</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="I12" s="12">
         <v>91.17647058823529</v>
@@ -65948,7 +65980,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>13</v>
@@ -65957,7 +65989,7 @@
         <v>14</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="I19" s="12">
         <v>100</v>
@@ -66093,7 +66125,7 @@
         <v>43</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>13</v>
@@ -66102,7 +66134,7 @@
         <v>46</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="I24" s="12">
         <v>100</v>
@@ -66151,7 +66183,7 @@
         <v>19</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>13</v>
@@ -66160,7 +66192,7 @@
         <v>22</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="I26" s="12">
         <v>100</v>
@@ -66218,7 +66250,7 @@
         <v>59</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="I28" s="12">
         <v>100</v>
@@ -66267,7 +66299,7 @@
         <v>35</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>21</v>
@@ -66276,7 +66308,7 @@
         <v>37</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="I30" s="12">
         <v>97.058823529411768</v>
@@ -66354,7 +66386,7 @@
         <v>19</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>21</v>
@@ -66363,7 +66395,7 @@
         <v>22</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="I33" s="12">
         <v>97.058823529411768</v>
@@ -66485,7 +66517,7 @@
         <v>104</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>13</v>
@@ -66494,7 +66526,7 @@
         <v>106</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="I4" s="12">
         <v>100</v>
@@ -66543,7 +66575,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>13</v>
@@ -66552,7 +66584,7 @@
         <v>22</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="I6" s="12">
         <v>100</v>
@@ -66572,7 +66604,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>21</v>
@@ -66581,7 +66613,7 @@
         <v>22</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="I7" s="12">
         <v>100</v>
@@ -66601,7 +66633,7 @@
         <v>343</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>13</v>
@@ -66610,7 +66642,7 @@
         <v>345</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="I8" s="12">
         <v>100</v>
@@ -66659,7 +66691,7 @@
         <v>177</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>13</v>
@@ -66668,7 +66700,7 @@
         <v>179</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="I10" s="12">
         <v>100</v>
@@ -66688,7 +66720,7 @@
         <v>118</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>21</v>
@@ -66697,7 +66729,7 @@
         <v>120</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="I11" s="12">
         <v>100</v>
@@ -66717,7 +66749,7 @@
         <v>318</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>13</v>
@@ -66726,7 +66758,7 @@
         <v>320</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="I12" s="12">
         <v>100</v>
@@ -66775,7 +66807,7 @@
         <v>35</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>21</v>
@@ -66784,7 +66816,7 @@
         <v>37</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="I14" s="12">
         <v>100</v>
@@ -66833,7 +66865,7 @@
         <v>35</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>21</v>
@@ -66842,7 +66874,7 @@
         <v>37</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="I16" s="12">
         <v>100</v>
@@ -66862,7 +66894,7 @@
         <v>35</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>13</v>
@@ -66871,7 +66903,7 @@
         <v>37</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="I17" s="12">
         <v>100</v>
@@ -66891,7 +66923,7 @@
         <v>67</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>13</v>
@@ -66900,7 +66932,7 @@
         <v>69</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="I18" s="12">
         <v>100</v>
@@ -66949,7 +66981,7 @@
         <v>140</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>13</v>
@@ -66958,7 +66990,7 @@
         <v>142</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="I20" s="12">
         <v>100</v>
@@ -66978,7 +67010,7 @@
         <v>77</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>13</v>
@@ -66987,7 +67019,7 @@
         <v>69</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="I21" s="12">
         <v>100</v>
@@ -67036,7 +67068,7 @@
         <v>260</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>13</v>
@@ -67045,7 +67077,7 @@
         <v>262</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="I23" s="12">
         <v>100</v>
@@ -67094,7 +67126,7 @@
         <v>148</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>21</v>
@@ -67103,7 +67135,7 @@
         <v>151</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="I25" s="12">
         <v>100</v>
@@ -67123,7 +67155,7 @@
         <v>11</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>13</v>
@@ -67132,7 +67164,7 @@
         <v>14</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="I26" s="12">
         <v>100</v>
@@ -67181,7 +67213,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>13</v>
@@ -67190,7 +67222,7 @@
         <v>14</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="I28" s="12">
         <v>100</v>
@@ -67239,7 +67271,7 @@
         <v>11</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>13</v>
@@ -67248,7 +67280,7 @@
         <v>14</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="I30" s="12">
         <v>100</v>
@@ -67268,7 +67300,7 @@
         <v>11</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>13</v>
@@ -67277,7 +67309,7 @@
         <v>14</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="I31" s="12">
         <v>100</v>
@@ -67413,7 +67445,7 @@
         <v>11</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>13</v>
@@ -67422,7 +67454,7 @@
         <v>14</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="I36" s="12">
         <v>100</v>
@@ -67500,7 +67532,7 @@
         <v>35</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>21</v>
@@ -67509,7 +67541,7 @@
         <v>37</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="I39" s="12">
         <v>92.10526315789474</v>
@@ -67529,7 +67561,7 @@
         <v>26</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>21</v>
@@ -67538,7 +67570,7 @@
         <v>28</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="I40" s="12">
         <v>92.10526315789474</v>
@@ -67571,6 +67603,2762 @@
       </c>
       <c r="I41" s="12">
         <v>89.473684210526315</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>7124</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="I2" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>7424</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="I3" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>9857</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="I4" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>9867</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>10029</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="I6" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>10317</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>1608</v>
+      </c>
+      <c r="I7" s="12">
+        <v>88.888888888888886</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>11288</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>11289</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>11290</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>11291</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>11292</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>11293</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>11294</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>11295</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>11296</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>16077</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>1609</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>1610</v>
+      </c>
+      <c r="I17" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>16428</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>1611</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>1612</v>
+      </c>
+      <c r="I18" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>18255</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>1613</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>1614</v>
+      </c>
+      <c r="I19" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>20806</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>1615</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I20" s="12">
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>21624</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>1617</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>1618</v>
+      </c>
+      <c r="I21" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>21786</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="I22" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>21789</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="I23" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>22299</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="I24" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>22300</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="I25" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>22301</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="I26" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>22302</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="I27" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>22303</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="I28" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>22304</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="I29" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>22305</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="I30" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>22306</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="I31" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>22307</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="I32" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>22308</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="I33" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>22309</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="I34" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <v>22310</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="I35" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>22311</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="I36" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <v>22312</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="I37" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <v>22313</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="I38" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
+        <v>22314</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="I39" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
+        <v>22315</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="I40" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12">
+        <v>22316</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="I41" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12">
+        <v>22317</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="I42" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12">
+        <v>22318</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="I43" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="12">
+        <v>22319</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="I44" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="12">
+        <v>22917</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="I45" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="12">
+        <v>23031</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="I46" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="12">
+        <v>23277</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>1619</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>1620</v>
+      </c>
+      <c r="I47" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="12">
+        <v>23587</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>1542</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>1543</v>
+      </c>
+      <c r="I48" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="12">
+        <v>24138</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I49" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="12">
+        <v>25760</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>1621</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>1622</v>
+      </c>
+      <c r="I50" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="12">
+        <v>26894</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="I51" s="12">
+        <v>88.888888888888886</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="12">
+        <v>28253</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="I52" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="12">
+        <v>28271</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" s="12">
+        <v>28271</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="I53" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="12">
+        <v>28311</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="I54" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="12">
+        <v>28706</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>1623</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I55" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="12">
+        <v>28877</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="I56" s="12">
+        <v>94.444444444444443</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>28878</v>
+      </c>
+      <c r="B57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="I57" s="12">
+        <v>94.444444444444443</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1547</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>1625</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>1626</v>
+      </c>
+      <c r="I2" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>5178</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>5986</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="I4" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>7452</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>1627</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>1628</v>
+      </c>
+      <c r="I5" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>10029</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="I6" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>10138</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>1629</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>1630</v>
+      </c>
+      <c r="I7" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>10369</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>1631</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>1632</v>
+      </c>
+      <c r="I8" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>11417</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>1588</v>
+      </c>
+      <c r="I9" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>11430</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>1509</v>
+      </c>
+      <c r="I10" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>15380</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>1634</v>
+      </c>
+      <c r="I11" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>21789</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="I12" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>21993</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="12">
+        <v>71.428571428571431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>21994</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="12">
+        <v>71.428571428571431</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>21995</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="12">
+        <v>71.428571428571431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>22319</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>1636</v>
+      </c>
+      <c r="I16" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>22917</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>22995</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="I18" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>23013</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I19" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>23277</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>1640</v>
+      </c>
+      <c r="I20" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>23604</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="I21" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>23948</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>1268</v>
+      </c>
+      <c r="I22" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>24138</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>24378</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I24" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>26058</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>1641</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>1642</v>
+      </c>
+      <c r="I25" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>26157</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>1435</v>
+      </c>
+      <c r="I26" s="12">
+        <v>71.428571428571431</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>26158</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>1435</v>
+      </c>
+      <c r="I27" s="12">
+        <v>71.428571428571431</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>26159</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>1435</v>
+      </c>
+      <c r="I28" s="12">
+        <v>71.428571428571431</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>26673</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>897</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I29" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>26735</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>1645</v>
+      </c>
+      <c r="I30" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>26767</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="I31" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>27389</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="12">
+        <v>27389</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>1207</v>
+      </c>
+      <c r="I32" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>28272</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="12">
+        <v>28272</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>28302</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>1646</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>1647</v>
+      </c>
+      <c r="I34" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <v>28356</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>1648</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>1649</v>
+      </c>
+      <c r="I35" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>28887</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="12">
+        <v>71.428571428571431</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <v>28975</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I37" s="12">
+        <v>71.428571428571431</v>
       </c>
     </row>
   </sheetData>

--- a/mutationsTable.xlsx
+++ b/mutationsTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="17280" windowHeight="8970" tabRatio="846" firstSheet="48" activeTab="68"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="17280" windowHeight="8970" tabRatio="846" firstSheet="48" activeTab="66"/>
   </bookViews>
   <sheets>
     <sheet name="B.1.1.7" sheetId="13" r:id="rId1"/>
@@ -78,7 +78,7 @@
     <sheet name="P.6" sheetId="69" r:id="rId64"/>
     <sheet name="C.1.2" sheetId="70" r:id="rId65"/>
     <sheet name="B.1.631" sheetId="71" r:id="rId66"/>
-    <sheet name="PDI 156" sheetId="72" r:id="rId67"/>
+    <sheet name="B.1.632" sheetId="72" r:id="rId67"/>
     <sheet name="C.37.1" sheetId="73" r:id="rId68"/>
     <sheet name="B.1.633" sheetId="74" r:id="rId69"/>
   </sheets>
@@ -66410,8 +66410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -69282,7 +69282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>

--- a/mutationsTable.xlsx
+++ b/mutationsTable.xlsx
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15869" uniqueCount="1650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15842" uniqueCount="1643">
   <si>
     <t>Position</t>
   </si>
@@ -3349,21 +3349,12 @@
     <t>file:/C:/Users/User/Documents/GitHub/covid19/README.md</t>
   </si>
   <si>
-    <t>5'UTR:241</t>
-  </si>
-  <si>
     <t>D3Y</t>
   </si>
   <si>
     <t>N:D3Y</t>
   </si>
   <si>
-    <t>P314L</t>
-  </si>
-  <si>
-    <t>NSP12b:P314L</t>
-  </si>
-  <si>
     <t>P242L</t>
   </si>
   <si>
@@ -3382,12 +3373,6 @@
     <t>NSP2:R370H</t>
   </si>
   <si>
-    <t>F106F</t>
-  </si>
-  <si>
-    <t>NSP3:F106F</t>
-  </si>
-  <si>
     <t>S121L</t>
   </si>
   <si>
@@ -3404,12 +3389,6 @@
   </si>
   <si>
     <t>ORF10:R24C</t>
-  </si>
-  <si>
-    <t>D614G</t>
-  </si>
-  <si>
-    <t>S:D614G</t>
   </si>
   <si>
     <t>G257S</t>
@@ -14527,7 +14506,7 @@
         <v>57</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>13</v>
@@ -14536,7 +14515,7 @@
         <v>59</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="I31" s="11">
         <v>100</v>
@@ -14556,7 +14535,7 @@
         <v>57</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>21</v>
@@ -14565,7 +14544,7 @@
         <v>59</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="I32" s="11">
         <v>99.657534246575338</v>
@@ -14672,7 +14651,7 @@
         <v>264</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>21</v>
@@ -14681,7 +14660,7 @@
         <v>266</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
       <c r="I36" s="11">
         <v>75.684931506849324</v>
@@ -14730,7 +14709,7 @@
         <v>26</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>1126</v>
+        <v>1119</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>13</v>
@@ -14739,7 +14718,7 @@
         <v>28</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
       <c r="I38" s="11">
         <v>77.739726027397253</v>
@@ -15644,7 +15623,7 @@
         <v>57</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>13</v>
@@ -15653,7 +15632,7 @@
         <v>59</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="I31" s="11">
         <v>99.318181818181813</v>
@@ -15673,7 +15652,7 @@
         <v>57</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>21</v>
@@ -15682,7 +15661,7 @@
         <v>59</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="I32" s="11">
         <v>99.545454545454547</v>
@@ -15731,7 +15710,7 @@
         <v>35</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>1128</v>
+        <v>1121</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>13</v>
@@ -15740,7 +15719,7 @@
         <v>37</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
       <c r="I34" s="11">
         <v>91.590909090909093</v>
@@ -15818,7 +15797,7 @@
         <v>264</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>21</v>
@@ -15827,7 +15806,7 @@
         <v>266</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
       <c r="I37" s="11">
         <v>99.318181818181813</v>
@@ -15876,7 +15855,7 @@
         <v>318</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>13</v>
@@ -15885,7 +15864,7 @@
         <v>320</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="I39" s="11">
         <v>100</v>
@@ -15905,7 +15884,7 @@
         <v>11</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>1132</v>
+        <v>1125</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>21</v>
@@ -15914,7 +15893,7 @@
         <v>14</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="I40" s="11">
         <v>92.5</v>
@@ -15934,7 +15913,7 @@
         <v>26</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>1126</v>
+        <v>1119</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>13</v>
@@ -15943,7 +15922,7 @@
         <v>28</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
       <c r="I41" s="11">
         <v>99.545454545454547</v>
@@ -15963,7 +15942,7 @@
         <v>19</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>13</v>
@@ -15972,7 +15951,7 @@
         <v>22</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>1135</v>
+        <v>1128</v>
       </c>
       <c r="I42" s="11">
         <v>98.181818181818187</v>
@@ -16065,7 +16044,7 @@
         <v>35</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>13</v>
@@ -16074,7 +16053,7 @@
         <v>37</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
       <c r="I3" s="11">
         <v>99.737532808398953</v>
@@ -16094,7 +16073,7 @@
         <v>35</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>1138</v>
+        <v>1131</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>13</v>
@@ -16103,7 +16082,7 @@
         <v>37</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="I4" s="11">
         <v>99.737532808398953</v>
@@ -16152,7 +16131,7 @@
         <v>67</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>21</v>
@@ -16161,7 +16140,7 @@
         <v>69</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="I6" s="11">
         <v>99.737532808398953</v>
@@ -16181,7 +16160,7 @@
         <v>67</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>13</v>
@@ -16190,7 +16169,7 @@
         <v>69</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="I7" s="11">
         <v>99.475065616797892</v>
@@ -16268,7 +16247,7 @@
         <v>77</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>21</v>
@@ -16277,7 +16256,7 @@
         <v>69</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="I10" s="11">
         <v>99.737532808398953</v>
@@ -16355,7 +16334,7 @@
         <v>118</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>13</v>
@@ -16364,7 +16343,7 @@
         <v>120</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="I13" s="11">
         <v>99.475065616797892</v>
@@ -16819,7 +16798,7 @@
         <v>399</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>13</v>
@@ -16828,7 +16807,7 @@
         <v>401</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="I29" s="11">
         <v>99.737532808398953</v>
@@ -17269,7 +17248,7 @@
         <v>57</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>13</v>
@@ -17278,7 +17257,7 @@
         <v>59</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="I3" s="6">
         <v>100</v>
@@ -17298,7 +17277,7 @@
         <v>57</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>21</v>
@@ -17307,7 +17286,7 @@
         <v>59</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="I4" s="6">
         <v>99.586776859504127</v>
@@ -17385,7 +17364,7 @@
         <v>67</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>13</v>
@@ -17394,7 +17373,7 @@
         <v>69</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="I7" s="6">
         <v>100</v>
@@ -17443,7 +17422,7 @@
         <v>177</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>21</v>
@@ -17452,7 +17431,7 @@
         <v>179</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="I9" s="6">
         <v>100</v>
@@ -17530,7 +17509,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>13</v>
@@ -17539,7 +17518,7 @@
         <v>14</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="I12" s="6">
         <v>100</v>
@@ -39761,7 +39740,7 @@
         <v>35</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>13</v>
@@ -39770,7 +39749,7 @@
         <v>37</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
       <c r="I3" s="11">
         <v>100</v>
@@ -39790,7 +39769,7 @@
         <v>35</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>1138</v>
+        <v>1131</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>13</v>
@@ -39799,7 +39778,7 @@
         <v>37</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="I4" s="11">
         <v>100</v>
@@ -39848,7 +39827,7 @@
         <v>67</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>21</v>
@@ -39857,7 +39836,7 @@
         <v>69</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="I6" s="11">
         <v>100</v>
@@ -39877,7 +39856,7 @@
         <v>67</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>13</v>
@@ -39886,7 +39865,7 @@
         <v>69</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="I7" s="11">
         <v>100</v>
@@ -39964,7 +39943,7 @@
         <v>77</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>21</v>
@@ -39973,7 +39952,7 @@
         <v>69</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="I10" s="11">
         <v>100</v>
@@ -40051,7 +40030,7 @@
         <v>118</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>13</v>
@@ -40060,7 +40039,7 @@
         <v>120</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="I13" s="11">
         <v>100</v>
@@ -40312,7 +40291,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>13</v>
@@ -40321,7 +40300,7 @@
         <v>14</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>1248</v>
+        <v>1241</v>
       </c>
       <c r="I22" s="11">
         <v>87.5</v>
@@ -40602,7 +40581,7 @@
         <v>399</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>13</v>
@@ -40611,7 +40590,7 @@
         <v>401</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="I32" s="11">
         <v>100</v>
@@ -42372,7 +42351,7 @@
         <v>35</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>13</v>
@@ -42381,7 +42360,7 @@
         <v>37</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
       <c r="I3" s="11">
         <v>100</v>
@@ -42401,7 +42380,7 @@
         <v>35</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>1138</v>
+        <v>1131</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>13</v>
@@ -42410,7 +42389,7 @@
         <v>37</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="I4" s="11">
         <v>99.280575539568346</v>
@@ -42459,7 +42438,7 @@
         <v>67</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>21</v>
@@ -42468,7 +42447,7 @@
         <v>69</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="I6" s="11">
         <v>100</v>
@@ -42488,7 +42467,7 @@
         <v>67</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>13</v>
@@ -42497,7 +42476,7 @@
         <v>69</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="I7" s="11">
         <v>100</v>
@@ -42575,7 +42554,7 @@
         <v>77</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>21</v>
@@ -42584,7 +42563,7 @@
         <v>69</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="I10" s="11">
         <v>100</v>
@@ -42604,7 +42583,7 @@
         <v>77</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>13</v>
@@ -42613,7 +42592,7 @@
         <v>69</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
       <c r="I11" s="11">
         <v>100</v>
@@ -42691,7 +42670,7 @@
         <v>118</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>13</v>
@@ -42700,7 +42679,7 @@
         <v>120</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="I14" s="11">
         <v>100</v>
@@ -43155,7 +43134,7 @@
         <v>399</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>13</v>
@@ -43164,7 +43143,7 @@
         <v>401</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="I30" s="11">
         <v>100</v>
@@ -43474,7 +43453,7 @@
         <v>19</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>21</v>
@@ -43483,7 +43462,7 @@
         <v>22</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="I41" s="11">
         <v>98.561151079136692</v>
@@ -43532,7 +43511,7 @@
         <v>19</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>21</v>
@@ -43541,7 +43520,7 @@
         <v>22</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
       <c r="I43" s="11">
         <v>99.280575539568346</v>
@@ -43637,7 +43616,7 @@
         <v>57</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>13</v>
@@ -43646,7 +43625,7 @@
         <v>59</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="I3" s="13">
         <v>100</v>
@@ -43666,7 +43645,7 @@
         <v>57</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>21</v>
@@ -43675,7 +43654,7 @@
         <v>59</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="I4" s="13">
         <v>100</v>
@@ -43695,7 +43674,7 @@
         <v>67</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>21</v>
@@ -43704,7 +43683,7 @@
         <v>69</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="I5" s="13">
         <v>89.189189189189193</v>
@@ -43724,7 +43703,7 @@
         <v>67</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>21</v>
@@ -43733,7 +43712,7 @@
         <v>69</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="I6" s="13">
         <v>94.594594594594597</v>
@@ -43753,7 +43732,7 @@
         <v>140</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>13</v>
@@ -43762,7 +43741,7 @@
         <v>142</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="I7" s="13">
         <v>100</v>
@@ -43782,7 +43761,7 @@
         <v>140</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>13</v>
@@ -43791,7 +43770,7 @@
         <v>142</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="I8" s="13">
         <v>89.189189189189193</v>
@@ -43840,7 +43819,7 @@
         <v>264</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>13</v>
@@ -43849,7 +43828,7 @@
         <v>266</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="I10" s="13">
         <v>100</v>
@@ -43869,7 +43848,7 @@
         <v>177</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>13</v>
@@ -43878,7 +43857,7 @@
         <v>179</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="I11" s="13">
         <v>100</v>
@@ -44188,7 +44167,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>13</v>
@@ -44197,7 +44176,7 @@
         <v>14</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="I22" s="13">
         <v>100</v>
@@ -44333,7 +44312,7 @@
         <v>11</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>21</v>
@@ -44342,7 +44321,7 @@
         <v>14</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
       <c r="I27" s="13">
         <v>100</v>
@@ -44362,7 +44341,7 @@
         <v>43</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>13</v>
@@ -44371,7 +44350,7 @@
         <v>46</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="I28" s="13">
         <v>97.297297297297305</v>
@@ -44420,7 +44399,7 @@
         <v>43</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>13</v>
@@ -44429,7 +44408,7 @@
         <v>46</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
       <c r="I30" s="13">
         <v>97.297297297297305</v>
@@ -44536,7 +44515,7 @@
         <v>19</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>13</v>
@@ -44545,7 +44524,7 @@
         <v>22</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="I34" s="13">
         <v>100</v>
@@ -44594,7 +44573,7 @@
         <v>144</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>13</v>
@@ -44603,7 +44582,7 @@
         <v>146</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="I36" s="13">
         <v>100</v>
@@ -44667,7 +44646,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>21</v>
@@ -44676,7 +44655,7 @@
         <v>59</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>1157</v>
+        <v>1150</v>
       </c>
       <c r="I2" s="1">
         <v>100</v>
@@ -44696,7 +44675,7 @@
         <v>57</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>1158</v>
+        <v>1151</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>21</v>
@@ -44705,7 +44684,7 @@
         <v>59</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
       <c r="I3" s="1">
         <v>100</v>
@@ -44725,7 +44704,7 @@
         <v>35</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>1160</v>
+        <v>1153</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>13</v>
@@ -44734,7 +44713,7 @@
         <v>37</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
       <c r="I4" s="1">
         <v>100</v>
@@ -44783,7 +44762,7 @@
         <v>67</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>13</v>
@@ -44792,7 +44771,7 @@
         <v>69</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="I6" s="1">
         <v>100</v>
@@ -44812,7 +44791,7 @@
         <v>67</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>13</v>
@@ -44821,7 +44800,7 @@
         <v>69</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
       <c r="I7" s="1">
         <v>100</v>
@@ -44841,7 +44820,7 @@
         <v>77</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>13</v>
@@ -44850,7 +44829,7 @@
         <v>69</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="I8" s="1">
         <v>100</v>
@@ -44870,7 +44849,7 @@
         <v>77</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>45</v>
@@ -44879,7 +44858,7 @@
         <v>69</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="I9" s="1">
         <v>99.152542372881356</v>
@@ -44899,7 +44878,7 @@
         <v>77</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>45</v>
@@ -44908,7 +44887,7 @@
         <v>69</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="I10" s="1">
         <v>99.152542372881356</v>
@@ -44928,7 +44907,7 @@
         <v>77</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>45</v>
@@ -44937,7 +44916,7 @@
         <v>69</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="I11" s="1">
         <v>99.152542372881356</v>
@@ -44957,7 +44936,7 @@
         <v>318</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>21</v>
@@ -44966,7 +44945,7 @@
         <v>320</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
       <c r="I12" s="1">
         <v>100</v>
@@ -44986,7 +44965,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>13</v>
@@ -44995,7 +44974,7 @@
         <v>14</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="I13" s="1">
         <v>88.135593220338976</v>
@@ -45015,7 +44994,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>13</v>
@@ -45024,7 +45003,7 @@
         <v>14</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="I14" s="1">
         <v>93.220338983050837</v>
@@ -45073,7 +45052,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>13</v>
@@ -45082,7 +45061,7 @@
         <v>14</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="I16" s="1">
         <v>100</v>
@@ -45102,7 +45081,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>13</v>
@@ -45111,7 +45090,7 @@
         <v>14</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="I17" s="1">
         <v>100</v>
@@ -45131,7 +45110,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>21</v>
@@ -45140,7 +45119,7 @@
         <v>14</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="I18" s="1">
         <v>100</v>
@@ -45189,7 +45168,7 @@
         <v>11</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>13</v>
@@ -45198,7 +45177,7 @@
         <v>14</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="I20" s="1">
         <v>81.355932203389841</v>
@@ -45209,7 +45188,7 @@
         <v>26158</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>727</v>
@@ -45343,7 +45322,7 @@
         <v>50</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="I25" s="1">
         <v>100</v>
@@ -45372,7 +45351,7 @@
         <v>22</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="I26" s="1">
         <v>100</v>
@@ -45392,7 +45371,7 @@
         <v>144</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>150</v>
@@ -45401,7 +45380,7 @@
         <v>146</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="I27" s="1">
         <v>96.610169491525426</v>
@@ -45421,7 +45400,7 @@
         <v>144</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>150</v>
@@ -45430,7 +45409,7 @@
         <v>146</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="I28" s="1">
         <v>96.610169491525426</v>
@@ -45450,7 +45429,7 @@
         <v>144</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>150</v>
@@ -45459,7 +45438,7 @@
         <v>146</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="I29" s="1">
         <v>96.610169491525426</v>
@@ -45479,7 +45458,7 @@
         <v>144</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>150</v>
@@ -45488,7 +45467,7 @@
         <v>146</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="I30" s="1">
         <v>96.610169491525426</v>
@@ -45508,7 +45487,7 @@
         <v>144</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>150</v>
@@ -45517,7 +45496,7 @@
         <v>146</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="I31" s="1">
         <v>96.610169491525426</v>
@@ -45537,7 +45516,7 @@
         <v>144</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>150</v>
@@ -45546,7 +45525,7 @@
         <v>146</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="I32" s="1">
         <v>96.610169491525426</v>
@@ -45566,7 +45545,7 @@
         <v>144</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>150</v>
@@ -45575,7 +45554,7 @@
         <v>146</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="I33" s="1">
         <v>96.610169491525426</v>
@@ -45639,7 +45618,7 @@
         <v>35</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>21</v>
@@ -45648,7 +45627,7 @@
         <v>37</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
       <c r="I2" s="1">
         <v>99.516908212560381</v>
@@ -45668,7 +45647,7 @@
         <v>35</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>1191</v>
+        <v>1184</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>13</v>
@@ -45677,7 +45656,7 @@
         <v>37</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="I3" s="1">
         <v>99.516908212560381</v>
@@ -45697,7 +45676,7 @@
         <v>35</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>13</v>
@@ -45706,7 +45685,7 @@
         <v>37</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="I4" s="1">
         <v>100</v>
@@ -45726,7 +45705,7 @@
         <v>35</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>13</v>
@@ -45735,7 +45714,7 @@
         <v>37</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="I5" s="1">
         <v>99.516908212560381</v>
@@ -45755,7 +45734,7 @@
         <v>67</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>13</v>
@@ -45764,7 +45743,7 @@
         <v>69</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="I6" s="1">
         <v>100</v>
@@ -45813,7 +45792,7 @@
         <v>67</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>13</v>
@@ -45822,7 +45801,7 @@
         <v>69</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="I8" s="1">
         <v>100</v>
@@ -46161,7 +46140,7 @@
         <v>122</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>21</v>
@@ -46170,7 +46149,7 @@
         <v>124</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="I20" s="1">
         <v>100</v>
@@ -46190,7 +46169,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>13</v>
@@ -46199,7 +46178,7 @@
         <v>14</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="I21" s="1">
         <v>97.101449275362313</v>
@@ -46248,7 +46227,7 @@
         <v>11</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>13</v>
@@ -46257,7 +46236,7 @@
         <v>14</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="I23" s="1">
         <v>100</v>
@@ -46335,7 +46314,7 @@
         <v>11</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>13</v>
@@ -46344,7 +46323,7 @@
         <v>14</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="I26" s="1">
         <v>100</v>
@@ -46364,7 +46343,7 @@
         <v>11</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>13</v>
@@ -46373,7 +46352,7 @@
         <v>14</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="I27" s="1">
         <v>100</v>
@@ -46393,7 +46372,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>21</v>
@@ -46402,7 +46381,7 @@
         <v>14</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="I28" s="1">
         <v>100</v>
@@ -46576,7 +46555,7 @@
         <v>50</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="I34" s="1">
         <v>100</v>
@@ -46605,7 +46584,7 @@
         <v>50</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="I35" s="1">
         <v>100</v>
@@ -46625,7 +46604,7 @@
         <v>399</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>13</v>
@@ -46634,7 +46613,7 @@
         <v>401</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="I36" s="1">
         <v>98.067632850241552</v>
@@ -46654,7 +46633,7 @@
         <v>71</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>13</v>
@@ -46663,7 +46642,7 @@
         <v>73</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="I37" s="1">
         <v>97.584541062801932</v>
@@ -46712,7 +46691,7 @@
         <v>19</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>21</v>
@@ -46721,7 +46700,7 @@
         <v>22</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="I39" s="1">
         <v>100</v>
@@ -46741,7 +46720,7 @@
         <v>19</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>1214</v>
+        <v>1207</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>13</v>
@@ -46750,7 +46729,7 @@
         <v>22</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
       <c r="I40" s="1">
         <v>100</v>
@@ -46770,7 +46749,7 @@
         <v>19</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>1216</v>
+        <v>1209</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>13</v>
@@ -46779,7 +46758,7 @@
         <v>22</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="I41" s="1">
         <v>100</v>
@@ -48722,7 +48701,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>1218</v>
+        <v>1211</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>13</v>
@@ -48731,7 +48710,7 @@
         <v>59</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>1219</v>
+        <v>1212</v>
       </c>
       <c r="I2" s="1">
         <v>100</v>
@@ -48751,7 +48730,7 @@
         <v>57</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>13</v>
@@ -48760,7 +48739,7 @@
         <v>59</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="I3" s="1">
         <v>100</v>
@@ -48780,7 +48759,7 @@
         <v>57</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>1220</v>
+        <v>1213</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>21</v>
@@ -48789,7 +48768,7 @@
         <v>59</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>1221</v>
+        <v>1214</v>
       </c>
       <c r="I4" s="1">
         <v>100</v>
@@ -48809,7 +48788,7 @@
         <v>35</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>1222</v>
+        <v>1215</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>21</v>
@@ -48818,7 +48797,7 @@
         <v>37</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>1223</v>
+        <v>1216</v>
       </c>
       <c r="I5" s="1">
         <v>100</v>
@@ -48838,7 +48817,7 @@
         <v>35</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>13</v>
@@ -48847,7 +48826,7 @@
         <v>37</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>1225</v>
+        <v>1218</v>
       </c>
       <c r="I6" s="1">
         <v>100</v>
@@ -48867,7 +48846,7 @@
         <v>35</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>1226</v>
+        <v>1219</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>21</v>
@@ -48876,7 +48855,7 @@
         <v>37</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>1227</v>
+        <v>1220</v>
       </c>
       <c r="I7" s="1">
         <v>100</v>
@@ -48925,7 +48904,7 @@
         <v>77</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>13</v>
@@ -48934,7 +48913,7 @@
         <v>69</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
       <c r="I9" s="1">
         <v>100</v>
@@ -48954,7 +48933,7 @@
         <v>260</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>1230</v>
+        <v>1223</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>13</v>
@@ -48963,7 +48942,7 @@
         <v>262</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
       <c r="I10" s="1">
         <v>100</v>
@@ -48983,7 +48962,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>1232</v>
+        <v>1225</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>21</v>
@@ -48992,7 +48971,7 @@
         <v>41</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="I11" s="1">
         <v>100</v>
@@ -49157,7 +49136,7 @@
         <v>43</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>1234</v>
+        <v>1227</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>13</v>
@@ -49166,7 +49145,7 @@
         <v>46</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>1235</v>
+        <v>1228</v>
       </c>
       <c r="I17" s="1">
         <v>100</v>
@@ -49244,7 +49223,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>1236</v>
+        <v>1229</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>13</v>
@@ -49253,7 +49232,7 @@
         <v>22</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="I20" s="1">
         <v>100</v>
@@ -49311,7 +49290,7 @@
         <v>46</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>1238</v>
+        <v>1231</v>
       </c>
       <c r="I22" s="1">
         <v>97.435897435897431</v>
@@ -49331,7 +49310,7 @@
         <v>11</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>1239</v>
+        <v>1232</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>13</v>
@@ -49340,7 +49319,7 @@
         <v>14</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>1240</v>
+        <v>1233</v>
       </c>
       <c r="I23" s="1">
         <v>89.743589743589752</v>
@@ -49360,7 +49339,7 @@
         <v>19</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>1241</v>
+        <v>1234</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>13</v>
@@ -49369,7 +49348,7 @@
         <v>22</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>1242</v>
+        <v>1235</v>
       </c>
       <c r="I24" s="1">
         <v>89.743589743589752</v>
@@ -49389,7 +49368,7 @@
         <v>19</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>1243</v>
+        <v>1236</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>13</v>
@@ -49398,7 +49377,7 @@
         <v>22</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>1244</v>
+        <v>1237</v>
       </c>
       <c r="I25" s="1">
         <v>89.743589743589752</v>
@@ -49418,7 +49397,7 @@
         <v>11</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>13</v>
@@ -49427,7 +49406,7 @@
         <v>14</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="I26" s="1">
         <v>87.179487179487182</v>
@@ -49494,7 +49473,7 @@
         <v>35</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>21</v>
@@ -49503,7 +49482,7 @@
         <v>37</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
       <c r="I2" s="11">
         <v>99.261083740000004</v>
@@ -49523,7 +49502,7 @@
         <v>35</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>13</v>
@@ -49532,7 +49511,7 @@
         <v>37</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
       <c r="I3" s="11">
         <v>99.014778329999999</v>
@@ -49552,7 +49531,7 @@
         <v>67</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>13</v>
@@ -49561,7 +49540,7 @@
         <v>69</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>1260</v>
+        <v>1253</v>
       </c>
       <c r="I4" s="11">
         <v>98.76847291</v>
@@ -49610,7 +49589,7 @@
         <v>140</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>13</v>
@@ -49619,7 +49598,7 @@
         <v>142</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>1262</v>
+        <v>1255</v>
       </c>
       <c r="I6" s="11">
         <v>90.640394090000001</v>
@@ -49900,7 +49879,7 @@
         <v>318</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>1263</v>
+        <v>1256</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>13</v>
@@ -49909,7 +49888,7 @@
         <v>320</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>1264</v>
+        <v>1257</v>
       </c>
       <c r="I16" s="11">
         <v>93.34975369</v>
@@ -50074,7 +50053,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>1265</v>
+        <v>1258</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>21</v>
@@ -50083,7 +50062,7 @@
         <v>14</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>1266</v>
+        <v>1259</v>
       </c>
       <c r="I22" s="11">
         <v>99.507389160000002</v>
@@ -50132,7 +50111,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>1267</v>
+        <v>1260</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>13</v>
@@ -50141,7 +50120,7 @@
         <v>14</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>1268</v>
+        <v>1261</v>
       </c>
       <c r="I24" s="11">
         <v>97.290640389999993</v>
@@ -50161,7 +50140,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>1269</v>
+        <v>1262</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>21</v>
@@ -50170,7 +50149,7 @@
         <v>14</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>1270</v>
+        <v>1263</v>
       </c>
       <c r="I25" s="11">
         <v>90.147783250000003</v>
@@ -50190,7 +50169,7 @@
         <v>11</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>1271</v>
+        <v>1264</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>21</v>
@@ -50199,7 +50178,7 @@
         <v>14</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>1272</v>
+        <v>1265</v>
       </c>
       <c r="I26" s="11">
         <v>99.261083740000004</v>
@@ -50257,7 +50236,7 @@
         <v>50</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="I28" s="11">
         <v>97.044334980000002</v>
@@ -50286,7 +50265,7 @@
         <v>50</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="I29" s="11">
         <v>97.044334980000002</v>
@@ -50315,7 +50294,7 @@
         <v>50</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="I30" s="11">
         <v>97.044334980000002</v>
@@ -50344,7 +50323,7 @@
         <v>50</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="I31" s="11">
         <v>97.044334980000002</v>
@@ -50373,7 +50352,7 @@
         <v>50</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="I32" s="11">
         <v>97.044334980000002</v>
@@ -50402,7 +50381,7 @@
         <v>50</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="I33" s="11">
         <v>97.044334980000002</v>
@@ -50431,7 +50410,7 @@
         <v>50</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="I34" s="11">
         <v>97.044334980000002</v>
@@ -50460,7 +50439,7 @@
         <v>50</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="I35" s="11">
         <v>97.044334980000002</v>
@@ -50489,7 +50468,7 @@
         <v>50</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="I36" s="11">
         <v>97.044334980000002</v>
@@ -50518,7 +50497,7 @@
         <v>50</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="I37" s="11">
         <v>97.044334980000002</v>
@@ -50547,7 +50526,7 @@
         <v>50</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="I38" s="11">
         <v>97.044334980000002</v>
@@ -50576,7 +50555,7 @@
         <v>50</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="I39" s="11">
         <v>97.044334980000002</v>
@@ -50605,7 +50584,7 @@
         <v>50</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="I40" s="11">
         <v>97.044334980000002</v>
@@ -50634,7 +50613,7 @@
         <v>50</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="I41" s="11">
         <v>97.044334980000002</v>
@@ -50663,7 +50642,7 @@
         <v>50</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="I42" s="11">
         <v>97.044334980000002</v>
@@ -50683,7 +50662,7 @@
         <v>71</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>1274</v>
+        <v>1267</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>323</v>
@@ -50692,7 +50671,7 @@
         <v>73</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>1275</v>
+        <v>1268</v>
       </c>
       <c r="I43" s="11">
         <v>100</v>
@@ -50741,7 +50720,7 @@
         <v>19</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>1276</v>
+        <v>1269</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>45</v>
@@ -50750,7 +50729,7 @@
         <v>22</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>1277</v>
+        <v>1270</v>
       </c>
       <c r="I45" s="11">
         <v>99.261083740000004</v>
@@ -50770,7 +50749,7 @@
         <v>19</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>1276</v>
+        <v>1269</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>45</v>
@@ -50779,7 +50758,7 @@
         <v>22</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>1277</v>
+        <v>1270</v>
       </c>
       <c r="I46" s="11">
         <v>99.261083740000004</v>
@@ -50799,7 +50778,7 @@
         <v>19</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>1276</v>
+        <v>1269</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>45</v>
@@ -50808,7 +50787,7 @@
         <v>22</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>1277</v>
+        <v>1270</v>
       </c>
       <c r="I47" s="11">
         <v>99.261083740000004</v>
@@ -50837,7 +50816,7 @@
         <v>50</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>1278</v>
+        <v>1271</v>
       </c>
       <c r="I48" s="11">
         <v>84.729064039999997</v>
@@ -50901,7 +50880,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>1287</v>
+        <v>1280</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>21</v>
@@ -50910,7 +50889,7 @@
         <v>59</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>1288</v>
+        <v>1281</v>
       </c>
       <c r="I2" s="2">
         <v>100</v>
@@ -50930,7 +50909,7 @@
         <v>35</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>1295</v>
+        <v>1288</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>21</v>
@@ -50939,7 +50918,7 @@
         <v>37</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>1296</v>
+        <v>1289</v>
       </c>
       <c r="I3" s="2">
         <v>99.865410497981159</v>
@@ -50959,7 +50938,7 @@
         <v>35</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>13</v>
@@ -50968,7 +50947,7 @@
         <v>37</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="I4" s="2">
         <v>100</v>
@@ -50988,7 +50967,7 @@
         <v>35</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>1301</v>
+        <v>1294</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>13</v>
@@ -50997,7 +50976,7 @@
         <v>37</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>1302</v>
+        <v>1295</v>
       </c>
       <c r="I5" s="2">
         <v>99.730820995962304</v>
@@ -51017,7 +50996,7 @@
         <v>35</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>1289</v>
+        <v>1282</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>21</v>
@@ -51026,7 +51005,7 @@
         <v>37</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>1290</v>
+        <v>1283</v>
       </c>
       <c r="I6" s="2">
         <v>100</v>
@@ -51046,7 +51025,7 @@
         <v>67</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>1291</v>
+        <v>1284</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>21</v>
@@ -51055,7 +51034,7 @@
         <v>69</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>1292</v>
+        <v>1285</v>
       </c>
       <c r="I7" s="2">
         <v>100</v>
@@ -51365,7 +51344,7 @@
         <v>260</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>21</v>
@@ -51374,7 +51353,7 @@
         <v>262</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="I18" s="2">
         <v>98.923283983849259</v>
@@ -51394,7 +51373,7 @@
         <v>39</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>1283</v>
+        <v>1276</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>21</v>
@@ -51403,7 +51382,7 @@
         <v>41</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="I19" s="2">
         <v>100</v>
@@ -51452,7 +51431,7 @@
         <v>318</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>21</v>
@@ -51461,7 +51440,7 @@
         <v>320</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>1286</v>
+        <v>1279</v>
       </c>
       <c r="I21" s="2">
         <v>100</v>
@@ -51481,7 +51460,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>1303</v>
+        <v>1296</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>21</v>
@@ -51490,7 +51469,7 @@
         <v>14</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>1304</v>
+        <v>1297</v>
       </c>
       <c r="I22" s="2">
         <v>99.596231493943478</v>
@@ -51510,7 +51489,7 @@
         <v>11</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>1293</v>
+        <v>1286</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>13</v>
@@ -51519,7 +51498,7 @@
         <v>14</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="I23" s="2">
         <v>100</v>
@@ -51597,7 +51576,7 @@
         <v>11</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>21</v>
@@ -51606,7 +51585,7 @@
         <v>14</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>1306</v>
+        <v>1299</v>
       </c>
       <c r="I26" s="2">
         <v>99.461641991924637</v>
@@ -51626,7 +51605,7 @@
         <v>11</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>1297</v>
+        <v>1290</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>13</v>
@@ -51635,7 +51614,7 @@
         <v>14</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="I27" s="2">
         <v>99.865410497981159</v>
@@ -51655,7 +51634,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>13</v>
@@ -51664,7 +51643,7 @@
         <v>14</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>1300</v>
+        <v>1293</v>
       </c>
       <c r="I28" s="2">
         <v>99.865410497981159</v>
@@ -51742,7 +51721,7 @@
         <v>104</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>1279</v>
+        <v>1272</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>21</v>
@@ -51751,7 +51730,7 @@
         <v>106</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>1280</v>
+        <v>1273</v>
       </c>
       <c r="I31" s="2">
         <v>100</v>
@@ -51800,7 +51779,7 @@
         <v>26</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>1309</v>
+        <v>1302</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>13</v>
@@ -51809,7 +51788,7 @@
         <v>28</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>1310</v>
+        <v>1303</v>
       </c>
       <c r="I33" s="2">
         <v>98.788694481830419</v>
@@ -51887,7 +51866,7 @@
         <v>19</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>1311</v>
+        <v>1304</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>21</v>
@@ -51896,7 +51875,7 @@
         <v>22</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>1312</v>
+        <v>1305</v>
       </c>
       <c r="I36" s="2">
         <v>88.694481830417232</v>
@@ -51916,7 +51895,7 @@
         <v>19</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>1281</v>
+        <v>1274</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>13</v>
@@ -51925,7 +51904,7 @@
         <v>22</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
       <c r="I37" s="2">
         <v>100</v>
@@ -52030,7 +52009,7 @@
         <v>50</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>1334</v>
+        <v>1327</v>
       </c>
       <c r="I2" s="11">
         <v>100</v>
@@ -52079,7 +52058,7 @@
         <v>343</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>1313</v>
+        <v>1306</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>21</v>
@@ -52088,7 +52067,7 @@
         <v>345</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>1335</v>
+        <v>1328</v>
       </c>
       <c r="I4" s="11">
         <v>80</v>
@@ -52108,7 +52087,7 @@
         <v>57</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>1314</v>
+        <v>1307</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>13</v>
@@ -52117,7 +52096,7 @@
         <v>59</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>1336</v>
+        <v>1329</v>
       </c>
       <c r="I5" s="11">
         <v>100</v>
@@ -52137,7 +52116,7 @@
         <v>35</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>1315</v>
+        <v>1308</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>13</v>
@@ -52146,7 +52125,7 @@
         <v>37</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>1337</v>
+        <v>1330</v>
       </c>
       <c r="I6" s="11">
         <v>100</v>
@@ -52166,7 +52145,7 @@
         <v>35</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>1316</v>
+        <v>1309</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>13</v>
@@ -52175,7 +52154,7 @@
         <v>37</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>1338</v>
+        <v>1331</v>
       </c>
       <c r="I7" s="11">
         <v>100</v>
@@ -52195,7 +52174,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>1317</v>
+        <v>1310</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>13</v>
@@ -52204,7 +52183,7 @@
         <v>37</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>1339</v>
+        <v>1332</v>
       </c>
       <c r="I8" s="11">
         <v>100</v>
@@ -52224,7 +52203,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>13</v>
@@ -52233,7 +52212,7 @@
         <v>37</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>1340</v>
+        <v>1333</v>
       </c>
       <c r="I9" s="11">
         <v>100</v>
@@ -52282,7 +52261,7 @@
         <v>77</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>13</v>
@@ -52291,7 +52270,7 @@
         <v>69</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>1341</v>
+        <v>1334</v>
       </c>
       <c r="I11" s="11">
         <v>100</v>
@@ -52340,7 +52319,7 @@
         <v>39</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>13</v>
@@ -52349,7 +52328,7 @@
         <v>41</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>1342</v>
+        <v>1335</v>
       </c>
       <c r="I13" s="11">
         <v>100</v>
@@ -52369,7 +52348,7 @@
         <v>177</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>1321</v>
+        <v>1314</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>13</v>
@@ -52378,7 +52357,7 @@
         <v>179</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>1343</v>
+        <v>1336</v>
       </c>
       <c r="I14" s="11">
         <v>100</v>
@@ -52398,7 +52377,7 @@
         <v>118</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>1322</v>
+        <v>1315</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>13</v>
@@ -52407,7 +52386,7 @@
         <v>120</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>1344</v>
+        <v>1337</v>
       </c>
       <c r="I15" s="11">
         <v>100</v>
@@ -52427,7 +52406,7 @@
         <v>318</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>1323</v>
+        <v>1316</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>21</v>
@@ -52436,7 +52415,7 @@
         <v>320</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>1345</v>
+        <v>1338</v>
       </c>
       <c r="I16" s="11">
         <v>100</v>
@@ -52456,7 +52435,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>1324</v>
+        <v>1317</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>13</v>
@@ -52465,7 +52444,7 @@
         <v>14</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>1346</v>
+        <v>1339</v>
       </c>
       <c r="I17" s="11">
         <v>100</v>
@@ -52563,7 +52542,7 @@
         <v>22190</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>1325</v>
+        <v>1318</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>727</v>
@@ -52572,7 +52551,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>1326</v>
+        <v>1319</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>45</v>
@@ -52581,7 +52560,7 @@
         <v>14</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>1347</v>
+        <v>1340</v>
       </c>
       <c r="I21" s="11">
         <v>100</v>
@@ -52601,7 +52580,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>1326</v>
+        <v>1319</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>45</v>
@@ -52610,7 +52589,7 @@
         <v>14</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>1347</v>
+        <v>1340</v>
       </c>
       <c r="I22" s="11">
         <v>100</v>
@@ -52630,7 +52609,7 @@
         <v>11</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>1326</v>
+        <v>1319</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>45</v>
@@ -52639,7 +52618,7 @@
         <v>14</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>1347</v>
+        <v>1340</v>
       </c>
       <c r="I23" s="11">
         <v>100</v>
@@ -52949,7 +52928,7 @@
         <v>11</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>1327</v>
+        <v>1320</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>21</v>
@@ -52958,7 +52937,7 @@
         <v>14</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>1348</v>
+        <v>1341</v>
       </c>
       <c r="I34" s="11">
         <v>100</v>
@@ -53007,7 +52986,7 @@
         <v>11</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>1328</v>
+        <v>1321</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>13</v>
@@ -53016,7 +52995,7 @@
         <v>14</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>1349</v>
+        <v>1342</v>
       </c>
       <c r="I36" s="11">
         <v>100</v>
@@ -53065,7 +53044,7 @@
         <v>11</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>1329</v>
+        <v>1322</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>21</v>
@@ -53074,7 +53053,7 @@
         <v>14</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="I38" s="11">
         <v>100</v>
@@ -53152,7 +53131,7 @@
         <v>11</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>1330</v>
+        <v>1323</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>21</v>
@@ -53161,7 +53140,7 @@
         <v>14</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="I41" s="11">
         <v>100</v>
@@ -53181,7 +53160,7 @@
         <v>11</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>1331</v>
+        <v>1324</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>13</v>
@@ -53190,7 +53169,7 @@
         <v>14</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>1352</v>
+        <v>1345</v>
       </c>
       <c r="I42" s="11">
         <v>100</v>
@@ -53210,7 +53189,7 @@
         <v>11</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>1332</v>
+        <v>1325</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>21</v>
@@ -53219,7 +53198,7 @@
         <v>14</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="I43" s="11">
         <v>100</v>
@@ -53277,7 +53256,7 @@
         <v>50</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>1354</v>
+        <v>1347</v>
       </c>
       <c r="I45" s="11">
         <v>100</v>
@@ -53355,7 +53334,7 @@
         <v>19</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>1333</v>
+        <v>1326</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>21</v>
@@ -53364,7 +53343,7 @@
         <v>22</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>1355</v>
+        <v>1348</v>
       </c>
       <c r="I48" s="11">
         <v>100</v>
@@ -53515,7 +53494,7 @@
         <v>57</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>1356</v>
+        <v>1349</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>21</v>
@@ -53524,7 +53503,7 @@
         <v>59</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>1357</v>
+        <v>1350</v>
       </c>
       <c r="I3" s="11">
         <v>96.062992125984252</v>
@@ -53573,7 +53552,7 @@
         <v>35</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>1358</v>
+        <v>1351</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>13</v>
@@ -53582,7 +53561,7 @@
         <v>37</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="I5" s="11">
         <v>92.125984251968504</v>
@@ -53660,7 +53639,7 @@
         <v>177</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>1360</v>
+        <v>1353</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>13</v>
@@ -53669,7 +53648,7 @@
         <v>179</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>1361</v>
+        <v>1354</v>
       </c>
       <c r="I8" s="11">
         <v>99.212598425196859</v>
@@ -53689,7 +53668,7 @@
         <v>122</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>1362</v>
+        <v>1355</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>21</v>
@@ -53698,7 +53677,7 @@
         <v>124</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>1363</v>
+        <v>1356</v>
       </c>
       <c r="I9" s="11">
         <v>98.425196850393704</v>
@@ -53930,7 +53909,7 @@
         <v>50</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>1364</v>
+        <v>1357</v>
       </c>
       <c r="I17" s="11">
         <v>94.488188976377955</v>
@@ -53959,7 +53938,7 @@
         <v>50</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>1365</v>
+        <v>1358</v>
       </c>
       <c r="I18" s="11">
         <v>99.212598425196859</v>
@@ -54052,7 +54031,7 @@
         <v>57</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>1356</v>
+        <v>1349</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>21</v>
@@ -54061,7 +54040,7 @@
         <v>59</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>1357</v>
+        <v>1350</v>
       </c>
       <c r="I3" s="11">
         <v>98.039215686274503</v>
@@ -54110,7 +54089,7 @@
         <v>35</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>1358</v>
+        <v>1351</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>13</v>
@@ -54119,7 +54098,7 @@
         <v>37</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="I5" s="11">
         <v>76.470588235294116</v>
@@ -54197,7 +54176,7 @@
         <v>177</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>1360</v>
+        <v>1353</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>13</v>
@@ -54206,7 +54185,7 @@
         <v>179</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>1361</v>
+        <v>1354</v>
       </c>
       <c r="I8" s="11">
         <v>100</v>
@@ -54226,7 +54205,7 @@
         <v>122</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>1362</v>
+        <v>1355</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>21</v>
@@ -54235,7 +54214,7 @@
         <v>124</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>1363</v>
+        <v>1356</v>
       </c>
       <c r="I9" s="11">
         <v>98.039215686274503</v>
@@ -54429,7 +54408,7 @@
         <v>19</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>13</v>
@@ -54438,7 +54417,7 @@
         <v>22</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>1381</v>
+        <v>1374</v>
       </c>
       <c r="I16" s="11">
         <v>100</v>
@@ -54467,7 +54446,7 @@
         <v>146</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>1382</v>
+        <v>1375</v>
       </c>
       <c r="I17" s="11">
         <v>100</v>
@@ -54496,7 +54475,7 @@
         <v>50</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>1364</v>
+        <v>1357</v>
       </c>
       <c r="I18" s="11">
         <v>92.156862745098039</v>
@@ -54525,7 +54504,7 @@
         <v>50</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>1365</v>
+        <v>1358</v>
       </c>
       <c r="I19" s="11">
         <v>94.117647058823522</v>
@@ -54647,7 +54626,7 @@
         <v>57</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>1356</v>
+        <v>1349</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>21</v>
@@ -54656,7 +54635,7 @@
         <v>59</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>1357</v>
+        <v>1350</v>
       </c>
       <c r="I3" s="1">
         <v>100</v>
@@ -54676,7 +54655,7 @@
         <v>57</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>1366</v>
+        <v>1359</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>13</v>
@@ -54685,7 +54664,7 @@
         <v>59</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>1367</v>
+        <v>1360</v>
       </c>
       <c r="I4" s="1">
         <v>100</v>
@@ -54763,7 +54742,7 @@
         <v>35</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>1358</v>
+        <v>1351</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>13</v>
@@ -54772,7 +54751,7 @@
         <v>37</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="I7" s="1">
         <v>100</v>
@@ -54792,7 +54771,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>21</v>
@@ -54801,7 +54780,7 @@
         <v>37</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>1369</v>
+        <v>1362</v>
       </c>
       <c r="I8" s="1">
         <v>100</v>
@@ -54879,7 +54858,7 @@
         <v>177</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>1360</v>
+        <v>1353</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>13</v>
@@ -54888,7 +54867,7 @@
         <v>179</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>1361</v>
+        <v>1354</v>
       </c>
       <c r="I11" s="1">
         <v>100</v>
@@ -54908,7 +54887,7 @@
         <v>177</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>1370</v>
+        <v>1363</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>13</v>
@@ -54917,7 +54896,7 @@
         <v>179</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>1371</v>
+        <v>1364</v>
       </c>
       <c r="I12" s="1">
         <v>100</v>
@@ -54937,7 +54916,7 @@
         <v>118</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>1372</v>
+        <v>1365</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>13</v>
@@ -54946,7 +54925,7 @@
         <v>120</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>1373</v>
+        <v>1366</v>
       </c>
       <c r="I13" s="1">
         <v>100</v>
@@ -54966,7 +54945,7 @@
         <v>122</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>1362</v>
+        <v>1355</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>21</v>
@@ -54975,7 +54954,7 @@
         <v>124</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>1363</v>
+        <v>1356</v>
       </c>
       <c r="I14" s="1">
         <v>100</v>
@@ -54995,7 +54974,7 @@
         <v>122</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>13</v>
@@ -55004,7 +54983,7 @@
         <v>124</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="I15" s="1">
         <v>100</v>
@@ -55024,7 +55003,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>1376</v>
+        <v>1369</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>13</v>
@@ -55033,7 +55012,7 @@
         <v>14</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>1377</v>
+        <v>1370</v>
       </c>
       <c r="I16" s="1">
         <v>100</v>
@@ -55314,7 +55293,7 @@
         <v>19</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>1378</v>
+        <v>1371</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>21</v>
@@ -55323,7 +55302,7 @@
         <v>22</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="I26" s="1">
         <v>100</v>
@@ -55352,7 +55331,7 @@
         <v>50</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>1364</v>
+        <v>1357</v>
       </c>
       <c r="I27" s="1">
         <v>100</v>
@@ -55381,7 +55360,7 @@
         <v>50</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>1365</v>
+        <v>1358</v>
       </c>
       <c r="I28" s="1">
         <v>100</v>
@@ -55445,7 +55424,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>1383</v>
+        <v>1376</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>13</v>
@@ -55454,7 +55433,7 @@
         <v>59</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>1384</v>
+        <v>1377</v>
       </c>
       <c r="I2" s="11">
         <v>87.5</v>
@@ -55474,7 +55453,7 @@
         <v>57</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>1385</v>
+        <v>1378</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>21</v>
@@ -55483,7 +55462,7 @@
         <v>59</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>1386</v>
+        <v>1379</v>
       </c>
       <c r="I3" s="11">
         <v>87.5</v>
@@ -55503,7 +55482,7 @@
         <v>35</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>21</v>
@@ -55512,7 +55491,7 @@
         <v>37</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
       <c r="I4" s="11">
         <v>100</v>
@@ -55532,7 +55511,7 @@
         <v>35</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>1191</v>
+        <v>1184</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>13</v>
@@ -55541,7 +55520,7 @@
         <v>37</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="I5" s="11">
         <v>100</v>
@@ -55561,7 +55540,7 @@
         <v>35</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>13</v>
@@ -55570,7 +55549,7 @@
         <v>37</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="I6" s="11">
         <v>100</v>
@@ -55590,7 +55569,7 @@
         <v>35</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>1387</v>
+        <v>1380</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>13</v>
@@ -55599,7 +55578,7 @@
         <v>37</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>1388</v>
+        <v>1381</v>
       </c>
       <c r="I7" s="11">
         <v>100</v>
@@ -55619,7 +55598,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>1389</v>
+        <v>1382</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>13</v>
@@ -55628,7 +55607,7 @@
         <v>37</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>1390</v>
+        <v>1383</v>
       </c>
       <c r="I8" s="11">
         <v>100</v>
@@ -55648,7 +55627,7 @@
         <v>67</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>13</v>
@@ -55657,7 +55636,7 @@
         <v>69</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="I9" s="11">
         <v>100</v>
@@ -55706,7 +55685,7 @@
         <v>67</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>13</v>
@@ -55715,7 +55694,7 @@
         <v>69</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="I11" s="11">
         <v>100</v>
@@ -55793,7 +55772,7 @@
         <v>122</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>1391</v>
+        <v>1384</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>13</v>
@@ -55802,7 +55781,7 @@
         <v>124</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>1392</v>
+        <v>1385</v>
       </c>
       <c r="I14" s="11">
         <v>100</v>
@@ -55822,7 +55801,7 @@
         <v>122</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>21</v>
@@ -55831,7 +55810,7 @@
         <v>124</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="I15" s="11">
         <v>100</v>
@@ -55880,7 +55859,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>13</v>
@@ -55889,7 +55868,7 @@
         <v>14</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="I17" s="11">
         <v>100</v>
@@ -55996,7 +55975,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>13</v>
@@ -56005,7 +55984,7 @@
         <v>14</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="I21" s="11">
         <v>100</v>
@@ -56025,7 +56004,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>13</v>
@@ -56034,7 +56013,7 @@
         <v>14</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="I22" s="11">
         <v>100</v>
@@ -56054,7 +56033,7 @@
         <v>11</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>21</v>
@@ -56063,7 +56042,7 @@
         <v>14</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="I23" s="11">
         <v>100</v>
@@ -56121,7 +56100,7 @@
         <v>50</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="I25" s="11">
         <v>100</v>
@@ -56141,7 +56120,7 @@
         <v>100</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>1393</v>
+        <v>1386</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>21</v>
@@ -56150,7 +56129,7 @@
         <v>102</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>1394</v>
+        <v>1387</v>
       </c>
       <c r="I26" s="11">
         <v>100</v>
@@ -56179,7 +56158,7 @@
         <v>50</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="I27" s="11">
         <v>100</v>
@@ -56199,7 +56178,7 @@
         <v>71</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>13</v>
@@ -56208,7 +56187,7 @@
         <v>73</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="I28" s="11">
         <v>100</v>
@@ -56228,7 +56207,7 @@
         <v>19</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>21</v>
@@ -56237,7 +56216,7 @@
         <v>22</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="I29" s="11">
         <v>100</v>
@@ -56257,7 +56236,7 @@
         <v>19</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>1395</v>
+        <v>1388</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>21</v>
@@ -56266,7 +56245,7 @@
         <v>22</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>1396</v>
+        <v>1389</v>
       </c>
       <c r="I30" s="11">
         <v>100</v>
@@ -56286,7 +56265,7 @@
         <v>19</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>1214</v>
+        <v>1207</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>13</v>
@@ -56295,7 +56274,7 @@
         <v>22</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
       <c r="I31" s="11">
         <v>100</v>
@@ -56315,7 +56294,7 @@
         <v>19</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>1216</v>
+        <v>1209</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>13</v>
@@ -56324,7 +56303,7 @@
         <v>22</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="I32" s="11">
         <v>100</v>
@@ -56344,7 +56323,7 @@
         <v>19</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>13</v>
@@ -56353,7 +56332,7 @@
         <v>22</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>1398</v>
+        <v>1391</v>
       </c>
       <c r="I33" s="11">
         <v>100</v>
@@ -56417,7 +56396,7 @@
         <v>343</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>1399</v>
+        <v>1392</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>13</v>
@@ -56426,7 +56405,7 @@
         <v>345</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>1400</v>
+        <v>1393</v>
       </c>
       <c r="I2" s="11">
         <v>100</v>
@@ -56475,7 +56454,7 @@
         <v>57</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>1401</v>
+        <v>1394</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>13</v>
@@ -56484,7 +56463,7 @@
         <v>59</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>1402</v>
+        <v>1395</v>
       </c>
       <c r="I4" s="11">
         <v>100</v>
@@ -56504,7 +56483,7 @@
         <v>57</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>1403</v>
+        <v>1396</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>21</v>
@@ -56513,7 +56492,7 @@
         <v>59</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>1404</v>
+        <v>1397</v>
       </c>
       <c r="I5" s="11">
         <v>100</v>
@@ -56533,7 +56512,7 @@
         <v>35</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>1405</v>
+        <v>1398</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>13</v>
@@ -56542,7 +56521,7 @@
         <v>37</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>1406</v>
+        <v>1399</v>
       </c>
       <c r="I6" s="11">
         <v>100</v>
@@ -56620,7 +56599,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>1407</v>
+        <v>1400</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>21</v>
@@ -56629,7 +56608,7 @@
         <v>37</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>1408</v>
+        <v>1401</v>
       </c>
       <c r="I9" s="11">
         <v>95.238095238095227</v>
@@ -56649,7 +56628,7 @@
         <v>35</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>1409</v>
+        <v>1402</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>21</v>
@@ -56658,7 +56637,7 @@
         <v>37</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>1410</v>
+        <v>1403</v>
       </c>
       <c r="I10" s="11">
         <v>95.238095238095227</v>
@@ -56968,7 +56947,7 @@
         <v>177</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>1411</v>
+        <v>1404</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>21</v>
@@ -56977,7 +56956,7 @@
         <v>179</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>1412</v>
+        <v>1405</v>
       </c>
       <c r="I21" s="11">
         <v>100</v>
@@ -56997,7 +56976,7 @@
         <v>118</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>1413</v>
+        <v>1406</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>21</v>
@@ -57006,7 +56985,7 @@
         <v>120</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>1414</v>
+        <v>1407</v>
       </c>
       <c r="I22" s="11">
         <v>100</v>
@@ -57084,7 +57063,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>1303</v>
+        <v>1296</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>21</v>
@@ -57093,7 +57072,7 @@
         <v>14</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>1304</v>
+        <v>1297</v>
       </c>
       <c r="I25" s="11">
         <v>100</v>
@@ -57113,7 +57092,7 @@
         <v>11</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>1415</v>
+        <v>1408</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>13</v>
@@ -57122,7 +57101,7 @@
         <v>14</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>1416</v>
+        <v>1409</v>
       </c>
       <c r="I26" s="11">
         <v>100</v>
@@ -57258,7 +57237,7 @@
         <v>11</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>45</v>
@@ -57267,7 +57246,7 @@
         <v>14</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="I31" s="11">
         <v>100</v>
@@ -57287,7 +57266,7 @@
         <v>11</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>45</v>
@@ -57296,7 +57275,7 @@
         <v>14</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="I32" s="11">
         <v>100</v>
@@ -57316,7 +57295,7 @@
         <v>11</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>45</v>
@@ -57325,7 +57304,7 @@
         <v>14</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="I33" s="11">
         <v>100</v>
@@ -57345,7 +57324,7 @@
         <v>11</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>45</v>
@@ -57354,7 +57333,7 @@
         <v>14</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="I34" s="11">
         <v>100</v>
@@ -57374,7 +57353,7 @@
         <v>11</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>45</v>
@@ -57383,7 +57362,7 @@
         <v>14</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="I35" s="11">
         <v>100</v>
@@ -57403,7 +57382,7 @@
         <v>11</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>45</v>
@@ -57412,7 +57391,7 @@
         <v>14</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="I36" s="11">
         <v>100</v>
@@ -57461,7 +57440,7 @@
         <v>11</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>1328</v>
+        <v>1321</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>13</v>
@@ -57470,7 +57449,7 @@
         <v>14</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>1349</v>
+        <v>1342</v>
       </c>
       <c r="I38" s="11">
         <v>95.238095238095227</v>
@@ -57606,7 +57585,7 @@
         <v>399</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>13</v>
@@ -57615,7 +57594,7 @@
         <v>401</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
       <c r="I43" s="11">
         <v>90.476190476190482</v>
@@ -57644,7 +57623,7 @@
         <v>50</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
       <c r="I44" s="11">
         <v>100</v>
@@ -57751,7 +57730,7 @@
         <v>19</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>13</v>
@@ -57760,7 +57739,7 @@
         <v>22</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>1423</v>
+        <v>1416</v>
       </c>
       <c r="I48" s="11">
         <v>100</v>
@@ -57853,7 +57832,7 @@
         <v>57</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>1424</v>
+        <v>1417</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>21</v>
@@ -57862,7 +57841,7 @@
         <v>59</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>1425</v>
+        <v>1418</v>
       </c>
       <c r="I3" s="13">
         <v>100</v>
@@ -57911,7 +57890,7 @@
         <v>35</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>1426</v>
+        <v>1419</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>21</v>
@@ -57920,7 +57899,7 @@
         <v>37</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>1427</v>
+        <v>1420</v>
       </c>
       <c r="I5" s="13">
         <v>100</v>
@@ -58259,7 +58238,7 @@
         <v>118</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>1428</v>
+        <v>1421</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>21</v>
@@ -58268,7 +58247,7 @@
         <v>120</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>1429</v>
+        <v>1422</v>
       </c>
       <c r="I17" s="13">
         <v>66.666666666666657</v>
@@ -58317,7 +58296,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>1415</v>
+        <v>1408</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>13</v>
@@ -58326,7 +58305,7 @@
         <v>14</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>1416</v>
+        <v>1409</v>
       </c>
       <c r="I19" s="13">
         <v>100</v>
@@ -58337,7 +58316,7 @@
         <v>21993</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>1325</v>
+        <v>1318</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>727</v>
@@ -58491,7 +58470,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>21</v>
@@ -58500,7 +58479,7 @@
         <v>14</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>1431</v>
+        <v>1424</v>
       </c>
       <c r="I25" s="13">
         <v>100</v>
@@ -58520,7 +58499,7 @@
         <v>11</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>45</v>
@@ -58529,7 +58508,7 @@
         <v>14</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="I26" s="13">
         <v>77.777777777777786</v>
@@ -58549,7 +58528,7 @@
         <v>11</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>45</v>
@@ -58558,7 +58537,7 @@
         <v>14</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="I27" s="13">
         <v>77.777777777777786</v>
@@ -58578,7 +58557,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>45</v>
@@ -58587,7 +58566,7 @@
         <v>14</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="I28" s="13">
         <v>77.777777777777786</v>
@@ -58607,7 +58586,7 @@
         <v>11</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>45</v>
@@ -58616,7 +58595,7 @@
         <v>14</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="I29" s="13">
         <v>77.777777777777786</v>
@@ -58636,7 +58615,7 @@
         <v>11</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>45</v>
@@ -58645,7 +58624,7 @@
         <v>14</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="I30" s="13">
         <v>77.777777777777786</v>
@@ -58665,7 +58644,7 @@
         <v>11</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>45</v>
@@ -58674,7 +58653,7 @@
         <v>14</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="I31" s="13">
         <v>77.777777777777786</v>
@@ -58810,7 +58789,7 @@
         <v>11</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>1432</v>
+        <v>1425</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>13</v>
@@ -58819,7 +58798,7 @@
         <v>14</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>1433</v>
+        <v>1426</v>
       </c>
       <c r="I36" s="13">
         <v>100</v>
@@ -58897,7 +58876,7 @@
         <v>43</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>1434</v>
+        <v>1427</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>45</v>
@@ -58906,7 +58885,7 @@
         <v>46</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>1435</v>
+        <v>1428</v>
       </c>
       <c r="I39" s="13">
         <v>100</v>
@@ -58926,7 +58905,7 @@
         <v>43</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>1434</v>
+        <v>1427</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>45</v>
@@ -58935,7 +58914,7 @@
         <v>46</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>1435</v>
+        <v>1428</v>
       </c>
       <c r="I40" s="13">
         <v>100</v>
@@ -58955,7 +58934,7 @@
         <v>43</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>1434</v>
+        <v>1427</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>45</v>
@@ -58964,7 +58943,7 @@
         <v>46</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>1435</v>
+        <v>1428</v>
       </c>
       <c r="I41" s="13">
         <v>100</v>
@@ -58984,7 +58963,7 @@
         <v>43</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>13</v>
@@ -58993,7 +58972,7 @@
         <v>46</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>1437</v>
+        <v>1430</v>
       </c>
       <c r="I42" s="13">
         <v>55.555555555555557</v>
@@ -59013,7 +58992,7 @@
         <v>100</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>1438</v>
+        <v>1431</v>
       </c>
       <c r="F43" s="12" t="s">
         <v>13</v>
@@ -59022,7 +59001,7 @@
         <v>102</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>1439</v>
+        <v>1432</v>
       </c>
       <c r="I43" s="13">
         <v>77.777777777777786</v>
@@ -59042,7 +59021,7 @@
         <v>100</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>1440</v>
+        <v>1433</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>13</v>
@@ -59051,7 +59030,7 @@
         <v>102</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
       <c r="I44" s="13">
         <v>66.666666666666657</v>
@@ -59158,7 +59137,7 @@
         <v>19</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>1442</v>
+        <v>1435</v>
       </c>
       <c r="F48" s="12" t="s">
         <v>21</v>
@@ -59167,7 +59146,7 @@
         <v>22</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>1443</v>
+        <v>1436</v>
       </c>
       <c r="I48" s="13">
         <v>100</v>
@@ -59771,7 +59750,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>1481</v>
+        <v>1474</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>21</v>
@@ -59780,7 +59759,7 @@
         <v>59</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>1482</v>
+        <v>1475</v>
       </c>
       <c r="I2" s="13">
         <v>100</v>
@@ -59800,7 +59779,7 @@
         <v>35</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>1483</v>
+        <v>1476</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>13</v>
@@ -59809,7 +59788,7 @@
         <v>37</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>1484</v>
+        <v>1477</v>
       </c>
       <c r="I3" s="13">
         <v>100</v>
@@ -59829,7 +59808,7 @@
         <v>35</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>1485</v>
+        <v>1478</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>21</v>
@@ -59838,7 +59817,7 @@
         <v>37</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>1486</v>
+        <v>1479</v>
       </c>
       <c r="I4" s="13">
         <v>100</v>
@@ -59858,7 +59837,7 @@
         <v>77</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>1487</v>
+        <v>1480</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>21</v>
@@ -59867,7 +59846,7 @@
         <v>69</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>1488</v>
+        <v>1481</v>
       </c>
       <c r="I5" s="13">
         <v>100</v>
@@ -59945,7 +59924,7 @@
         <v>177</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>1489</v>
+        <v>1482</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>13</v>
@@ -59954,7 +59933,7 @@
         <v>179</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>1490</v>
+        <v>1483</v>
       </c>
       <c r="I8" s="13">
         <v>100</v>
@@ -59974,7 +59953,7 @@
         <v>177</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>1491</v>
+        <v>1484</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>13</v>
@@ -59983,7 +59962,7 @@
         <v>179</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>1492</v>
+        <v>1485</v>
       </c>
       <c r="I9" s="13">
         <v>100</v>
@@ -60003,7 +59982,7 @@
         <v>118</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>1493</v>
+        <v>1486</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>13</v>
@@ -60012,7 +59991,7 @@
         <v>120</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>1494</v>
+        <v>1487</v>
       </c>
       <c r="I10" s="13">
         <v>100</v>
@@ -60293,7 +60272,7 @@
         <v>11</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>1496</v>
+        <v>1489</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>13</v>
@@ -60302,7 +60281,7 @@
         <v>14</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>1497</v>
+        <v>1490</v>
       </c>
       <c r="I20" s="13">
         <v>100</v>
@@ -60467,7 +60446,7 @@
         <v>11</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>1498</v>
+        <v>1491</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>13</v>
@@ -60476,7 +60455,7 @@
         <v>14</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>1499</v>
+        <v>1492</v>
       </c>
       <c r="I26" s="13">
         <v>100</v>
@@ -60525,7 +60504,7 @@
         <v>104</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>1500</v>
+        <v>1493</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>21</v>
@@ -60534,7 +60513,7 @@
         <v>106</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>1501</v>
+        <v>1494</v>
       </c>
       <c r="I28" s="13">
         <v>98.039215686274503</v>
@@ -60554,7 +60533,7 @@
         <v>71</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>1502</v>
+        <v>1495</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>21</v>
@@ -60563,7 +60542,7 @@
         <v>73</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>1503</v>
+        <v>1496</v>
       </c>
       <c r="I29" s="13">
         <v>100</v>
@@ -60612,7 +60591,7 @@
         <v>19</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>1504</v>
+        <v>1497</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>13</v>
@@ -60621,7 +60600,7 @@
         <v>22</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>1505</v>
+        <v>1498</v>
       </c>
       <c r="I31" s="13">
         <v>100</v>
@@ -60743,7 +60722,7 @@
         <v>343</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>1444</v>
+        <v>1437</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>21</v>
@@ -60752,7 +60731,7 @@
         <v>345</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>1445</v>
+        <v>1438</v>
       </c>
       <c r="I2" s="12">
         <v>100</v>
@@ -60772,7 +60751,7 @@
         <v>57</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>1446</v>
+        <v>1439</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>21</v>
@@ -60781,7 +60760,7 @@
         <v>59</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
       <c r="I3" s="12">
         <v>100</v>
@@ -60801,7 +60780,7 @@
         <v>35</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>13</v>
@@ -60810,7 +60789,7 @@
         <v>37</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="I4" s="12">
         <v>98.412698412698404</v>
@@ -60830,7 +60809,7 @@
         <v>67</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>13</v>
@@ -60839,7 +60818,7 @@
         <v>69</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>1449</v>
+        <v>1442</v>
       </c>
       <c r="I5" s="12">
         <v>100</v>
@@ -60859,7 +60838,7 @@
         <v>67</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>13</v>
@@ -60868,7 +60847,7 @@
         <v>69</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="I6" s="12">
         <v>100</v>
@@ -60917,7 +60896,7 @@
         <v>67</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>13</v>
@@ -60926,7 +60905,7 @@
         <v>69</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="I8" s="12">
         <v>95.238095238095227</v>
@@ -61265,7 +61244,7 @@
         <v>122</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>1450</v>
+        <v>1443</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>21</v>
@@ -61274,7 +61253,7 @@
         <v>124</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>1451</v>
+        <v>1444</v>
       </c>
       <c r="I20" s="12">
         <v>100</v>
@@ -61294,7 +61273,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>13</v>
@@ -61303,7 +61282,7 @@
         <v>14</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="I21" s="12">
         <v>100</v>
@@ -61526,7 +61505,7 @@
         <v>11</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>13</v>
@@ -61535,7 +61514,7 @@
         <v>14</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="I29" s="12">
         <v>100</v>
@@ -61584,7 +61563,7 @@
         <v>11</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>13</v>
@@ -61593,7 +61572,7 @@
         <v>14</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="I31" s="12">
         <v>100</v>
@@ -61613,7 +61592,7 @@
         <v>11</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>1452</v>
+        <v>1445</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>13</v>
@@ -61622,7 +61601,7 @@
         <v>14</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>1453</v>
+        <v>1446</v>
       </c>
       <c r="I32" s="12">
         <v>100</v>
@@ -61642,7 +61621,7 @@
         <v>43</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>1434</v>
+        <v>1427</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>150</v>
@@ -61651,7 +61630,7 @@
         <v>46</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>1435</v>
+        <v>1428</v>
       </c>
       <c r="I33" s="12">
         <v>90.476190476190482</v>
@@ -61700,7 +61679,7 @@
         <v>26</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>1454</v>
+        <v>1447</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>21</v>
@@ -61709,7 +61688,7 @@
         <v>28</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>1455</v>
+        <v>1448</v>
       </c>
       <c r="I35" s="12">
         <v>95.238095238095227</v>
@@ -61729,7 +61708,7 @@
         <v>26</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>1456</v>
+        <v>1449</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>21</v>
@@ -61738,7 +61717,7 @@
         <v>28</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>1457</v>
+        <v>1450</v>
       </c>
       <c r="I36" s="12">
         <v>95.238095238095227</v>
@@ -61816,7 +61795,7 @@
         <v>19</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>1458</v>
+        <v>1451</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>21</v>
@@ -61825,7 +61804,7 @@
         <v>22</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>1459</v>
+        <v>1452</v>
       </c>
       <c r="I39" s="12">
         <v>87.301587301587304</v>
@@ -61845,7 +61824,7 @@
         <v>19</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>1216</v>
+        <v>1209</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>13</v>
@@ -61854,7 +61833,7 @@
         <v>22</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="I40" s="12">
         <v>100</v>
@@ -61918,7 +61897,7 @@
         <v>35</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>1506</v>
+        <v>1499</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>21</v>
@@ -61927,7 +61906,7 @@
         <v>37</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>1507</v>
+        <v>1500</v>
       </c>
       <c r="I2" s="12">
         <v>100</v>
@@ -61947,7 +61926,7 @@
         <v>77</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>1508</v>
+        <v>1501</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>13</v>
@@ -61956,7 +61935,7 @@
         <v>69</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>1509</v>
+        <v>1502</v>
       </c>
       <c r="I3" s="12">
         <v>100</v>
@@ -61976,7 +61955,7 @@
         <v>177</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>1510</v>
+        <v>1503</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>13</v>
@@ -61985,7 +61964,7 @@
         <v>179</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>1511</v>
+        <v>1504</v>
       </c>
       <c r="I4" s="12">
         <v>100</v>
@@ -62005,7 +61984,7 @@
         <v>177</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>1512</v>
+        <v>1505</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>21</v>
@@ -62014,7 +61993,7 @@
         <v>179</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>1513</v>
+        <v>1506</v>
       </c>
       <c r="I5" s="12">
         <v>84.444444444444443</v>
@@ -62034,7 +62013,7 @@
         <v>318</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>1514</v>
+        <v>1507</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>13</v>
@@ -62043,7 +62022,7 @@
         <v>320</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>1515</v>
+        <v>1508</v>
       </c>
       <c r="I6" s="12">
         <v>82.222222222222214</v>
@@ -62063,7 +62042,7 @@
         <v>318</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>21</v>
@@ -62072,7 +62051,7 @@
         <v>320</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>1495</v>
+        <v>1488</v>
       </c>
       <c r="I7" s="12">
         <v>95.555555555555557</v>
@@ -62092,7 +62071,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>1516</v>
+        <v>1509</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>13</v>
@@ -62101,7 +62080,7 @@
         <v>14</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>1517</v>
+        <v>1510</v>
       </c>
       <c r="I8" s="12">
         <v>100</v>
@@ -62121,7 +62100,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>1518</v>
+        <v>1511</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>13</v>
@@ -62130,7 +62109,7 @@
         <v>14</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>1519</v>
+        <v>1512</v>
       </c>
       <c r="I9" s="12">
         <v>100</v>
@@ -62324,7 +62303,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>1520</v>
+        <v>1513</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>13</v>
@@ -62333,7 +62312,7 @@
         <v>14</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>1521</v>
+        <v>1514</v>
       </c>
       <c r="I16" s="12">
         <v>91.111111111111114</v>
@@ -62440,7 +62419,7 @@
         <v>104</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>1522</v>
+        <v>1515</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>13</v>
@@ -62449,7 +62428,7 @@
         <v>106</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>1523</v>
+        <v>1516</v>
       </c>
       <c r="I20" s="12">
         <v>100</v>
@@ -62469,7 +62448,7 @@
         <v>26</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>1524</v>
+        <v>1517</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>13</v>
@@ -62478,7 +62457,7 @@
         <v>28</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>1525</v>
+        <v>1518</v>
       </c>
       <c r="I21" s="12">
         <v>84.444444444444443</v>
@@ -62527,7 +62506,7 @@
         <v>19</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>1526</v>
+        <v>1519</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>13</v>
@@ -62536,7 +62515,7 @@
         <v>22</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>1527</v>
+        <v>1520</v>
       </c>
       <c r="I23" s="12">
         <v>100</v>
@@ -62629,7 +62608,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>1460</v>
+        <v>1453</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>13</v>
@@ -62638,7 +62617,7 @@
         <v>59</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>1461</v>
+        <v>1454</v>
       </c>
       <c r="I2" s="12">
         <v>100</v>
@@ -62658,7 +62637,7 @@
         <v>67</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>1462</v>
+        <v>1455</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>21</v>
@@ -62667,7 +62646,7 @@
         <v>69</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>1463</v>
+        <v>1456</v>
       </c>
       <c r="I3" s="12">
         <v>100</v>
@@ -62977,7 +62956,7 @@
         <v>39</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>1464</v>
+        <v>1457</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>21</v>
@@ -62986,7 +62965,7 @@
         <v>41</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>1465</v>
+        <v>1458</v>
       </c>
       <c r="I14" s="12">
         <v>100</v>
@@ -63006,7 +62985,7 @@
         <v>177</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>1466</v>
+        <v>1459</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>13</v>
@@ -63015,7 +62994,7 @@
         <v>179</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>1467</v>
+        <v>1460</v>
       </c>
       <c r="I15" s="12">
         <v>94.444444444444443</v>
@@ -63209,7 +63188,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>13</v>
@@ -63218,7 +63197,7 @@
         <v>14</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="I22" s="12">
         <v>100</v>
@@ -63232,13 +63211,13 @@
         <v>727</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>1468</v>
+        <v>1461</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>1469</v>
+        <v>1462</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>55</v>
@@ -63247,7 +63226,7 @@
         <v>14</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>1470</v>
+        <v>1463</v>
       </c>
       <c r="I23" s="12">
         <v>100</v>
@@ -63354,7 +63333,7 @@
         <v>11</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>1471</v>
+        <v>1464</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>13</v>
@@ -63363,7 +63342,7 @@
         <v>14</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>1472</v>
+        <v>1465</v>
       </c>
       <c r="I27" s="12">
         <v>100</v>
@@ -63383,7 +63362,7 @@
         <v>43</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>1473</v>
+        <v>1466</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>13</v>
@@ -63392,7 +63371,7 @@
         <v>46</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>1474</v>
+        <v>1467</v>
       </c>
       <c r="I28" s="12">
         <v>100</v>
@@ -63412,7 +63391,7 @@
         <v>43</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>1475</v>
+        <v>1468</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>13</v>
@@ -63421,7 +63400,7 @@
         <v>46</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>1476</v>
+        <v>1469</v>
       </c>
       <c r="I29" s="12">
         <v>100</v>
@@ -63441,7 +63420,7 @@
         <v>43</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>1434</v>
+        <v>1427</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>150</v>
@@ -63450,7 +63429,7 @@
         <v>46</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>1435</v>
+        <v>1428</v>
       </c>
       <c r="I30" s="12">
         <v>100</v>
@@ -63470,7 +63449,7 @@
         <v>71</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>1477</v>
+        <v>1470</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>13</v>
@@ -63479,7 +63458,7 @@
         <v>73</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>1478</v>
+        <v>1471</v>
       </c>
       <c r="I31" s="12">
         <v>100</v>
@@ -63528,7 +63507,7 @@
         <v>19</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>1479</v>
+        <v>1472</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>13</v>
@@ -63537,7 +63516,7 @@
         <v>22</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>1480</v>
+        <v>1473</v>
       </c>
       <c r="I33" s="12">
         <v>100</v>
@@ -63601,7 +63580,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>1528</v>
+        <v>1521</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>13</v>
@@ -63610,7 +63589,7 @@
         <v>59</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>1529</v>
+        <v>1522</v>
       </c>
       <c r="I2" s="12">
         <v>100</v>
@@ -63630,7 +63609,7 @@
         <v>57</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>1530</v>
+        <v>1523</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>13</v>
@@ -63639,7 +63618,7 @@
         <v>59</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>1531</v>
+        <v>1524</v>
       </c>
       <c r="I3" s="12">
         <v>100</v>
@@ -63659,7 +63638,7 @@
         <v>35</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>1532</v>
+        <v>1525</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>21</v>
@@ -63668,7 +63647,7 @@
         <v>37</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>1533</v>
+        <v>1526</v>
       </c>
       <c r="I4" s="12">
         <v>100</v>
@@ -63688,7 +63667,7 @@
         <v>35</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>1534</v>
+        <v>1527</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>13</v>
@@ -63697,7 +63676,7 @@
         <v>37</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>1535</v>
+        <v>1528</v>
       </c>
       <c r="I5" s="12">
         <v>100</v>
@@ -63717,7 +63696,7 @@
         <v>67</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>1536</v>
+        <v>1529</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>21</v>
@@ -63726,7 +63705,7 @@
         <v>69</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>1537</v>
+        <v>1530</v>
       </c>
       <c r="I6" s="12">
         <v>100</v>
@@ -63804,7 +63783,7 @@
         <v>39</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>1538</v>
+        <v>1531</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>13</v>
@@ -63813,7 +63792,7 @@
         <v>41</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>1539</v>
+        <v>1532</v>
       </c>
       <c r="I9" s="12">
         <v>100</v>
@@ -63833,7 +63812,7 @@
         <v>122</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>1540</v>
+        <v>1533</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>13</v>
@@ -63842,7 +63821,7 @@
         <v>124</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>1541</v>
+        <v>1534</v>
       </c>
       <c r="I10" s="12">
         <v>100</v>
@@ -63862,7 +63841,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>1542</v>
+        <v>1535</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>13</v>
@@ -63871,7 +63850,7 @@
         <v>14</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>1543</v>
+        <v>1536</v>
       </c>
       <c r="I11" s="12">
         <v>100</v>
@@ -63920,7 +63899,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>1269</v>
+        <v>1262</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>21</v>
@@ -63929,7 +63908,7 @@
         <v>14</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>1270</v>
+        <v>1263</v>
       </c>
       <c r="I13" s="12">
         <v>100</v>
@@ -63949,7 +63928,7 @@
         <v>43</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>1544</v>
+        <v>1537</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>21</v>
@@ -63958,7 +63937,7 @@
         <v>46</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>1545</v>
+        <v>1538</v>
       </c>
       <c r="I14" s="12">
         <v>100</v>
@@ -63978,7 +63957,7 @@
         <v>43</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>1546</v>
+        <v>1539</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>13</v>
@@ -63987,7 +63966,7 @@
         <v>46</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>1547</v>
+        <v>1540</v>
       </c>
       <c r="I15" s="12">
         <v>100</v>
@@ -64109,7 +64088,7 @@
         <v>57</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>1424</v>
+        <v>1417</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>21</v>
@@ -64118,7 +64097,7 @@
         <v>59</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>1425</v>
+        <v>1418</v>
       </c>
       <c r="I3" s="13">
         <v>100</v>
@@ -64167,7 +64146,7 @@
         <v>35</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>1426</v>
+        <v>1419</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>21</v>
@@ -64176,7 +64155,7 @@
         <v>37</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>1427</v>
+        <v>1420</v>
       </c>
       <c r="I5" s="13">
         <v>100</v>
@@ -64515,7 +64494,7 @@
         <v>118</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>1428</v>
+        <v>1421</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>21</v>
@@ -64524,7 +64503,7 @@
         <v>120</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>1429</v>
+        <v>1422</v>
       </c>
       <c r="I17" s="13">
         <v>66.666666666666657</v>
@@ -64573,7 +64552,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>1415</v>
+        <v>1408</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>13</v>
@@ -64582,7 +64561,7 @@
         <v>14</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>1416</v>
+        <v>1409</v>
       </c>
       <c r="I19" s="13">
         <v>100</v>
@@ -64747,7 +64726,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>21</v>
@@ -64756,7 +64735,7 @@
         <v>14</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>1431</v>
+        <v>1424</v>
       </c>
       <c r="I25" s="13">
         <v>100</v>
@@ -64776,7 +64755,7 @@
         <v>11</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>45</v>
@@ -64785,7 +64764,7 @@
         <v>14</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="I26" s="13">
         <v>77.777777777777786</v>
@@ -64805,7 +64784,7 @@
         <v>11</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>45</v>
@@ -64814,7 +64793,7 @@
         <v>14</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="I27" s="13">
         <v>77.777777777777786</v>
@@ -64834,7 +64813,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>45</v>
@@ -64843,7 +64822,7 @@
         <v>14</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="I28" s="13">
         <v>77.777777777777786</v>
@@ -64863,7 +64842,7 @@
         <v>11</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>45</v>
@@ -64872,7 +64851,7 @@
         <v>14</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="I29" s="13">
         <v>77.777777777777786</v>
@@ -64892,7 +64871,7 @@
         <v>11</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>45</v>
@@ -64901,7 +64880,7 @@
         <v>14</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="I30" s="13">
         <v>77.777777777777786</v>
@@ -64921,7 +64900,7 @@
         <v>11</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>45</v>
@@ -64930,7 +64909,7 @@
         <v>14</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="I31" s="13">
         <v>77.777777777777786</v>
@@ -65066,7 +65045,7 @@
         <v>11</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>1432</v>
+        <v>1425</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>13</v>
@@ -65075,7 +65054,7 @@
         <v>14</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>1433</v>
+        <v>1426</v>
       </c>
       <c r="I36" s="13">
         <v>100</v>
@@ -65153,7 +65132,7 @@
         <v>43</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>1434</v>
+        <v>1427</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>45</v>
@@ -65162,7 +65141,7 @@
         <v>46</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>1435</v>
+        <v>1428</v>
       </c>
       <c r="I39" s="13">
         <v>100</v>
@@ -65182,7 +65161,7 @@
         <v>43</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>1434</v>
+        <v>1427</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>45</v>
@@ -65191,7 +65170,7 @@
         <v>46</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>1435</v>
+        <v>1428</v>
       </c>
       <c r="I40" s="13">
         <v>100</v>
@@ -65211,7 +65190,7 @@
         <v>43</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>1434</v>
+        <v>1427</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>45</v>
@@ -65220,7 +65199,7 @@
         <v>46</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>1435</v>
+        <v>1428</v>
       </c>
       <c r="I41" s="13">
         <v>100</v>
@@ -65240,7 +65219,7 @@
         <v>43</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>13</v>
@@ -65249,7 +65228,7 @@
         <v>46</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>1437</v>
+        <v>1430</v>
       </c>
       <c r="I42" s="13">
         <v>55.555555555555557</v>
@@ -65269,7 +65248,7 @@
         <v>100</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>1438</v>
+        <v>1431</v>
       </c>
       <c r="F43" s="12" t="s">
         <v>13</v>
@@ -65278,7 +65257,7 @@
         <v>102</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>1439</v>
+        <v>1432</v>
       </c>
       <c r="I43" s="13">
         <v>77.777777777777786</v>
@@ -65298,7 +65277,7 @@
         <v>100</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>1440</v>
+        <v>1433</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>13</v>
@@ -65307,7 +65286,7 @@
         <v>102</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
       <c r="I44" s="13">
         <v>66.666666666666657</v>
@@ -65414,7 +65393,7 @@
         <v>19</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>1442</v>
+        <v>1435</v>
       </c>
       <c r="F48" s="12" t="s">
         <v>21</v>
@@ -65423,7 +65402,7 @@
         <v>22</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>1443</v>
+        <v>1436</v>
       </c>
       <c r="I48" s="13">
         <v>100</v>
@@ -65487,7 +65466,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>45</v>
@@ -65496,7 +65475,7 @@
         <v>69</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="I2" s="12">
         <v>94.117647058823522</v>
@@ -65516,7 +65495,7 @@
         <v>77</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>45</v>
@@ -65525,7 +65504,7 @@
         <v>69</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="I3" s="12">
         <v>94.117647058823522</v>
@@ -65545,7 +65524,7 @@
         <v>77</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>45</v>
@@ -65554,7 +65533,7 @@
         <v>69</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="I4" s="12">
         <v>94.117647058823522</v>
@@ -65699,7 +65678,7 @@
         <v>50</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="I9" s="12">
         <v>97.058823529411768</v>
@@ -65748,7 +65727,7 @@
         <v>35</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>1548</v>
+        <v>1541</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>13</v>
@@ -65757,7 +65736,7 @@
         <v>37</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>1549</v>
+        <v>1542</v>
       </c>
       <c r="I11" s="12">
         <v>94.117647058823522</v>
@@ -65777,7 +65756,7 @@
         <v>35</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>1550</v>
+        <v>1543</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>13</v>
@@ -65786,7 +65765,7 @@
         <v>37</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>1551</v>
+        <v>1544</v>
       </c>
       <c r="I12" s="12">
         <v>91.17647058823529</v>
@@ -65806,7 +65785,7 @@
         <v>67</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>13</v>
@@ -65815,7 +65794,7 @@
         <v>69</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="I13" s="12">
         <v>97.058823529411768</v>
@@ -65835,7 +65814,7 @@
         <v>67</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>13</v>
@@ -65844,7 +65823,7 @@
         <v>69</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
       <c r="I14" s="12">
         <v>100</v>
@@ -65864,7 +65843,7 @@
         <v>77</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>13</v>
@@ -65873,7 +65852,7 @@
         <v>69</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="I15" s="12">
         <v>97.058823529411768</v>
@@ -65893,7 +65872,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>13</v>
@@ -65902,7 +65881,7 @@
         <v>14</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="I16" s="12">
         <v>97.058823529411768</v>
@@ -65951,7 +65930,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>13</v>
@@ -65960,7 +65939,7 @@
         <v>14</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="I18" s="12">
         <v>100</v>
@@ -65980,7 +65959,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>1552</v>
+        <v>1545</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>13</v>
@@ -65989,7 +65968,7 @@
         <v>14</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>1553</v>
+        <v>1546</v>
       </c>
       <c r="I19" s="12">
         <v>100</v>
@@ -66038,7 +66017,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>13</v>
@@ -66047,7 +66026,7 @@
         <v>14</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="I21" s="12">
         <v>100</v>
@@ -66067,7 +66046,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>13</v>
@@ -66076,7 +66055,7 @@
         <v>14</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="I22" s="12">
         <v>100</v>
@@ -66125,7 +66104,7 @@
         <v>43</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>1554</v>
+        <v>1547</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>13</v>
@@ -66134,7 +66113,7 @@
         <v>46</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>1555</v>
+        <v>1548</v>
       </c>
       <c r="I24" s="12">
         <v>100</v>
@@ -66154,7 +66133,7 @@
         <v>399</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>13</v>
@@ -66163,7 +66142,7 @@
         <v>401</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="I25" s="12">
         <v>97.058823529411768</v>
@@ -66183,7 +66162,7 @@
         <v>19</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>1556</v>
+        <v>1549</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>13</v>
@@ -66192,7 +66171,7 @@
         <v>22</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>1557</v>
+        <v>1550</v>
       </c>
       <c r="I26" s="12">
         <v>100</v>
@@ -66250,7 +66229,7 @@
         <v>59</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>1558</v>
+        <v>1551</v>
       </c>
       <c r="I28" s="12">
         <v>100</v>
@@ -66270,7 +66249,7 @@
         <v>57</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>21</v>
@@ -66279,7 +66258,7 @@
         <v>59</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>1157</v>
+        <v>1150</v>
       </c>
       <c r="I29" s="12">
         <v>100</v>
@@ -66299,7 +66278,7 @@
         <v>35</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>1559</v>
+        <v>1552</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>21</v>
@@ -66308,7 +66287,7 @@
         <v>37</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>1560</v>
+        <v>1553</v>
       </c>
       <c r="I30" s="12">
         <v>97.058823529411768</v>
@@ -66328,7 +66307,7 @@
         <v>11</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>21</v>
@@ -66337,7 +66316,7 @@
         <v>14</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="I31" s="12">
         <v>100</v>
@@ -66357,7 +66336,7 @@
         <v>19</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>21</v>
@@ -66366,7 +66345,7 @@
         <v>22</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="I32" s="12">
         <v>100</v>
@@ -66386,7 +66365,7 @@
         <v>19</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>1561</v>
+        <v>1554</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>21</v>
@@ -66395,7 +66374,7 @@
         <v>22</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>1562</v>
+        <v>1555</v>
       </c>
       <c r="I33" s="12">
         <v>97.058823529411768</v>
@@ -66408,10 +66387,10 @@
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66447,28 +66426,28 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>28272</v>
+        <v>774</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="12">
-        <v>28272</v>
+        <v>343</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>1562</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>50</v>
+        <v>345</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>51</v>
+        <v>1563</v>
       </c>
       <c r="I2" s="12">
         <v>100</v>
@@ -66476,28 +66455,28 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
-        <v>26767</v>
+        <v>1059</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>303</v>
+        <v>58</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>304</v>
+        <v>60</v>
       </c>
       <c r="I3" s="12">
         <v>100</v>
@@ -66505,28 +66484,28 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>26607</v>
+        <v>2929</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>1563</v>
+        <v>1570</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>1564</v>
+        <v>1571</v>
       </c>
       <c r="I4" s="12">
         <v>100</v>
@@ -66534,28 +66513,28 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
-        <v>28910</v>
+        <v>5192</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>1216</v>
+        <v>1572</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>1217</v>
+        <v>1573</v>
       </c>
       <c r="I5" s="12">
         <v>100</v>
@@ -66563,7 +66542,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>28881</v>
+        <v>7283</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>30</v>
@@ -66572,19 +66551,19 @@
         <v>10</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>1565</v>
+        <v>1574</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>1566</v>
+        <v>1575</v>
       </c>
       <c r="I6" s="12">
         <v>100</v>
@@ -66592,7 +66571,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
-        <v>28396</v>
+        <v>7675</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>30</v>
@@ -66601,48 +66580,48 @@
         <v>16</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>1567</v>
+        <v>1596</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>1568</v>
+        <v>1597</v>
       </c>
       <c r="I7" s="12">
-        <v>100</v>
+        <v>92.10526315789474</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>774</v>
+        <v>9042</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>343</v>
+        <v>67</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>1569</v>
+        <v>1576</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>345</v>
+        <v>69</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>1570</v>
+        <v>1577</v>
       </c>
       <c r="I8" s="12">
         <v>100</v>
@@ -66650,7 +66629,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
-        <v>14408</v>
+        <v>10029</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>9</v>
@@ -66659,19 +66638,19 @@
         <v>16</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>1088</v>
+        <v>427</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>1089</v>
+        <v>428</v>
       </c>
       <c r="I9" s="12">
         <v>100</v>
@@ -66679,28 +66658,28 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>16466</v>
+        <v>10073</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>1571</v>
+        <v>1578</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>1572</v>
+        <v>1579</v>
       </c>
       <c r="I10" s="12">
         <v>100</v>
@@ -66708,57 +66687,57 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
-        <v>19524</v>
+        <v>11083</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>1573</v>
+        <v>169</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>1574</v>
+        <v>170</v>
       </c>
       <c r="I11" s="12">
-        <v>100</v>
+        <v>89.473684210526315</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>20407</v>
+        <v>11222</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>318</v>
+        <v>77</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>1575</v>
+        <v>1043</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>320</v>
+        <v>69</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>1576</v>
+        <v>1044</v>
       </c>
       <c r="I12" s="12">
         <v>100</v>
@@ -66766,28 +66745,28 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
-        <v>1059</v>
+        <v>11417</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>58</v>
+        <v>1580</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>60</v>
+        <v>1581</v>
       </c>
       <c r="I13" s="12">
         <v>100</v>
@@ -66795,28 +66774,28 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
-        <v>2929</v>
+        <v>12569</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>30</v>
-      </c>
       <c r="D14" s="12" t="s">
-        <v>35</v>
+        <v>260</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>1577</v>
+        <v>1582</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>37</v>
+        <v>262</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>1578</v>
+        <v>1583</v>
       </c>
       <c r="I14" s="12">
         <v>100</v>
@@ -66824,28 +66803,28 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
-        <v>3037</v>
+        <v>16466</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>1096</v>
+        <v>1564</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>1097</v>
+        <v>1565</v>
       </c>
       <c r="I15" s="12">
         <v>100</v>
@@ -66853,7 +66832,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
-        <v>5192</v>
+        <v>19524</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>9</v>
@@ -66862,19 +66841,19 @@
         <v>16</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>1579</v>
+        <v>1566</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>21</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>1580</v>
+        <v>1567</v>
       </c>
       <c r="I16" s="12">
         <v>100</v>
@@ -66882,28 +66861,28 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
-        <v>7283</v>
+        <v>20407</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>35</v>
+        <v>318</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>1581</v>
+        <v>1568</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>37</v>
+        <v>320</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>1582</v>
+        <v>1569</v>
       </c>
       <c r="I17" s="12">
         <v>100</v>
@@ -66911,7 +66890,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
-        <v>9042</v>
+        <v>21648</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>9</v>
@@ -66920,19 +66899,19 @@
         <v>16</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>1583</v>
+        <v>1594</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>1584</v>
+        <v>1595</v>
       </c>
       <c r="I18" s="12">
         <v>100</v>
@@ -66940,28 +66919,28 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
-        <v>10029</v>
+        <v>21656</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>427</v>
+        <v>1590</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>428</v>
+        <v>1591</v>
       </c>
       <c r="I19" s="12">
         <v>100</v>
@@ -66969,28 +66948,28 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
-        <v>10073</v>
+        <v>22020</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>1585</v>
+        <v>1167</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>1586</v>
+        <v>1168</v>
       </c>
       <c r="I20" s="12">
         <v>100</v>
@@ -66998,28 +66977,28 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
-        <v>11417</v>
+        <v>22032</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>1587</v>
+        <v>85</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>1588</v>
+        <v>86</v>
       </c>
       <c r="I21" s="12">
         <v>100</v>
@@ -67027,7 +67006,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
-        <v>11222</v>
+        <v>22317</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>30</v>
@@ -67036,19 +67015,19 @@
         <v>16</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>1043</v>
+        <v>1592</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>1044</v>
+        <v>1593</v>
       </c>
       <c r="I22" s="12">
         <v>100</v>
@@ -67056,7 +67035,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
-        <v>12569</v>
+        <v>22992</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>30</v>
@@ -67065,19 +67044,19 @@
         <v>10</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>260</v>
+        <v>11</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>1589</v>
+        <v>386</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>262</v>
+        <v>14</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>1590</v>
+        <v>387</v>
       </c>
       <c r="I23" s="12">
         <v>100</v>
@@ -67085,57 +67064,57 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
-        <v>25563</v>
+        <v>23012</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>61</v>
+        <v>226</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>62</v>
+        <v>227</v>
       </c>
       <c r="I24" s="12">
-        <v>100</v>
+        <v>97.368421052631575</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
-        <v>27222</v>
+        <v>23525</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>1591</v>
+        <v>161</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>1592</v>
+        <v>162</v>
       </c>
       <c r="I25" s="12">
         <v>100</v>
@@ -67143,19 +67122,19 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
-        <v>25340</v>
+        <v>23604</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>1593</v>
+        <v>384</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>13</v>
@@ -67164,7 +67143,7 @@
         <v>14</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>1594</v>
+        <v>385</v>
       </c>
       <c r="I26" s="12">
         <v>100</v>
@@ -67172,19 +67151,19 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
-        <v>23403</v>
+        <v>24368</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>1104</v>
+        <v>1588</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>13</v>
@@ -67193,7 +67172,7 @@
         <v>14</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>1105</v>
+        <v>1589</v>
       </c>
       <c r="I27" s="12">
         <v>100</v>
@@ -67201,7 +67180,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
-        <v>24368</v>
+        <v>25340</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>30</v>
@@ -67213,7 +67192,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>1595</v>
+        <v>1586</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>13</v>
@@ -67222,7 +67201,7 @@
         <v>14</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>1596</v>
+        <v>1587</v>
       </c>
       <c r="I28" s="12">
         <v>100</v>
@@ -67230,28 +67209,28 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
-        <v>22032</v>
+        <v>25563</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="I29" s="12">
         <v>100</v>
@@ -67259,28 +67238,28 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
-        <v>21656</v>
+        <v>26607</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>1597</v>
+        <v>1556</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>1598</v>
+        <v>1557</v>
       </c>
       <c r="I30" s="12">
         <v>100</v>
@@ -67288,28 +67267,28 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
-        <v>22317</v>
+        <v>26767</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>1599</v>
+        <v>303</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>1600</v>
+        <v>304</v>
       </c>
       <c r="I31" s="12">
         <v>100</v>
@@ -67317,28 +67296,28 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
-        <v>23525</v>
+        <v>27222</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>161</v>
+        <v>1584</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>162</v>
+        <v>1585</v>
       </c>
       <c r="I32" s="12">
         <v>100</v>
@@ -67346,57 +67325,57 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
-        <v>22020</v>
+        <v>27549</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>1174</v>
+        <v>1598</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>1175</v>
+        <v>1599</v>
       </c>
       <c r="I33" s="12">
-        <v>100</v>
+        <v>92.10526315789474</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
-        <v>23604</v>
+        <v>28272</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>384</v>
+        <v>48</v>
+      </c>
+      <c r="E34" s="12">
+        <v>28272</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>385</v>
+        <v>51</v>
       </c>
       <c r="I34" s="12">
         <v>100</v>
@@ -67404,28 +67383,28 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
-        <v>22992</v>
+        <v>28396</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>386</v>
+        <v>1560</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>387</v>
+        <v>1561</v>
       </c>
       <c r="I35" s="12">
         <v>100</v>
@@ -67433,28 +67412,28 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
-        <v>21648</v>
+        <v>28881</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>1601</v>
+        <v>1558</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>1602</v>
+        <v>1559</v>
       </c>
       <c r="I36" s="12">
         <v>100</v>
@@ -67462,150 +67441,37 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
-        <v>23012</v>
+        <v>28910</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>226</v>
+        <v>1209</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>227</v>
+        <v>1210</v>
       </c>
       <c r="I37" s="12">
-        <v>97.368421052631575</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="12">
-        <v>241</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="E38" s="12">
-        <v>241</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>1085</v>
-      </c>
-      <c r="I38" s="12">
-        <v>92.10526315789474</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="12">
-        <v>7675</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>1603</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>1604</v>
-      </c>
-      <c r="I39" s="12">
-        <v>92.10526315789474</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="12">
-        <v>27549</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>1605</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>1606</v>
-      </c>
-      <c r="I40" s="12">
-        <v>92.10526315789474</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="12">
-        <v>11083</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="I41" s="12">
-        <v>89.473684210526315</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:I41">
+    <sortCondition ref="A2:A41"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -67808,7 +67674,7 @@
         <v>140</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>1607</v>
+        <v>1600</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>13</v>
@@ -67817,7 +67683,7 @@
         <v>142</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>1608</v>
+        <v>1601</v>
       </c>
       <c r="I7" s="12">
         <v>88.888888888888886</v>
@@ -68098,7 +67964,7 @@
         <v>39</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>1609</v>
+        <v>1602</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>21</v>
@@ -68107,7 +67973,7 @@
         <v>41</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>1610</v>
+        <v>1603</v>
       </c>
       <c r="I17" s="12">
         <v>100</v>
@@ -68127,7 +67993,7 @@
         <v>177</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>1611</v>
+        <v>1604</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>21</v>
@@ -68136,7 +68002,7 @@
         <v>179</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>1612</v>
+        <v>1605</v>
       </c>
       <c r="I18" s="12">
         <v>100</v>
@@ -68156,7 +68022,7 @@
         <v>118</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>1613</v>
+        <v>1606</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>13</v>
@@ -68165,7 +68031,7 @@
         <v>120</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>1614</v>
+        <v>1607</v>
       </c>
       <c r="I19" s="12">
         <v>100</v>
@@ -68185,7 +68051,7 @@
         <v>122</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>1615</v>
+        <v>1608</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>21</v>
@@ -68194,7 +68060,7 @@
         <v>124</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>1616</v>
+        <v>1609</v>
       </c>
       <c r="I20" s="12">
         <v>83.333333333333343</v>
@@ -68214,7 +68080,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>1617</v>
+        <v>1610</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>13</v>
@@ -68223,7 +68089,7 @@
         <v>14</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>1618</v>
+        <v>1611</v>
       </c>
       <c r="I21" s="12">
         <v>100</v>
@@ -68968,7 +68834,7 @@
         <v>11</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>1619</v>
+        <v>1612</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>13</v>
@@ -68977,7 +68843,7 @@
         <v>14</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>1620</v>
+        <v>1613</v>
       </c>
       <c r="I47" s="12">
         <v>100</v>
@@ -68997,7 +68863,7 @@
         <v>11</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>1542</v>
+        <v>1535</v>
       </c>
       <c r="F48" s="12" t="s">
         <v>13</v>
@@ -69006,7 +68872,7 @@
         <v>14</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>1543</v>
+        <v>1536</v>
       </c>
       <c r="I48" s="12">
         <v>100</v>
@@ -69055,7 +68921,7 @@
         <v>43</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>1621</v>
+        <v>1614</v>
       </c>
       <c r="F50" s="12" t="s">
         <v>13</v>
@@ -69064,7 +68930,7 @@
         <v>46</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>1622</v>
+        <v>1615</v>
       </c>
       <c r="I50" s="12">
         <v>100</v>
@@ -69200,7 +69066,7 @@
         <v>19</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>1623</v>
+        <v>1616</v>
       </c>
       <c r="F55" s="12" t="s">
         <v>13</v>
@@ -69209,7 +69075,7 @@
         <v>22</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>1624</v>
+        <v>1617</v>
       </c>
       <c r="I55" s="12">
         <v>100</v>
@@ -69331,7 +69197,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>1625</v>
+        <v>1618</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>13</v>
@@ -69340,7 +69206,7 @@
         <v>59</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>1626</v>
+        <v>1619</v>
       </c>
       <c r="I2" s="12">
         <v>100</v>
@@ -69418,7 +69284,7 @@
         <v>35</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>1627</v>
+        <v>1620</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>13</v>
@@ -69427,7 +69293,7 @@
         <v>37</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>1628</v>
+        <v>1621</v>
       </c>
       <c r="I5" s="12">
         <v>100</v>
@@ -69476,7 +69342,7 @@
         <v>140</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>1629</v>
+        <v>1622</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>21</v>
@@ -69485,7 +69351,7 @@
         <v>142</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>1630</v>
+        <v>1623</v>
       </c>
       <c r="I7" s="12">
         <v>100</v>
@@ -69505,7 +69371,7 @@
         <v>140</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>1631</v>
+        <v>1624</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>21</v>
@@ -69514,7 +69380,7 @@
         <v>142</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>1632</v>
+        <v>1625</v>
       </c>
       <c r="I8" s="12">
         <v>100</v>
@@ -69534,7 +69400,7 @@
         <v>77</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>1587</v>
+        <v>1580</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>13</v>
@@ -69543,7 +69409,7 @@
         <v>69</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>1588</v>
+        <v>1581</v>
       </c>
       <c r="I9" s="12">
         <v>100</v>
@@ -69563,7 +69429,7 @@
         <v>77</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>1508</v>
+        <v>1501</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>13</v>
@@ -69572,7 +69438,7 @@
         <v>69</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>1509</v>
+        <v>1502</v>
       </c>
       <c r="I10" s="12">
         <v>100</v>
@@ -69592,7 +69458,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>1633</v>
+        <v>1626</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>13</v>
@@ -69601,7 +69467,7 @@
         <v>41</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>1634</v>
+        <v>1627</v>
       </c>
       <c r="I11" s="12">
         <v>100</v>
@@ -69737,7 +69603,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>1635</v>
+        <v>1628</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>13</v>
@@ -69746,7 +69612,7 @@
         <v>14</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>1636</v>
+        <v>1629</v>
       </c>
       <c r="I16" s="12">
         <v>100</v>
@@ -69824,7 +69690,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>1637</v>
+        <v>1630</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>13</v>
@@ -69833,7 +69699,7 @@
         <v>14</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>1638</v>
+        <v>1631</v>
       </c>
       <c r="I19" s="12">
         <v>100</v>
@@ -69853,7 +69719,7 @@
         <v>11</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>1639</v>
+        <v>1632</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>13</v>
@@ -69862,7 +69728,7 @@
         <v>14</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>1640</v>
+        <v>1633</v>
       </c>
       <c r="I20" s="12">
         <v>100</v>
@@ -69911,7 +69777,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>1267</v>
+        <v>1260</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>13</v>
@@ -69920,7 +69786,7 @@
         <v>14</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>1268</v>
+        <v>1261</v>
       </c>
       <c r="I22" s="12">
         <v>100</v>
@@ -69969,7 +69835,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>13</v>
@@ -69978,7 +69844,7 @@
         <v>14</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>1300</v>
+        <v>1293</v>
       </c>
       <c r="I24" s="12">
         <v>100</v>
@@ -69998,7 +69864,7 @@
         <v>43</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>1641</v>
+        <v>1634</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>21</v>
@@ -70007,7 +69873,7 @@
         <v>46</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>1642</v>
+        <v>1635</v>
       </c>
       <c r="I25" s="12">
         <v>100</v>
@@ -70027,7 +69893,7 @@
         <v>43</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>1434</v>
+        <v>1427</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>45</v>
@@ -70036,7 +69902,7 @@
         <v>46</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>1435</v>
+        <v>1428</v>
       </c>
       <c r="I26" s="12">
         <v>71.428571428571431</v>
@@ -70056,7 +69922,7 @@
         <v>43</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>1434</v>
+        <v>1427</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>45</v>
@@ -70065,7 +69931,7 @@
         <v>46</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>1435</v>
+        <v>1428</v>
       </c>
       <c r="I27" s="12">
         <v>71.428571428571431</v>
@@ -70085,7 +69951,7 @@
         <v>43</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>1434</v>
+        <v>1427</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>45</v>
@@ -70094,7 +69960,7 @@
         <v>46</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>1435</v>
+        <v>1428</v>
       </c>
       <c r="I28" s="12">
         <v>71.428571428571431</v>
@@ -70123,7 +69989,7 @@
         <v>106</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>1643</v>
+        <v>1636</v>
       </c>
       <c r="I29" s="12">
         <v>100</v>
@@ -70143,7 +70009,7 @@
         <v>104</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>1644</v>
+        <v>1637</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>21</v>
@@ -70152,7 +70018,7 @@
         <v>106</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>1645</v>
+        <v>1638</v>
       </c>
       <c r="I30" s="12">
         <v>100</v>
@@ -70210,7 +70076,7 @@
         <v>50</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="I32" s="12">
         <v>100</v>
@@ -70259,7 +70125,7 @@
         <v>19</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>1646</v>
+        <v>1639</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>13</v>
@@ -70268,7 +70134,7 @@
         <v>22</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>1647</v>
+        <v>1640</v>
       </c>
       <c r="I34" s="12">
         <v>100</v>
@@ -70288,7 +70154,7 @@
         <v>19</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>1648</v>
+        <v>1641</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>13</v>
@@ -70297,7 +70163,7 @@
         <v>22</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>1649</v>
+        <v>1642</v>
       </c>
       <c r="I35" s="12">
         <v>100</v>

--- a/mutationsTable.xlsx
+++ b/mutationsTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ido\Documents\Dana-Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E579AC6E-C038-4CAE-BDC1-5384389E524F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C268398-96EC-4804-B920-05CA72297E8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="846" firstSheet="56" activeTab="70" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="846" firstSheet="56" activeTab="56" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B.1.1.7" sheetId="13" r:id="rId1"/>
@@ -70,20 +70,19 @@
     <sheet name="B.1.575.1" sheetId="59" r:id="rId55"/>
     <sheet name="B.1.575.2" sheetId="58" r:id="rId56"/>
     <sheet name="B.1.630" sheetId="61" r:id="rId57"/>
-    <sheet name="Sheet4" sheetId="78" r:id="rId58"/>
-    <sheet name="B.1.415.1" sheetId="67" r:id="rId59"/>
-    <sheet name="B.1.634" sheetId="65" r:id="rId60"/>
-    <sheet name="B.1.635" sheetId="66" r:id="rId61"/>
-    <sheet name="PDI161" sheetId="68" r:id="rId62"/>
-    <sheet name="P.6" sheetId="69" r:id="rId63"/>
-    <sheet name="C.1.2" sheetId="70" r:id="rId64"/>
-    <sheet name="B.1.631" sheetId="71" r:id="rId65"/>
-    <sheet name="B.1.632" sheetId="72" r:id="rId66"/>
-    <sheet name="C.37.1" sheetId="73" r:id="rId67"/>
-    <sheet name="B.1.633" sheetId="74" r:id="rId68"/>
-    <sheet name="Q.3" sheetId="75" r:id="rId69"/>
-    <sheet name="AY.3.1" sheetId="76" r:id="rId70"/>
-    <sheet name="PDI 143" sheetId="77" r:id="rId71"/>
+    <sheet name="B.1.415.1" sheetId="67" r:id="rId58"/>
+    <sheet name="B.1.634" sheetId="65" r:id="rId59"/>
+    <sheet name="B.1.635" sheetId="66" r:id="rId60"/>
+    <sheet name="PDI161" sheetId="68" r:id="rId61"/>
+    <sheet name="P.6" sheetId="69" r:id="rId62"/>
+    <sheet name="C.1.2" sheetId="70" r:id="rId63"/>
+    <sheet name="B.1.631" sheetId="71" r:id="rId64"/>
+    <sheet name="B.1.632" sheetId="72" r:id="rId65"/>
+    <sheet name="C.37.1" sheetId="73" r:id="rId66"/>
+    <sheet name="B.1.633" sheetId="74" r:id="rId67"/>
+    <sheet name="Q.3" sheetId="75" r:id="rId68"/>
+    <sheet name="AY.3.1" sheetId="76" r:id="rId69"/>
+    <sheet name="PDI 143" sheetId="77" r:id="rId70"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -54966,7 +54965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3900-000000000000}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -56312,18 +56311,6 @@
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC2B3B2-9C08-45AE-9269-D687DCB2F7DC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
@@ -57287,6 +57274,1181 @@
         <v>363</v>
       </c>
       <c r="I33" s="13">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
+  <dimension ref="A1:I40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>613</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>1434</v>
+      </c>
+      <c r="I2" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <v>841</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I3" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>7142</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>1185</v>
+      </c>
+      <c r="I4" s="12">
+        <v>98.412698412698404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>8634</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>1438</v>
+      </c>
+      <c r="I5" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>9614</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>1187</v>
+      </c>
+      <c r="I6" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>9693</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>937</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>938</v>
+      </c>
+      <c r="I7" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>9754</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I8" s="12">
+        <v>95.238095238095227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <v>11288</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="12">
+        <v>96.825396825396822</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>11289</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="12">
+        <v>96.825396825396822</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>11290</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="12">
+        <v>96.825396825396822</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>11291</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="12">
+        <v>96.825396825396822</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>11292</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="12">
+        <v>96.825396825396822</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>11293</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="12">
+        <v>96.825396825396822</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>11294</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="12">
+        <v>96.825396825396822</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>11295</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="12">
+        <v>96.825396825396822</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <v>11296</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="12">
+        <v>96.825396825396822</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
+        <v>15451</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="I18" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
+        <v>16466</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="I19" s="12">
+        <v>98.412698412698404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
+        <v>20823</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>1440</v>
+      </c>
+      <c r="I20" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
+        <v>21615</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>1193</v>
+      </c>
+      <c r="I21" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
+        <v>21765</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="I22" s="12">
+        <v>95.238095238095227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
+        <v>21766</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="I23" s="12">
+        <v>95.238095238095227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12">
+        <v>21767</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="I24" s="12">
+        <v>95.238095238095227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
+        <v>21768</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="I25" s="12">
+        <v>95.238095238095227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
+        <v>21769</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="I26" s="12">
+        <v>95.238095238095227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
+        <v>21770</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="I27" s="12">
+        <v>95.238095238095227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="12">
+        <v>21846</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="I28" s="12">
+        <v>98.412698412698404</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
+        <v>22036</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I29" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="12">
+        <v>23012</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="I30" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="12">
+        <v>23625</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>1166</v>
+      </c>
+      <c r="I31" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="12">
+        <v>23854</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>1442</v>
+      </c>
+      <c r="I32" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="12">
+        <v>26161</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>1424</v>
+      </c>
+      <c r="I33" s="12">
+        <v>90.476190476190482</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="12">
+        <v>26681</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="I34" s="12">
+        <v>98.412698412698404</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="12">
+        <v>27645</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>1444</v>
+      </c>
+      <c r="I35" s="12">
+        <v>95.238095238095227</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="12">
+        <v>27735</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>1446</v>
+      </c>
+      <c r="I36" s="12">
+        <v>95.238095238095227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="12">
+        <v>28271</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="12">
+        <v>28271</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="I37" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="12">
+        <v>28531</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>835</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>836</v>
+      </c>
+      <c r="I38" s="12">
+        <v>98.412698412698404</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="12">
+        <v>28606</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>1448</v>
+      </c>
+      <c r="I39" s="12">
+        <v>87.301587301587304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="12">
+        <v>28910</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>1206</v>
+      </c>
+      <c r="I40" s="12">
         <v>100</v>
       </c>
     </row>
@@ -57836,1181 +58998,6 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
-  <dimension ref="A1:I40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
-        <v>613</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>1433</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>1434</v>
-      </c>
-      <c r="I2" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
-        <v>841</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>1435</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>1436</v>
-      </c>
-      <c r="I3" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
-        <v>7142</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>1184</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>1185</v>
-      </c>
-      <c r="I4" s="12">
-        <v>98.412698412698404</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
-        <v>8634</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>1437</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>1438</v>
-      </c>
-      <c r="I5" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
-        <v>9614</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>1186</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>1187</v>
-      </c>
-      <c r="I6" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
-        <v>9693</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>937</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>938</v>
-      </c>
-      <c r="I7" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
-        <v>9754</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>1188</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>1189</v>
-      </c>
-      <c r="I8" s="12">
-        <v>95.238095238095227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
-        <v>11288</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="12">
-        <v>96.825396825396822</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
-        <v>11289</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" s="12">
-        <v>96.825396825396822</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
-        <v>11290</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="12">
-        <v>96.825396825396822</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
-        <v>11291</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" s="12">
-        <v>96.825396825396822</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
-        <v>11292</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I13" s="12">
-        <v>96.825396825396822</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
-        <v>11293</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I14" s="12">
-        <v>96.825396825396822</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
-        <v>11294</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" s="12">
-        <v>96.825396825396822</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
-        <v>11295</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I16" s="12">
-        <v>96.825396825396822</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
-        <v>11296</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I17" s="12">
-        <v>96.825396825396822</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
-        <v>15451</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>517</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="I18" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
-        <v>16466</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="I19" s="12">
-        <v>98.412698412698404</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
-        <v>20823</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>1439</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>1440</v>
-      </c>
-      <c r="I20" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
-        <v>21615</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>1192</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>1193</v>
-      </c>
-      <c r="I21" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="12">
-        <v>21765</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="I22" s="12">
-        <v>95.238095238095227</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12">
-        <v>21766</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="I23" s="12">
-        <v>95.238095238095227</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
-        <v>21767</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="I24" s="12">
-        <v>95.238095238095227</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12">
-        <v>21768</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="I25" s="12">
-        <v>95.238095238095227</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12">
-        <v>21769</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="I26" s="12">
-        <v>95.238095238095227</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12">
-        <v>21770</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="I27" s="12">
-        <v>95.238095238095227</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="12">
-        <v>21846</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="I28" s="12">
-        <v>98.412698412698404</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="12">
-        <v>22036</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>1195</v>
-      </c>
-      <c r="I29" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="12">
-        <v>23012</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="I30" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="12">
-        <v>23625</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>1165</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>1166</v>
-      </c>
-      <c r="I31" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="12">
-        <v>23854</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>1441</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>1442</v>
-      </c>
-      <c r="I32" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="12">
-        <v>26161</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>1423</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>1424</v>
-      </c>
-      <c r="I33" s="12">
-        <v>90.476190476190482</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="12">
-        <v>26681</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="I34" s="12">
-        <v>98.412698412698404</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="12">
-        <v>27645</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>1443</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>1444</v>
-      </c>
-      <c r="I35" s="12">
-        <v>95.238095238095227</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="12">
-        <v>27735</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>1445</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>1446</v>
-      </c>
-      <c r="I36" s="12">
-        <v>95.238095238095227</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="12">
-        <v>28271</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="12">
-        <v>28271</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="I37" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="12">
-        <v>28531</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>835</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>836</v>
-      </c>
-      <c r="I38" s="12">
-        <v>98.412698412698404</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="12">
-        <v>28606</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>1447</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>1448</v>
-      </c>
-      <c r="I39" s="12">
-        <v>87.301587301587304</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="12">
-        <v>28910</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>1205</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>1206</v>
-      </c>
-      <c r="I40" s="12">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
@@ -59721,7 +59708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
@@ -60693,7 +60680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
@@ -61172,7 +61159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
   <dimension ref="A1:I48"/>
   <sheetViews>
@@ -62579,7 +62566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4100-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
@@ -63551,7 +63538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4200-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
@@ -64584,7 +64571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4300-000000000000}">
   <dimension ref="A1:I57"/>
   <sheetViews>
@@ -66252,7 +66239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4400-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
@@ -67340,7 +67327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1B0EFC-DC47-44DA-B73B-37FD5B1991FB}">
   <dimension ref="A1:I49"/>
   <sheetViews>
@@ -68769,6 +68756,1413 @@
       </c>
       <c r="I49" s="12">
         <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8903D13-797E-4A07-8E65-2B34BCF9F085}">
+  <dimension ref="A1:I48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>210</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="12">
+        <v>210</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="I2" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <v>3644</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I3" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>4181</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I4" s="12">
+        <v>99.563318777292579</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>6402</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>1128</v>
+      </c>
+      <c r="I5" s="12">
+        <v>99.563318777292579</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>7124</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="I6" s="12">
+        <v>99.126637554585145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>8986</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>1130</v>
+      </c>
+      <c r="I7" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>9053</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>1132</v>
+      </c>
+      <c r="I8" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <v>10029</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="I9" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>11201</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="I10" s="12">
+        <v>99.563318777292579</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>11332</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>1134</v>
+      </c>
+      <c r="I11" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>11456</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>1239</v>
+      </c>
+      <c r="I12" s="12">
+        <v>99.563318777292579</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>15451</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="I13" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>16466</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="I14" s="12">
+        <v>99.563318777292579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>18115</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>1659</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>1660</v>
+      </c>
+      <c r="I15" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>19220</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>1136</v>
+      </c>
+      <c r="I16" s="12">
+        <v>99.563318777292579</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <v>20199</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>1661</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>1662</v>
+      </c>
+      <c r="I17" s="12">
+        <v>98.253275109170303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
+        <v>21618</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="I18" s="12">
+        <v>99.126637554585145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
+        <v>22029</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="I19" s="12">
+        <v>87.772925764192138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
+        <v>22030</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="I20" s="12">
+        <v>87.772925764192138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
+        <v>22031</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="I21" s="12">
+        <v>87.772925764192138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
+        <v>22032</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="I22" s="12">
+        <v>87.772925764192138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
+        <v>22033</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="I23" s="12">
+        <v>87.772925764192138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12">
+        <v>22034</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="I24" s="12">
+        <v>87.772925764192138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
+        <v>22917</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I25" s="12">
+        <v>97.379912663755462</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
+        <v>22995</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="I26" s="12">
+        <v>96.943231441048042</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
+        <v>23284</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>1664</v>
+      </c>
+      <c r="I27" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="12">
+        <v>23604</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="I28" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
+        <v>24410</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="I29" s="12">
+        <v>94.75982532751091</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="12">
+        <v>25339</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>1665</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>1666</v>
+      </c>
+      <c r="I30" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="12">
+        <v>25469</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="I31" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="12">
+        <v>26767</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="I32" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="12">
+        <v>27638</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="I33" s="12">
+        <v>96.506550218340621</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="12">
+        <v>27752</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="I34" s="12">
+        <v>98.689956331877724</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="12">
+        <v>27874</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>1138</v>
+      </c>
+      <c r="I35" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="12">
+        <v>28248</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="I36" s="12">
+        <v>91.703056768558952</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="12">
+        <v>28249</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="I37" s="12">
+        <v>91.703056768558952</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="12">
+        <v>28250</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="I38" s="12">
+        <v>91.703056768558952</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="12">
+        <v>28251</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="I39" s="12">
+        <v>91.703056768558952</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="12">
+        <v>28252</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="I40" s="12">
+        <v>91.703056768558952</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="12">
+        <v>28253</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="I41" s="12">
+        <v>91.703056768558952</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="12">
+        <v>28273</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="12">
+        <v>28273</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I42" s="12">
+        <v>91.703056768558952</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="12">
+        <v>28461</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="I43" s="12">
+        <v>98.253275109170303</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="12">
+        <v>28881</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="I44" s="12">
+        <v>92.576419213973807</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="12">
+        <v>28916</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>863</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="I45" s="12">
+        <v>90.829694323144111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="12">
+        <v>29050</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>1241</v>
+      </c>
+      <c r="I46" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="12">
+        <v>29402</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="I47" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="12">
+        <v>29509</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I48" s="12">
+        <v>99.563318777292579</v>
       </c>
     </row>
   </sheetData>
@@ -69752,1417 +71146,10 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8903D13-797E-4A07-8E65-2B34BCF9F085}">
-  <dimension ref="A1:I48"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
-        <v>210</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="E2" s="12">
-        <v>210</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="I2" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
-        <v>3644</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>1657</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>1658</v>
-      </c>
-      <c r="I3" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
-        <v>4181</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>1126</v>
-      </c>
-      <c r="I4" s="12">
-        <v>99.563318777292579</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
-        <v>6402</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>1127</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>1128</v>
-      </c>
-      <c r="I5" s="12">
-        <v>99.563318777292579</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
-        <v>7124</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>555</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>556</v>
-      </c>
-      <c r="I6" s="12">
-        <v>99.126637554585145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
-        <v>8986</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>1129</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>1130</v>
-      </c>
-      <c r="I7" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
-        <v>9053</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>1131</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>1132</v>
-      </c>
-      <c r="I8" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
-        <v>10029</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="I9" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
-        <v>11201</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="I10" s="12">
-        <v>99.563318777292579</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
-        <v>11332</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>1134</v>
-      </c>
-      <c r="I11" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
-        <v>11456</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>1238</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>1239</v>
-      </c>
-      <c r="I12" s="12">
-        <v>99.563318777292579</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
-        <v>15451</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>517</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="I13" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
-        <v>16466</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="I14" s="12">
-        <v>99.563318777292579</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
-        <v>18115</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>1659</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>1660</v>
-      </c>
-      <c r="I15" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
-        <v>19220</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>1135</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>1136</v>
-      </c>
-      <c r="I16" s="12">
-        <v>99.563318777292579</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
-        <v>20199</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>1661</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>1662</v>
-      </c>
-      <c r="I17" s="12">
-        <v>98.253275109170303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
-        <v>21618</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="I18" s="12">
-        <v>99.126637554585145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
-        <v>22029</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="I19" s="12">
-        <v>87.772925764192138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
-        <v>22030</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="I20" s="12">
-        <v>87.772925764192138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
-        <v>22031</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="I21" s="12">
-        <v>87.772925764192138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12">
-        <v>22032</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="I22" s="12">
-        <v>87.772925764192138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12">
-        <v>22033</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="I23" s="12">
-        <v>87.772925764192138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
-        <v>22034</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="I24" s="12">
-        <v>87.772925764192138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="12">
-        <v>22917</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="I25" s="12">
-        <v>97.379912663755462</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="12">
-        <v>22995</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="I26" s="12">
-        <v>96.943231441048042</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="12">
-        <v>23284</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>1663</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>1664</v>
-      </c>
-      <c r="I27" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="12">
-        <v>23604</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="I28" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="12">
-        <v>24410</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="I29" s="12">
-        <v>94.75982532751091</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="12">
-        <v>25339</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>1665</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>1666</v>
-      </c>
-      <c r="I30" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="12">
-        <v>25469</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="I31" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="12">
-        <v>26767</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="I32" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="12">
-        <v>27638</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="I33" s="12">
-        <v>96.506550218340621</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="12">
-        <v>27752</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>509</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="I34" s="12">
-        <v>98.689956331877724</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="12">
-        <v>27874</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>1137</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>1138</v>
-      </c>
-      <c r="I35" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="12">
-        <v>28248</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="I36" s="12">
-        <v>91.703056768558952</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12">
-        <v>28249</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="I37" s="12">
-        <v>91.703056768558952</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12">
-        <v>28250</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="I38" s="12">
-        <v>91.703056768558952</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="12">
-        <v>28251</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="I39" s="12">
-        <v>91.703056768558952</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="12">
-        <v>28252</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="I40" s="12">
-        <v>91.703056768558952</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12">
-        <v>28253</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="I41" s="12">
-        <v>91.703056768558952</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="12">
-        <v>28273</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E42" s="12">
-        <v>28273</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="I42" s="12">
-        <v>91.703056768558952</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="12">
-        <v>28461</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>508</v>
-      </c>
-      <c r="I43" s="12">
-        <v>98.253275109170303</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="12">
-        <v>28881</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="I44" s="12">
-        <v>92.576419213973807</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="12">
-        <v>28916</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>863</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>864</v>
-      </c>
-      <c r="I45" s="12">
-        <v>90.829694323144111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="12">
-        <v>29050</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>1240</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>1241</v>
-      </c>
-      <c r="I46" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="12">
-        <v>29402</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>485</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="I47" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="12">
-        <v>29509</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>1242</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>1243</v>
-      </c>
-      <c r="I48" s="12">
-        <v>99.563318777292579</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9C74D8-5BEB-4751-B997-EA3002BE245F}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>

--- a/mutationsTable.xlsx
+++ b/mutationsTable.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\covid19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="846" firstSheet="56" activeTab="73"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="846" firstSheet="55" activeTab="55"/>
   </bookViews>
   <sheets>
     <sheet name="B.1.1.7" sheetId="13" r:id="rId1"/>
@@ -69,23 +69,22 @@
     <sheet name="B.1.575.1" sheetId="59" r:id="rId55"/>
     <sheet name="B.1.575.2" sheetId="58" r:id="rId56"/>
     <sheet name="B.1.630" sheetId="61" r:id="rId57"/>
-    <sheet name="Sheet1" sheetId="78" r:id="rId58"/>
-    <sheet name="B.1.415.1" sheetId="67" r:id="rId59"/>
-    <sheet name="B.1.634" sheetId="65" r:id="rId60"/>
-    <sheet name="B.1.635" sheetId="66" r:id="rId61"/>
-    <sheet name="PDI161" sheetId="68" r:id="rId62"/>
-    <sheet name="P.6" sheetId="69" r:id="rId63"/>
-    <sheet name="C.1.2" sheetId="70" r:id="rId64"/>
-    <sheet name="B.1.631" sheetId="71" r:id="rId65"/>
-    <sheet name="B.1.632" sheetId="72" r:id="rId66"/>
-    <sheet name="C.37.1" sheetId="73" r:id="rId67"/>
-    <sheet name="B.1.633" sheetId="74" r:id="rId68"/>
-    <sheet name="Q.3" sheetId="75" r:id="rId69"/>
-    <sheet name="AY.3.1" sheetId="76" r:id="rId70"/>
-    <sheet name="PDI 143" sheetId="77" r:id="rId71"/>
-    <sheet name="PDI166" sheetId="79" r:id="rId72"/>
-    <sheet name="PDI167" sheetId="80" r:id="rId73"/>
-    <sheet name="A.2.5.1" sheetId="81" r:id="rId74"/>
+    <sheet name="B.1.415.1" sheetId="67" r:id="rId58"/>
+    <sheet name="B.1.634" sheetId="65" r:id="rId59"/>
+    <sheet name="B.1.635" sheetId="66" r:id="rId60"/>
+    <sheet name="PDI161" sheetId="68" r:id="rId61"/>
+    <sheet name="P.6" sheetId="69" r:id="rId62"/>
+    <sheet name="C.1.2" sheetId="70" r:id="rId63"/>
+    <sheet name="B.1.631" sheetId="71" r:id="rId64"/>
+    <sheet name="B.1.632" sheetId="72" r:id="rId65"/>
+    <sheet name="C.37.1" sheetId="73" r:id="rId66"/>
+    <sheet name="B.1.633" sheetId="74" r:id="rId67"/>
+    <sheet name="Q.3" sheetId="75" r:id="rId68"/>
+    <sheet name="AY.3.1" sheetId="76" r:id="rId69"/>
+    <sheet name="PDI 143" sheetId="77" r:id="rId70"/>
+    <sheet name="PDI166" sheetId="79" r:id="rId71"/>
+    <sheet name="PDI167" sheetId="80" r:id="rId72"/>
+    <sheet name="A.2.5.1" sheetId="81" r:id="rId73"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -54400,8 +54399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56516,22 +56515,10 @@
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57490,6 +57477,1181 @@
         <v>363</v>
       </c>
       <c r="I33" s="13">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>613</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>1434</v>
+      </c>
+      <c r="I2" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>841</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I3" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>7142</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>1185</v>
+      </c>
+      <c r="I4" s="12">
+        <v>98.412698412698404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>8634</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>1438</v>
+      </c>
+      <c r="I5" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>9614</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>1187</v>
+      </c>
+      <c r="I6" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>9693</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>937</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>938</v>
+      </c>
+      <c r="I7" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>9754</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I8" s="12">
+        <v>95.238095238095227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>11288</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="12">
+        <v>96.825396825396822</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>11289</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="12">
+        <v>96.825396825396822</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>11290</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="12">
+        <v>96.825396825396822</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>11291</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="12">
+        <v>96.825396825396822</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>11292</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="12">
+        <v>96.825396825396822</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>11293</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="12">
+        <v>96.825396825396822</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>11294</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="12">
+        <v>96.825396825396822</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>11295</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="12">
+        <v>96.825396825396822</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>11296</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="12">
+        <v>96.825396825396822</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>15451</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="I18" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>16466</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="I19" s="12">
+        <v>98.412698412698404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>20823</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>1440</v>
+      </c>
+      <c r="I20" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>21615</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>1193</v>
+      </c>
+      <c r="I21" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>21765</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="I22" s="12">
+        <v>95.238095238095227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>21766</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="I23" s="12">
+        <v>95.238095238095227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>21767</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="I24" s="12">
+        <v>95.238095238095227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>21768</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="I25" s="12">
+        <v>95.238095238095227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>21769</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="I26" s="12">
+        <v>95.238095238095227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>21770</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="I27" s="12">
+        <v>95.238095238095227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>21846</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="I28" s="12">
+        <v>98.412698412698404</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>22036</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I29" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>23012</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="I30" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>23625</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>1166</v>
+      </c>
+      <c r="I31" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>23854</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>1442</v>
+      </c>
+      <c r="I32" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>26161</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>1424</v>
+      </c>
+      <c r="I33" s="12">
+        <v>90.476190476190482</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>26681</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="I34" s="12">
+        <v>98.412698412698404</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <v>27645</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>1444</v>
+      </c>
+      <c r="I35" s="12">
+        <v>95.238095238095227</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>27735</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>1446</v>
+      </c>
+      <c r="I36" s="12">
+        <v>95.238095238095227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <v>28271</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="12">
+        <v>28271</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="I37" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <v>28531</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>835</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>836</v>
+      </c>
+      <c r="I38" s="12">
+        <v>98.412698412698404</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
+        <v>28606</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>1448</v>
+      </c>
+      <c r="I39" s="12">
+        <v>87.301587301587304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
+        <v>28910</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>1206</v>
+      </c>
+      <c r="I40" s="12">
         <v>100</v>
       </c>
     </row>
@@ -58040,1181 +59202,6 @@
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>613</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>1433</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>1434</v>
-      </c>
-      <c r="I2" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>841</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>1435</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>1436</v>
-      </c>
-      <c r="I3" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>7142</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>1184</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>1185</v>
-      </c>
-      <c r="I4" s="12">
-        <v>98.412698412698404</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>8634</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>1437</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>1438</v>
-      </c>
-      <c r="I5" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>9614</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>1186</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>1187</v>
-      </c>
-      <c r="I6" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>9693</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>937</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>938</v>
-      </c>
-      <c r="I7" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>9754</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>1188</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>1189</v>
-      </c>
-      <c r="I8" s="12">
-        <v>95.238095238095227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
-        <v>11288</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="12">
-        <v>96.825396825396822</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>11289</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" s="12">
-        <v>96.825396825396822</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>11290</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="12">
-        <v>96.825396825396822</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>11291</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" s="12">
-        <v>96.825396825396822</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
-        <v>11292</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I13" s="12">
-        <v>96.825396825396822</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>11293</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I14" s="12">
-        <v>96.825396825396822</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
-        <v>11294</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" s="12">
-        <v>96.825396825396822</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <v>11295</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I16" s="12">
-        <v>96.825396825396822</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>11296</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I17" s="12">
-        <v>96.825396825396822</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
-        <v>15451</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>517</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="I18" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
-        <v>16466</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="I19" s="12">
-        <v>98.412698412698404</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
-        <v>20823</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>1439</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>1440</v>
-      </c>
-      <c r="I20" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
-        <v>21615</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>1192</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>1193</v>
-      </c>
-      <c r="I21" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
-        <v>21765</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="I22" s="12">
-        <v>95.238095238095227</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
-        <v>21766</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="I23" s="12">
-        <v>95.238095238095227</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
-        <v>21767</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="I24" s="12">
-        <v>95.238095238095227</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
-        <v>21768</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="I25" s="12">
-        <v>95.238095238095227</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
-        <v>21769</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="I26" s="12">
-        <v>95.238095238095227</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
-        <v>21770</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="I27" s="12">
-        <v>95.238095238095227</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
-        <v>21846</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="I28" s="12">
-        <v>98.412698412698404</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
-        <v>22036</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>1195</v>
-      </c>
-      <c r="I29" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
-        <v>23012</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="I30" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
-        <v>23625</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>1165</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>1166</v>
-      </c>
-      <c r="I31" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
-        <v>23854</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>1441</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>1442</v>
-      </c>
-      <c r="I32" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="12">
-        <v>26161</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>1423</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>1424</v>
-      </c>
-      <c r="I33" s="12">
-        <v>90.476190476190482</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
-        <v>26681</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="I34" s="12">
-        <v>98.412698412698404</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
-        <v>27645</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>1443</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>1444</v>
-      </c>
-      <c r="I35" s="12">
-        <v>95.238095238095227</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
-        <v>27735</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>1445</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>1446</v>
-      </c>
-      <c r="I36" s="12">
-        <v>95.238095238095227</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="12">
-        <v>28271</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="12">
-        <v>28271</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="I37" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="12">
-        <v>28531</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>835</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>836</v>
-      </c>
-      <c r="I38" s="12">
-        <v>98.412698412698404</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="12">
-        <v>28606</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>1447</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>1448</v>
-      </c>
-      <c r="I39" s="12">
-        <v>87.301587301587304</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="12">
-        <v>28910</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>1205</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>1206</v>
-      </c>
-      <c r="I40" s="12">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -59924,7 +59911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
@@ -60896,7 +60883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
@@ -61375,7 +61362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I48"/>
   <sheetViews>
@@ -62782,7 +62769,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
@@ -63754,7 +63741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
@@ -64787,7 +64774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
@@ -66455,7 +66442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
@@ -67543,7 +67530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
@@ -68972,6 +68959,1413 @@
       </c>
       <c r="I49" s="12">
         <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>210</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="12">
+        <v>210</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="I2" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>3644</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I3" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>4181</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I4" s="12">
+        <v>99.563318777292579</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>6402</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>1128</v>
+      </c>
+      <c r="I5" s="12">
+        <v>99.563318777292579</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>7124</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="I6" s="12">
+        <v>99.126637554585145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>8986</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>1130</v>
+      </c>
+      <c r="I7" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>9053</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>1132</v>
+      </c>
+      <c r="I8" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>10029</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="I9" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>11201</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="I10" s="12">
+        <v>99.563318777292579</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>11332</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>1134</v>
+      </c>
+      <c r="I11" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>11456</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>1239</v>
+      </c>
+      <c r="I12" s="12">
+        <v>99.563318777292579</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>15451</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="I13" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>16466</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="I14" s="12">
+        <v>99.563318777292579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>18115</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>1659</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>1660</v>
+      </c>
+      <c r="I15" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>19220</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>1136</v>
+      </c>
+      <c r="I16" s="12">
+        <v>99.563318777292579</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>20199</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>1661</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>1662</v>
+      </c>
+      <c r="I17" s="12">
+        <v>98.253275109170303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>21618</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="I18" s="12">
+        <v>99.126637554585145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>22029</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="I19" s="12">
+        <v>87.772925764192138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>22030</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="I20" s="12">
+        <v>87.772925764192138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>22031</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="I21" s="12">
+        <v>87.772925764192138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>22032</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="I22" s="12">
+        <v>87.772925764192138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>22033</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="I23" s="12">
+        <v>87.772925764192138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>22034</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="I24" s="12">
+        <v>87.772925764192138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>22917</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I25" s="12">
+        <v>97.379912663755462</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>22995</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="I26" s="12">
+        <v>96.943231441048042</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>23284</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>1664</v>
+      </c>
+      <c r="I27" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>23604</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="I28" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>24410</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="I29" s="12">
+        <v>94.75982532751091</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>25339</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>1665</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>1666</v>
+      </c>
+      <c r="I30" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>25469</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="I31" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>26767</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="I32" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>27638</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="I33" s="12">
+        <v>96.506550218340621</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>27752</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="I34" s="12">
+        <v>98.689956331877724</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <v>27874</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>1138</v>
+      </c>
+      <c r="I35" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>28248</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="I36" s="12">
+        <v>91.703056768558952</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <v>28249</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="I37" s="12">
+        <v>91.703056768558952</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <v>28250</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="I38" s="12">
+        <v>91.703056768558952</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
+        <v>28251</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="I39" s="12">
+        <v>91.703056768558952</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
+        <v>28252</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="I40" s="12">
+        <v>91.703056768558952</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12">
+        <v>28253</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="I41" s="12">
+        <v>91.703056768558952</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="12">
+        <v>28273</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="12">
+        <v>28273</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I42" s="12">
+        <v>91.703056768558952</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="12">
+        <v>28461</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="I43" s="12">
+        <v>98.253275109170303</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="12">
+        <v>28881</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="I44" s="12">
+        <v>92.576419213973807</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="12">
+        <v>28916</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>863</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="I45" s="12">
+        <v>90.829694323144111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="12">
+        <v>29050</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>1241</v>
+      </c>
+      <c r="I46" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="12">
+        <v>29402</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="I47" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="12">
+        <v>29509</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I48" s="12">
+        <v>99.563318777292579</v>
       </c>
     </row>
   </sheetData>
@@ -69956,1413 +71350,6 @@
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I48"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>210</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="E2" s="12">
-        <v>210</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="I2" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>3644</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>1657</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>1658</v>
-      </c>
-      <c r="I3" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>4181</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>1126</v>
-      </c>
-      <c r="I4" s="12">
-        <v>99.563318777292579</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>6402</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>1127</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>1128</v>
-      </c>
-      <c r="I5" s="12">
-        <v>99.563318777292579</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>7124</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>555</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>556</v>
-      </c>
-      <c r="I6" s="12">
-        <v>99.126637554585145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>8986</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>1129</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>1130</v>
-      </c>
-      <c r="I7" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>9053</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>1131</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>1132</v>
-      </c>
-      <c r="I8" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
-        <v>10029</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="I9" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>11201</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="I10" s="12">
-        <v>99.563318777292579</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>11332</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>1134</v>
-      </c>
-      <c r="I11" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>11456</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>1238</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>1239</v>
-      </c>
-      <c r="I12" s="12">
-        <v>99.563318777292579</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
-        <v>15451</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>517</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="I13" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>16466</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="I14" s="12">
-        <v>99.563318777292579</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
-        <v>18115</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>1659</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>1660</v>
-      </c>
-      <c r="I15" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <v>19220</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>1135</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>1136</v>
-      </c>
-      <c r="I16" s="12">
-        <v>99.563318777292579</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>20199</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>1661</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>1662</v>
-      </c>
-      <c r="I17" s="12">
-        <v>98.253275109170303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
-        <v>21618</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="I18" s="12">
-        <v>99.126637554585145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
-        <v>22029</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="I19" s="12">
-        <v>87.772925764192138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
-        <v>22030</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="I20" s="12">
-        <v>87.772925764192138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
-        <v>22031</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="I21" s="12">
-        <v>87.772925764192138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
-        <v>22032</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="I22" s="12">
-        <v>87.772925764192138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
-        <v>22033</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="I23" s="12">
-        <v>87.772925764192138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
-        <v>22034</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="I24" s="12">
-        <v>87.772925764192138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
-        <v>22917</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="I25" s="12">
-        <v>97.379912663755462</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
-        <v>22995</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="I26" s="12">
-        <v>96.943231441048042</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
-        <v>23284</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>1663</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>1664</v>
-      </c>
-      <c r="I27" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
-        <v>23604</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="I28" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
-        <v>24410</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="I29" s="12">
-        <v>94.75982532751091</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
-        <v>25339</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>1665</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>1666</v>
-      </c>
-      <c r="I30" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
-        <v>25469</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="I31" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
-        <v>26767</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="I32" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="12">
-        <v>27638</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="I33" s="12">
-        <v>96.506550218340621</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
-        <v>27752</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>509</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="I34" s="12">
-        <v>98.689956331877724</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
-        <v>27874</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>1137</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>1138</v>
-      </c>
-      <c r="I35" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
-        <v>28248</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="I36" s="12">
-        <v>91.703056768558952</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12">
-        <v>28249</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="I37" s="12">
-        <v>91.703056768558952</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12">
-        <v>28250</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="I38" s="12">
-        <v>91.703056768558952</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12">
-        <v>28251</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="I39" s="12">
-        <v>91.703056768558952</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12">
-        <v>28252</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="I40" s="12">
-        <v>91.703056768558952</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12">
-        <v>28253</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="I41" s="12">
-        <v>91.703056768558952</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="12">
-        <v>28273</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E42" s="12">
-        <v>28273</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="I42" s="12">
-        <v>91.703056768558952</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="12">
-        <v>28461</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>508</v>
-      </c>
-      <c r="I43" s="12">
-        <v>98.253275109170303</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="12">
-        <v>28881</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="I44" s="12">
-        <v>92.576419213973807</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="12">
-        <v>28916</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>863</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>864</v>
-      </c>
-      <c r="I45" s="12">
-        <v>90.829694323144111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="12">
-        <v>29050</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>1240</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>1241</v>
-      </c>
-      <c r="I46" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="12">
-        <v>29402</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>485</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="I47" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="12">
-        <v>29509</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>1242</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>1243</v>
-      </c>
-      <c r="I48" s="12">
-        <v>99.563318777292579</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -72333,7 +72320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
@@ -73682,7 +73669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
@@ -74654,12 +74641,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/mutationsTable.xlsx
+++ b/mutationsTable.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\covid19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="846" firstSheet="55" activeTab="55"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="846" firstSheet="57" activeTab="77"/>
   </bookViews>
   <sheets>
     <sheet name="B.1.1.7" sheetId="13" r:id="rId1"/>
@@ -85,7 +85,15 @@
     <sheet name="PDI166" sheetId="79" r:id="rId71"/>
     <sheet name="PDI167" sheetId="80" r:id="rId72"/>
     <sheet name="A.2.5.1" sheetId="81" r:id="rId73"/>
+    <sheet name="PDI195-1" sheetId="82" r:id="rId74"/>
+    <sheet name="B.1.617.1-a" sheetId="83" r:id="rId75"/>
+    <sheet name="R.1" sheetId="85" r:id="rId76"/>
+    <sheet name="B.1.466.2" sheetId="86" r:id="rId77"/>
+    <sheet name="B.1.1.528" sheetId="88" r:id="rId78"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'B.1.617.2-d'!$A$1:$I$41</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -96,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16818" uniqueCount="1734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17624" uniqueCount="1827">
   <si>
     <t>Position</t>
   </si>
@@ -5298,6 +5306,285 @@
   </si>
   <si>
     <t>N:P383L</t>
+  </si>
+  <si>
+    <t>S288G</t>
+  </si>
+  <si>
+    <t>NSP3:S288G</t>
+  </si>
+  <si>
+    <t>A161A</t>
+  </si>
+  <si>
+    <t>NSP6:A161A</t>
+  </si>
+  <si>
+    <t>N189N</t>
+  </si>
+  <si>
+    <t>NSP12b:N189N</t>
+  </si>
+  <si>
+    <t>P402S</t>
+  </si>
+  <si>
+    <t>NSP13:P402S</t>
+  </si>
+  <si>
+    <t>D132D</t>
+  </si>
+  <si>
+    <t>NSP15:D132D</t>
+  </si>
+  <si>
+    <t>H174H</t>
+  </si>
+  <si>
+    <t>NSP16:H174H</t>
+  </si>
+  <si>
+    <t>G142C</t>
+  </si>
+  <si>
+    <t>S:G142C</t>
+  </si>
+  <si>
+    <t>L390L</t>
+  </si>
+  <si>
+    <t>S:L390L</t>
+  </si>
+  <si>
+    <t>L455F</t>
+  </si>
+  <si>
+    <t>S:L455F</t>
+  </si>
+  <si>
+    <t>28273</t>
+  </si>
+  <si>
+    <t>N11N</t>
+  </si>
+  <si>
+    <t>N:N11N</t>
+  </si>
+  <si>
+    <t>D144Y</t>
+  </si>
+  <si>
+    <t>N:D144Y</t>
+  </si>
+  <si>
+    <t>S206A</t>
+  </si>
+  <si>
+    <t>N:S206A</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>G206C</t>
+  </si>
+  <si>
+    <t>NSP13:G206C</t>
+  </si>
+  <si>
+    <t>S261A</t>
+  </si>
+  <si>
+    <t>NSP15:S261A</t>
+  </si>
+  <si>
+    <t>29742</t>
+  </si>
+  <si>
+    <t>refpos</t>
+  </si>
+  <si>
+    <t>refvar</t>
+  </si>
+  <si>
+    <t>qvar</t>
+  </si>
+  <si>
+    <t>varclass</t>
+  </si>
+  <si>
+    <t>N291N</t>
+  </si>
+  <si>
+    <t>NSP12b:N291N</t>
+  </si>
+  <si>
+    <t>G439R</t>
+  </si>
+  <si>
+    <t>NSP13:G439R</t>
+  </si>
+  <si>
+    <t>K376K</t>
+  </si>
+  <si>
+    <t>NSP14:K376K</t>
+  </si>
+  <si>
+    <t>P412H</t>
+  </si>
+  <si>
+    <t>NSP14:P412H</t>
+  </si>
+  <si>
+    <t>W152L</t>
+  </si>
+  <si>
+    <t>S:W152L</t>
+  </si>
+  <si>
+    <t>G769V</t>
+  </si>
+  <si>
+    <t>S:G769V</t>
+  </si>
+  <si>
+    <t>F28L</t>
+  </si>
+  <si>
+    <t>M:F28L</t>
+  </si>
+  <si>
+    <t>L4L</t>
+  </si>
+  <si>
+    <t>ORF6:L4L</t>
+  </si>
+  <si>
+    <t>Q418H</t>
+  </si>
+  <si>
+    <t>N:Q418H</t>
+  </si>
+  <si>
+    <t>D139D</t>
+  </si>
+  <si>
+    <t>NSP1:D139D</t>
+  </si>
+  <si>
+    <t>T350I</t>
+  </si>
+  <si>
+    <t>NSP3:T350I</t>
+  </si>
+  <si>
+    <t>L75F</t>
+  </si>
+  <si>
+    <t>NSP6:L75F</t>
+  </si>
+  <si>
+    <t>S259L</t>
+  </si>
+  <si>
+    <t>NSP13:S259L</t>
+  </si>
+  <si>
+    <t>G219G</t>
+  </si>
+  <si>
+    <t>S:G219G</t>
+  </si>
+  <si>
+    <t>29718</t>
+  </si>
+  <si>
+    <t>3'UTR:29718</t>
+  </si>
+  <si>
+    <t>29743</t>
+  </si>
+  <si>
+    <t>3'UTR:29743</t>
+  </si>
+  <si>
+    <t>29834</t>
+  </si>
+  <si>
+    <t>3'UTR:29834</t>
+  </si>
+  <si>
+    <t>E89E</t>
+  </si>
+  <si>
+    <t>NSP2:E89E</t>
+  </si>
+  <si>
+    <t>T215I</t>
+  </si>
+  <si>
+    <t>NSP2:T215I</t>
+  </si>
+  <si>
+    <t>S430L</t>
+  </si>
+  <si>
+    <t>NSP2:S430L</t>
+  </si>
+  <si>
+    <t>Q383H</t>
+  </si>
+  <si>
+    <t>NSP3:Q383H</t>
+  </si>
+  <si>
+    <t>M324I</t>
+  </si>
+  <si>
+    <t>NSP4:M324I</t>
+  </si>
+  <si>
+    <t>L239F</t>
+  </si>
+  <si>
+    <t>NSP6:L239F</t>
+  </si>
+  <si>
+    <t>N407N</t>
+  </si>
+  <si>
+    <t>NSP12b:N407N</t>
+  </si>
+  <si>
+    <t>G206V</t>
+  </si>
+  <si>
+    <t>NSP13:G206V</t>
+  </si>
+  <si>
+    <t>P42H</t>
+  </si>
+  <si>
+    <t>ORF3a:P42H</t>
+  </si>
+  <si>
+    <t>I32I</t>
+  </si>
+  <si>
+    <t>ORF6:I32I</t>
+  </si>
+  <si>
+    <t>N213I</t>
+  </si>
+  <si>
+    <t>N:N213I</t>
+  </si>
+  <si>
+    <t>P344S</t>
+  </si>
+  <si>
+    <t>N:P344S</t>
   </si>
 </sst>
 </file>
@@ -16244,10 +16531,13 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
@@ -20649,564 +20939,586 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="12">
         <v>210</v>
       </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="E2">
-        <v>210</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="12" t="s">
+        <v>1759</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="I2" s="1">
-        <v>100</v>
+      <c r="I2" s="12">
+        <v>97.416974169741692</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="12">
         <v>835</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="12" t="s">
         <v>531</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="I3" s="1">
-        <v>98.333333333333329</v>
+      <c r="I3" s="12">
+        <v>98.892988929889299</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="12">
         <v>7296</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="12" t="s">
         <v>524</v>
       </c>
-      <c r="I4" s="1">
-        <v>100</v>
+      <c r="I4" s="12">
+        <v>88.191881918819192</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="12">
         <v>8208</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="12" t="s">
         <v>526</v>
       </c>
-      <c r="I5" s="1">
-        <v>100</v>
+      <c r="I5" s="12">
+        <v>99.261992619926204</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="12">
         <v>10634</v>
       </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="F6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="I6" s="1">
-        <v>96.666666666666671</v>
+      <c r="I6" s="12">
+        <v>98.154981549815503</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="12">
         <v>11322</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="12" t="s">
         <v>533</v>
       </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="I7" s="1">
-        <v>98.333333333333329</v>
+      <c r="I7" s="12">
+        <v>92.250922509225092</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="12">
         <v>16293</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="12" t="s">
         <v>522</v>
       </c>
-      <c r="I8" s="1">
-        <v>100</v>
+      <c r="I8" s="12">
+        <v>97.785977859778598</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="12">
         <v>21618</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="B9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="F9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="I9" s="1">
-        <v>98.333333333333329</v>
+      <c r="I9" s="12">
+        <v>96.309963099630991</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="12">
         <v>22917</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="B10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="F10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="I10" s="1">
-        <v>100</v>
+      <c r="I10" s="12">
+        <v>91.881918819188186</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="12">
         <v>23012</v>
       </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="B11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="F11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="I11" s="1">
-        <v>100</v>
+      <c r="I11" s="12">
+        <v>92.988929889298888</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="12">
         <v>23604</v>
       </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="B12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="F12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="I12" s="1">
-        <v>100</v>
+      <c r="I12" s="12">
+        <v>99.630996309963109</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="12">
+        <v>24410</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="I13" s="12">
+        <v>69.741697416974162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
         <v>27384</v>
       </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H14" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="I13" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="I14" s="12">
+        <v>96.309963099630991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
         <v>27638</v>
       </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="F15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H15" s="12" t="s">
         <v>483</v>
       </c>
-      <c r="I14" s="1">
-        <v>98.333333333333329</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="I15" s="12">
+        <v>87.822878228782287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
         <v>27970</v>
       </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="B16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H16" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="I15" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="I16" s="12">
+        <v>97.785977859778598</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
         <v>28472</v>
       </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="F17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H17" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="I16" s="1">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="I17" s="12">
+        <v>97.785977859778598</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
         <v>28881</v>
       </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="B18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="F18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H18" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="I17" s="1">
-        <v>96.666666666666671</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="I18" s="12">
+        <v>93.357933579335793</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
         <v>29402</v>
       </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="B19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="F19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H19" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="I18" s="1">
-        <v>98.333333333333329</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="I19" s="12">
+        <v>89.298892988929893</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
         <v>29742</v>
       </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E19">
-        <v>29742</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="E20" s="12" t="s">
+        <v>1764</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G19" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="G20" s="12"/>
+      <c r="H20" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="I19" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I20" s="1"/>
+      <c r="I20" s="12">
+        <v>91.14391143911439</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I21" s="1"/>
@@ -24304,10 +24616,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25185,102 +25497,102 @@
         <v>95.466321239999999</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>28268</v>
-      </c>
-      <c r="B31" t="s">
-        <v>723</v>
-      </c>
-      <c r="C31" t="s">
-        <v>673</v>
-      </c>
-      <c r="D31" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31">
-        <v>28268</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31" t="s">
-        <v>50</v>
-      </c>
-      <c r="H31" t="s">
-        <v>674</v>
-      </c>
-      <c r="I31">
-        <v>76.165803109999999</v>
+    <row r="31" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>28167</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="I31" s="12">
+        <v>98.841698841698843</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>28512</v>
+        <v>28268</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>723</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>673</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" t="s">
-        <v>675</v>
-      </c>
-      <c r="F32" t="s">
-        <v>13</v>
+        <v>48</v>
+      </c>
+      <c r="E32">
+        <v>28268</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="G32" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="H32" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="I32">
-        <v>96.243523319999994</v>
+        <v>76.165803109999999</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>28877</v>
+        <v>28512</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D33" t="s">
         <v>19</v>
       </c>
       <c r="E33" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
         <v>22</v>
       </c>
       <c r="H33" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I33">
-        <v>93.393782380000005</v>
+        <v>96.243523319999994</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>28878</v>
+        <v>28877</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
         <v>19</v>
@@ -25299,6 +25611,62 @@
       </c>
       <c r="I34">
         <v>93.393782380000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>28878</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" t="s">
+        <v>677</v>
+      </c>
+      <c r="F35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" t="s">
+        <v>678</v>
+      </c>
+      <c r="I35">
+        <v>93.393782380000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>29834</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12" t="s">
+        <v>1802</v>
+      </c>
+      <c r="I36" s="12">
+        <v>79.729729729729726</v>
       </c>
     </row>
   </sheetData>
@@ -39742,11 +40110,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
@@ -54399,7 +54772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
@@ -75729,6 +76102,3315 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>3581</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>1734</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>1735</v>
+      </c>
+      <c r="I2" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>11455</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I3" s="12">
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>14034</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>1738</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>1739</v>
+      </c>
+      <c r="I4" s="12">
+        <v>95.833333333333343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>17014</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I5" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>17440</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>1740</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>1741</v>
+      </c>
+      <c r="I6" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>20016</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>1742</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>1743</v>
+      </c>
+      <c r="I7" s="12">
+        <v>95.833333333333343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>21180</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>1744</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>1745</v>
+      </c>
+      <c r="I8" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>21600</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="I9" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>21986</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>1746</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>1747</v>
+      </c>
+      <c r="I10" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>21991</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="12">
+        <v>95.833333333333343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>21992</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="12">
+        <v>95.833333333333343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>21993</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="12">
+        <v>95.833333333333343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>22599</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>923</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>924</v>
+      </c>
+      <c r="I14" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>22732</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>1749</v>
+      </c>
+      <c r="I15" s="12">
+        <v>95.833333333333343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>22917</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>22927</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>1750</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>1751</v>
+      </c>
+      <c r="I17" s="12">
+        <v>95.833333333333343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>23063</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="I18" s="12">
+        <v>91.666666666666657</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>26681</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="I19" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>28273</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>1752</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20" s="12">
+        <v>95.833333333333343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>28306</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>1753</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>1754</v>
+      </c>
+      <c r="I21" s="12">
+        <v>95.833333333333343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>28703</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>1756</v>
+      </c>
+      <c r="I22" s="12">
+        <v>95.833333333333343</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>28889</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>1757</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>1758</v>
+      </c>
+      <c r="I23" s="12">
+        <v>95.833333333333343</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>210</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>1759</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="I2" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>3457</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="I3" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>4965</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="I4" s="12">
+        <v>99.727520435967293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>11201</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="I5" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>16852</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>1760</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>1761</v>
+      </c>
+      <c r="I6" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>17523</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="I7" s="12">
+        <v>99.182561307901906</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>20396</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="I8" s="12">
+        <v>99.455040871934614</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>20401</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>1762</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>1763</v>
+      </c>
+      <c r="I9" s="12">
+        <v>99.182561307901906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>21846</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="I10" s="12">
+        <v>91.553133514986371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>21895</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="I11" s="12">
+        <v>92.370572207084464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>21987</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="I12" s="12">
+        <v>73.297002724795647</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>22022</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="I13" s="12">
+        <v>66.485013623978205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>22917</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="12">
+        <v>99.727520435967293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>23012</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="I15" s="12">
+        <v>99.727520435967293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>23604</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="I16" s="12">
+        <v>98.910081743869199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>24775</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="I17" s="12">
+        <v>83.651226158038156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>25469</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="I18" s="12">
+        <v>99.455040871934614</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>26681</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="I19" s="12">
+        <v>99.182561307901906</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>26767</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>983</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>984</v>
+      </c>
+      <c r="I20" s="12">
+        <v>99.182561307901906</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>27638</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="I21" s="12">
+        <v>99.727520435967293</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>28273</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>1752</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="12">
+        <v>81.198910081743875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>28881</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="I23" s="12">
+        <v>99.727520435967293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>29402</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="I24" s="12">
+        <v>99.182561307901906</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>29742</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>1764</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I25" s="12">
+        <v>98.365122615803813</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>14340</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>1769</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>1770</v>
+      </c>
+      <c r="I2" s="12">
+        <v>99.831932773109244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>17551</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>1771</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I3" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>18877</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>772</v>
+      </c>
+      <c r="I4" s="12">
+        <v>99.831932773109244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>19167</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>1774</v>
+      </c>
+      <c r="I5" s="12">
+        <v>98.991596638655466</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>19274</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>1776</v>
+      </c>
+      <c r="I6" s="12">
+        <v>99.663865546218489</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>19839</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="I7" s="12">
+        <v>99.831932773109244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>22017</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>1778</v>
+      </c>
+      <c r="I8" s="12">
+        <v>98.991596638655466</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>23012</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="I9" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>23868</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>1779</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>1780</v>
+      </c>
+      <c r="I10" s="12">
+        <v>99.663865546218489</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>26604</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>1781</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>1782</v>
+      </c>
+      <c r="I11" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>27213</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>1783</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>1784</v>
+      </c>
+      <c r="I12" s="12">
+        <v>99.327731092436977</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>28273</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>1752</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="12">
+        <v>91.428571428571431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>28833</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>1231</v>
+      </c>
+      <c r="I14" s="12">
+        <v>99.831932773109244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>29527</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>1785</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>1786</v>
+      </c>
+      <c r="I15" s="12">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>683</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>1787</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>1788</v>
+      </c>
+      <c r="I2" s="12">
+        <v>85.941644562334218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>3096</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="I3" s="12">
+        <v>85.411140583554385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>3768</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>1789</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>1790</v>
+      </c>
+      <c r="I4" s="12">
+        <v>98.408488063660485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>5184</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="I5" s="12">
+        <v>98.673740053050395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>11195</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>1791</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>1792</v>
+      </c>
+      <c r="I6" s="12">
+        <v>77.984084880636601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>12880</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>941</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>942</v>
+      </c>
+      <c r="I7" s="12">
+        <v>86.472148541114052</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>17012</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>1793</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>1794</v>
+      </c>
+      <c r="I8" s="12">
+        <v>85.145888594164461</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>18877</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>772</v>
+      </c>
+      <c r="I9" s="12">
+        <v>99.469496021220166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>22219</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>1795</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>1796</v>
+      </c>
+      <c r="I10" s="12">
+        <v>84.880636604774537</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>22879</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>855</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="I11" s="12">
+        <v>98.143236074270561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>23604</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="I12" s="12">
+        <v>85.411140583554385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>25563</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="12">
+        <v>98.938992042440319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>26735</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>1634</v>
+      </c>
+      <c r="I14" s="12">
+        <v>99.204244031830228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>28887</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="12">
+        <v>99.469496021220166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>29718</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>1797</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="I16" s="12">
+        <v>84.615384615384613</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>29743</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12" t="s">
+        <v>1800</v>
+      </c>
+      <c r="I17" s="12">
+        <v>82.49336870026525</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1072</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>1803</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>1804</v>
+      </c>
+      <c r="I2" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>1449</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>1805</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>1806</v>
+      </c>
+      <c r="I3" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>2094</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>1808</v>
+      </c>
+      <c r="I4" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>3868</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>1809</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>1810</v>
+      </c>
+      <c r="I5" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>9526</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>1812</v>
+      </c>
+      <c r="I6" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>9756</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>1152</v>
+      </c>
+      <c r="I7" s="13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>11288</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>11289</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>11290</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>11291</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>11292</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>11293</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>11294</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>11295</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>11296</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>11687</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>1814</v>
+      </c>
+      <c r="I17" s="13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>14688</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>1815</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>1816</v>
+      </c>
+      <c r="I18" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>16853</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>1818</v>
+      </c>
+      <c r="I19" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>21974</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="I20" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>22912</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>23604</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="I22" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>25517</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>1819</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>1820</v>
+      </c>
+      <c r="I23" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>26767</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="I24" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>27297</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>1821</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>1822</v>
+      </c>
+      <c r="I25" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>28271</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="12">
+        <v>28271</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="I26" s="13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>28378</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="I27" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>28727</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>861</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>862</v>
+      </c>
+      <c r="I28" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>28877</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="I29" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>28878</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="I30" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>28911</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>1823</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>1824</v>
+      </c>
+      <c r="I31" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>29303</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>1825</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>1826</v>
+      </c>
+      <c r="I32" s="13">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>

--- a/mutationsTable.xlsx
+++ b/mutationsTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="846" firstSheet="57" activeTab="77"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="846" firstSheet="57" activeTab="68"/>
   </bookViews>
   <sheets>
     <sheet name="B.1.1.7" sheetId="13" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17624" uniqueCount="1827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17624" uniqueCount="1823">
   <si>
     <t>Position</t>
   </si>
@@ -5399,18 +5399,6 @@
   </si>
   <si>
     <t>29742</t>
-  </si>
-  <si>
-    <t>refpos</t>
-  </si>
-  <si>
-    <t>refvar</t>
-  </si>
-  <si>
-    <t>qvar</t>
-  </si>
-  <si>
-    <t>varclass</t>
   </si>
   <si>
     <t>N291N</t>
@@ -25656,14 +25644,14 @@
         <v>48</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>1801</v>
+        <v>1797</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>49</v>
       </c>
       <c r="G36" s="12"/>
       <c r="H36" s="12" t="s">
-        <v>1802</v>
+        <v>1798</v>
       </c>
       <c r="I36" s="12">
         <v>79.729729729729726</v>
@@ -69343,7 +69331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -72697,7 +72685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
@@ -76787,7 +76775,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -77521,20 +77509,20 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>1765</v>
+        <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>1766</v>
+        <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>1767</v>
+        <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>3</v>
@@ -77543,7 +77531,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>1768</v>
+        <v>5</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>6</v>
@@ -77569,7 +77557,7 @@
         <v>39</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>21</v>
@@ -77578,7 +77566,7 @@
         <v>41</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="I2" s="12">
         <v>99.831932773109244</v>
@@ -77598,7 +77586,7 @@
         <v>175</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>13</v>
@@ -77607,7 +77595,7 @@
         <v>177</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
       <c r="I3" s="12">
         <v>100</v>
@@ -77656,7 +77644,7 @@
         <v>116</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>21</v>
@@ -77665,7 +77653,7 @@
         <v>118</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
       <c r="I5" s="12">
         <v>98.991596638655466</v>
@@ -77685,7 +77673,7 @@
         <v>116</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>13</v>
@@ -77694,7 +77682,7 @@
         <v>118</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
       <c r="I6" s="12">
         <v>99.663865546218489</v>
@@ -77743,7 +77731,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>13</v>
@@ -77752,7 +77740,7 @@
         <v>14</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>1778</v>
+        <v>1774</v>
       </c>
       <c r="I8" s="12">
         <v>98.991596638655466</v>
@@ -77801,7 +77789,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>1779</v>
+        <v>1775</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>13</v>
@@ -77810,7 +77798,7 @@
         <v>14</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
       <c r="I10" s="12">
         <v>99.663865546218489</v>
@@ -77830,7 +77818,7 @@
         <v>102</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>1781</v>
+        <v>1777</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>13</v>
@@ -77839,7 +77827,7 @@
         <v>104</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>1782</v>
+        <v>1778</v>
       </c>
       <c r="I11" s="12">
         <v>100</v>
@@ -77859,7 +77847,7 @@
         <v>146</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>1783</v>
+        <v>1779</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>21</v>
@@ -77868,7 +77856,7 @@
         <v>149</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>1784</v>
+        <v>1780</v>
       </c>
       <c r="I12" s="12">
         <v>99.327731092436977</v>
@@ -77944,7 +77932,7 @@
         <v>19</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>1785</v>
+        <v>1781</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>13</v>
@@ -77953,7 +77941,7 @@
         <v>22</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>1786</v>
+        <v>1782</v>
       </c>
       <c r="I15" s="12">
         <v>100</v>
@@ -77969,20 +77957,20 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>1765</v>
+        <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>1766</v>
+        <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>1767</v>
+        <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>3</v>
@@ -77991,7 +77979,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>1768</v>
+        <v>5</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>6</v>
@@ -78017,7 +78005,7 @@
         <v>339</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>1787</v>
+        <v>1783</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>21</v>
@@ -78026,7 +78014,7 @@
         <v>341</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>1788</v>
+        <v>1784</v>
       </c>
       <c r="I2" s="12">
         <v>85.941644562334218</v>
@@ -78075,7 +78063,7 @@
         <v>35</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>1789</v>
+        <v>1785</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>13</v>
@@ -78084,7 +78072,7 @@
         <v>37</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>1790</v>
+        <v>1786</v>
       </c>
       <c r="I4" s="12">
         <v>98.408488063660485</v>
@@ -78133,7 +78121,7 @@
         <v>75</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>1791</v>
+        <v>1787</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>13</v>
@@ -78142,7 +78130,7 @@
         <v>67</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>1792</v>
+        <v>1788</v>
       </c>
       <c r="I6" s="12">
         <v>77.984084880636601</v>
@@ -78191,7 +78179,7 @@
         <v>175</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>1793</v>
+        <v>1789</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>13</v>
@@ -78200,7 +78188,7 @@
         <v>177</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>1794</v>
+        <v>1790</v>
       </c>
       <c r="I8" s="12">
         <v>85.145888594164461</v>
@@ -78249,7 +78237,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>1795</v>
+        <v>1791</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>21</v>
@@ -78258,7 +78246,7 @@
         <v>14</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>1796</v>
+        <v>1792</v>
       </c>
       <c r="I10" s="12">
         <v>84.880636604774537</v>
@@ -78423,14 +78411,14 @@
         <v>48</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>1797</v>
+        <v>1793</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>49</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12" t="s">
-        <v>1798</v>
+        <v>1794</v>
       </c>
       <c r="I16" s="12">
         <v>84.615384615384613</v>
@@ -78450,14 +78438,14 @@
         <v>48</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>49</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12" t="s">
-        <v>1800</v>
+        <v>1796</v>
       </c>
       <c r="I17" s="12">
         <v>82.49336870026525</v>
@@ -78472,8 +78460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -78521,7 +78509,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>1803</v>
+        <v>1799</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>21</v>
@@ -78530,7 +78518,7 @@
         <v>58</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>1804</v>
+        <v>1800</v>
       </c>
       <c r="I2" s="13">
         <v>100</v>
@@ -78550,7 +78538,7 @@
         <v>57</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>1805</v>
+        <v>1801</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>13</v>
@@ -78559,7 +78547,7 @@
         <v>58</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
       <c r="I3" s="13">
         <v>100</v>
@@ -78579,7 +78567,7 @@
         <v>57</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>13</v>
@@ -78588,7 +78576,7 @@
         <v>58</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
       <c r="I4" s="13">
         <v>100</v>
@@ -78608,7 +78596,7 @@
         <v>35</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>1809</v>
+        <v>1805</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>13</v>
@@ -78617,7 +78605,7 @@
         <v>37</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
       <c r="I5" s="13">
         <v>100</v>
@@ -78637,7 +78625,7 @@
         <v>65</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>1811</v>
+        <v>1807</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>13</v>
@@ -78646,7 +78634,7 @@
         <v>67</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>1812</v>
+        <v>1808</v>
       </c>
       <c r="I6" s="13">
         <v>100</v>
@@ -78956,7 +78944,7 @@
         <v>75</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>1813</v>
+        <v>1809</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>13</v>
@@ -78965,7 +78953,7 @@
         <v>67</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="I17" s="13">
         <v>75</v>
@@ -78985,7 +78973,7 @@
         <v>39</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>1815</v>
+        <v>1811</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>21</v>
@@ -78994,7 +78982,7 @@
         <v>41</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>1816</v>
+        <v>1812</v>
       </c>
       <c r="I18" s="13">
         <v>100</v>
@@ -79014,7 +79002,7 @@
         <v>175</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>1817</v>
+        <v>1813</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>13</v>
@@ -79023,7 +79011,7 @@
         <v>177</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>1818</v>
+        <v>1814</v>
       </c>
       <c r="I19" s="13">
         <v>100</v>
@@ -79130,7 +79118,7 @@
         <v>43</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>1819</v>
+        <v>1815</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>13</v>
@@ -79139,7 +79127,7 @@
         <v>46</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>1820</v>
+        <v>1816</v>
       </c>
       <c r="I23" s="13">
         <v>100</v>
@@ -79188,7 +79176,7 @@
         <v>146</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>1821</v>
+        <v>1817</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>21</v>
@@ -79197,7 +79185,7 @@
         <v>149</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>1822</v>
+        <v>1818</v>
       </c>
       <c r="I25" s="13">
         <v>100</v>
@@ -79362,7 +79350,7 @@
         <v>19</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>13</v>
@@ -79371,7 +79359,7 @@
         <v>22</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>1824</v>
+        <v>1820</v>
       </c>
       <c r="I31" s="13">
         <v>100</v>
@@ -79391,7 +79379,7 @@
         <v>19</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>1825</v>
+        <v>1821</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>13</v>
@@ -79400,7 +79388,7 @@
         <v>22</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>1826</v>
+        <v>1822</v>
       </c>
       <c r="I32" s="13">
         <v>95</v>

--- a/mutationsTable.xlsx
+++ b/mutationsTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="846" firstSheet="57" activeTab="68"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="846" firstSheet="58" activeTab="79"/>
   </bookViews>
   <sheets>
     <sheet name="B.1.1.7" sheetId="13" r:id="rId1"/>
@@ -90,6 +90,8 @@
     <sheet name="R.1" sheetId="85" r:id="rId76"/>
     <sheet name="B.1.466.2" sheetId="86" r:id="rId77"/>
     <sheet name="B.1.1.528" sheetId="88" r:id="rId78"/>
+    <sheet name="P.1.8" sheetId="89" r:id="rId79"/>
+    <sheet name="AY.23" sheetId="90" r:id="rId80"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'B.1.617.2-d'!$A$1:$I$41</definedName>
@@ -104,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17624" uniqueCount="1823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18248" uniqueCount="1842">
   <si>
     <t>Position</t>
   </si>
@@ -5573,6 +5575,63 @@
   </si>
   <si>
     <t>N:P344S</t>
+  </si>
+  <si>
+    <t>P109P</t>
+  </si>
+  <si>
+    <t>NSP1:P109P</t>
+  </si>
+  <si>
+    <t>I441V</t>
+  </si>
+  <si>
+    <t>NSP3:I441V</t>
+  </si>
+  <si>
+    <t>E145E</t>
+  </si>
+  <si>
+    <t>NSP15:E145E</t>
+  </si>
+  <si>
+    <t>T470N</t>
+  </si>
+  <si>
+    <t>S:T470N</t>
+  </si>
+  <si>
+    <t>S216L</t>
+  </si>
+  <si>
+    <t>ORF3a:S216L</t>
+  </si>
+  <si>
+    <t>G8*</t>
+  </si>
+  <si>
+    <t>ORF8:G8*</t>
+  </si>
+  <si>
+    <t>insertion_extragenic</t>
+  </si>
+  <si>
+    <t>P200L</t>
+  </si>
+  <si>
+    <t>NSP2:P200L</t>
+  </si>
+  <si>
+    <t>T678I</t>
+  </si>
+  <si>
+    <t>NSP3:T678I</t>
+  </si>
+  <si>
+    <t>V1264L</t>
+  </si>
+  <si>
+    <t>S:V1264L</t>
   </si>
 </sst>
 </file>
@@ -63135,7 +63194,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -69331,7 +69390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -77957,7 +78016,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -79392,6 +79451,1322 @@
       </c>
       <c r="I32" s="13">
         <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>592</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>1823</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>1824</v>
+      </c>
+      <c r="I2" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>733</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="I3" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>2749</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="I4" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>3828</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="I5" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>4040</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>1825</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>1826</v>
+      </c>
+      <c r="I6" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>5648</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="I7" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>6319</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="I8" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>6613</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="I9" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>9891</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>11288</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>11289</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>11290</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>11291</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>11292</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>11293</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>11294</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>11295</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>11296</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>12778</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="I20" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>13860</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="I21" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>17259</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="I22" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>20055</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>1827</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>1828</v>
+      </c>
+      <c r="I23" s="12">
+        <v>98.850999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>21614</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="I24" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>21621</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="I25" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>21638</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="I26" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>21974</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="I27" s="12">
+        <v>97.700999999999993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>22132</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="I28" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>22812</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>669</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>670</v>
+      </c>
+      <c r="I29" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>22971</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>1829</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>1830</v>
+      </c>
+      <c r="I30" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>23012</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="I31" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>23063</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="I32" s="12">
+        <v>98.850999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>23525</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="I33" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>23604</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="I34" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <v>24642</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="I35" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>25266</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>1229</v>
+      </c>
+      <c r="I36" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <v>26039</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>1831</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>1832</v>
+      </c>
+      <c r="I37" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <v>26149</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>671</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>672</v>
+      </c>
+      <c r="I38" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
+        <v>27915</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>1833</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>1834</v>
+      </c>
+      <c r="I39" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
+        <v>28167</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="I40" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="12">
+        <v>28268</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>673</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="12">
+        <v>28268</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>1835</v>
+      </c>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="I41" s="12">
+        <v>98.850999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="12">
+        <v>28512</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>675</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>676</v>
+      </c>
+      <c r="I42" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="12">
+        <v>28877</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="I43" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="12">
+        <v>28878</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="I44" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="12">
+        <v>29834</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="12">
+        <v>29834</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="I45" s="12">
+        <v>74.712999999999994</v>
       </c>
     </row>
   </sheetData>
@@ -79765,6 +81140,1320 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>210</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="12">
+        <v>210</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="I2" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>1404</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>1836</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>1837</v>
+      </c>
+      <c r="I3" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>4181</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I4" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>4752</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>1838</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>1839</v>
+      </c>
+      <c r="I5" s="12">
+        <v>99.337999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>6402</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>1128</v>
+      </c>
+      <c r="I6" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>7124</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="I7" s="12">
+        <v>99.337999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>8986</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>1130</v>
+      </c>
+      <c r="I8" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>9053</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>1132</v>
+      </c>
+      <c r="I9" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>10029</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="I10" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>11201</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="I11" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>11332</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>1134</v>
+      </c>
+      <c r="I12" s="12">
+        <v>99.337999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>15451</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="I13" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>16466</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="I14" s="12">
+        <v>99.337999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>19220</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>1136</v>
+      </c>
+      <c r="I15" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>21618</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="I16" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>21987</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="I17" s="12">
+        <v>80.795000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>22029</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="I18" s="12">
+        <v>98.674999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>22030</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="I19" s="12">
+        <v>98.674999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>22031</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="I20" s="12">
+        <v>98.674999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>22032</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="I21" s="12">
+        <v>98.674999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>22033</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="I22" s="12">
+        <v>98.674999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>22034</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="I23" s="12">
+        <v>98.674999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>22917</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>22995</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="I25" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>23604</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="I26" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>24410</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="I27" s="12">
+        <v>96.025999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>25352</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>1840</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>1841</v>
+      </c>
+      <c r="I28" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>25469</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="I29" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>26767</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="I30" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>27638</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="I31" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>27752</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="I32" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>27874</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>1138</v>
+      </c>
+      <c r="I33" s="12">
+        <v>99.337999999999994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>28248</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="I34" s="12">
+        <v>99.337999999999994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <v>28249</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="I35" s="12">
+        <v>99.337999999999994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>28250</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="I36" s="12">
+        <v>99.337999999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <v>28251</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="I37" s="12">
+        <v>99.337999999999994</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <v>28252</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="I38" s="12">
+        <v>99.337999999999994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
+        <v>28253</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="I39" s="12">
+        <v>99.337999999999994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
+        <v>28273</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="12">
+        <v>28273</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I40" s="12">
+        <v>98.013000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="12">
+        <v>28461</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="I41" s="12">
+        <v>92.715000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="12">
+        <v>28881</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="I42" s="12">
+        <v>99.337999999999994</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="12">
+        <v>28916</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>863</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="I43" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="12">
+        <v>29402</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="I44" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="12">
+        <v>29742</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="12">
+        <v>29742</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I45" s="12">
+        <v>79.47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
